--- a/Daily Orders/December-2020-RetailerWiseOrder.xlsx
+++ b/Daily Orders/December-2020-RetailerWiseOrder.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="104">
   <si>
     <t>S.No.</t>
   </si>
@@ -338,8 +338,8 @@
   <numFmts count="5">
     <numFmt numFmtId="176" formatCode="[$-409]d\-mmm;@"/>
     <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="178" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
@@ -360,13 +360,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
@@ -374,17 +367,25 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -403,11 +404,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color theme="3"/>
       <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -421,7 +422,38 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -429,13 +461,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -456,33 +481,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -490,14 +497,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -536,7 +536,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -554,85 +602,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -650,13 +626,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -668,43 +656,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -716,7 +704,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -755,30 +755,6 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
@@ -789,6 +765,26 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -808,13 +804,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -832,7 +832,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -850,130 +850,130 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="32" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="27" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1335,11 +1335,11 @@
   <dimension ref="A1:AJ92"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="5" ySplit="2" topLeftCell="G3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="5" ySplit="2" topLeftCell="M3" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="C81" sqref="C81"/>
+      <selection pane="bottomRight" activeCell="N44" sqref="N44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15"/>
@@ -1468,11 +1468,11 @@
       </c>
       <c r="D2" s="7">
         <f>E2/1.04</f>
-        <v>439500</v>
+        <v>482500</v>
       </c>
       <c r="E2" s="8">
         <f>SUM(F2:AJ2)</f>
-        <v>457080</v>
+        <v>501800</v>
       </c>
       <c r="F2" s="2">
         <f>SUM(F3:F92)</f>
@@ -1520,7 +1520,7 @@
       </c>
       <c r="Q2" s="2">
         <f t="shared" si="1"/>
-        <v>11440</v>
+        <v>56160</v>
       </c>
       <c r="R2" s="2">
         <f t="shared" si="1"/>
@@ -1599,7 +1599,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:12">
+    <row r="3" spans="1:17">
       <c r="A3" s="3">
         <v>1</v>
       </c>
@@ -1611,11 +1611,11 @@
       </c>
       <c r="D3" s="9">
         <f t="shared" ref="D3:D34" si="2">E3/1.04</f>
-        <v>14000</v>
+        <v>19000</v>
       </c>
       <c r="E3" s="2">
         <f t="shared" ref="E3:E34" si="3">SUM(F3:AJ3)</f>
-        <v>14560</v>
+        <v>19760</v>
       </c>
       <c r="G3" s="3">
         <v>3120</v>
@@ -1629,8 +1629,11 @@
       <c r="L3" s="3">
         <v>5200</v>
       </c>
-    </row>
-    <row r="4" spans="1:9">
+      <c r="Q3" s="3">
+        <v>5200</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="3">
         <v>2</v>
       </c>
@@ -1642,11 +1645,11 @@
       </c>
       <c r="D4" s="9">
         <f t="shared" si="2"/>
-        <v>5000</v>
+        <v>8000</v>
       </c>
       <c r="E4" s="2">
         <f t="shared" si="3"/>
-        <v>5200</v>
+        <v>8320</v>
       </c>
       <c r="G4" s="3">
         <v>2080</v>
@@ -1654,8 +1657,11 @@
       <c r="I4" s="3">
         <v>3120</v>
       </c>
-    </row>
-    <row r="5" spans="1:5">
+      <c r="Q4" s="3">
+        <v>3120</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" s="3">
         <v>3</v>
       </c>
@@ -1667,14 +1673,17 @@
       </c>
       <c r="D5" s="9">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="E5" s="2">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15">
+        <v>1040</v>
+      </c>
+      <c r="Q5" s="3">
+        <v>1040</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" s="3">
         <v>4</v>
       </c>
@@ -1686,11 +1695,11 @@
       </c>
       <c r="D6" s="9">
         <f t="shared" si="2"/>
-        <v>3000</v>
+        <v>5000</v>
       </c>
       <c r="E6" s="2">
         <f t="shared" si="3"/>
-        <v>3120</v>
+        <v>5200</v>
       </c>
       <c r="N6" s="3">
         <v>1040</v>
@@ -1698,8 +1707,11 @@
       <c r="O6" s="3">
         <v>2080</v>
       </c>
-    </row>
-    <row r="7" spans="1:15">
+      <c r="Q6" s="3">
+        <v>2080</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" s="3">
         <v>5</v>
       </c>
@@ -1711,14 +1723,17 @@
       </c>
       <c r="D7" s="9">
         <f t="shared" si="2"/>
-        <v>1000</v>
+        <v>3000</v>
       </c>
       <c r="E7" s="2">
         <f t="shared" si="3"/>
-        <v>1040</v>
+        <v>3120</v>
       </c>
       <c r="O7" s="3">
         <v>1040</v>
+      </c>
+      <c r="Q7" s="3">
+        <v>2080</v>
       </c>
     </row>
     <row r="8" spans="1:13">
@@ -2086,7 +2101,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:14">
+    <row r="25" spans="1:17">
       <c r="A25" s="3">
         <v>23</v>
       </c>
@@ -2098,11 +2113,11 @@
       </c>
       <c r="D25" s="9">
         <f t="shared" si="2"/>
-        <v>9000</v>
+        <v>12000</v>
       </c>
       <c r="E25" s="2">
         <f t="shared" si="3"/>
-        <v>9360</v>
+        <v>12480</v>
       </c>
       <c r="G25" s="3">
         <v>3120</v>
@@ -2114,6 +2129,9 @@
         <v>2080</v>
       </c>
       <c r="N25" s="3">
+        <v>3120</v>
+      </c>
+      <c r="Q25" s="3">
         <v>3120</v>
       </c>
     </row>
@@ -2242,7 +2260,7 @@
         <v>2080</v>
       </c>
     </row>
-    <row r="31" spans="1:9">
+    <row r="31" spans="1:17">
       <c r="A31" s="3">
         <v>29</v>
       </c>
@@ -2251,11 +2269,11 @@
       </c>
       <c r="D31" s="9">
         <f t="shared" si="2"/>
-        <v>7500</v>
+        <v>12500</v>
       </c>
       <c r="E31" s="2">
         <f t="shared" si="3"/>
-        <v>7800</v>
+        <v>13000</v>
       </c>
       <c r="G31" s="3">
         <v>520</v>
@@ -2264,6 +2282,9 @@
         <v>2080</v>
       </c>
       <c r="I31" s="3">
+        <v>5200</v>
+      </c>
+      <c r="Q31" s="3">
         <v>5200</v>
       </c>
     </row>
@@ -2832,7 +2853,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:16">
+    <row r="57" spans="1:17">
       <c r="A57" s="3">
         <v>55</v>
       </c>
@@ -2841,16 +2862,19 @@
       </c>
       <c r="D57" s="9">
         <f t="shared" si="4"/>
-        <v>3000</v>
+        <v>5000</v>
       </c>
       <c r="E57" s="2">
         <f t="shared" si="5"/>
-        <v>3120</v>
+        <v>5200</v>
       </c>
       <c r="I57" s="3">
         <v>1040</v>
       </c>
       <c r="P57" s="3">
+        <v>2080</v>
+      </c>
+      <c r="Q57" s="3">
         <v>2080</v>
       </c>
     </row>
@@ -2929,7 +2953,7 @@
         <v>1040</v>
       </c>
     </row>
-    <row r="61" spans="1:16">
+    <row r="61" spans="1:17">
       <c r="A61" s="3">
         <v>59</v>
       </c>
@@ -2941,11 +2965,11 @@
       </c>
       <c r="D61" s="9">
         <f t="shared" si="4"/>
-        <v>4000</v>
+        <v>6000</v>
       </c>
       <c r="E61" s="2">
         <f t="shared" si="5"/>
-        <v>4160</v>
+        <v>6240</v>
       </c>
       <c r="I61" s="3">
         <v>1040</v>
@@ -2955,12 +2979,18 @@
       </c>
       <c r="P61" s="3">
         <v>1040</v>
+      </c>
+      <c r="Q61" s="3">
+        <v>2080</v>
       </c>
     </row>
     <row r="62" spans="1:10">
       <c r="A62" s="3">
         <v>60</v>
       </c>
+      <c r="B62" s="3" t="s">
+        <v>15</v>
+      </c>
       <c r="C62" s="4" t="s">
         <v>73</v>
       </c>
@@ -3035,7 +3065,7 @@
         <v>5200</v>
       </c>
     </row>
-    <row r="65" spans="1:14">
+    <row r="65" spans="1:17">
       <c r="A65" s="3">
         <v>63</v>
       </c>
@@ -3047,11 +3077,11 @@
       </c>
       <c r="D65" s="9">
         <f t="shared" si="4"/>
-        <v>19000</v>
+        <v>24000</v>
       </c>
       <c r="E65" s="2">
         <f t="shared" si="5"/>
-        <v>19760</v>
+        <v>24960</v>
       </c>
       <c r="G65" s="3">
         <v>2080</v>
@@ -3069,6 +3099,9 @@
         <v>5200</v>
       </c>
       <c r="N65" s="3">
+        <v>5200</v>
+      </c>
+      <c r="Q65" s="3">
         <v>5200</v>
       </c>
     </row>
@@ -3354,7 +3387,7 @@
         <v>3120</v>
       </c>
     </row>
-    <row r="78" spans="1:15">
+    <row r="78" spans="1:17">
       <c r="A78" s="3">
         <v>76</v>
       </c>
@@ -3366,11 +3399,11 @@
       </c>
       <c r="D78" s="9">
         <f t="shared" si="6"/>
-        <v>24000</v>
+        <v>29000</v>
       </c>
       <c r="E78" s="2">
         <f t="shared" si="7"/>
-        <v>24960</v>
+        <v>30160</v>
       </c>
       <c r="H78" s="3">
         <v>2080</v>
@@ -3388,6 +3421,9 @@
         <v>5200</v>
       </c>
       <c r="O78" s="3">
+        <v>5200</v>
+      </c>
+      <c r="Q78" s="3">
         <v>5200</v>
       </c>
     </row>
@@ -3416,7 +3452,7 @@
         <v>2080</v>
       </c>
     </row>
-    <row r="80" spans="1:14">
+    <row r="80" spans="1:17">
       <c r="A80" s="3">
         <v>78</v>
       </c>
@@ -3428,11 +3464,11 @@
       </c>
       <c r="D80" s="9">
         <f t="shared" si="6"/>
-        <v>22000</v>
+        <v>27000</v>
       </c>
       <c r="E80" s="2">
         <f t="shared" si="7"/>
-        <v>22880</v>
+        <v>28080</v>
       </c>
       <c r="J80" s="3">
         <v>2080</v>
@@ -3441,6 +3477,9 @@
         <v>15600</v>
       </c>
       <c r="N80" s="3">
+        <v>5200</v>
+      </c>
+      <c r="Q80" s="3">
         <v>5200</v>
       </c>
     </row>
@@ -3460,7 +3499,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:11">
+    <row r="82" spans="1:17">
       <c r="A82" s="3">
         <v>80</v>
       </c>
@@ -3472,11 +3511,11 @@
       </c>
       <c r="D82" s="9">
         <f t="shared" si="6"/>
-        <v>4000</v>
+        <v>6000</v>
       </c>
       <c r="E82" s="2">
         <f t="shared" si="7"/>
-        <v>4160</v>
+        <v>6240</v>
       </c>
       <c r="G82" s="3">
         <v>1040</v>
@@ -3485,6 +3524,9 @@
         <v>1040</v>
       </c>
       <c r="K82" s="3">
+        <v>2080</v>
+      </c>
+      <c r="Q82" s="3">
         <v>2080</v>
       </c>
     </row>
@@ -3721,7 +3763,7 @@
         <v>2080</v>
       </c>
     </row>
-    <row r="91" spans="1:11">
+    <row r="91" spans="1:17">
       <c r="A91" s="3">
         <v>89</v>
       </c>
@@ -3733,11 +3775,11 @@
       </c>
       <c r="D91" s="9">
         <f t="shared" si="6"/>
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="E91" s="2">
         <f t="shared" si="7"/>
-        <v>8320</v>
+        <v>9360</v>
       </c>
       <c r="G91" s="3">
         <v>3120</v>
@@ -3747,6 +3789,9 @@
       </c>
       <c r="K91" s="3">
         <v>3120</v>
+      </c>
+      <c r="Q91" s="3">
+        <v>1040</v>
       </c>
     </row>
     <row r="92" spans="1:5">

--- a/Daily Orders/December-2020-RetailerWiseOrder.xlsx
+++ b/Daily Orders/December-2020-RetailerWiseOrder.xlsx
@@ -336,11 +336,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
-    <numFmt numFmtId="176" formatCode="[$-409]d\-mmm;@"/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="178" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="[$-409]d\-mmm;@"/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -360,7 +360,84 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -368,6 +445,13 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -389,32 +473,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -428,68 +488,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -497,7 +497,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -536,13 +536,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -554,127 +560,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -692,7 +578,103 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -704,19 +686,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -730,26 +730,26 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -769,37 +769,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -822,8 +802,28 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -832,10 +832,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -850,130 +850,130 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="32" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="27" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -993,7 +993,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1335,11 +1335,11 @@
   <dimension ref="A1:AJ92"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="5" ySplit="2" topLeftCell="M3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="5" ySplit="2" topLeftCell="M48" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="N44" sqref="N44"/>
+      <selection pane="bottomRight" activeCell="R69" sqref="R69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15"/>
@@ -1468,11 +1468,11 @@
       </c>
       <c r="D2" s="7">
         <f>E2/1.04</f>
-        <v>482500</v>
+        <v>488500</v>
       </c>
       <c r="E2" s="8">
         <f>SUM(F2:AJ2)</f>
-        <v>501800</v>
+        <v>508040</v>
       </c>
       <c r="F2" s="2">
         <f>SUM(F3:F92)</f>
@@ -1524,7 +1524,7 @@
       </c>
       <c r="R2" s="2">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>6240</v>
       </c>
       <c r="S2" s="2">
         <f t="shared" si="1"/>
@@ -1843,7 +1843,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:13">
+    <row r="13" spans="1:18">
       <c r="A13" s="3">
         <v>11</v>
       </c>
@@ -1855,11 +1855,11 @@
       </c>
       <c r="D13" s="9">
         <f t="shared" si="2"/>
-        <v>7000</v>
+        <v>10000</v>
       </c>
       <c r="E13" s="2">
         <f t="shared" si="3"/>
-        <v>7280</v>
+        <v>10400</v>
       </c>
       <c r="I13" s="3">
         <v>2080</v>
@@ -1868,6 +1868,9 @@
         <v>2080</v>
       </c>
       <c r="M13" s="3">
+        <v>3120</v>
+      </c>
+      <c r="R13" s="3">
         <v>3120</v>
       </c>
     </row>
@@ -3155,7 +3158,7 @@
         <v>1560</v>
       </c>
     </row>
-    <row r="68" spans="1:15">
+    <row r="68" spans="1:18">
       <c r="A68" s="3">
         <v>66</v>
       </c>
@@ -3167,16 +3170,19 @@
       </c>
       <c r="D68" s="9">
         <f t="shared" si="6"/>
-        <v>5000</v>
+        <v>8000</v>
       </c>
       <c r="E68" s="2">
         <f t="shared" si="7"/>
-        <v>5200</v>
+        <v>8320</v>
       </c>
       <c r="N68" s="3">
         <v>2080</v>
       </c>
       <c r="O68" s="3">
+        <v>3120</v>
+      </c>
+      <c r="R68" s="3">
         <v>3120</v>
       </c>
     </row>

--- a/Daily Orders/December-2020-RetailerWiseOrder.xlsx
+++ b/Daily Orders/December-2020-RetailerWiseOrder.xlsx
@@ -347,8 +347,8 @@
   <numFmts count="5">
     <numFmt numFmtId="176" formatCode="[$-409]d\-mmm;@"/>
     <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
   </numFmts>
   <fonts count="21">
@@ -368,30 +368,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -412,8 +391,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -435,15 +422,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -457,10 +443,10 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -472,25 +458,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -507,6 +476,37 @@
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -551,19 +551,73 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -575,7 +629,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -593,31 +689,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -629,67 +713,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -705,36 +735,6 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
   <borders count="9">
     <border>
@@ -742,45 +742,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -802,8 +763,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -819,6 +780,30 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -842,12 +827,27 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -865,130 +865,130 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="26" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="19" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1354,11 +1354,11 @@
   <dimension ref="A1:AK92"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="6" ySplit="2" topLeftCell="L36" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="6" ySplit="2" topLeftCell="M3" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="L42" sqref="L42"/>
+      <selection pane="bottomRight" activeCell="T1" sqref="T1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15"/>
@@ -1490,11 +1490,11 @@
       </c>
       <c r="E2" s="7">
         <f>F2/1.04</f>
-        <v>518500</v>
+        <v>527500</v>
       </c>
       <c r="F2" s="8">
         <f>SUM(G2:AK2)</f>
-        <v>539240</v>
+        <v>548600</v>
       </c>
       <c r="G2" s="2">
         <f>SUM(G3:G92)</f>
@@ -1550,7 +1550,7 @@
       </c>
       <c r="T2" s="2">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>9360</v>
       </c>
       <c r="U2" s="2">
         <f t="shared" si="1"/>
@@ -1805,7 +1805,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:13">
+    <row r="10" spans="1:20">
       <c r="A10" s="3">
         <v>8</v>
       </c>
@@ -1817,11 +1817,11 @@
       </c>
       <c r="E10" s="9">
         <f t="shared" si="2"/>
-        <v>6000</v>
+        <v>9000</v>
       </c>
       <c r="F10" s="2">
         <f t="shared" si="3"/>
-        <v>6240</v>
+        <v>9360</v>
       </c>
       <c r="I10" s="3">
         <v>1040</v>
@@ -1830,6 +1830,9 @@
         <v>2080</v>
       </c>
       <c r="M10" s="3">
+        <v>3120</v>
+      </c>
+      <c r="T10" s="3">
         <v>3120</v>
       </c>
     </row>
@@ -1896,7 +1899,7 @@
         <v>3120</v>
       </c>
     </row>
-    <row r="14" spans="1:10">
+    <row r="14" spans="1:20">
       <c r="A14" s="3">
         <v>12</v>
       </c>
@@ -1908,13 +1911,16 @@
       </c>
       <c r="E14" s="9">
         <f t="shared" si="2"/>
-        <v>2000</v>
+        <v>4000</v>
       </c>
       <c r="F14" s="2">
         <f t="shared" si="3"/>
-        <v>2080</v>
+        <v>4160</v>
       </c>
       <c r="J14" s="3">
+        <v>2080</v>
+      </c>
+      <c r="T14" s="3">
         <v>2080</v>
       </c>
     </row>
@@ -2403,7 +2409,7 @@
         <v>3120</v>
       </c>
     </row>
-    <row r="35" spans="1:6">
+    <row r="35" spans="1:20">
       <c r="A35" s="3">
         <v>33</v>
       </c>
@@ -2415,11 +2421,14 @@
       </c>
       <c r="E35" s="9">
         <f t="shared" ref="E35:E66" si="4">F35/1.04</f>
-        <v>0</v>
+        <v>2000</v>
       </c>
       <c r="F35" s="2">
         <f t="shared" ref="F35:F66" si="5">SUM(G35:AK35)</f>
-        <v>0</v>
+        <v>2080</v>
+      </c>
+      <c r="T35" s="10">
+        <v>2080</v>
       </c>
     </row>
     <row r="36" spans="1:11">
@@ -3547,7 +3556,7 @@
         <v>5200</v>
       </c>
     </row>
-    <row r="81" spans="1:6">
+    <row r="81" spans="1:20">
       <c r="A81" s="3">
         <v>79</v>
       </c>
@@ -3562,11 +3571,14 @@
       </c>
       <c r="E81" s="9">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>2000</v>
       </c>
       <c r="F81" s="2">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>2080</v>
+      </c>
+      <c r="T81" s="3">
+        <v>2080</v>
       </c>
     </row>
     <row r="82" spans="1:18">

--- a/Daily Orders/December-2020-RetailerWiseOrder.xlsx
+++ b/Daily Orders/December-2020-RetailerWiseOrder.xlsx
@@ -346,10 +346,10 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
     <numFmt numFmtId="176" formatCode="[$-409]d\-mmm;@"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -368,98 +368,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -481,7 +400,96 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
@@ -496,17 +504,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -551,13 +551,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -569,7 +587,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -581,13 +629,85 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -599,61 +719,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -665,73 +731,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -746,30 +746,6 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
@@ -780,6 +756,15 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -802,8 +787,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -815,15 +800,6 @@
       </top>
       <bottom style="double">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -842,20 +818,44 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
@@ -865,130 +865,130 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="19" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="31" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="28" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1354,11 +1354,11 @@
   <dimension ref="A1:AK92"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="6" ySplit="2" topLeftCell="M3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="6" ySplit="2" topLeftCell="N7" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="T1" sqref="T1"/>
+      <selection pane="bottomRight" activeCell="U8" sqref="U8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15"/>
@@ -1490,11 +1490,11 @@
       </c>
       <c r="E2" s="7">
         <f>F2/1.04</f>
-        <v>527500</v>
+        <v>573500</v>
       </c>
       <c r="F2" s="8">
         <f>SUM(G2:AK2)</f>
-        <v>548600</v>
+        <v>596440</v>
       </c>
       <c r="G2" s="2">
         <f>SUM(G3:G92)</f>
@@ -1550,11 +1550,11 @@
       </c>
       <c r="T2" s="2">
         <f t="shared" si="1"/>
-        <v>9360</v>
+        <v>36400</v>
       </c>
       <c r="U2" s="2">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>20800</v>
       </c>
       <c r="V2" s="2">
         <f t="shared" si="1"/>
@@ -1655,7 +1655,7 @@
         <v>5200</v>
       </c>
     </row>
-    <row r="4" spans="1:18">
+    <row r="4" spans="1:20">
       <c r="A4" s="3">
         <v>2</v>
       </c>
@@ -1667,11 +1667,11 @@
       </c>
       <c r="E4" s="9">
         <f t="shared" si="2"/>
-        <v>8000</v>
+        <v>11000</v>
       </c>
       <c r="F4" s="2">
         <f t="shared" si="3"/>
-        <v>8320</v>
+        <v>11440</v>
       </c>
       <c r="H4" s="3">
         <v>2080</v>
@@ -1680,6 +1680,9 @@
         <v>3120</v>
       </c>
       <c r="R4" s="3">
+        <v>3120</v>
+      </c>
+      <c r="T4" s="3">
         <v>3120</v>
       </c>
     </row>
@@ -1733,7 +1736,7 @@
         <v>2080</v>
       </c>
     </row>
-    <row r="7" spans="1:18">
+    <row r="7" spans="1:21">
       <c r="A7" s="3">
         <v>5</v>
       </c>
@@ -1745,16 +1748,19 @@
       </c>
       <c r="E7" s="9">
         <f t="shared" si="2"/>
-        <v>3000</v>
+        <v>5000</v>
       </c>
       <c r="F7" s="2">
         <f t="shared" si="3"/>
-        <v>3120</v>
+        <v>5200</v>
       </c>
       <c r="P7" s="3">
         <v>1040</v>
       </c>
       <c r="R7" s="3">
+        <v>2080</v>
+      </c>
+      <c r="U7" s="3">
         <v>2080</v>
       </c>
     </row>
@@ -2138,7 +2144,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:18">
+    <row r="25" spans="1:21">
       <c r="A25" s="3">
         <v>23</v>
       </c>
@@ -2150,11 +2156,11 @@
       </c>
       <c r="E25" s="9">
         <f t="shared" si="2"/>
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="F25" s="2">
         <f t="shared" si="3"/>
-        <v>12480</v>
+        <v>15600</v>
       </c>
       <c r="H25" s="3">
         <v>3120</v>
@@ -2169,6 +2175,9 @@
         <v>3120</v>
       </c>
       <c r="R25" s="3">
+        <v>3120</v>
+      </c>
+      <c r="U25" s="3">
         <v>3120</v>
       </c>
     </row>
@@ -2372,7 +2381,7 @@
         <v>3120</v>
       </c>
     </row>
-    <row r="34" spans="1:17">
+    <row r="34" spans="1:20">
       <c r="A34" s="3">
         <v>32</v>
       </c>
@@ -2384,11 +2393,11 @@
       </c>
       <c r="E34" s="9">
         <f t="shared" si="2"/>
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="F34" s="2">
         <f t="shared" si="3"/>
-        <v>12480</v>
+        <v>15600</v>
       </c>
       <c r="I34" s="3">
         <v>2080</v>
@@ -2408,8 +2417,11 @@
       <c r="Q34" s="3">
         <v>3120</v>
       </c>
-    </row>
-    <row r="35" spans="1:20">
+      <c r="T34" s="3">
+        <v>3120</v>
+      </c>
+    </row>
+    <row r="35" spans="1:21">
       <c r="A35" s="3">
         <v>33</v>
       </c>
@@ -2421,17 +2433,20 @@
       </c>
       <c r="E35" s="9">
         <f t="shared" ref="E35:E66" si="4">F35/1.04</f>
-        <v>2000</v>
+        <v>7000</v>
       </c>
       <c r="F35" s="2">
         <f t="shared" ref="F35:F66" si="5">SUM(G35:AK35)</f>
-        <v>2080</v>
+        <v>7280</v>
       </c>
       <c r="T35" s="10">
         <v>2080</v>
       </c>
-    </row>
-    <row r="36" spans="1:11">
+      <c r="U35" s="3">
+        <v>5200</v>
+      </c>
+    </row>
+    <row r="36" spans="1:20">
       <c r="A36" s="3">
         <v>34</v>
       </c>
@@ -2443,14 +2458,17 @@
       </c>
       <c r="E36" s="9">
         <f t="shared" si="4"/>
-        <v>3000</v>
+        <v>5000</v>
       </c>
       <c r="F36" s="2">
         <f t="shared" si="5"/>
-        <v>3120</v>
+        <v>5200</v>
       </c>
       <c r="K36" s="3">
         <v>3120</v>
+      </c>
+      <c r="T36" s="3">
+        <v>2080</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -2488,7 +2506,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:13">
+    <row r="39" spans="1:21">
       <c r="A39" s="3">
         <v>37</v>
       </c>
@@ -2500,17 +2518,20 @@
       </c>
       <c r="E39" s="9">
         <f t="shared" si="4"/>
-        <v>9000</v>
+        <v>12000</v>
       </c>
       <c r="F39" s="2">
         <f t="shared" si="5"/>
-        <v>9360</v>
+        <v>12480</v>
       </c>
       <c r="H39" s="3">
         <v>3120</v>
       </c>
       <c r="M39" s="3">
         <v>6240</v>
+      </c>
+      <c r="U39" s="3">
+        <v>3120</v>
       </c>
     </row>
     <row r="40" spans="1:15">
@@ -2573,7 +2594,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:19">
+    <row r="43" spans="1:21">
       <c r="A43" s="3">
         <v>41</v>
       </c>
@@ -2585,11 +2606,11 @@
       </c>
       <c r="E43" s="9">
         <f t="shared" si="4"/>
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="F43" s="2">
         <f t="shared" si="5"/>
-        <v>5200</v>
+        <v>7280</v>
       </c>
       <c r="H43" s="3">
         <v>1040</v>
@@ -2602,6 +2623,9 @@
       </c>
       <c r="S43" s="10">
         <v>1040</v>
+      </c>
+      <c r="U43" s="3">
+        <v>2080</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -2992,7 +3016,7 @@
         <v>5200</v>
       </c>
     </row>
-    <row r="60" spans="1:12">
+    <row r="60" spans="1:21">
       <c r="A60" s="3">
         <v>58</v>
       </c>
@@ -3001,14 +3025,17 @@
       </c>
       <c r="E60" s="9">
         <f t="shared" si="4"/>
-        <v>1000</v>
+        <v>3000</v>
       </c>
       <c r="F60" s="2">
         <f t="shared" si="5"/>
-        <v>1040</v>
+        <v>3120</v>
       </c>
       <c r="L60" s="3">
         <v>1040</v>
+      </c>
+      <c r="U60" s="3">
+        <v>2080</v>
       </c>
     </row>
     <row r="61" spans="1:18">
@@ -3123,7 +3150,7 @@
         <v>5200</v>
       </c>
     </row>
-    <row r="65" spans="1:18">
+    <row r="65" spans="1:20">
       <c r="A65" s="3">
         <v>63</v>
       </c>
@@ -3135,11 +3162,11 @@
       </c>
       <c r="E65" s="9">
         <f t="shared" si="4"/>
-        <v>24000</v>
+        <v>29000</v>
       </c>
       <c r="F65" s="2">
         <f t="shared" si="5"/>
-        <v>24960</v>
+        <v>30160</v>
       </c>
       <c r="H65" s="3">
         <v>2080</v>
@@ -3160,6 +3187,9 @@
         <v>5200</v>
       </c>
       <c r="R65" s="3">
+        <v>5200</v>
+      </c>
+      <c r="T65" s="3">
         <v>5200</v>
       </c>
     </row>
@@ -3194,7 +3224,7 @@
         <v>2080</v>
       </c>
     </row>
-    <row r="67" spans="1:13">
+    <row r="67" spans="1:20">
       <c r="A67" s="3">
         <v>65</v>
       </c>
@@ -3206,14 +3236,17 @@
       </c>
       <c r="E67" s="9">
         <f t="shared" ref="E67:E92" si="6">F67/1.04</f>
-        <v>1500</v>
+        <v>3500</v>
       </c>
       <c r="F67" s="2">
         <f t="shared" ref="F67:F92" si="7">SUM(G67:AK67)</f>
-        <v>1560</v>
+        <v>3640</v>
       </c>
       <c r="M67" s="3">
         <v>1560</v>
+      </c>
+      <c r="T67" s="3">
+        <v>2080</v>
       </c>
     </row>
     <row r="68" spans="1:19">
@@ -3260,7 +3293,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:17">
+    <row r="70" spans="1:20">
       <c r="A70" s="3">
         <v>68</v>
       </c>
@@ -3272,11 +3305,11 @@
       </c>
       <c r="E70" s="9">
         <f t="shared" si="6"/>
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="F70" s="2">
         <f t="shared" si="7"/>
-        <v>15600</v>
+        <v>18720</v>
       </c>
       <c r="I70" s="3">
         <v>2080</v>
@@ -3299,8 +3332,11 @@
       <c r="Q70" s="3">
         <v>3120</v>
       </c>
-    </row>
-    <row r="71" spans="1:19">
+      <c r="T70" s="3">
+        <v>3120</v>
+      </c>
+    </row>
+    <row r="71" spans="1:20">
       <c r="A71" s="3">
         <v>69</v>
       </c>
@@ -3312,11 +3348,11 @@
       </c>
       <c r="E71" s="9">
         <f t="shared" si="6"/>
-        <v>9000</v>
+        <v>11000</v>
       </c>
       <c r="F71" s="2">
         <f t="shared" si="7"/>
-        <v>9360</v>
+        <v>11440</v>
       </c>
       <c r="J71" s="3">
         <v>2080</v>
@@ -3331,6 +3367,9 @@
         <v>2080</v>
       </c>
       <c r="S71" s="3">
+        <v>2080</v>
+      </c>
+      <c r="T71" s="3">
         <v>2080</v>
       </c>
     </row>
@@ -3612,7 +3651,7 @@
         <v>2080</v>
       </c>
     </row>
-    <row r="83" spans="1:14">
+    <row r="83" spans="1:20">
       <c r="A83" s="3">
         <v>81</v>
       </c>
@@ -3624,11 +3663,11 @@
       </c>
       <c r="E83" s="9">
         <f t="shared" si="6"/>
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="F83" s="2">
         <f t="shared" si="7"/>
-        <v>10400</v>
+        <v>13520</v>
       </c>
       <c r="H83" s="3">
         <v>2080</v>
@@ -3642,8 +3681,11 @@
       <c r="N83" s="3">
         <v>3120</v>
       </c>
-    </row>
-    <row r="84" spans="1:17">
+      <c r="T83" s="3">
+        <v>3120</v>
+      </c>
+    </row>
+    <row r="84" spans="1:20">
       <c r="A84" s="3">
         <v>82</v>
       </c>
@@ -3655,11 +3697,11 @@
       </c>
       <c r="E84" s="9">
         <f t="shared" si="6"/>
-        <v>6000</v>
+        <v>9000</v>
       </c>
       <c r="F84" s="2">
         <f t="shared" si="7"/>
-        <v>6240</v>
+        <v>9360</v>
       </c>
       <c r="M84" s="3">
         <v>2080</v>
@@ -3668,6 +3710,9 @@
         <v>1040</v>
       </c>
       <c r="Q84" s="3">
+        <v>3120</v>
+      </c>
+      <c r="T84" s="3">
         <v>3120</v>
       </c>
     </row>
@@ -3848,7 +3893,7 @@
         <v>2080</v>
       </c>
     </row>
-    <row r="91" spans="1:18">
+    <row r="91" spans="1:21">
       <c r="A91" s="3">
         <v>89</v>
       </c>
@@ -3860,11 +3905,11 @@
       </c>
       <c r="E91" s="9">
         <f t="shared" si="6"/>
-        <v>9000</v>
+        <v>12000</v>
       </c>
       <c r="F91" s="2">
         <f t="shared" si="7"/>
-        <v>9360</v>
+        <v>12480</v>
       </c>
       <c r="H91" s="3">
         <v>3120</v>
@@ -3877,6 +3922,9 @@
       </c>
       <c r="R91" s="3">
         <v>1040</v>
+      </c>
+      <c r="U91" s="3">
+        <v>3120</v>
       </c>
     </row>
     <row r="92" spans="1:6">

--- a/Daily Orders/December-2020-RetailerWiseOrder.xlsx
+++ b/Daily Orders/December-2020-RetailerWiseOrder.xlsx
@@ -346,10 +346,10 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
     <numFmt numFmtId="176" formatCode="[$-409]d\-mmm;@"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="178" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -368,45 +368,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="Calibri"/>
@@ -415,14 +376,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF0000FF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -438,14 +400,29 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -466,6 +443,36 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
@@ -474,11 +481,18 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -490,25 +504,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -551,13 +551,73 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -569,7 +629,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -581,7 +671,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -593,109 +713,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -707,31 +731,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -745,17 +745,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -765,6 +759,36 @@
       <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -793,6 +817,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -803,59 +842,20 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
@@ -865,130 +865,130 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="31" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="28" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="28" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1354,11 +1354,11 @@
   <dimension ref="A1:AK92"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="6" ySplit="2" topLeftCell="N7" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="6" ySplit="2" topLeftCell="N62" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="U8" sqref="U8"/>
+      <selection pane="bottomRight" activeCell="U65" sqref="U65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15"/>
@@ -1490,11 +1490,11 @@
       </c>
       <c r="E2" s="7">
         <f>F2/1.04</f>
-        <v>573500</v>
+        <v>604500</v>
       </c>
       <c r="F2" s="8">
         <f>SUM(G2:AK2)</f>
-        <v>596440</v>
+        <v>628680</v>
       </c>
       <c r="G2" s="2">
         <f>SUM(G3:G92)</f>
@@ -1554,7 +1554,7 @@
       </c>
       <c r="U2" s="2">
         <f t="shared" si="1"/>
-        <v>20800</v>
+        <v>53040</v>
       </c>
       <c r="V2" s="2">
         <f t="shared" si="1"/>
@@ -1708,7 +1708,7 @@
         <v>1040</v>
       </c>
     </row>
-    <row r="6" spans="1:18">
+    <row r="6" spans="1:21">
       <c r="A6" s="3">
         <v>4</v>
       </c>
@@ -1720,11 +1720,11 @@
       </c>
       <c r="E6" s="9">
         <f t="shared" si="2"/>
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="F6" s="2">
         <f t="shared" si="3"/>
-        <v>5200</v>
+        <v>7280</v>
       </c>
       <c r="O6" s="3">
         <v>1040</v>
@@ -1733,6 +1733,9 @@
         <v>2080</v>
       </c>
       <c r="R6" s="3">
+        <v>2080</v>
+      </c>
+      <c r="U6" s="3">
         <v>2080</v>
       </c>
     </row>
@@ -1946,7 +1949,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:16">
+    <row r="16" spans="1:21">
       <c r="A16" s="3">
         <v>14</v>
       </c>
@@ -1958,11 +1961,11 @@
       </c>
       <c r="E16" s="9">
         <f t="shared" si="2"/>
-        <v>6000</v>
+        <v>9000</v>
       </c>
       <c r="F16" s="2">
         <f t="shared" si="3"/>
-        <v>6240</v>
+        <v>9360</v>
       </c>
       <c r="J16" s="3">
         <v>1040</v>
@@ -1974,6 +1977,9 @@
         <v>1040</v>
       </c>
       <c r="P16" s="3">
+        <v>3120</v>
+      </c>
+      <c r="U16" s="3">
         <v>3120</v>
       </c>
     </row>
@@ -2100,7 +2106,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:15">
+    <row r="23" spans="1:21">
       <c r="A23" s="3">
         <v>21</v>
       </c>
@@ -2112,11 +2118,11 @@
       </c>
       <c r="E23" s="9">
         <f t="shared" si="2"/>
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="F23" s="2">
         <f t="shared" si="3"/>
-        <v>3120</v>
+        <v>4160</v>
       </c>
       <c r="I23" s="3">
         <v>1040</v>
@@ -2125,6 +2131,9 @@
         <v>1040</v>
       </c>
       <c r="O23" s="3">
+        <v>1040</v>
+      </c>
+      <c r="U23" s="3">
         <v>1040</v>
       </c>
     </row>
@@ -2278,7 +2287,7 @@
         <v>3120</v>
       </c>
     </row>
-    <row r="30" spans="1:19">
+    <row r="30" spans="1:21">
       <c r="A30" s="3">
         <v>28</v>
       </c>
@@ -2290,11 +2299,11 @@
       </c>
       <c r="E30" s="9">
         <f t="shared" si="2"/>
-        <v>7000</v>
+        <v>8000</v>
       </c>
       <c r="F30" s="2">
         <f t="shared" si="3"/>
-        <v>7280</v>
+        <v>8320</v>
       </c>
       <c r="I30" s="3">
         <v>2080</v>
@@ -2306,6 +2315,9 @@
         <v>2080</v>
       </c>
       <c r="S30" s="3">
+        <v>1040</v>
+      </c>
+      <c r="U30" s="3">
         <v>1040</v>
       </c>
     </row>
@@ -2745,7 +2757,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:17">
+    <row r="50" spans="1:21">
       <c r="A50" s="3">
         <v>48</v>
       </c>
@@ -2757,11 +2769,11 @@
       </c>
       <c r="E50" s="9">
         <f t="shared" si="4"/>
-        <v>13000</v>
+        <v>18000</v>
       </c>
       <c r="F50" s="2">
         <f t="shared" si="5"/>
-        <v>13520</v>
+        <v>18720</v>
       </c>
       <c r="M50" s="3">
         <v>3120</v>
@@ -2770,6 +2782,9 @@
         <v>5200</v>
       </c>
       <c r="Q50" s="3">
+        <v>5200</v>
+      </c>
+      <c r="U50" s="3">
         <v>5200</v>
       </c>
     </row>
@@ -3069,7 +3084,7 @@
         <v>2080</v>
       </c>
     </row>
-    <row r="62" spans="1:11">
+    <row r="62" spans="1:21">
       <c r="A62" s="3">
         <v>60</v>
       </c>
@@ -3081,13 +3096,16 @@
       </c>
       <c r="E62" s="9">
         <f t="shared" si="4"/>
-        <v>2000</v>
+        <v>4000</v>
       </c>
       <c r="F62" s="2">
         <f t="shared" si="5"/>
-        <v>2080</v>
+        <v>4160</v>
       </c>
       <c r="K62" s="3">
+        <v>2080</v>
+      </c>
+      <c r="U62" s="10">
         <v>2080</v>
       </c>
     </row>
@@ -3249,7 +3267,7 @@
         <v>2080</v>
       </c>
     </row>
-    <row r="68" spans="1:19">
+    <row r="68" spans="1:21">
       <c r="A68" s="3">
         <v>66</v>
       </c>
@@ -3261,11 +3279,11 @@
       </c>
       <c r="E68" s="9">
         <f t="shared" si="6"/>
-        <v>8000</v>
+        <v>11000</v>
       </c>
       <c r="F68" s="2">
         <f t="shared" si="7"/>
-        <v>8320</v>
+        <v>11440</v>
       </c>
       <c r="O68" s="3">
         <v>2080</v>
@@ -3274,6 +3292,9 @@
         <v>3120</v>
       </c>
       <c r="S68" s="3">
+        <v>3120</v>
+      </c>
+      <c r="U68" s="3">
         <v>3120</v>
       </c>
     </row>
@@ -3496,7 +3517,7 @@
         <v>3120</v>
       </c>
     </row>
-    <row r="78" spans="1:18">
+    <row r="78" spans="1:21">
       <c r="A78" s="3">
         <v>76</v>
       </c>
@@ -3508,11 +3529,11 @@
       </c>
       <c r="E78" s="9">
         <f t="shared" si="6"/>
-        <v>29000</v>
+        <v>34000</v>
       </c>
       <c r="F78" s="2">
         <f t="shared" si="7"/>
-        <v>30160</v>
+        <v>35360</v>
       </c>
       <c r="I78" s="3">
         <v>2080</v>
@@ -3533,6 +3554,9 @@
         <v>5200</v>
       </c>
       <c r="R78" s="3">
+        <v>5200</v>
+      </c>
+      <c r="U78" s="3">
         <v>5200</v>
       </c>
     </row>
@@ -3564,7 +3588,7 @@
         <v>2080</v>
       </c>
     </row>
-    <row r="80" spans="1:18">
+    <row r="80" spans="1:21">
       <c r="A80" s="3">
         <v>78</v>
       </c>
@@ -3576,11 +3600,11 @@
       </c>
       <c r="E80" s="9">
         <f t="shared" si="6"/>
-        <v>27000</v>
+        <v>32000</v>
       </c>
       <c r="F80" s="2">
         <f t="shared" si="7"/>
-        <v>28080</v>
+        <v>33280</v>
       </c>
       <c r="K80" s="3">
         <v>2080</v>
@@ -3592,6 +3616,9 @@
         <v>5200</v>
       </c>
       <c r="R80" s="3">
+        <v>5200</v>
+      </c>
+      <c r="U80" s="3">
         <v>5200</v>
       </c>
     </row>
@@ -3716,7 +3743,7 @@
         <v>3120</v>
       </c>
     </row>
-    <row r="85" spans="1:12">
+    <row r="85" spans="1:21">
       <c r="A85" s="3">
         <v>83</v>
       </c>
@@ -3728,16 +3755,19 @@
       </c>
       <c r="E85" s="9">
         <f t="shared" si="6"/>
-        <v>4000</v>
+        <v>6000</v>
       </c>
       <c r="F85" s="2">
         <f t="shared" si="7"/>
-        <v>4160</v>
+        <v>6240</v>
       </c>
       <c r="I85" s="3">
         <v>2080</v>
       </c>
       <c r="L85" s="3">
+        <v>2080</v>
+      </c>
+      <c r="U85" s="3">
         <v>2080</v>
       </c>
     </row>
@@ -3862,7 +3892,7 @@
         <v>5200</v>
       </c>
     </row>
-    <row r="90" spans="1:19">
+    <row r="90" spans="1:21">
       <c r="A90" s="3">
         <v>88</v>
       </c>
@@ -3874,11 +3904,11 @@
       </c>
       <c r="E90" s="9">
         <f t="shared" si="6"/>
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="F90" s="2">
         <f t="shared" si="7"/>
-        <v>6240</v>
+        <v>8320</v>
       </c>
       <c r="H90" s="3">
         <v>1040</v>
@@ -3890,6 +3920,9 @@
         <v>2080</v>
       </c>
       <c r="S90" s="3">
+        <v>2080</v>
+      </c>
+      <c r="U90" s="3">
         <v>2080</v>
       </c>
     </row>

--- a/Daily Orders/December-2020-RetailerWiseOrder.xlsx
+++ b/Daily Orders/December-2020-RetailerWiseOrder.xlsx
@@ -345,11 +345,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
-    <numFmt numFmtId="176" formatCode="[$-409]d\-mmm;@"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="[$-409]d\-mmm;@"/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -369,6 +369,51 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
@@ -379,22 +424,6 @@
       <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -413,55 +442,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -473,7 +458,14 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -481,16 +473,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -509,6 +493,22 @@
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -551,7 +551,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -569,7 +587,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -581,19 +599,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -611,37 +677,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -653,7 +707,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -665,31 +719,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -701,37 +731,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -747,9 +747,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -759,6 +761,30 @@
       <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -793,21 +819,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -831,31 +842,20 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
@@ -865,130 +865,130 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1008,7 +1008,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1354,11 +1354,11 @@
   <dimension ref="A1:AK92"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="6" ySplit="2" topLeftCell="N62" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="6" ySplit="2" topLeftCell="Q61" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="U65" sqref="U65"/>
+      <selection pane="bottomRight" activeCell="D64" sqref="D64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15"/>
@@ -1490,11 +1490,11 @@
       </c>
       <c r="E2" s="7">
         <f>F2/1.04</f>
-        <v>604500</v>
+        <v>622500</v>
       </c>
       <c r="F2" s="8">
         <f>SUM(G2:AK2)</f>
-        <v>628680</v>
+        <v>647400</v>
       </c>
       <c r="G2" s="2">
         <f>SUM(G3:G92)</f>
@@ -1557,8 +1557,8 @@
         <v>53040</v>
       </c>
       <c r="V2" s="2">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f>SUM(V3:V92)</f>
+        <v>18720</v>
       </c>
       <c r="W2" s="2">
         <f t="shared" si="1"/>
@@ -1795,7 +1795,7 @@
         <v>3120</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:22">
       <c r="A9" s="3">
         <v>7</v>
       </c>
@@ -1807,11 +1807,14 @@
       </c>
       <c r="E9" s="9">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>3000</v>
       </c>
       <c r="F9" s="2">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>3120</v>
+      </c>
+      <c r="V9" s="3">
+        <v>3120</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -2253,7 +2256,7 @@
         <v>2080</v>
       </c>
     </row>
-    <row r="29" spans="1:14">
+    <row r="29" spans="1:22">
       <c r="A29" s="3">
         <v>27</v>
       </c>
@@ -2265,11 +2268,11 @@
       </c>
       <c r="E29" s="9">
         <f t="shared" si="2"/>
-        <v>9000</v>
+        <v>11000</v>
       </c>
       <c r="F29" s="2">
         <f t="shared" si="3"/>
-        <v>9360</v>
+        <v>11440</v>
       </c>
       <c r="H29" s="3">
         <v>2080</v>
@@ -2286,8 +2289,11 @@
       <c r="N29" s="3">
         <v>3120</v>
       </c>
-    </row>
-    <row r="30" spans="1:21">
+      <c r="V29" s="3">
+        <v>2080</v>
+      </c>
+    </row>
+    <row r="30" spans="1:22">
       <c r="A30" s="3">
         <v>28</v>
       </c>
@@ -2299,11 +2305,11 @@
       </c>
       <c r="E30" s="9">
         <f t="shared" si="2"/>
-        <v>8000</v>
+        <v>9000</v>
       </c>
       <c r="F30" s="2">
         <f t="shared" si="3"/>
-        <v>8320</v>
+        <v>9360</v>
       </c>
       <c r="I30" s="3">
         <v>2080</v>
@@ -2318,6 +2324,9 @@
         <v>1040</v>
       </c>
       <c r="U30" s="3">
+        <v>1040</v>
+      </c>
+      <c r="V30" s="3">
         <v>1040</v>
       </c>
     </row>
@@ -2947,7 +2956,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:18">
+    <row r="57" spans="1:22">
       <c r="A57" s="3">
         <v>55</v>
       </c>
@@ -2956,11 +2965,11 @@
       </c>
       <c r="E57" s="9">
         <f t="shared" si="4"/>
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="F57" s="2">
         <f t="shared" si="5"/>
-        <v>5200</v>
+        <v>7280</v>
       </c>
       <c r="J57" s="3">
         <v>1040</v>
@@ -2969,6 +2978,9 @@
         <v>2080</v>
       </c>
       <c r="R57" s="3">
+        <v>2080</v>
+      </c>
+      <c r="V57" s="3">
         <v>2080</v>
       </c>
     </row>
@@ -3109,7 +3121,7 @@
         <v>2080</v>
       </c>
     </row>
-    <row r="63" spans="1:17">
+    <row r="63" spans="1:22">
       <c r="A63" s="3">
         <v>61</v>
       </c>
@@ -3121,11 +3133,11 @@
       </c>
       <c r="E63" s="9">
         <f t="shared" si="4"/>
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="F63" s="2">
         <f t="shared" si="5"/>
-        <v>6240</v>
+        <v>8320</v>
       </c>
       <c r="M63" s="3">
         <v>2080</v>
@@ -3136,8 +3148,11 @@
       <c r="Q63" s="3">
         <v>2080</v>
       </c>
-    </row>
-    <row r="64" spans="1:16">
+      <c r="V63" s="3">
+        <v>2080</v>
+      </c>
+    </row>
+    <row r="64" spans="1:22">
       <c r="A64" s="3">
         <v>62</v>
       </c>
@@ -3149,11 +3164,11 @@
       </c>
       <c r="E64" s="9">
         <f t="shared" si="4"/>
-        <v>12000</v>
+        <v>17000</v>
       </c>
       <c r="F64" s="2">
         <f t="shared" si="5"/>
-        <v>12480</v>
+        <v>17680</v>
       </c>
       <c r="H64" s="3">
         <v>2080</v>
@@ -3165,6 +3180,9 @@
         <v>3120</v>
       </c>
       <c r="P64" s="3">
+        <v>5200</v>
+      </c>
+      <c r="V64" s="3">
         <v>5200</v>
       </c>
     </row>
@@ -3771,7 +3789,7 @@
         <v>2080</v>
       </c>
     </row>
-    <row r="86" spans="1:17">
+    <row r="86" spans="1:22">
       <c r="A86" s="3">
         <v>84</v>
       </c>
@@ -3783,11 +3801,11 @@
       </c>
       <c r="E86" s="9">
         <f t="shared" si="6"/>
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="F86" s="2">
         <f t="shared" si="7"/>
-        <v>12480</v>
+        <v>15600</v>
       </c>
       <c r="H86" s="3">
         <v>2080</v>
@@ -3805,6 +3823,9 @@
         <v>3120</v>
       </c>
       <c r="Q86" s="3">
+        <v>3120</v>
+      </c>
+      <c r="V86" s="3">
         <v>3120</v>
       </c>
     </row>

--- a/Daily Orders/December-2020-RetailerWiseOrder.xlsx
+++ b/Daily Orders/December-2020-RetailerWiseOrder.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20490" windowHeight="7830"/>
+    <workbookView windowWidth="14520" windowHeight="7560"/>
   </bookViews>
   <sheets>
     <sheet name="December 2020" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="107">
   <si>
     <t>S.No.</t>
   </si>
@@ -345,11 +345,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
-    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="[$-409]d\-mmm;@"/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="[$-409]d\-mmm;@"/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -369,7 +369,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -377,14 +377,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -399,7 +392,22 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -407,14 +415,83 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -429,84 +506,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -551,13 +551,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -575,7 +575,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -587,19 +623,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -611,19 +665,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -635,79 +689,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -725,13 +707,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -745,22 +745,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -783,8 +778,28 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -822,23 +837,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -847,10 +847,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -865,130 +865,130 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="11" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="18" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1008,7 +1008,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1354,11 +1354,11 @@
   <dimension ref="A1:AK92"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="6" ySplit="2" topLeftCell="Q61" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="6" ySplit="2" topLeftCell="W20" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="D64" sqref="D64"/>
+      <selection pane="bottomRight" activeCell="X37" sqref="X37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15"/>
@@ -1490,11 +1490,11 @@
       </c>
       <c r="E2" s="7">
         <f>F2/1.04</f>
-        <v>622500</v>
+        <v>737500</v>
       </c>
       <c r="F2" s="8">
         <f>SUM(G2:AK2)</f>
-        <v>647400</v>
+        <v>767000</v>
       </c>
       <c r="G2" s="2">
         <f>SUM(G3:G92)</f>
@@ -1557,16 +1557,16 @@
         <v>53040</v>
       </c>
       <c r="V2" s="2">
-        <f>SUM(V3:V92)</f>
-        <v>18720</v>
+        <f t="shared" si="1"/>
+        <v>54080</v>
       </c>
       <c r="W2" s="2">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>57200</v>
       </c>
       <c r="X2" s="2">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>27040</v>
       </c>
       <c r="Y2" s="2">
         <f t="shared" si="1"/>
@@ -1655,7 +1655,7 @@
         <v>5200</v>
       </c>
     </row>
-    <row r="4" spans="1:20">
+    <row r="4" spans="1:23">
       <c r="A4" s="3">
         <v>2</v>
       </c>
@@ -1667,11 +1667,11 @@
       </c>
       <c r="E4" s="9">
         <f t="shared" si="2"/>
-        <v>11000</v>
+        <v>14000</v>
       </c>
       <c r="F4" s="2">
         <f t="shared" si="3"/>
-        <v>11440</v>
+        <v>14560</v>
       </c>
       <c r="H4" s="3">
         <v>2080</v>
@@ -1685,8 +1685,11 @@
       <c r="T4" s="3">
         <v>3120</v>
       </c>
-    </row>
-    <row r="5" spans="1:18">
+      <c r="W4" s="3">
+        <v>3120</v>
+      </c>
+    </row>
+    <row r="5" spans="1:23">
       <c r="A5" s="3">
         <v>3</v>
       </c>
@@ -1698,13 +1701,16 @@
       </c>
       <c r="E5" s="9">
         <f t="shared" si="2"/>
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="F5" s="2">
         <f t="shared" si="3"/>
-        <v>1040</v>
+        <v>2080</v>
       </c>
       <c r="R5" s="3">
+        <v>1040</v>
+      </c>
+      <c r="W5" s="3">
         <v>1040</v>
       </c>
     </row>
@@ -1739,7 +1745,7 @@
         <v>2080</v>
       </c>
     </row>
-    <row r="7" spans="1:21">
+    <row r="7" spans="1:23">
       <c r="A7" s="3">
         <v>5</v>
       </c>
@@ -1751,11 +1757,11 @@
       </c>
       <c r="E7" s="9">
         <f t="shared" si="2"/>
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="F7" s="2">
         <f t="shared" si="3"/>
-        <v>5200</v>
+        <v>7280</v>
       </c>
       <c r="P7" s="3">
         <v>1040</v>
@@ -1766,8 +1772,11 @@
       <c r="U7" s="3">
         <v>2080</v>
       </c>
-    </row>
-    <row r="8" spans="1:14">
+      <c r="W7" s="3">
+        <v>2080</v>
+      </c>
+    </row>
+    <row r="8" spans="1:24">
       <c r="A8" s="3">
         <v>6</v>
       </c>
@@ -1779,11 +1788,11 @@
       </c>
       <c r="E8" s="9">
         <f t="shared" si="2"/>
-        <v>6000</v>
+        <v>9000</v>
       </c>
       <c r="F8" s="2">
         <f t="shared" si="3"/>
-        <v>6240</v>
+        <v>9360</v>
       </c>
       <c r="I8" s="3">
         <v>2080</v>
@@ -1792,6 +1801,9 @@
         <v>1040</v>
       </c>
       <c r="N8" s="3">
+        <v>3120</v>
+      </c>
+      <c r="X8" s="3">
         <v>3120</v>
       </c>
     </row>
@@ -1817,7 +1829,7 @@
         <v>3120</v>
       </c>
     </row>
-    <row r="10" spans="1:20">
+    <row r="10" spans="1:24">
       <c r="A10" s="3">
         <v>8</v>
       </c>
@@ -1829,11 +1841,11 @@
       </c>
       <c r="E10" s="9">
         <f t="shared" si="2"/>
-        <v>9000</v>
+        <v>12000</v>
       </c>
       <c r="F10" s="2">
         <f t="shared" si="3"/>
-        <v>9360</v>
+        <v>12480</v>
       </c>
       <c r="I10" s="3">
         <v>1040</v>
@@ -1847,8 +1859,11 @@
       <c r="T10" s="3">
         <v>3120</v>
       </c>
-    </row>
-    <row r="11" spans="1:6">
+      <c r="X10" s="3">
+        <v>3120</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23">
       <c r="A11" s="3">
         <v>9</v>
       </c>
@@ -1857,11 +1872,14 @@
       </c>
       <c r="E11" s="9">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>4000</v>
       </c>
       <c r="F11" s="2">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>4160</v>
+      </c>
+      <c r="W11" s="10">
+        <v>4160</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -1880,7 +1898,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:19">
+    <row r="13" spans="1:22">
       <c r="A13" s="3">
         <v>11</v>
       </c>
@@ -1892,11 +1910,11 @@
       </c>
       <c r="E13" s="9">
         <f t="shared" si="2"/>
-        <v>10000</v>
+        <v>13000</v>
       </c>
       <c r="F13" s="2">
         <f t="shared" si="3"/>
-        <v>10400</v>
+        <v>13520</v>
       </c>
       <c r="J13" s="3">
         <v>2080</v>
@@ -1908,6 +1926,9 @@
         <v>3120</v>
       </c>
       <c r="S13" s="3">
+        <v>3120</v>
+      </c>
+      <c r="V13" s="3">
         <v>3120</v>
       </c>
     </row>
@@ -2002,7 +2023,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:19">
+    <row r="18" spans="1:23">
       <c r="A18" s="3">
         <v>16</v>
       </c>
@@ -2014,11 +2035,11 @@
       </c>
       <c r="E18" s="9">
         <f t="shared" si="2"/>
-        <v>12000</v>
+        <v>17000</v>
       </c>
       <c r="F18" s="2">
         <f t="shared" si="3"/>
-        <v>12480</v>
+        <v>17680</v>
       </c>
       <c r="O18" s="3">
         <v>2080</v>
@@ -2027,6 +2048,9 @@
         <v>5200</v>
       </c>
       <c r="S18" s="3">
+        <v>5200</v>
+      </c>
+      <c r="W18" s="3">
         <v>5200</v>
       </c>
     </row>
@@ -2062,7 +2086,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:19">
+    <row r="21" spans="1:23">
       <c r="A21" s="3">
         <v>19</v>
       </c>
@@ -2074,11 +2098,11 @@
       </c>
       <c r="E21" s="9">
         <f t="shared" si="2"/>
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="F21" s="2">
         <f t="shared" si="3"/>
-        <v>5200</v>
+        <v>6240</v>
       </c>
       <c r="J21" s="3">
         <v>2080</v>
@@ -2090,6 +2114,9 @@
         <v>1040</v>
       </c>
       <c r="S21" s="3">
+        <v>1040</v>
+      </c>
+      <c r="W21" s="3">
         <v>1040</v>
       </c>
     </row>
@@ -2109,7 +2136,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:21">
+    <row r="23" spans="1:23">
       <c r="A23" s="3">
         <v>21</v>
       </c>
@@ -2121,11 +2148,11 @@
       </c>
       <c r="E23" s="9">
         <f t="shared" si="2"/>
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="F23" s="2">
         <f t="shared" si="3"/>
-        <v>4160</v>
+        <v>5200</v>
       </c>
       <c r="I23" s="3">
         <v>1040</v>
@@ -2137,6 +2164,9 @@
         <v>1040</v>
       </c>
       <c r="U23" s="3">
+        <v>1040</v>
+      </c>
+      <c r="W23" s="3">
         <v>1040</v>
       </c>
     </row>
@@ -2156,7 +2186,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:21">
+    <row r="25" spans="1:23">
       <c r="A25" s="3">
         <v>23</v>
       </c>
@@ -2168,11 +2198,11 @@
       </c>
       <c r="E25" s="9">
         <f t="shared" si="2"/>
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="F25" s="2">
         <f t="shared" si="3"/>
-        <v>15600</v>
+        <v>18720</v>
       </c>
       <c r="H25" s="3">
         <v>3120</v>
@@ -2190,6 +2220,9 @@
         <v>3120</v>
       </c>
       <c r="U25" s="3">
+        <v>3120</v>
+      </c>
+      <c r="W25" s="3">
         <v>3120</v>
       </c>
     </row>
@@ -2374,7 +2407,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:19">
+    <row r="33" spans="1:23">
       <c r="A33" s="3">
         <v>31</v>
       </c>
@@ -2386,11 +2419,11 @@
       </c>
       <c r="E33" s="9">
         <f t="shared" si="2"/>
-        <v>9000</v>
+        <v>12000</v>
       </c>
       <c r="F33" s="2">
         <f t="shared" si="3"/>
-        <v>9360</v>
+        <v>12480</v>
       </c>
       <c r="I33" s="3">
         <v>3120</v>
@@ -2401,8 +2434,11 @@
       <c r="S33" s="3">
         <v>3120</v>
       </c>
-    </row>
-    <row r="34" spans="1:20">
+      <c r="W33" s="3">
+        <v>3120</v>
+      </c>
+    </row>
+    <row r="34" spans="1:23">
       <c r="A34" s="3">
         <v>32</v>
       </c>
@@ -2414,11 +2450,11 @@
       </c>
       <c r="E34" s="9">
         <f t="shared" si="2"/>
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="F34" s="2">
         <f t="shared" si="3"/>
-        <v>15600</v>
+        <v>18720</v>
       </c>
       <c r="I34" s="3">
         <v>2080</v>
@@ -2441,8 +2477,11 @@
       <c r="T34" s="3">
         <v>3120</v>
       </c>
-    </row>
-    <row r="35" spans="1:21">
+      <c r="W34" s="3">
+        <v>3120</v>
+      </c>
+    </row>
+    <row r="35" spans="1:23">
       <c r="A35" s="3">
         <v>33</v>
       </c>
@@ -2454,11 +2493,11 @@
       </c>
       <c r="E35" s="9">
         <f t="shared" ref="E35:E66" si="4">F35/1.04</f>
-        <v>7000</v>
+        <v>12000</v>
       </c>
       <c r="F35" s="2">
         <f t="shared" ref="F35:F66" si="5">SUM(G35:AK35)</f>
-        <v>7280</v>
+        <v>12480</v>
       </c>
       <c r="T35" s="10">
         <v>2080</v>
@@ -2466,8 +2505,11 @@
       <c r="U35" s="3">
         <v>5200</v>
       </c>
-    </row>
-    <row r="36" spans="1:20">
+      <c r="W35" s="3">
+        <v>5200</v>
+      </c>
+    </row>
+    <row r="36" spans="1:23">
       <c r="A36" s="3">
         <v>34</v>
       </c>
@@ -2479,16 +2521,19 @@
       </c>
       <c r="E36" s="9">
         <f t="shared" si="4"/>
-        <v>5000</v>
+        <v>7000</v>
       </c>
       <c r="F36" s="2">
         <f t="shared" si="5"/>
-        <v>5200</v>
+        <v>7280</v>
       </c>
       <c r="K36" s="3">
         <v>3120</v>
       </c>
       <c r="T36" s="3">
+        <v>2080</v>
+      </c>
+      <c r="W36" s="3">
         <v>2080</v>
       </c>
     </row>
@@ -2508,7 +2553,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:6">
+    <row r="38" spans="1:22">
       <c r="A38" s="3">
         <v>36</v>
       </c>
@@ -2520,14 +2565,17 @@
       </c>
       <c r="E38" s="9">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>2000</v>
       </c>
       <c r="F38" s="2">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="1:21">
+        <v>2080</v>
+      </c>
+      <c r="V38" s="10">
+        <v>2080</v>
+      </c>
+    </row>
+    <row r="39" spans="1:22">
       <c r="A39" s="3">
         <v>37</v>
       </c>
@@ -2539,11 +2587,11 @@
       </c>
       <c r="E39" s="9">
         <f t="shared" si="4"/>
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="F39" s="2">
         <f t="shared" si="5"/>
-        <v>12480</v>
+        <v>15600</v>
       </c>
       <c r="H39" s="3">
         <v>3120</v>
@@ -2554,8 +2602,11 @@
       <c r="U39" s="3">
         <v>3120</v>
       </c>
-    </row>
-    <row r="40" spans="1:15">
+      <c r="V39" s="3">
+        <v>3120</v>
+      </c>
+    </row>
+    <row r="40" spans="1:23">
       <c r="A40" s="3">
         <v>38</v>
       </c>
@@ -2567,11 +2618,11 @@
       </c>
       <c r="E40" s="9">
         <f t="shared" si="4"/>
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="F40" s="2">
         <f t="shared" si="5"/>
-        <v>3120</v>
+        <v>4160</v>
       </c>
       <c r="H40" s="3">
         <v>1040</v>
@@ -2580,6 +2631,9 @@
         <v>1040</v>
       </c>
       <c r="O40" s="3">
+        <v>1040</v>
+      </c>
+      <c r="W40" s="10">
         <v>1040</v>
       </c>
     </row>
@@ -2615,7 +2669,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:21">
+    <row r="43" spans="1:22">
       <c r="A43" s="3">
         <v>41</v>
       </c>
@@ -2627,11 +2681,11 @@
       </c>
       <c r="E43" s="9">
         <f t="shared" si="4"/>
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="F43" s="2">
         <f t="shared" si="5"/>
-        <v>7280</v>
+        <v>9360</v>
       </c>
       <c r="H43" s="3">
         <v>1040</v>
@@ -2646,6 +2700,9 @@
         <v>1040</v>
       </c>
       <c r="U43" s="3">
+        <v>2080</v>
+      </c>
+      <c r="V43" s="3">
         <v>2080</v>
       </c>
     </row>
@@ -2797,7 +2854,7 @@
         <v>5200</v>
       </c>
     </row>
-    <row r="51" spans="1:14">
+    <row r="51" spans="1:22">
       <c r="A51" s="3">
         <v>49</v>
       </c>
@@ -2809,11 +2866,11 @@
       </c>
       <c r="E51" s="9">
         <f t="shared" si="4"/>
-        <v>14500</v>
+        <v>19500</v>
       </c>
       <c r="F51" s="2">
         <f t="shared" si="5"/>
-        <v>15080</v>
+        <v>20280</v>
       </c>
       <c r="H51" s="3">
         <v>1560</v>
@@ -2831,6 +2888,9 @@
         <v>2080</v>
       </c>
       <c r="N51" s="3">
+        <v>5200</v>
+      </c>
+      <c r="V51" s="3">
         <v>5200</v>
       </c>
     </row>
@@ -2853,7 +2913,7 @@
         <v>2080</v>
       </c>
     </row>
-    <row r="53" spans="1:18">
+    <row r="53" spans="1:23">
       <c r="A53" s="3">
         <v>51</v>
       </c>
@@ -2865,11 +2925,11 @@
       </c>
       <c r="E53" s="9">
         <f t="shared" si="4"/>
-        <v>18000</v>
+        <v>23000</v>
       </c>
       <c r="F53" s="2">
         <f t="shared" si="5"/>
-        <v>18720</v>
+        <v>23920</v>
       </c>
       <c r="H53" s="3">
         <v>2080</v>
@@ -2889,8 +2949,11 @@
       <c r="R53" s="3">
         <v>5200</v>
       </c>
-    </row>
-    <row r="54" spans="1:19">
+      <c r="W53" s="3">
+        <v>5200</v>
+      </c>
+    </row>
+    <row r="54" spans="1:23">
       <c r="A54" s="3">
         <v>52</v>
       </c>
@@ -2902,11 +2965,11 @@
       </c>
       <c r="E54" s="9">
         <f t="shared" si="4"/>
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="F54" s="2">
         <f t="shared" si="5"/>
-        <v>12480</v>
+        <v>15600</v>
       </c>
       <c r="H54" s="3">
         <v>3120</v>
@@ -2923,8 +2986,11 @@
       <c r="S54" s="3">
         <v>3120</v>
       </c>
-    </row>
-    <row r="55" spans="1:6">
+      <c r="W54" s="3">
+        <v>3120</v>
+      </c>
+    </row>
+    <row r="55" spans="1:22">
       <c r="A55" s="3">
         <v>53</v>
       </c>
@@ -2933,11 +2999,14 @@
       </c>
       <c r="E55" s="9">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>2000</v>
       </c>
       <c r="F55" s="2">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>2080</v>
+      </c>
+      <c r="V55" s="10">
+        <v>2080</v>
       </c>
     </row>
     <row r="56" spans="1:6">
@@ -3000,7 +3069,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:19">
+    <row r="59" spans="1:24">
       <c r="A59" s="3">
         <v>57</v>
       </c>
@@ -3012,11 +3081,11 @@
       </c>
       <c r="E59" s="9">
         <f t="shared" si="4"/>
-        <v>29000</v>
+        <v>36000</v>
       </c>
       <c r="F59" s="2">
         <f t="shared" si="5"/>
-        <v>30160</v>
+        <v>37440</v>
       </c>
       <c r="H59" s="3">
         <v>2080</v>
@@ -3041,12 +3110,21 @@
       </c>
       <c r="S59" s="3">
         <v>5200</v>
+      </c>
+      <c r="V59" s="3">
+        <v>5200</v>
+      </c>
+      <c r="X59" s="3">
+        <v>2080</v>
       </c>
     </row>
     <row r="60" spans="1:21">
       <c r="A60" s="3">
         <v>58</v>
       </c>
+      <c r="B60" s="3" t="s">
+        <v>7</v>
+      </c>
       <c r="D60" s="4" t="s">
         <v>73</v>
       </c>
@@ -3065,7 +3143,7 @@
         <v>2080</v>
       </c>
     </row>
-    <row r="61" spans="1:18">
+    <row r="61" spans="1:22">
       <c r="A61" s="3">
         <v>59</v>
       </c>
@@ -3077,11 +3155,11 @@
       </c>
       <c r="E61" s="9">
         <f t="shared" si="4"/>
-        <v>6000</v>
+        <v>8000</v>
       </c>
       <c r="F61" s="2">
         <f t="shared" si="5"/>
-        <v>6240</v>
+        <v>8320</v>
       </c>
       <c r="J61" s="3">
         <v>1040</v>
@@ -3093,6 +3171,9 @@
         <v>1040</v>
       </c>
       <c r="R61" s="3">
+        <v>2080</v>
+      </c>
+      <c r="V61" s="3">
         <v>2080</v>
       </c>
     </row>
@@ -3186,7 +3267,7 @@
         <v>5200</v>
       </c>
     </row>
-    <row r="65" spans="1:20">
+    <row r="65" spans="1:24">
       <c r="A65" s="3">
         <v>63</v>
       </c>
@@ -3198,11 +3279,11 @@
       </c>
       <c r="E65" s="9">
         <f t="shared" si="4"/>
-        <v>29000</v>
+        <v>34000</v>
       </c>
       <c r="F65" s="2">
         <f t="shared" si="5"/>
-        <v>30160</v>
+        <v>35360</v>
       </c>
       <c r="H65" s="3">
         <v>2080</v>
@@ -3226,6 +3307,9 @@
         <v>5200</v>
       </c>
       <c r="T65" s="3">
+        <v>5200</v>
+      </c>
+      <c r="X65" s="3">
         <v>5200</v>
       </c>
     </row>
@@ -3332,7 +3416,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:20">
+    <row r="70" spans="1:24">
       <c r="A70" s="3">
         <v>68</v>
       </c>
@@ -3344,11 +3428,11 @@
       </c>
       <c r="E70" s="9">
         <f t="shared" si="6"/>
-        <v>18000</v>
+        <v>24000</v>
       </c>
       <c r="F70" s="2">
         <f t="shared" si="7"/>
-        <v>18720</v>
+        <v>24960</v>
       </c>
       <c r="I70" s="3">
         <v>2080</v>
@@ -3374,8 +3458,14 @@
       <c r="T70" s="3">
         <v>3120</v>
       </c>
-    </row>
-    <row r="71" spans="1:20">
+      <c r="V70" s="3">
+        <v>3120</v>
+      </c>
+      <c r="X70" s="3">
+        <v>3120</v>
+      </c>
+    </row>
+    <row r="71" spans="1:23">
       <c r="A71" s="3">
         <v>69</v>
       </c>
@@ -3387,11 +3477,11 @@
       </c>
       <c r="E71" s="9">
         <f t="shared" si="6"/>
-        <v>11000</v>
+        <v>13000</v>
       </c>
       <c r="F71" s="2">
         <f t="shared" si="7"/>
-        <v>11440</v>
+        <v>13520</v>
       </c>
       <c r="J71" s="3">
         <v>2080</v>
@@ -3409,6 +3499,9 @@
         <v>2080</v>
       </c>
       <c r="T71" s="3">
+        <v>2080</v>
+      </c>
+      <c r="W71" s="3">
         <v>2080</v>
       </c>
     </row>
@@ -3444,7 +3537,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:15">
+    <row r="74" spans="1:24">
       <c r="A74" s="3">
         <v>72</v>
       </c>
@@ -3456,16 +3549,19 @@
       </c>
       <c r="E74" s="9">
         <f t="shared" si="6"/>
-        <v>3000</v>
+        <v>5000</v>
       </c>
       <c r="F74" s="2">
         <f t="shared" si="7"/>
-        <v>3120</v>
+        <v>5200</v>
       </c>
       <c r="L74" s="3">
         <v>1040</v>
       </c>
       <c r="O74" s="3">
+        <v>2080</v>
+      </c>
+      <c r="X74" s="3">
         <v>2080</v>
       </c>
     </row>
@@ -3501,7 +3597,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:19">
+    <row r="77" spans="1:23">
       <c r="A77" s="3">
         <v>75</v>
       </c>
@@ -3513,11 +3609,11 @@
       </c>
       <c r="E77" s="9">
         <f t="shared" si="6"/>
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="F77" s="2">
         <f t="shared" si="7"/>
-        <v>12480</v>
+        <v>15600</v>
       </c>
       <c r="J77" s="3">
         <v>2080</v>
@@ -3534,8 +3630,11 @@
       <c r="S77" s="3">
         <v>3120</v>
       </c>
-    </row>
-    <row r="78" spans="1:21">
+      <c r="W77" s="3">
+        <v>3120</v>
+      </c>
+    </row>
+    <row r="78" spans="1:23">
       <c r="A78" s="3">
         <v>76</v>
       </c>
@@ -3547,11 +3646,11 @@
       </c>
       <c r="E78" s="9">
         <f t="shared" si="6"/>
-        <v>34000</v>
+        <v>39000</v>
       </c>
       <c r="F78" s="2">
         <f t="shared" si="7"/>
-        <v>35360</v>
+        <v>40560</v>
       </c>
       <c r="I78" s="3">
         <v>2080</v>
@@ -3575,6 +3674,9 @@
         <v>5200</v>
       </c>
       <c r="U78" s="3">
+        <v>5200</v>
+      </c>
+      <c r="W78" s="3">
         <v>5200</v>
       </c>
     </row>
@@ -3640,7 +3742,7 @@
         <v>5200</v>
       </c>
     </row>
-    <row r="81" spans="1:20">
+    <row r="81" spans="1:22">
       <c r="A81" s="3">
         <v>79</v>
       </c>
@@ -3655,13 +3757,16 @@
       </c>
       <c r="E81" s="9">
         <f t="shared" si="6"/>
-        <v>2000</v>
+        <v>4000</v>
       </c>
       <c r="F81" s="2">
         <f t="shared" si="7"/>
-        <v>2080</v>
+        <v>4160</v>
       </c>
       <c r="T81" s="3">
+        <v>2080</v>
+      </c>
+      <c r="V81" s="3">
         <v>2080</v>
       </c>
     </row>
@@ -3696,7 +3801,7 @@
         <v>2080</v>
       </c>
     </row>
-    <row r="83" spans="1:20">
+    <row r="83" spans="1:23">
       <c r="A83" s="3">
         <v>81</v>
       </c>
@@ -3708,11 +3813,11 @@
       </c>
       <c r="E83" s="9">
         <f t="shared" si="6"/>
-        <v>13000</v>
+        <v>16000</v>
       </c>
       <c r="F83" s="2">
         <f t="shared" si="7"/>
-        <v>13520</v>
+        <v>16640</v>
       </c>
       <c r="H83" s="3">
         <v>2080</v>
@@ -3729,8 +3834,11 @@
       <c r="T83" s="3">
         <v>3120</v>
       </c>
-    </row>
-    <row r="84" spans="1:20">
+      <c r="W83" s="3">
+        <v>3120</v>
+      </c>
+    </row>
+    <row r="84" spans="1:24">
       <c r="A84" s="3">
         <v>82</v>
       </c>
@@ -3742,11 +3850,11 @@
       </c>
       <c r="E84" s="9">
         <f t="shared" si="6"/>
-        <v>9000</v>
+        <v>12000</v>
       </c>
       <c r="F84" s="2">
         <f t="shared" si="7"/>
-        <v>9360</v>
+        <v>12480</v>
       </c>
       <c r="M84" s="3">
         <v>2080</v>
@@ -3758,6 +3866,9 @@
         <v>3120</v>
       </c>
       <c r="T84" s="3">
+        <v>3120</v>
+      </c>
+      <c r="X84" s="3">
         <v>3120</v>
       </c>
     </row>
@@ -3873,7 +3984,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:17">
+    <row r="89" spans="1:22">
       <c r="A89" s="3">
         <v>87</v>
       </c>
@@ -3885,11 +3996,11 @@
       </c>
       <c r="E89" s="9">
         <f t="shared" si="6"/>
-        <v>20000</v>
+        <v>25000</v>
       </c>
       <c r="F89" s="2">
         <f t="shared" si="7"/>
-        <v>20800</v>
+        <v>26000</v>
       </c>
       <c r="H89" s="3">
         <v>2080</v>
@@ -3912,8 +4023,11 @@
       <c r="Q89" s="3">
         <v>5200</v>
       </c>
-    </row>
-    <row r="90" spans="1:21">
+      <c r="V89" s="3">
+        <v>5200</v>
+      </c>
+    </row>
+    <row r="90" spans="1:24">
       <c r="A90" s="3">
         <v>88</v>
       </c>
@@ -3925,11 +4039,11 @@
       </c>
       <c r="E90" s="9">
         <f t="shared" si="6"/>
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="F90" s="2">
         <f t="shared" si="7"/>
-        <v>8320</v>
+        <v>10400</v>
       </c>
       <c r="H90" s="3">
         <v>1040</v>
@@ -3946,8 +4060,11 @@
       <c r="U90" s="3">
         <v>2080</v>
       </c>
-    </row>
-    <row r="91" spans="1:21">
+      <c r="X90" s="3">
+        <v>2080</v>
+      </c>
+    </row>
+    <row r="91" spans="1:24">
       <c r="A91" s="3">
         <v>89</v>
       </c>
@@ -3959,11 +4076,11 @@
       </c>
       <c r="E91" s="9">
         <f t="shared" si="6"/>
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="F91" s="2">
         <f t="shared" si="7"/>
-        <v>12480</v>
+        <v>15600</v>
       </c>
       <c r="H91" s="3">
         <v>3120</v>
@@ -3978,6 +4095,9 @@
         <v>1040</v>
       </c>
       <c r="U91" s="3">
+        <v>3120</v>
+      </c>
+      <c r="X91" s="3">
         <v>3120</v>
       </c>
     </row>

--- a/Daily Orders/December-2020-RetailerWiseOrder.xlsx
+++ b/Daily Orders/December-2020-RetailerWiseOrder.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="109">
   <si>
     <t>S.No.</t>
   </si>
@@ -256,6 +256,9 @@
     <t>SANDEEP TELECOM(661066825)</t>
   </si>
   <si>
+    <t>RAJESH TELECOM &amp; KIRANA DUKAN(661063895)</t>
+  </si>
+  <si>
     <t>BELSAR</t>
   </si>
   <si>
@@ -272,9 +275,6 @@
   </si>
   <si>
     <t>SHRI SAI ELECTRONICS(661673670)</t>
-  </si>
-  <si>
-    <t>RAJESH TELECOM &amp; KIRANA DUKAN(661063895)</t>
   </si>
   <si>
     <t>maa phone ghar(662077151)</t>
@@ -354,8 +354,8 @@
     <numFmt numFmtId="176" formatCode="[$-409]d\-mmm;@"/>
     <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -375,6 +375,28 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
@@ -389,9 +411,46 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -405,24 +464,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -437,9 +480,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -448,27 +498,6 @@
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -483,36 +512,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -557,13 +557,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -575,19 +587,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -605,13 +641,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -623,7 +701,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -635,43 +725,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -683,61 +737,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -748,6 +748,21 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -790,6 +805,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -808,8 +832,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -824,36 +848,12 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -871,134 +871,134 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="37" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1033,12 +1033,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -1375,11 +1369,11 @@
   <dimension ref="A1:AK92"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="6" ySplit="2" topLeftCell="G79" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="6" ySplit="2" topLeftCell="U45" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="A4" sqref="A4:A92"/>
+      <selection pane="bottomRight" activeCell="D66" sqref="D66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15"/>
@@ -1389,7 +1383,7 @@
     <col min="3" max="3" width="15" style="3" customWidth="1"/>
     <col min="4" max="4" width="51.1428571428571" style="3" customWidth="1"/>
     <col min="5" max="5" width="21.8571428571429" style="4" customWidth="1"/>
-    <col min="6" max="6" width="11" style="3" customWidth="1"/>
+    <col min="6" max="6" width="11" style="4" customWidth="1"/>
     <col min="7" max="16384" width="9.14285714285714" style="3"/>
   </cols>
   <sheetData>
@@ -1512,11 +1506,11 @@
       </c>
       <c r="E2" s="7">
         <f>F2/1.04</f>
-        <v>752500</v>
+        <v>821500</v>
       </c>
       <c r="F2" s="8">
         <f>SUM(G2:AK2)</f>
-        <v>782600</v>
+        <v>854360</v>
       </c>
       <c r="G2" s="2">
         <f>SUM(G3:G92)</f>
@@ -1592,15 +1586,15 @@
       </c>
       <c r="Y2" s="2">
         <f t="shared" si="1"/>
-        <v>9360</v>
+        <v>30160</v>
       </c>
       <c r="Z2" s="2">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>39520</v>
       </c>
       <c r="AA2" s="2">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>11440</v>
       </c>
       <c r="AB2" s="2">
         <f t="shared" si="1"/>
@@ -1654,16 +1648,18 @@
         <v>8</v>
       </c>
       <c r="E3" s="9">
+        <f t="shared" ref="E3:E34" si="2">F3/1.04</f>
         <v>3000</v>
       </c>
-      <c r="F3" s="2">
+      <c r="F3" s="9">
+        <f t="shared" ref="F3:F34" si="3">SUM(G3:AK3)</f>
         <v>3120</v>
       </c>
       <c r="V3" s="3">
         <v>3120</v>
       </c>
     </row>
-    <row r="4" s="3" customFormat="1" spans="1:12">
+    <row r="4" s="3" customFormat="1" spans="1:25">
       <c r="A4" s="3">
         <v>2</v>
       </c>
@@ -1674,12 +1670,17 @@
         <v>9</v>
       </c>
       <c r="E4" s="9">
-        <v>2000</v>
-      </c>
-      <c r="F4" s="2">
-        <v>2080</v>
+        <f t="shared" si="2"/>
+        <v>4000</v>
+      </c>
+      <c r="F4" s="9">
+        <f t="shared" si="3"/>
+        <v>4160</v>
       </c>
       <c r="L4" s="3">
+        <v>2080</v>
+      </c>
+      <c r="Y4" s="12">
         <v>2080</v>
       </c>
     </row>
@@ -1694,9 +1695,11 @@
         <v>10</v>
       </c>
       <c r="E5" s="9">
+        <f t="shared" si="2"/>
         <v>10000</v>
       </c>
-      <c r="F5" s="2">
+      <c r="F5" s="9">
+        <f t="shared" si="3"/>
         <v>10400</v>
       </c>
       <c r="I5" s="3">
@@ -1717,7 +1720,6 @@
       <c r="V5" s="3">
         <v>1040</v>
       </c>
-      <c r="W5" s="3"/>
       <c r="Y5" s="3">
         <v>1040</v>
       </c>
@@ -1733,9 +1735,11 @@
         <v>11</v>
       </c>
       <c r="E6" s="9">
+        <f t="shared" si="2"/>
         <v>19500</v>
       </c>
-      <c r="F6" s="2">
+      <c r="F6" s="9">
+        <f t="shared" si="3"/>
         <v>20280</v>
       </c>
       <c r="H6" s="3">
@@ -1756,13 +1760,11 @@
       <c r="N6" s="3">
         <v>5200</v>
       </c>
-      <c r="O6" s="3"/>
-      <c r="P6" s="3"/>
       <c r="V6" s="3">
         <v>5200</v>
       </c>
     </row>
-    <row r="7" s="3" customFormat="1" spans="1:24">
+    <row r="7" s="3" customFormat="1" spans="1:26">
       <c r="A7" s="3">
         <v>5</v>
       </c>
@@ -1773,10 +1775,12 @@
         <v>12</v>
       </c>
       <c r="E7" s="9">
-        <v>38000</v>
-      </c>
-      <c r="F7" s="2">
-        <v>39520</v>
+        <f t="shared" si="2"/>
+        <v>42000</v>
+      </c>
+      <c r="F7" s="9">
+        <f t="shared" si="3"/>
+        <v>43680</v>
       </c>
       <c r="H7" s="3">
         <v>2080</v>
@@ -1799,16 +1803,20 @@
       <c r="Q7" s="3">
         <v>5200</v>
       </c>
-      <c r="R7" s="3"/>
       <c r="S7" s="3">
         <v>5200</v>
       </c>
       <c r="V7" s="3">
         <v>5200</v>
       </c>
-      <c r="W7" s="3"/>
       <c r="X7" s="3">
         <v>4160</v>
+      </c>
+      <c r="Y7" s="3">
+        <v>2080</v>
+      </c>
+      <c r="Z7" s="3">
+        <v>2080</v>
       </c>
     </row>
     <row r="8" s="3" customFormat="1" spans="1:24">
@@ -1822,9 +1830,11 @@
         <v>13</v>
       </c>
       <c r="E8" s="9">
+        <f t="shared" si="2"/>
         <v>5000</v>
       </c>
-      <c r="F8" s="2">
+      <c r="F8" s="9">
+        <f t="shared" si="3"/>
         <v>5200</v>
       </c>
       <c r="L8" s="3">
@@ -1848,9 +1858,11 @@
         <v>14</v>
       </c>
       <c r="E9" s="9">
+        <f t="shared" si="2"/>
         <v>6000</v>
       </c>
-      <c r="F9" s="2">
+      <c r="F9" s="9">
+        <f t="shared" si="3"/>
         <v>6240</v>
       </c>
       <c r="I9" s="3">
@@ -1863,7 +1875,7 @@
         <v>2080</v>
       </c>
     </row>
-    <row r="10" s="3" customFormat="1" spans="1:22">
+    <row r="10" s="3" customFormat="1" spans="1:26">
       <c r="A10" s="3">
         <v>8</v>
       </c>
@@ -1874,10 +1886,12 @@
         <v>15</v>
       </c>
       <c r="E10" s="9">
-        <v>25000</v>
-      </c>
-      <c r="F10" s="2">
-        <v>26000</v>
+        <f t="shared" si="2"/>
+        <v>30000</v>
+      </c>
+      <c r="F10" s="9">
+        <f t="shared" si="3"/>
+        <v>31200</v>
       </c>
       <c r="H10" s="3">
         <v>2080</v>
@@ -1894,7 +1908,6 @@
       <c r="L10" s="3">
         <v>3120</v>
       </c>
-      <c r="M10" s="3"/>
       <c r="N10" s="3">
         <v>5200</v>
       </c>
@@ -1902,6 +1915,9 @@
         <v>5200</v>
       </c>
       <c r="V10" s="3">
+        <v>5200</v>
+      </c>
+      <c r="Z10" s="3">
         <v>5200</v>
       </c>
     </row>
@@ -1916,9 +1932,11 @@
         <v>17</v>
       </c>
       <c r="E11" s="9">
+        <f t="shared" si="2"/>
         <v>11000</v>
       </c>
-      <c r="F11" s="2">
+      <c r="F11" s="9">
+        <f t="shared" si="3"/>
         <v>11440</v>
       </c>
       <c r="H11" s="3">
@@ -1951,9 +1969,11 @@
         <v>18</v>
       </c>
       <c r="E12" s="9">
+        <f t="shared" si="2"/>
         <v>4000</v>
       </c>
-      <c r="F12" s="2">
+      <c r="F12" s="9">
+        <f t="shared" si="3"/>
         <v>4160</v>
       </c>
       <c r="H12" s="3">
@@ -1965,7 +1985,7 @@
       <c r="O12" s="3">
         <v>1040</v>
       </c>
-      <c r="W12" s="14">
+      <c r="W12" s="12">
         <v>1040</v>
       </c>
     </row>
@@ -1980,9 +2000,11 @@
         <v>19</v>
       </c>
       <c r="E13" s="9">
+        <f t="shared" si="2"/>
         <v>23000</v>
       </c>
-      <c r="F13" s="2">
+      <c r="F13" s="9">
+        <f t="shared" si="3"/>
         <v>23920</v>
       </c>
       <c r="H13" s="3">
@@ -2003,7 +2025,6 @@
       <c r="R13" s="3">
         <v>5200</v>
       </c>
-      <c r="S13" s="3"/>
       <c r="W13" s="3">
         <v>5200</v>
       </c>
@@ -2019,9 +2040,11 @@
         <v>20</v>
       </c>
       <c r="E14" s="9">
+        <f t="shared" si="2"/>
         <v>34000</v>
       </c>
-      <c r="F14" s="2">
+      <c r="F14" s="9">
+        <f t="shared" si="3"/>
         <v>35360</v>
       </c>
       <c r="H14" s="3">
@@ -2066,9 +2089,11 @@
         <v>22</v>
       </c>
       <c r="E15" s="9">
+        <f t="shared" si="2"/>
         <v>4000</v>
       </c>
-      <c r="F15" s="2">
+      <c r="F15" s="9">
+        <f t="shared" si="3"/>
         <v>4160</v>
       </c>
       <c r="T15" s="3">
@@ -2089,9 +2114,11 @@
         <v>23</v>
       </c>
       <c r="E16" s="9">
+        <f t="shared" si="2"/>
         <v>12000</v>
       </c>
-      <c r="F16" s="2">
+      <c r="F16" s="9">
+        <f t="shared" si="3"/>
         <v>12480</v>
       </c>
       <c r="M16" s="3">
@@ -2106,12 +2133,11 @@
       <c r="T16" s="3">
         <v>3120</v>
       </c>
-      <c r="U16" s="3"/>
       <c r="X16" s="3">
         <v>3120</v>
       </c>
     </row>
-    <row r="17" s="3" customFormat="1" spans="1:18">
+    <row r="17" s="3" customFormat="1" spans="1:25">
       <c r="A17" s="3">
         <v>15</v>
       </c>
@@ -2122,10 +2148,12 @@
         <v>25</v>
       </c>
       <c r="E17" s="9">
-        <v>19000</v>
-      </c>
-      <c r="F17" s="2">
-        <v>19760</v>
+        <f t="shared" si="2"/>
+        <v>24000</v>
+      </c>
+      <c r="F17" s="9">
+        <f t="shared" si="3"/>
+        <v>24960</v>
       </c>
       <c r="H17" s="3">
         <v>3120</v>
@@ -2142,8 +2170,11 @@
       <c r="R17" s="3">
         <v>5200</v>
       </c>
-    </row>
-    <row r="18" s="3" customFormat="1" spans="1:23">
+      <c r="Y17" s="3">
+        <v>5200</v>
+      </c>
+    </row>
+    <row r="18" s="3" customFormat="1" spans="1:25">
       <c r="A18" s="3">
         <v>16</v>
       </c>
@@ -2154,16 +2185,20 @@
         <v>26</v>
       </c>
       <c r="E18" s="9">
-        <v>2000</v>
-      </c>
-      <c r="F18" s="2">
-        <v>2080</v>
+        <f t="shared" si="2"/>
+        <v>3000</v>
+      </c>
+      <c r="F18" s="9">
+        <f t="shared" si="3"/>
+        <v>3120</v>
       </c>
       <c r="R18" s="3">
         <v>1040</v>
       </c>
-      <c r="S18" s="3"/>
       <c r="W18" s="3">
+        <v>1040</v>
+      </c>
+      <c r="Y18" s="3">
         <v>1040</v>
       </c>
     </row>
@@ -2178,9 +2213,11 @@
         <v>27</v>
       </c>
       <c r="E19" s="9">
+        <f t="shared" si="2"/>
         <v>9000</v>
       </c>
-      <c r="F19" s="2">
+      <c r="F19" s="9">
+        <f t="shared" si="3"/>
         <v>9360</v>
       </c>
       <c r="J19" s="3">
@@ -2210,9 +2247,11 @@
         <v>28</v>
       </c>
       <c r="E20" s="9">
+        <f t="shared" si="2"/>
         <v>17000</v>
       </c>
-      <c r="F20" s="2">
+      <c r="F20" s="9">
+        <f t="shared" si="3"/>
         <v>17680</v>
       </c>
       <c r="O20" s="3">
@@ -2239,9 +2278,11 @@
         <v>29</v>
       </c>
       <c r="E21" s="9">
+        <f t="shared" si="2"/>
         <v>6000</v>
       </c>
-      <c r="F21" s="2">
+      <c r="F21" s="9">
+        <f t="shared" si="3"/>
         <v>6240</v>
       </c>
       <c r="J21" s="3">
@@ -2271,9 +2312,11 @@
         <v>30</v>
       </c>
       <c r="E22" s="9">
+        <f t="shared" si="2"/>
         <v>12000</v>
       </c>
-      <c r="F22" s="2">
+      <c r="F22" s="9">
+        <f t="shared" si="3"/>
         <v>12480</v>
       </c>
       <c r="I22" s="3">
@@ -2300,12 +2343,14 @@
         <v>31</v>
       </c>
       <c r="E23" s="9">
+        <f t="shared" si="2"/>
         <v>12000</v>
       </c>
-      <c r="F23" s="2">
+      <c r="F23" s="9">
+        <f t="shared" si="3"/>
         <v>12480</v>
       </c>
-      <c r="T23" s="14">
+      <c r="T23" s="12">
         <v>2080</v>
       </c>
       <c r="U23" s="3">
@@ -2315,7 +2360,7 @@
         <v>5200</v>
       </c>
     </row>
-    <row r="24" s="3" customFormat="1" spans="1:22">
+    <row r="24" s="3" customFormat="1" spans="1:26">
       <c r="A24" s="3">
         <v>22</v>
       </c>
@@ -2326,10 +2371,12 @@
         <v>32</v>
       </c>
       <c r="E24" s="9">
-        <v>15000</v>
-      </c>
-      <c r="F24" s="2">
-        <v>15600</v>
+        <f t="shared" si="2"/>
+        <v>18000</v>
+      </c>
+      <c r="F24" s="9">
+        <f t="shared" si="3"/>
+        <v>18720</v>
       </c>
       <c r="H24" s="3">
         <v>3120</v>
@@ -2341,6 +2388,9 @@
         <v>3120</v>
       </c>
       <c r="V24" s="3">
+        <v>3120</v>
+      </c>
+      <c r="Z24" s="3">
         <v>3120</v>
       </c>
     </row>
@@ -2355,9 +2405,11 @@
         <v>33</v>
       </c>
       <c r="E25" s="9">
+        <f t="shared" si="2"/>
         <v>9000</v>
       </c>
-      <c r="F25" s="2">
+      <c r="F25" s="9">
+        <f t="shared" si="3"/>
         <v>9360</v>
       </c>
       <c r="H25" s="3">
@@ -2369,7 +2421,7 @@
       <c r="L25" s="3">
         <v>2080</v>
       </c>
-      <c r="S25" s="14">
+      <c r="S25" s="12">
         <v>1040</v>
       </c>
       <c r="U25" s="3">
@@ -2390,9 +2442,11 @@
         <v>34</v>
       </c>
       <c r="E26" s="9">
+        <f t="shared" si="2"/>
         <v>3000</v>
       </c>
-      <c r="F26" s="2">
+      <c r="F26" s="9">
+        <f t="shared" si="3"/>
         <v>3120</v>
       </c>
       <c r="L26" s="3">
@@ -2413,9 +2467,11 @@
         <v>35</v>
       </c>
       <c r="E27" s="9">
+        <f t="shared" si="2"/>
         <v>8000</v>
       </c>
-      <c r="F27" s="2">
+      <c r="F27" s="9">
+        <f t="shared" si="3"/>
         <v>8320</v>
       </c>
       <c r="J27" s="3">
@@ -2445,15 +2501,16 @@
         <v>36</v>
       </c>
       <c r="E28" s="9">
+        <f t="shared" si="2"/>
         <v>17000</v>
       </c>
-      <c r="F28" s="2">
+      <c r="F28" s="9">
+        <f t="shared" si="3"/>
         <v>17680</v>
       </c>
       <c r="H28" s="3">
         <v>2080</v>
       </c>
-      <c r="I28" s="3"/>
       <c r="J28" s="3">
         <v>2080</v>
       </c>
@@ -2467,7 +2524,7 @@
         <v>5200</v>
       </c>
     </row>
-    <row r="29" s="3" customFormat="1" spans="1:23">
+    <row r="29" s="3" customFormat="1" spans="1:26">
       <c r="A29" s="3">
         <v>27</v>
       </c>
@@ -2478,10 +2535,12 @@
         <v>37</v>
       </c>
       <c r="E29" s="9">
-        <v>39000</v>
-      </c>
-      <c r="F29" s="2">
-        <v>40560</v>
+        <f t="shared" si="2"/>
+        <v>44000</v>
+      </c>
+      <c r="F29" s="9">
+        <f t="shared" si="3"/>
+        <v>45760</v>
       </c>
       <c r="I29" s="3">
         <v>2080</v>
@@ -2507,8 +2566,10 @@
       <c r="U29" s="3">
         <v>5200</v>
       </c>
-      <c r="V29" s="3"/>
       <c r="W29" s="3">
+        <v>5200</v>
+      </c>
+      <c r="Z29" s="3">
         <v>5200</v>
       </c>
     </row>
@@ -2523,15 +2584,16 @@
         <v>38</v>
       </c>
       <c r="E30" s="9">
+        <f t="shared" si="2"/>
         <v>10000</v>
       </c>
-      <c r="F30" s="2">
+      <c r="F30" s="9">
+        <f t="shared" si="3"/>
         <v>10400</v>
       </c>
       <c r="H30" s="3">
         <v>1040</v>
       </c>
-      <c r="I30" s="3"/>
       <c r="K30" s="3">
         <v>1040</v>
       </c>
@@ -2544,7 +2606,6 @@
       <c r="U30" s="3">
         <v>2080</v>
       </c>
-      <c r="V30" s="3"/>
       <c r="X30" s="3">
         <v>2080</v>
       </c>
@@ -2560,15 +2621,16 @@
         <v>40</v>
       </c>
       <c r="E31" s="9">
+        <f t="shared" si="2"/>
         <v>9000</v>
       </c>
-      <c r="F31" s="2">
+      <c r="F31" s="9">
+        <f t="shared" si="3"/>
         <v>9360</v>
       </c>
       <c r="I31" s="3">
         <v>2080</v>
       </c>
-      <c r="J31" s="3"/>
       <c r="K31" s="3">
         <v>1040</v>
       </c>
@@ -2590,9 +2652,11 @@
         <v>41</v>
       </c>
       <c r="E32" s="9">
+        <f t="shared" si="2"/>
         <v>5000</v>
       </c>
-      <c r="F32" s="2">
+      <c r="F32" s="9">
+        <f t="shared" si="3"/>
         <v>5200</v>
       </c>
       <c r="I32" s="3">
@@ -2622,9 +2686,11 @@
         <v>42</v>
       </c>
       <c r="E33" s="9">
+        <f t="shared" si="2"/>
         <v>3000</v>
       </c>
-      <c r="F33" s="2">
+      <c r="F33" s="9">
+        <f t="shared" si="3"/>
         <v>3120</v>
       </c>
       <c r="I33" s="3">
@@ -2645,9 +2711,11 @@
         <v>43</v>
       </c>
       <c r="E34" s="9">
+        <f t="shared" si="2"/>
         <v>18000</v>
       </c>
-      <c r="F34" s="2">
+      <c r="F34" s="9">
+        <f t="shared" si="3"/>
         <v>18720</v>
       </c>
       <c r="I34" s="3">
@@ -2686,12 +2754,14 @@
         <v>44</v>
       </c>
       <c r="E35" s="9">
+        <f t="shared" ref="E35:E66" si="4">F35/1.04</f>
         <v>2000</v>
       </c>
-      <c r="F35" s="2">
-        <v>2080</v>
-      </c>
-      <c r="V35" s="14">
+      <c r="F35" s="9">
+        <f t="shared" ref="F35:F66" si="5">SUM(G35:AK35)</f>
+        <v>2080</v>
+      </c>
+      <c r="V35" s="12">
         <v>2080</v>
       </c>
     </row>
@@ -2706,9 +2776,11 @@
         <v>45</v>
       </c>
       <c r="E36" s="9">
+        <f t="shared" si="4"/>
         <v>15000</v>
       </c>
-      <c r="F36" s="2">
+      <c r="F36" s="9">
+        <f t="shared" si="5"/>
         <v>15600</v>
       </c>
       <c r="H36" s="3">
@@ -2717,7 +2789,6 @@
       <c r="J36" s="3">
         <v>1040</v>
       </c>
-      <c r="K36" s="3"/>
       <c r="L36" s="3">
         <v>2080</v>
       </c>
@@ -2727,7 +2798,6 @@
       <c r="S36" s="3">
         <v>3120</v>
       </c>
-      <c r="T36" s="3"/>
       <c r="W36" s="3">
         <v>3120</v>
       </c>
@@ -2743,15 +2813,17 @@
         <v>46</v>
       </c>
       <c r="E37" s="9">
+        <f t="shared" si="4"/>
         <v>4000</v>
       </c>
-      <c r="F37" s="2">
+      <c r="F37" s="9">
+        <f t="shared" si="5"/>
         <v>4160</v>
       </c>
       <c r="K37" s="3">
         <v>2080</v>
       </c>
-      <c r="U37" s="14">
+      <c r="U37" s="12">
         <v>2080</v>
       </c>
     </row>
@@ -2766,9 +2838,11 @@
         <v>47</v>
       </c>
       <c r="E38" s="9">
+        <f t="shared" si="4"/>
         <v>8000</v>
       </c>
-      <c r="F38" s="2">
+      <c r="F38" s="9">
+        <f t="shared" si="5"/>
         <v>8320</v>
       </c>
       <c r="M38" s="3">
@@ -2784,7 +2858,7 @@
         <v>2080</v>
       </c>
     </row>
-    <row r="39" s="3" customFormat="1" spans="1:19">
+    <row r="39" s="3" customFormat="1" spans="1:26">
       <c r="A39" s="3">
         <v>37</v>
       </c>
@@ -2795,10 +2869,12 @@
         <v>48</v>
       </c>
       <c r="E39" s="9">
-        <v>7000</v>
-      </c>
-      <c r="F39" s="2">
-        <v>7280</v>
+        <f t="shared" si="4"/>
+        <v>9000</v>
+      </c>
+      <c r="F39" s="9">
+        <f t="shared" si="5"/>
+        <v>9360</v>
       </c>
       <c r="H39" s="3">
         <v>2080</v>
@@ -2812,8 +2888,11 @@
       <c r="S39" s="3">
         <v>2080</v>
       </c>
-    </row>
-    <row r="40" s="3" customFormat="1" spans="1:24">
+      <c r="Z39" s="3">
+        <v>2080</v>
+      </c>
+    </row>
+    <row r="40" s="3" customFormat="1" spans="1:26">
       <c r="A40" s="3">
         <v>38</v>
       </c>
@@ -2824,10 +2903,12 @@
         <v>49</v>
       </c>
       <c r="E40" s="9">
-        <v>24000</v>
-      </c>
-      <c r="F40" s="2">
-        <v>24960</v>
+        <f t="shared" si="4"/>
+        <v>27000</v>
+      </c>
+      <c r="F40" s="9">
+        <f t="shared" si="5"/>
+        <v>28080</v>
       </c>
       <c r="I40" s="3">
         <v>2080</v>
@@ -2856,12 +2937,14 @@
       <c r="V40" s="3">
         <v>3120</v>
       </c>
-      <c r="W40" s="3"/>
       <c r="X40" s="3">
         <v>3120</v>
       </c>
-    </row>
-    <row r="41" s="3" customFormat="1" spans="1:17">
+      <c r="Z40" s="3">
+        <v>3120</v>
+      </c>
+    </row>
+    <row r="41" s="3" customFormat="1" spans="1:26">
       <c r="A41" s="3">
         <v>39</v>
       </c>
@@ -2872,16 +2955,21 @@
         <v>50</v>
       </c>
       <c r="E41" s="9">
-        <v>3000</v>
-      </c>
-      <c r="F41" s="2">
-        <v>3120</v>
+        <f t="shared" si="4"/>
+        <v>5000</v>
+      </c>
+      <c r="F41" s="9">
+        <f t="shared" si="5"/>
+        <v>5200</v>
       </c>
       <c r="L41" s="3">
         <v>2080</v>
       </c>
       <c r="Q41" s="3">
         <v>1040</v>
+      </c>
+      <c r="Z41" s="12">
+        <v>2080</v>
       </c>
     </row>
     <row r="42" s="3" customFormat="1" spans="1:6">
@@ -2895,9 +2983,11 @@
         <v>51</v>
       </c>
       <c r="E42" s="9">
-        <v>0</v>
-      </c>
-      <c r="F42" s="2">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="F42" s="9">
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -2912,9 +3002,11 @@
         <v>52</v>
       </c>
       <c r="E43" s="9">
+        <f t="shared" si="4"/>
         <v>15000</v>
       </c>
-      <c r="F43" s="2">
+      <c r="F43" s="9">
+        <f t="shared" si="5"/>
         <v>15600</v>
       </c>
       <c r="H43" s="3">
@@ -2929,11 +3021,9 @@
       <c r="R43" s="3">
         <v>1040</v>
       </c>
-      <c r="S43" s="3"/>
       <c r="U43" s="3">
         <v>3120</v>
       </c>
-      <c r="V43" s="3"/>
       <c r="X43" s="3">
         <v>3120</v>
       </c>
@@ -2949,9 +3039,11 @@
         <v>54</v>
       </c>
       <c r="E44" s="9">
+        <f t="shared" si="4"/>
         <v>14000</v>
       </c>
-      <c r="F44" s="2">
+      <c r="F44" s="9">
+        <f t="shared" si="5"/>
         <v>14560</v>
       </c>
       <c r="H44" s="3">
@@ -2981,9 +3073,11 @@
         <v>55</v>
       </c>
       <c r="E45" s="9">
+        <f t="shared" si="4"/>
         <v>16000</v>
       </c>
-      <c r="F45" s="2">
+      <c r="F45" s="9">
+        <f t="shared" si="5"/>
         <v>16640</v>
       </c>
       <c r="J45" s="3">
@@ -3016,20 +3110,21 @@
         <v>56</v>
       </c>
       <c r="E46" s="9">
+        <f t="shared" si="4"/>
         <v>4000</v>
       </c>
-      <c r="F46" s="2">
+      <c r="F46" s="9">
+        <f t="shared" si="5"/>
         <v>4160</v>
       </c>
       <c r="J46" s="3">
         <v>2080</v>
       </c>
-      <c r="K46" s="3"/>
       <c r="T46" s="3">
         <v>2080</v>
       </c>
     </row>
-    <row r="47" s="3" customFormat="1" spans="1:21">
+    <row r="47" s="3" customFormat="1" spans="1:25">
       <c r="A47" s="3">
         <v>45</v>
       </c>
@@ -3040,10 +3135,12 @@
         <v>57</v>
       </c>
       <c r="E47" s="9">
-        <v>11000</v>
-      </c>
-      <c r="F47" s="2">
-        <v>11440</v>
+        <f t="shared" si="4"/>
+        <v>14000</v>
+      </c>
+      <c r="F47" s="9">
+        <f t="shared" si="5"/>
+        <v>14560</v>
       </c>
       <c r="O47" s="3">
         <v>2080</v>
@@ -3057,8 +3154,11 @@
       <c r="U47" s="3">
         <v>3120</v>
       </c>
-    </row>
-    <row r="48" s="3" customFormat="1" spans="1:23">
+      <c r="Y47" s="3">
+        <v>3120</v>
+      </c>
+    </row>
+    <row r="48" s="3" customFormat="1" spans="1:26">
       <c r="A48" s="3">
         <v>46</v>
       </c>
@@ -3069,10 +3169,12 @@
         <v>58</v>
       </c>
       <c r="E48" s="9">
-        <v>15000</v>
-      </c>
-      <c r="F48" s="2">
-        <v>15600</v>
+        <f t="shared" si="4"/>
+        <v>18000</v>
+      </c>
+      <c r="F48" s="9">
+        <f t="shared" si="5"/>
+        <v>18720</v>
       </c>
       <c r="J48" s="3">
         <v>2080</v>
@@ -3086,11 +3188,13 @@
       <c r="O48" s="3">
         <v>3120</v>
       </c>
-      <c r="P48" s="3"/>
       <c r="S48" s="3">
         <v>3120</v>
       </c>
       <c r="W48" s="3">
+        <v>3120</v>
+      </c>
+      <c r="Z48" s="3">
         <v>3120</v>
       </c>
     </row>
@@ -3105,9 +3209,11 @@
         <v>59</v>
       </c>
       <c r="E49" s="9">
+        <f t="shared" si="4"/>
         <v>7000</v>
       </c>
-      <c r="F49" s="2">
+      <c r="F49" s="9">
+        <f t="shared" si="5"/>
         <v>7280</v>
       </c>
       <c r="J49" s="3">
@@ -3134,9 +3240,11 @@
         <v>60</v>
       </c>
       <c r="E50" s="9">
+        <f t="shared" si="4"/>
         <v>6000</v>
       </c>
-      <c r="F50" s="2">
+      <c r="F50" s="9">
+        <f t="shared" si="5"/>
         <v>6240</v>
       </c>
       <c r="H50" s="3">
@@ -3148,8 +3256,6 @@
       <c r="L50" s="3">
         <v>2080</v>
       </c>
-      <c r="M50" s="3"/>
-      <c r="N50" s="3"/>
       <c r="R50" s="3">
         <v>2080</v>
       </c>
@@ -3165,20 +3271,19 @@
         <v>61</v>
       </c>
       <c r="E51" s="9">
+        <f t="shared" si="4"/>
         <v>16000</v>
       </c>
-      <c r="F51" s="2">
+      <c r="F51" s="9">
+        <f t="shared" si="5"/>
         <v>16640</v>
       </c>
       <c r="H51" s="3">
         <v>2080</v>
       </c>
-      <c r="I51" s="3"/>
       <c r="J51" s="3">
         <v>2080</v>
       </c>
-      <c r="K51" s="3"/>
-      <c r="L51" s="3"/>
       <c r="M51" s="3">
         <v>3120</v>
       </c>
@@ -3203,15 +3308,16 @@
         <v>63</v>
       </c>
       <c r="E52" s="9">
+        <f t="shared" si="4"/>
         <v>7000</v>
       </c>
-      <c r="F52" s="2">
+      <c r="F52" s="9">
+        <f t="shared" si="5"/>
         <v>7280</v>
       </c>
       <c r="P52" s="3">
         <v>1040</v>
       </c>
-      <c r="Q52" s="3"/>
       <c r="R52" s="3">
         <v>2080</v>
       </c>
@@ -3222,7 +3328,7 @@
         <v>2080</v>
       </c>
     </row>
-    <row r="53" s="3" customFormat="1" spans="1:21">
+    <row r="53" s="3" customFormat="1" spans="1:26">
       <c r="A53" s="3">
         <v>51</v>
       </c>
@@ -3233,10 +3339,12 @@
         <v>64</v>
       </c>
       <c r="E53" s="9">
-        <v>18000</v>
-      </c>
-      <c r="F53" s="2">
-        <v>18720</v>
+        <f t="shared" si="4"/>
+        <v>23000</v>
+      </c>
+      <c r="F53" s="9">
+        <f t="shared" si="5"/>
+        <v>23920</v>
       </c>
       <c r="M53" s="3">
         <v>3120</v>
@@ -3247,12 +3355,14 @@
       <c r="Q53" s="3">
         <v>5200</v>
       </c>
-      <c r="R53" s="3"/>
       <c r="U53" s="3">
         <v>5200</v>
       </c>
-    </row>
-    <row r="54" s="3" customFormat="1" spans="1:20">
+      <c r="Z53" s="3">
+        <v>5200</v>
+      </c>
+    </row>
+    <row r="54" s="3" customFormat="1" spans="1:26">
       <c r="A54" s="3">
         <v>52</v>
       </c>
@@ -3263,15 +3373,20 @@
         <v>65</v>
       </c>
       <c r="E54" s="9">
-        <v>3500</v>
-      </c>
-      <c r="F54" s="2">
-        <v>3640</v>
+        <f t="shared" si="4"/>
+        <v>5500</v>
+      </c>
+      <c r="F54" s="9">
+        <f t="shared" si="5"/>
+        <v>5720</v>
       </c>
       <c r="M54" s="3">
         <v>1560</v>
       </c>
       <c r="T54" s="3">
+        <v>2080</v>
+      </c>
+      <c r="Z54" s="3">
         <v>2080</v>
       </c>
     </row>
@@ -3286,18 +3401,18 @@
         <v>67</v>
       </c>
       <c r="E55" s="9">
-        <f>F55/1.04</f>
+        <f t="shared" si="4"/>
         <v>4000</v>
       </c>
-      <c r="F55" s="2">
-        <f>SUM(G55:AK55)</f>
+      <c r="F55" s="9">
+        <f t="shared" si="5"/>
         <v>4160</v>
       </c>
       <c r="P55" s="3">
         <v>4160</v>
       </c>
     </row>
-    <row r="56" s="3" customFormat="1" spans="1:22">
+    <row r="56" s="3" customFormat="1" spans="1:26">
       <c r="A56" s="3">
         <v>54</v>
       </c>
@@ -3308,18 +3423,17 @@
       <c r="D56" s="11" t="s">
         <v>69</v>
       </c>
-      <c r="E56" s="12">
-        <v>7000</v>
-      </c>
-      <c r="F56" s="13">
-        <v>7280</v>
+      <c r="E56" s="9">
+        <f t="shared" si="4"/>
+        <v>9000</v>
+      </c>
+      <c r="F56" s="9">
+        <f t="shared" si="5"/>
+        <v>9360</v>
       </c>
       <c r="J56" s="3">
         <v>1040</v>
       </c>
-      <c r="K56" s="3"/>
-      <c r="L56" s="3"/>
-      <c r="M56" s="3"/>
       <c r="Q56" s="3">
         <v>2080</v>
       </c>
@@ -3327,6 +3441,9 @@
         <v>2080</v>
       </c>
       <c r="V56" s="3">
+        <v>2080</v>
+      </c>
+      <c r="Z56" s="3">
         <v>2080</v>
       </c>
     </row>
@@ -3341,13 +3458,15 @@
       <c r="D57" s="11" t="s">
         <v>71</v>
       </c>
-      <c r="E57" s="12">
+      <c r="E57" s="9">
+        <f t="shared" si="4"/>
         <v>4000</v>
       </c>
-      <c r="F57" s="13">
+      <c r="F57" s="9">
+        <f t="shared" si="5"/>
         <v>4160</v>
       </c>
-      <c r="V57" s="14">
+      <c r="V57" s="12">
         <v>2080</v>
       </c>
       <c r="Y57" s="3">
@@ -3365,9 +3484,11 @@
         <v>73</v>
       </c>
       <c r="E58" s="9">
+        <f t="shared" si="4"/>
         <v>7000</v>
       </c>
-      <c r="F58" s="2">
+      <c r="F58" s="9">
+        <f t="shared" si="5"/>
         <v>7280</v>
       </c>
       <c r="O58" s="3">
@@ -3394,9 +3515,11 @@
         <v>74</v>
       </c>
       <c r="E59" s="9">
+        <f t="shared" si="4"/>
         <v>7000</v>
       </c>
-      <c r="F59" s="2">
+      <c r="F59" s="9">
+        <f t="shared" si="5"/>
         <v>7280</v>
       </c>
       <c r="K59" s="3">
@@ -3409,7 +3532,7 @@
         <v>2080</v>
       </c>
     </row>
-    <row r="60" s="3" customFormat="1" spans="1:17">
+    <row r="60" s="3" customFormat="1" spans="1:25">
       <c r="A60" s="3">
         <v>58</v>
       </c>
@@ -3420,15 +3543,20 @@
         <v>75</v>
       </c>
       <c r="E60" s="9">
-        <v>3000</v>
-      </c>
-      <c r="F60" s="2">
-        <v>3120</v>
+        <f t="shared" si="4"/>
+        <v>5000</v>
+      </c>
+      <c r="F60" s="9">
+        <f t="shared" si="5"/>
+        <v>5200</v>
       </c>
       <c r="K60" s="3">
         <v>1040</v>
       </c>
       <c r="Q60" s="3">
+        <v>2080</v>
+      </c>
+      <c r="Y60" s="3">
         <v>2080</v>
       </c>
     </row>
@@ -3443,9 +3571,11 @@
         <v>76</v>
       </c>
       <c r="E61" s="9">
+        <f t="shared" si="4"/>
         <v>3000</v>
       </c>
-      <c r="F61" s="2">
+      <c r="F61" s="9">
+        <f t="shared" si="5"/>
         <v>3120</v>
       </c>
       <c r="K61" s="3">
@@ -3455,7 +3585,7 @@
         <v>1040</v>
       </c>
     </row>
-    <row r="62" s="3" customFormat="1" spans="1:21">
+    <row r="62" s="3" customFormat="1" spans="1:27">
       <c r="A62" s="3">
         <v>60</v>
       </c>
@@ -3466,10 +3596,12 @@
         <v>77</v>
       </c>
       <c r="E62" s="9">
-        <v>32000</v>
-      </c>
-      <c r="F62" s="2">
-        <v>33280</v>
+        <f t="shared" si="4"/>
+        <v>42000</v>
+      </c>
+      <c r="F62" s="9">
+        <f t="shared" si="5"/>
+        <v>43680</v>
       </c>
       <c r="K62" s="3">
         <v>2080</v>
@@ -3477,19 +3609,23 @@
       <c r="L62" s="3">
         <v>15600</v>
       </c>
-      <c r="M62" s="3"/>
       <c r="O62" s="3">
         <v>5200</v>
       </c>
       <c r="R62" s="3">
         <v>5200</v>
       </c>
-      <c r="S62" s="3"/>
       <c r="U62" s="3">
         <v>5200</v>
       </c>
-    </row>
-    <row r="63" s="3" customFormat="1" spans="1:22">
+      <c r="Y62" s="3">
+        <v>5200</v>
+      </c>
+      <c r="AA62" s="3">
+        <v>5200</v>
+      </c>
+    </row>
+    <row r="63" s="3" customFormat="1" spans="1:26">
       <c r="A63" s="3">
         <v>61</v>
       </c>
@@ -3500,10 +3636,12 @@
         <v>78</v>
       </c>
       <c r="E63" s="9">
-        <v>15000</v>
-      </c>
-      <c r="F63" s="2">
-        <v>15600</v>
+        <f t="shared" si="4"/>
+        <v>18000</v>
+      </c>
+      <c r="F63" s="9">
+        <f t="shared" si="5"/>
+        <v>18720</v>
       </c>
       <c r="H63" s="3">
         <v>2080</v>
@@ -3524,6 +3662,9 @@
         <v>3120</v>
       </c>
       <c r="V63" s="3">
+        <v>3120</v>
+      </c>
+      <c r="Z63" s="3">
         <v>3120</v>
       </c>
     </row>
@@ -3531,159 +3672,149 @@
       <c r="A64" s="3">
         <v>62</v>
       </c>
-      <c r="C64" s="3" t="s">
+      <c r="B64" s="10"/>
+      <c r="C64" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="D64" s="11" t="s">
         <v>79</v>
       </c>
-      <c r="D64" s="4" t="s">
-        <v>80</v>
-      </c>
       <c r="E64" s="9">
-        <v>12000</v>
-      </c>
-      <c r="F64" s="2">
-        <v>12480</v>
-      </c>
-      <c r="I64" s="3">
-        <v>1040</v>
-      </c>
-      <c r="J64" s="3"/>
-      <c r="L64" s="3">
-        <v>2080</v>
-      </c>
-      <c r="M64" s="3">
-        <v>3120</v>
-      </c>
-      <c r="T64" s="3">
-        <v>3120</v>
-      </c>
-      <c r="X64" s="3">
-        <v>3120</v>
-      </c>
-    </row>
-    <row r="65" s="3" customFormat="1" spans="1:23">
+        <f t="shared" si="4"/>
+        <v>2000</v>
+      </c>
+      <c r="F64" s="9">
+        <f t="shared" si="5"/>
+        <v>2080</v>
+      </c>
+      <c r="X64" s="12">
+        <v>2080</v>
+      </c>
+    </row>
+    <row r="65" s="3" customFormat="1" spans="1:27">
       <c r="A65" s="3">
         <v>63</v>
       </c>
       <c r="C65" s="3" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D65" s="4" t="s">
         <v>81</v>
       </c>
       <c r="E65" s="9">
-        <v>18000</v>
-      </c>
-      <c r="F65" s="2">
-        <v>18720</v>
-      </c>
-      <c r="H65" s="3">
-        <v>3120</v>
-      </c>
-      <c r="K65" s="3">
+        <f t="shared" si="4"/>
+        <v>15000</v>
+      </c>
+      <c r="F65" s="9">
+        <f t="shared" si="5"/>
+        <v>15600</v>
+      </c>
+      <c r="I65" s="3">
         <v>1040</v>
       </c>
       <c r="L65" s="3">
         <v>2080</v>
       </c>
-      <c r="O65" s="3">
-        <v>3120</v>
-      </c>
-      <c r="R65" s="3">
-        <v>3120</v>
-      </c>
-      <c r="U65" s="3">
-        <v>3120</v>
-      </c>
-      <c r="W65" s="3">
-        <v>3120</v>
-      </c>
-    </row>
-    <row r="66" s="3" customFormat="1" spans="1:25">
+      <c r="M65" s="3">
+        <v>3120</v>
+      </c>
+      <c r="T65" s="3">
+        <v>3120</v>
+      </c>
+      <c r="X65" s="3">
+        <v>3120</v>
+      </c>
+      <c r="AA65" s="3">
+        <v>3120</v>
+      </c>
+    </row>
+    <row r="66" s="3" customFormat="1" spans="1:27">
       <c r="A66" s="3">
         <v>64</v>
       </c>
       <c r="C66" s="3" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D66" s="4" t="s">
         <v>82</v>
       </c>
       <c r="E66" s="9">
-        <v>15000</v>
-      </c>
-      <c r="F66" s="2">
-        <v>15600</v>
-      </c>
-      <c r="J66" s="3">
-        <v>2080</v>
+        <f t="shared" si="4"/>
+        <v>21000</v>
+      </c>
+      <c r="F66" s="9">
+        <f t="shared" si="5"/>
+        <v>21840</v>
+      </c>
+      <c r="H66" s="3">
+        <v>3120</v>
+      </c>
+      <c r="K66" s="3">
+        <v>1040</v>
       </c>
       <c r="L66" s="3">
-        <v>1040</v>
-      </c>
-      <c r="M66" s="3"/>
-      <c r="N66" s="3"/>
+        <v>2080</v>
+      </c>
       <c r="O66" s="3">
-        <v>2080</v>
-      </c>
-      <c r="P66" s="3">
-        <v>2080</v>
-      </c>
-      <c r="Q66" s="3"/>
-      <c r="S66" s="3">
-        <v>2080</v>
-      </c>
-      <c r="T66" s="3">
-        <v>2080</v>
+        <v>3120</v>
+      </c>
+      <c r="R66" s="3">
+        <v>3120</v>
+      </c>
+      <c r="U66" s="3">
+        <v>3120</v>
       </c>
       <c r="W66" s="3">
-        <v>2080</v>
-      </c>
-      <c r="Y66" s="3">
-        <v>2080</v>
-      </c>
-    </row>
-    <row r="67" s="3" customFormat="1" spans="1:23">
+        <v>3120</v>
+      </c>
+      <c r="AA66" s="3">
+        <v>3120</v>
+      </c>
+    </row>
+    <row r="67" s="3" customFormat="1" spans="1:25">
       <c r="A67" s="3">
         <v>65</v>
       </c>
-      <c r="B67" s="10"/>
-      <c r="C67" s="10"/>
-      <c r="D67" s="11" t="s">
+      <c r="C67" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="D67" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="E67" s="12">
-        <v>12500</v>
-      </c>
-      <c r="F67" s="13">
-        <v>13000</v>
-      </c>
-      <c r="G67" s="10"/>
-      <c r="H67" s="10">
-        <v>520</v>
-      </c>
-      <c r="I67" s="10">
-        <v>2080</v>
-      </c>
-      <c r="J67" s="10">
-        <v>5200</v>
-      </c>
-      <c r="K67" s="10"/>
-      <c r="L67" s="10"/>
-      <c r="M67" s="10"/>
-      <c r="N67" s="10"/>
-      <c r="O67" s="10"/>
-      <c r="P67" s="10"/>
-      <c r="Q67" s="10"/>
-      <c r="R67" s="10">
-        <v>5200</v>
-      </c>
-      <c r="S67" s="15"/>
-      <c r="T67" s="15"/>
-      <c r="U67" s="15"/>
-      <c r="V67" s="15"/>
-      <c r="W67" s="15"/>
-    </row>
-    <row r="68" s="3" customFormat="1" spans="1:23">
+      <c r="E67" s="9">
+        <f t="shared" ref="E67:E92" si="6">F67/1.04</f>
+        <v>15000</v>
+      </c>
+      <c r="F67" s="9">
+        <f t="shared" ref="F67:F92" si="7">SUM(G67:AK67)</f>
+        <v>15600</v>
+      </c>
+      <c r="J67" s="3">
+        <v>2080</v>
+      </c>
+      <c r="L67" s="3">
+        <v>1040</v>
+      </c>
+      <c r="O67" s="3">
+        <v>2080</v>
+      </c>
+      <c r="P67" s="3">
+        <v>2080</v>
+      </c>
+      <c r="S67" s="3">
+        <v>2080</v>
+      </c>
+      <c r="T67" s="3">
+        <v>2080</v>
+      </c>
+      <c r="W67" s="3">
+        <v>2080</v>
+      </c>
+      <c r="Y67" s="3">
+        <v>2080</v>
+      </c>
+    </row>
+    <row r="68" s="3" customFormat="1" spans="1:26">
       <c r="A68" s="3">
         <v>66</v>
       </c>
@@ -3692,17 +3823,44 @@
       <c r="D68" s="11" t="s">
         <v>84</v>
       </c>
-      <c r="E68" s="12">
-        <v>4000</v>
-      </c>
-      <c r="F68" s="13">
-        <v>4160</v>
-      </c>
-      <c r="W68" s="14">
-        <v>4160</v>
-      </c>
-    </row>
-    <row r="69" s="3" customFormat="1" spans="1:24">
+      <c r="E68" s="9">
+        <f t="shared" si="6"/>
+        <v>13500</v>
+      </c>
+      <c r="F68" s="9">
+        <f t="shared" si="7"/>
+        <v>14040</v>
+      </c>
+      <c r="G68" s="10"/>
+      <c r="H68" s="10">
+        <v>520</v>
+      </c>
+      <c r="I68" s="10">
+        <v>2080</v>
+      </c>
+      <c r="J68" s="10">
+        <v>5200</v>
+      </c>
+      <c r="K68" s="10"/>
+      <c r="L68" s="10"/>
+      <c r="M68" s="10"/>
+      <c r="N68" s="10"/>
+      <c r="O68" s="10"/>
+      <c r="P68" s="10"/>
+      <c r="Q68" s="10"/>
+      <c r="R68" s="10">
+        <v>5200</v>
+      </c>
+      <c r="S68" s="13"/>
+      <c r="T68" s="13"/>
+      <c r="U68" s="13"/>
+      <c r="V68" s="13"/>
+      <c r="W68" s="13"/>
+      <c r="Z68" s="3">
+        <v>1040</v>
+      </c>
+    </row>
+    <row r="69" s="3" customFormat="1" spans="1:23">
       <c r="A69" s="3">
         <v>67</v>
       </c>
@@ -3711,14 +3869,16 @@
       <c r="D69" s="11" t="s">
         <v>85</v>
       </c>
-      <c r="E69" s="12">
-        <v>2000</v>
-      </c>
-      <c r="F69" s="13">
-        <v>2080</v>
-      </c>
-      <c r="X69" s="14">
-        <v>2080</v>
+      <c r="E69" s="9">
+        <f t="shared" si="6"/>
+        <v>4000</v>
+      </c>
+      <c r="F69" s="9">
+        <f t="shared" si="7"/>
+        <v>4160</v>
+      </c>
+      <c r="W69" s="12">
+        <v>4160</v>
       </c>
     </row>
     <row r="70" s="3" customFormat="1" spans="1:17">
@@ -3730,10 +3890,12 @@
       <c r="D70" s="11" t="s">
         <v>86</v>
       </c>
-      <c r="E70" s="12">
+      <c r="E70" s="9">
+        <f t="shared" si="6"/>
         <v>2000</v>
       </c>
-      <c r="F70" s="13">
+      <c r="F70" s="9">
+        <f t="shared" si="7"/>
         <v>2080</v>
       </c>
       <c r="Q70" s="3">
@@ -3749,10 +3911,12 @@
       <c r="D71" s="11" t="s">
         <v>87</v>
       </c>
-      <c r="E71" s="12">
-        <v>0</v>
-      </c>
-      <c r="F71" s="13">
+      <c r="E71" s="9">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="F71" s="9">
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -3765,10 +3929,12 @@
       <c r="D72" s="11" t="s">
         <v>88</v>
       </c>
-      <c r="E72" s="12">
-        <v>0</v>
-      </c>
-      <c r="F72" s="13">
+      <c r="E72" s="9">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="F72" s="9">
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -3781,10 +3947,12 @@
       <c r="D73" s="11" t="s">
         <v>89</v>
       </c>
-      <c r="E73" s="12">
-        <v>0</v>
-      </c>
-      <c r="F73" s="13">
+      <c r="E73" s="9">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="F73" s="9">
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -3797,24 +3965,26 @@
       <c r="D74" s="11" t="s">
         <v>90</v>
       </c>
-      <c r="E74" s="12">
-        <v>0</v>
-      </c>
-      <c r="F74" s="13">
-        <v>0</v>
-      </c>
-      <c r="G74" s="15"/>
-      <c r="H74" s="15"/>
-      <c r="I74" s="15"/>
-      <c r="J74" s="15"/>
-      <c r="K74" s="15"/>
-      <c r="L74" s="15"/>
-      <c r="M74" s="15"/>
-      <c r="N74" s="15"/>
-      <c r="O74" s="15"/>
-      <c r="P74" s="15"/>
-      <c r="Q74" s="15"/>
-      <c r="R74" s="15"/>
+      <c r="E74" s="9">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="F74" s="9">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="G74" s="13"/>
+      <c r="H74" s="13"/>
+      <c r="I74" s="13"/>
+      <c r="J74" s="13"/>
+      <c r="K74" s="13"/>
+      <c r="L74" s="13"/>
+      <c r="M74" s="13"/>
+      <c r="N74" s="13"/>
+      <c r="O74" s="13"/>
+      <c r="P74" s="13"/>
+      <c r="Q74" s="13"/>
+      <c r="R74" s="13"/>
     </row>
     <row r="75" s="3" customFormat="1" spans="1:6">
       <c r="A75" s="3">
@@ -3825,10 +3995,12 @@
       <c r="D75" s="11" t="s">
         <v>91</v>
       </c>
-      <c r="E75" s="12">
-        <v>0</v>
-      </c>
-      <c r="F75" s="13">
+      <c r="E75" s="9">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="F75" s="9">
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -3841,10 +4013,12 @@
       <c r="D76" s="11" t="s">
         <v>92</v>
       </c>
-      <c r="E76" s="12">
-        <v>0</v>
-      </c>
-      <c r="F76" s="13">
+      <c r="E76" s="9">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="F76" s="9">
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -3857,10 +4031,12 @@
       <c r="D77" s="11" t="s">
         <v>93</v>
       </c>
-      <c r="E77" s="12">
-        <v>0</v>
-      </c>
-      <c r="F77" s="13">
+      <c r="E77" s="9">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="F77" s="9">
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -3873,10 +4049,12 @@
       <c r="D78" s="11" t="s">
         <v>94</v>
       </c>
-      <c r="E78" s="12">
-        <v>0</v>
-      </c>
-      <c r="F78" s="13">
+      <c r="E78" s="9">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="F78" s="9">
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -3889,30 +4067,32 @@
       <c r="D79" s="11" t="s">
         <v>95</v>
       </c>
-      <c r="E79" s="12">
-        <v>0</v>
-      </c>
-      <c r="F79" s="13">
-        <v>0</v>
-      </c>
-      <c r="G79" s="15"/>
-      <c r="H79" s="15"/>
-      <c r="I79" s="15"/>
-      <c r="J79" s="15"/>
-      <c r="K79" s="15"/>
-      <c r="L79" s="15"/>
-      <c r="M79" s="15"/>
-      <c r="N79" s="15"/>
-      <c r="O79" s="15"/>
-      <c r="P79" s="15"/>
-      <c r="Q79" s="15"/>
-      <c r="R79" s="15"/>
-      <c r="S79" s="15"/>
-      <c r="T79" s="15"/>
-      <c r="U79" s="15"/>
-      <c r="V79" s="15"/>
-      <c r="W79" s="15"/>
-      <c r="X79" s="15"/>
+      <c r="E79" s="9">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="F79" s="9">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="G79" s="13"/>
+      <c r="H79" s="13"/>
+      <c r="I79" s="13"/>
+      <c r="J79" s="13"/>
+      <c r="K79" s="13"/>
+      <c r="L79" s="13"/>
+      <c r="M79" s="13"/>
+      <c r="N79" s="13"/>
+      <c r="O79" s="13"/>
+      <c r="P79" s="13"/>
+      <c r="Q79" s="13"/>
+      <c r="R79" s="13"/>
+      <c r="S79" s="13"/>
+      <c r="T79" s="13"/>
+      <c r="U79" s="13"/>
+      <c r="V79" s="13"/>
+      <c r="W79" s="13"/>
+      <c r="X79" s="13"/>
     </row>
     <row r="80" s="3" customFormat="1" spans="1:6">
       <c r="A80" s="3">
@@ -3923,10 +4103,12 @@
       <c r="D80" s="11" t="s">
         <v>96</v>
       </c>
-      <c r="E80" s="12">
-        <v>0</v>
-      </c>
-      <c r="F80" s="13">
+      <c r="E80" s="9">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="F80" s="9">
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -3939,10 +4121,12 @@
       <c r="D81" s="11" t="s">
         <v>97</v>
       </c>
-      <c r="E81" s="12">
-        <v>0</v>
-      </c>
-      <c r="F81" s="13">
+      <c r="E81" s="9">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="F81" s="9">
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -3955,23 +4139,25 @@
       <c r="D82" s="11" t="s">
         <v>98</v>
       </c>
-      <c r="E82" s="12">
-        <v>0</v>
-      </c>
-      <c r="F82" s="13">
-        <v>0</v>
-      </c>
-      <c r="G82" s="15"/>
-      <c r="H82" s="15"/>
-      <c r="I82" s="15"/>
-      <c r="J82" s="15"/>
-      <c r="K82" s="15"/>
-      <c r="L82" s="15"/>
-      <c r="M82" s="15"/>
-      <c r="N82" s="15"/>
-      <c r="O82" s="15"/>
-      <c r="P82" s="15"/>
-      <c r="Q82" s="15"/>
+      <c r="E82" s="9">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="F82" s="9">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="G82" s="13"/>
+      <c r="H82" s="13"/>
+      <c r="I82" s="13"/>
+      <c r="J82" s="13"/>
+      <c r="K82" s="13"/>
+      <c r="L82" s="13"/>
+      <c r="M82" s="13"/>
+      <c r="N82" s="13"/>
+      <c r="O82" s="13"/>
+      <c r="P82" s="13"/>
+      <c r="Q82" s="13"/>
     </row>
     <row r="83" s="3" customFormat="1" spans="1:25">
       <c r="A83" s="3">
@@ -3982,31 +4168,33 @@
       <c r="D83" s="11" t="s">
         <v>99</v>
       </c>
-      <c r="E83" s="12">
-        <v>0</v>
-      </c>
-      <c r="F83" s="13">
-        <v>0</v>
-      </c>
-      <c r="G83" s="15"/>
-      <c r="H83" s="15"/>
-      <c r="I83" s="15"/>
-      <c r="J83" s="15"/>
-      <c r="K83" s="15"/>
-      <c r="L83" s="15"/>
-      <c r="M83" s="15"/>
-      <c r="N83" s="15"/>
-      <c r="O83" s="15"/>
-      <c r="P83" s="15"/>
-      <c r="Q83" s="15"/>
-      <c r="R83" s="15"/>
-      <c r="S83" s="15"/>
-      <c r="T83" s="15"/>
-      <c r="U83" s="15"/>
-      <c r="V83" s="15"/>
-      <c r="W83" s="15"/>
-      <c r="X83" s="15"/>
-      <c r="Y83" s="15"/>
+      <c r="E83" s="9">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="F83" s="9">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="G83" s="13"/>
+      <c r="H83" s="13"/>
+      <c r="I83" s="13"/>
+      <c r="J83" s="13"/>
+      <c r="K83" s="13"/>
+      <c r="L83" s="13"/>
+      <c r="M83" s="13"/>
+      <c r="N83" s="13"/>
+      <c r="O83" s="13"/>
+      <c r="P83" s="13"/>
+      <c r="Q83" s="13"/>
+      <c r="R83" s="13"/>
+      <c r="S83" s="13"/>
+      <c r="T83" s="13"/>
+      <c r="U83" s="13"/>
+      <c r="V83" s="13"/>
+      <c r="W83" s="13"/>
+      <c r="X83" s="13"/>
+      <c r="Y83" s="13"/>
     </row>
     <row r="84" s="3" customFormat="1" spans="1:6">
       <c r="A84" s="3">
@@ -4017,10 +4205,12 @@
       <c r="D84" s="11" t="s">
         <v>100</v>
       </c>
-      <c r="E84" s="12">
-        <v>0</v>
-      </c>
-      <c r="F84" s="13">
+      <c r="E84" s="9">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="F84" s="9">
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -4033,28 +4223,30 @@
       <c r="D85" s="11" t="s">
         <v>101</v>
       </c>
-      <c r="E85" s="12">
-        <v>0</v>
-      </c>
-      <c r="F85" s="13">
-        <v>0</v>
-      </c>
-      <c r="G85" s="15"/>
-      <c r="H85" s="15"/>
-      <c r="I85" s="15"/>
-      <c r="J85" s="15"/>
-      <c r="K85" s="15"/>
-      <c r="L85" s="15"/>
-      <c r="M85" s="15"/>
-      <c r="N85" s="15"/>
-      <c r="O85" s="15"/>
-      <c r="P85" s="15"/>
-      <c r="Q85" s="15"/>
-      <c r="R85" s="15"/>
-      <c r="S85" s="15"/>
-      <c r="T85" s="15"/>
-      <c r="U85" s="15"/>
-      <c r="V85" s="15"/>
+      <c r="E85" s="9">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="F85" s="9">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="G85" s="13"/>
+      <c r="H85" s="13"/>
+      <c r="I85" s="13"/>
+      <c r="J85" s="13"/>
+      <c r="K85" s="13"/>
+      <c r="L85" s="13"/>
+      <c r="M85" s="13"/>
+      <c r="N85" s="13"/>
+      <c r="O85" s="13"/>
+      <c r="P85" s="13"/>
+      <c r="Q85" s="13"/>
+      <c r="R85" s="13"/>
+      <c r="S85" s="13"/>
+      <c r="T85" s="13"/>
+      <c r="U85" s="13"/>
+      <c r="V85" s="13"/>
     </row>
     <row r="86" s="3" customFormat="1" spans="1:6">
       <c r="A86" s="3">
@@ -4064,9 +4256,11 @@
         <v>102</v>
       </c>
       <c r="E86" s="9">
-        <v>0</v>
-      </c>
-      <c r="F86" s="2">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="F86" s="9">
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -4078,9 +4272,11 @@
         <v>103</v>
       </c>
       <c r="E87" s="9">
-        <v>0</v>
-      </c>
-      <c r="F87" s="2">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="F87" s="9">
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -4092,9 +4288,11 @@
         <v>104</v>
       </c>
       <c r="E88" s="9">
-        <v>0</v>
-      </c>
-      <c r="F88" s="2">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="F88" s="9">
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -4106,9 +4304,11 @@
         <v>105</v>
       </c>
       <c r="E89" s="9">
-        <v>0</v>
-      </c>
-      <c r="F89" s="2">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="F89" s="9">
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -4120,9 +4320,11 @@
         <v>106</v>
       </c>
       <c r="E90" s="9">
-        <v>0</v>
-      </c>
-      <c r="F90" s="2">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="F90" s="9">
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -4134,9 +4336,11 @@
         <v>107</v>
       </c>
       <c r="E91" s="9">
-        <v>0</v>
-      </c>
-      <c r="F91" s="2">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="F91" s="9">
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -4148,9 +4352,11 @@
         <v>108</v>
       </c>
       <c r="E92" s="9">
-        <v>0</v>
-      </c>
-      <c r="F92" s="2">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="F92" s="9">
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>

--- a/Daily Orders/December-2020-RetailerWiseOrder.xlsx
+++ b/Daily Orders/December-2020-RetailerWiseOrder.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20490" windowHeight="7830"/>
+    <workbookView windowWidth="20490" windowHeight="7815"/>
   </bookViews>
   <sheets>
     <sheet name="December 2020" sheetId="1" r:id="rId1"/>
@@ -351,11 +351,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
-    <numFmt numFmtId="176" formatCode="[$-409]d\-mmm;@"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="[$-409]d\-mmm;@"/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -371,6 +371,38 @@
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -390,9 +422,9 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="3"/>
       <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -403,31 +435,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF0000FF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -456,42 +473,18 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -505,14 +498,21 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -557,7 +557,163 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -569,73 +725,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -647,97 +737,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -748,6 +748,17 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -770,22 +781,25 @@
       <right/>
       <top/>
       <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -805,15 +819,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -829,22 +834,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -853,15 +853,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
@@ -871,130 +871,130 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="24" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="37" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="16" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1014,7 +1014,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1050,12 +1050,12 @@
     <cellStyle name="Currency [0]" xfId="4" builtinId="7"/>
     <cellStyle name="Currency" xfId="5" builtinId="4"/>
     <cellStyle name="Percent" xfId="6" builtinId="5"/>
-    <cellStyle name="Check Cell" xfId="7" builtinId="23"/>
-    <cellStyle name="Heading 2" xfId="8" builtinId="17"/>
-    <cellStyle name="Note" xfId="9" builtinId="10"/>
-    <cellStyle name="Hyperlink" xfId="10" builtinId="8"/>
-    <cellStyle name="60% - Accent4" xfId="11" builtinId="44"/>
-    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9"/>
+    <cellStyle name="Hyperlink" xfId="7" builtinId="8"/>
+    <cellStyle name="60% - Accent4" xfId="8" builtinId="44"/>
+    <cellStyle name="Followed Hyperlink" xfId="9" builtinId="9"/>
+    <cellStyle name="Check Cell" xfId="10" builtinId="23"/>
+    <cellStyle name="Heading 2" xfId="11" builtinId="17"/>
+    <cellStyle name="Note" xfId="12" builtinId="10"/>
     <cellStyle name="40% - Accent3" xfId="13" builtinId="39"/>
     <cellStyle name="Warning Text" xfId="14" builtinId="11"/>
     <cellStyle name="40% - Accent2" xfId="15" builtinId="35"/>
@@ -1369,11 +1369,11 @@
   <dimension ref="A1:AK92"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="6" ySplit="2" topLeftCell="U45" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="6" ySplit="2" topLeftCell="V49" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="D66" sqref="D66"/>
+      <selection pane="bottomRight" activeCell="AC58" sqref="AC58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15"/>
@@ -1506,11 +1506,11 @@
       </c>
       <c r="E2" s="7">
         <f>F2/1.04</f>
-        <v>821500</v>
+        <v>858500</v>
       </c>
       <c r="F2" s="8">
         <f>SUM(G2:AK2)</f>
-        <v>854360</v>
+        <v>892840</v>
       </c>
       <c r="G2" s="2">
         <f>SUM(G3:G92)</f>
@@ -1594,11 +1594,11 @@
       </c>
       <c r="AA2" s="2">
         <f t="shared" si="1"/>
-        <v>11440</v>
+        <v>36400</v>
       </c>
       <c r="AB2" s="2">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>13520</v>
       </c>
       <c r="AC2" s="2">
         <f t="shared" si="1"/>
@@ -1764,7 +1764,7 @@
         <v>5200</v>
       </c>
     </row>
-    <row r="7" s="3" customFormat="1" spans="1:26">
+    <row r="7" s="3" customFormat="1" spans="1:28">
       <c r="A7" s="3">
         <v>5</v>
       </c>
@@ -1776,11 +1776,11 @@
       </c>
       <c r="E7" s="9">
         <f t="shared" si="2"/>
-        <v>42000</v>
+        <v>44000</v>
       </c>
       <c r="F7" s="9">
         <f t="shared" si="3"/>
-        <v>43680</v>
+        <v>45760</v>
       </c>
       <c r="H7" s="3">
         <v>2080</v>
@@ -1816,6 +1816,9 @@
         <v>2080</v>
       </c>
       <c r="Z7" s="3">
+        <v>2080</v>
+      </c>
+      <c r="AB7" s="3">
         <v>2080</v>
       </c>
     </row>
@@ -2029,7 +2032,7 @@
         <v>5200</v>
       </c>
     </row>
-    <row r="14" s="3" customFormat="1" spans="1:24">
+    <row r="14" s="3" customFormat="1" spans="1:27">
       <c r="A14" s="3">
         <v>12</v>
       </c>
@@ -2041,11 +2044,11 @@
       </c>
       <c r="E14" s="9">
         <f t="shared" si="2"/>
-        <v>34000</v>
+        <v>39000</v>
       </c>
       <c r="F14" s="9">
         <f t="shared" si="3"/>
-        <v>35360</v>
+        <v>40560</v>
       </c>
       <c r="H14" s="3">
         <v>2080</v>
@@ -2072,6 +2075,9 @@
         <v>5200</v>
       </c>
       <c r="X14" s="3">
+        <v>5200</v>
+      </c>
+      <c r="AA14" s="3">
         <v>5200</v>
       </c>
     </row>
@@ -2394,7 +2400,7 @@
         <v>3120</v>
       </c>
     </row>
-    <row r="25" s="3" customFormat="1" spans="1:22">
+    <row r="25" s="3" customFormat="1" spans="1:27">
       <c r="A25" s="3">
         <v>23</v>
       </c>
@@ -2406,11 +2412,11 @@
       </c>
       <c r="E25" s="9">
         <f t="shared" si="2"/>
-        <v>9000</v>
+        <v>11000</v>
       </c>
       <c r="F25" s="9">
         <f t="shared" si="3"/>
-        <v>9360</v>
+        <v>11440</v>
       </c>
       <c r="H25" s="3">
         <v>1040</v>
@@ -2428,6 +2434,9 @@
         <v>2080</v>
       </c>
       <c r="V25" s="3">
+        <v>2080</v>
+      </c>
+      <c r="AA25" s="3">
         <v>2080</v>
       </c>
     </row>
@@ -2700,7 +2709,7 @@
         <v>2080</v>
       </c>
     </row>
-    <row r="34" s="3" customFormat="1" spans="1:23">
+    <row r="34" s="3" customFormat="1" spans="1:28">
       <c r="A34" s="3">
         <v>32</v>
       </c>
@@ -2712,11 +2721,11 @@
       </c>
       <c r="E34" s="9">
         <f t="shared" si="2"/>
-        <v>18000</v>
+        <v>21000</v>
       </c>
       <c r="F34" s="9">
         <f t="shared" si="3"/>
-        <v>18720</v>
+        <v>21840</v>
       </c>
       <c r="I34" s="3">
         <v>2080</v>
@@ -2740,6 +2749,9 @@
         <v>3120</v>
       </c>
       <c r="W34" s="3">
+        <v>3120</v>
+      </c>
+      <c r="AB34" s="3">
         <v>3120</v>
       </c>
     </row>
@@ -2765,7 +2777,7 @@
         <v>2080</v>
       </c>
     </row>
-    <row r="36" s="3" customFormat="1" spans="1:23">
+    <row r="36" s="3" customFormat="1" spans="1:27">
       <c r="A36" s="3">
         <v>34</v>
       </c>
@@ -2777,11 +2789,11 @@
       </c>
       <c r="E36" s="9">
         <f t="shared" si="4"/>
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="F36" s="9">
         <f t="shared" si="5"/>
-        <v>15600</v>
+        <v>18720</v>
       </c>
       <c r="H36" s="3">
         <v>3120</v>
@@ -2801,8 +2813,11 @@
       <c r="W36" s="3">
         <v>3120</v>
       </c>
-    </row>
-    <row r="37" s="3" customFormat="1" spans="1:21">
+      <c r="AA36" s="3">
+        <v>3120</v>
+      </c>
+    </row>
+    <row r="37" s="3" customFormat="1" spans="1:27">
       <c r="A37" s="3">
         <v>35</v>
       </c>
@@ -2814,11 +2829,11 @@
       </c>
       <c r="E37" s="9">
         <f t="shared" si="4"/>
-        <v>4000</v>
+        <v>6000</v>
       </c>
       <c r="F37" s="9">
         <f t="shared" si="5"/>
-        <v>4160</v>
+        <v>6240</v>
       </c>
       <c r="K37" s="3">
         <v>2080</v>
@@ -2826,8 +2841,11 @@
       <c r="U37" s="12">
         <v>2080</v>
       </c>
-    </row>
-    <row r="38" s="3" customFormat="1" spans="1:22">
+      <c r="AA37" s="12">
+        <v>2080</v>
+      </c>
+    </row>
+    <row r="38" s="3" customFormat="1" spans="1:27">
       <c r="A38" s="3">
         <v>36</v>
       </c>
@@ -2839,11 +2857,11 @@
       </c>
       <c r="E38" s="9">
         <f t="shared" si="4"/>
-        <v>8000</v>
+        <v>10000</v>
       </c>
       <c r="F38" s="9">
         <f t="shared" si="5"/>
-        <v>8320</v>
+        <v>10400</v>
       </c>
       <c r="M38" s="3">
         <v>2080</v>
@@ -2855,6 +2873,9 @@
         <v>2080</v>
       </c>
       <c r="V38" s="3">
+        <v>2080</v>
+      </c>
+      <c r="AA38" s="3">
         <v>2080</v>
       </c>
     </row>
@@ -3028,7 +3049,7 @@
         <v>3120</v>
       </c>
     </row>
-    <row r="44" s="3" customFormat="1" spans="1:23">
+    <row r="44" s="3" customFormat="1" spans="1:27">
       <c r="A44" s="3">
         <v>42</v>
       </c>
@@ -3040,11 +3061,11 @@
       </c>
       <c r="E44" s="9">
         <f t="shared" si="4"/>
-        <v>14000</v>
+        <v>17000</v>
       </c>
       <c r="F44" s="9">
         <f t="shared" si="5"/>
-        <v>14560</v>
+        <v>17680</v>
       </c>
       <c r="H44" s="3">
         <v>2080</v>
@@ -3059,6 +3080,9 @@
         <v>3120</v>
       </c>
       <c r="W44" s="3">
+        <v>3120</v>
+      </c>
+      <c r="AA44" s="3">
         <v>3120</v>
       </c>
     </row>
@@ -3099,7 +3123,7 @@
         <v>3120</v>
       </c>
     </row>
-    <row r="46" s="3" customFormat="1" spans="1:20">
+    <row r="46" s="3" customFormat="1" spans="1:28">
       <c r="A46" s="3">
         <v>44</v>
       </c>
@@ -3111,16 +3135,19 @@
       </c>
       <c r="E46" s="9">
         <f t="shared" si="4"/>
-        <v>4000</v>
+        <v>6000</v>
       </c>
       <c r="F46" s="9">
         <f t="shared" si="5"/>
-        <v>4160</v>
+        <v>6240</v>
       </c>
       <c r="J46" s="3">
         <v>2080</v>
       </c>
       <c r="T46" s="3">
+        <v>2080</v>
+      </c>
+      <c r="AB46" s="3">
         <v>2080</v>
       </c>
     </row>
@@ -3198,7 +3225,7 @@
         <v>3120</v>
       </c>
     </row>
-    <row r="49" s="3" customFormat="1" spans="1:24">
+    <row r="49" s="3" customFormat="1" spans="1:27">
       <c r="A49" s="3">
         <v>47</v>
       </c>
@@ -3210,11 +3237,11 @@
       </c>
       <c r="E49" s="9">
         <f t="shared" si="4"/>
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="F49" s="9">
         <f t="shared" si="5"/>
-        <v>7280</v>
+        <v>9360</v>
       </c>
       <c r="J49" s="3">
         <v>1040</v>
@@ -3226,6 +3253,9 @@
         <v>2080</v>
       </c>
       <c r="X49" s="3">
+        <v>2080</v>
+      </c>
+      <c r="AA49" s="3">
         <v>2080</v>
       </c>
     </row>
@@ -3260,7 +3290,7 @@
         <v>2080</v>
       </c>
     </row>
-    <row r="51" s="3" customFormat="1" spans="1:23">
+    <row r="51" s="3" customFormat="1" spans="1:27">
       <c r="A51" s="3">
         <v>49</v>
       </c>
@@ -3272,11 +3302,11 @@
       </c>
       <c r="E51" s="9">
         <f t="shared" si="4"/>
-        <v>16000</v>
+        <v>19000</v>
       </c>
       <c r="F51" s="9">
         <f t="shared" si="5"/>
-        <v>16640</v>
+        <v>19760</v>
       </c>
       <c r="H51" s="3">
         <v>2080</v>
@@ -3294,6 +3324,9 @@
         <v>3120</v>
       </c>
       <c r="W51" s="3">
+        <v>3120</v>
+      </c>
+      <c r="AA51" s="3">
         <v>3120</v>
       </c>
     </row>
@@ -3473,7 +3506,7 @@
         <v>2080</v>
       </c>
     </row>
-    <row r="58" s="3" customFormat="1" spans="1:21">
+    <row r="58" s="3" customFormat="1" spans="1:28">
       <c r="A58" s="3">
         <v>56</v>
       </c>
@@ -3485,11 +3518,11 @@
       </c>
       <c r="E58" s="9">
         <f t="shared" si="4"/>
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="F58" s="9">
         <f t="shared" si="5"/>
-        <v>7280</v>
+        <v>9360</v>
       </c>
       <c r="O58" s="3">
         <v>1040</v>
@@ -3501,6 +3534,9 @@
         <v>2080</v>
       </c>
       <c r="U58" s="3">
+        <v>2080</v>
+      </c>
+      <c r="AB58" s="3">
         <v>2080</v>
       </c>
     </row>
@@ -3668,7 +3704,7 @@
         <v>3120</v>
       </c>
     </row>
-    <row r="64" s="3" customFormat="1" spans="1:24">
+    <row r="64" s="3" customFormat="1" spans="1:27">
       <c r="A64" s="3">
         <v>62</v>
       </c>
@@ -3681,13 +3717,16 @@
       </c>
       <c r="E64" s="9">
         <f t="shared" si="4"/>
-        <v>2000</v>
+        <v>4000</v>
       </c>
       <c r="F64" s="9">
         <f t="shared" si="5"/>
-        <v>2080</v>
+        <v>4160</v>
       </c>
       <c r="X64" s="12">
+        <v>2080</v>
+      </c>
+      <c r="AA64" s="3">
         <v>2080</v>
       </c>
     </row>
@@ -3771,7 +3810,7 @@
         <v>3120</v>
       </c>
     </row>
-    <row r="67" s="3" customFormat="1" spans="1:25">
+    <row r="67" s="3" customFormat="1" spans="1:28">
       <c r="A67" s="3">
         <v>65</v>
       </c>
@@ -3783,11 +3822,11 @@
       </c>
       <c r="E67" s="9">
         <f t="shared" ref="E67:E92" si="6">F67/1.04</f>
-        <v>15000</v>
+        <v>17000</v>
       </c>
       <c r="F67" s="9">
         <f t="shared" ref="F67:F92" si="7">SUM(G67:AK67)</f>
-        <v>15600</v>
+        <v>17680</v>
       </c>
       <c r="J67" s="3">
         <v>2080</v>
@@ -3813,8 +3852,11 @@
       <c r="Y67" s="3">
         <v>2080</v>
       </c>
-    </row>
-    <row r="68" s="3" customFormat="1" spans="1:26">
+      <c r="AB67" s="3">
+        <v>2080</v>
+      </c>
+    </row>
+    <row r="68" s="3" customFormat="1" spans="1:28">
       <c r="A68" s="3">
         <v>66</v>
       </c>
@@ -3825,11 +3867,11 @@
       </c>
       <c r="E68" s="9">
         <f t="shared" si="6"/>
-        <v>13500</v>
+        <v>15500</v>
       </c>
       <c r="F68" s="9">
         <f t="shared" si="7"/>
-        <v>14040</v>
+        <v>16120</v>
       </c>
       <c r="G68" s="10"/>
       <c r="H68" s="10">
@@ -3858,6 +3900,9 @@
       <c r="W68" s="13"/>
       <c r="Z68" s="3">
         <v>1040</v>
+      </c>
+      <c r="AB68" s="12">
+        <v>2080</v>
       </c>
     </row>
     <row r="69" s="3" customFormat="1" spans="1:23">

--- a/Daily Orders/December-2020-RetailerWiseOrder.xlsx
+++ b/Daily Orders/December-2020-RetailerWiseOrder.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="110">
   <si>
     <t>S.No.</t>
   </si>
@@ -344,6 +344,9 @@
   </si>
   <si>
     <t>6201704055(662077143)</t>
+  </si>
+  <si>
+    <t>Manish mobile center(662157439)</t>
   </si>
 </sst>
 </file>
@@ -374,40 +377,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -415,21 +386,6 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -443,45 +399,23 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -498,7 +432,83 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -506,13 +516,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -557,25 +560,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -593,7 +578,115 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -605,25 +698,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -635,73 +716,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -713,31 +740,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -751,13 +754,32 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF7F7F7F"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -772,6 +794,21 @@
         <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -797,63 +834,29 @@
     <border>
       <left/>
       <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -871,130 +874,130 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="16" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1366,14 +1369,14 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:AK92"/>
+  <dimension ref="A1:AK93"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="6" ySplit="2" topLeftCell="V49" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="6" ySplit="2" topLeftCell="W76" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="AC58" sqref="AC58"/>
+      <selection pane="bottomRight" activeCell="X93" sqref="X93"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15"/>
@@ -1506,11 +1509,11 @@
       </c>
       <c r="E2" s="7">
         <f>F2/1.04</f>
-        <v>858500</v>
+        <v>908500</v>
       </c>
       <c r="F2" s="8">
         <f>SUM(G2:AK2)</f>
-        <v>892840</v>
+        <v>944840</v>
       </c>
       <c r="G2" s="2">
         <f>SUM(G3:G92)</f>
@@ -1598,11 +1601,11 @@
       </c>
       <c r="AB2" s="2">
         <f t="shared" si="1"/>
-        <v>13520</v>
+        <v>39520</v>
       </c>
       <c r="AC2" s="2">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>26000</v>
       </c>
       <c r="AD2" s="2">
         <f t="shared" si="1"/>
@@ -1637,7 +1640,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" s="3" customFormat="1" spans="1:22">
+    <row r="3" s="3" customFormat="1" spans="1:28">
       <c r="A3" s="3">
         <v>1</v>
       </c>
@@ -1649,13 +1652,16 @@
       </c>
       <c r="E3" s="9">
         <f t="shared" ref="E3:E34" si="2">F3/1.04</f>
-        <v>3000</v>
+        <v>6000</v>
       </c>
       <c r="F3" s="9">
         <f t="shared" ref="F3:F34" si="3">SUM(G3:AK3)</f>
-        <v>3120</v>
+        <v>6240</v>
       </c>
       <c r="V3" s="3">
+        <v>3120</v>
+      </c>
+      <c r="AB3" s="3">
         <v>3120</v>
       </c>
     </row>
@@ -1684,7 +1690,7 @@
         <v>2080</v>
       </c>
     </row>
-    <row r="5" s="3" customFormat="1" spans="1:25">
+    <row r="5" s="3" customFormat="1" spans="1:29">
       <c r="A5" s="3">
         <v>3</v>
       </c>
@@ -1696,11 +1702,11 @@
       </c>
       <c r="E5" s="9">
         <f t="shared" si="2"/>
-        <v>10000</v>
+        <v>11000</v>
       </c>
       <c r="F5" s="9">
         <f t="shared" si="3"/>
-        <v>10400</v>
+        <v>11440</v>
       </c>
       <c r="I5" s="3">
         <v>2080</v>
@@ -1723,8 +1729,11 @@
       <c r="Y5" s="3">
         <v>1040</v>
       </c>
-    </row>
-    <row r="6" s="3" customFormat="1" spans="1:22">
+      <c r="AC5" s="3">
+        <v>1040</v>
+      </c>
+    </row>
+    <row r="6" s="3" customFormat="1" spans="1:29">
       <c r="A6" s="3">
         <v>4</v>
       </c>
@@ -1736,11 +1745,11 @@
       </c>
       <c r="E6" s="9">
         <f t="shared" si="2"/>
-        <v>19500</v>
+        <v>24500</v>
       </c>
       <c r="F6" s="9">
         <f t="shared" si="3"/>
-        <v>20280</v>
+        <v>25480</v>
       </c>
       <c r="H6" s="3">
         <v>1560</v>
@@ -1763,8 +1772,11 @@
       <c r="V6" s="3">
         <v>5200</v>
       </c>
-    </row>
-    <row r="7" s="3" customFormat="1" spans="1:28">
+      <c r="AC6" s="3">
+        <v>5200</v>
+      </c>
+    </row>
+    <row r="7" s="3" customFormat="1" spans="1:29">
       <c r="A7" s="3">
         <v>5</v>
       </c>
@@ -1776,11 +1788,11 @@
       </c>
       <c r="E7" s="9">
         <f t="shared" si="2"/>
-        <v>44000</v>
+        <v>46000</v>
       </c>
       <c r="F7" s="9">
         <f t="shared" si="3"/>
-        <v>45760</v>
+        <v>47840</v>
       </c>
       <c r="H7" s="3">
         <v>2080</v>
@@ -1819,6 +1831,9 @@
         <v>2080</v>
       </c>
       <c r="AB7" s="3">
+        <v>2080</v>
+      </c>
+      <c r="AC7" s="3">
         <v>2080</v>
       </c>
     </row>
@@ -1924,7 +1939,7 @@
         <v>5200</v>
       </c>
     </row>
-    <row r="11" s="3" customFormat="1" spans="1:22">
+    <row r="11" s="3" customFormat="1" spans="1:28">
       <c r="A11" s="3">
         <v>9</v>
       </c>
@@ -1936,11 +1951,11 @@
       </c>
       <c r="E11" s="9">
         <f t="shared" si="2"/>
-        <v>11000</v>
+        <v>13000</v>
       </c>
       <c r="F11" s="9">
         <f t="shared" si="3"/>
-        <v>11440</v>
+        <v>13520</v>
       </c>
       <c r="H11" s="3">
         <v>2080</v>
@@ -1958,6 +1973,9 @@
         <v>3120</v>
       </c>
       <c r="V11" s="3">
+        <v>2080</v>
+      </c>
+      <c r="AB11" s="3">
         <v>2080</v>
       </c>
     </row>
@@ -2081,7 +2099,7 @@
         <v>5200</v>
       </c>
     </row>
-    <row r="15" s="3" customFormat="1" spans="1:22">
+    <row r="15" s="3" customFormat="1" spans="1:28">
       <c r="A15" s="3">
         <v>13</v>
       </c>
@@ -2096,16 +2114,19 @@
       </c>
       <c r="E15" s="9">
         <f t="shared" si="2"/>
-        <v>4000</v>
+        <v>6000</v>
       </c>
       <c r="F15" s="9">
         <f t="shared" si="3"/>
-        <v>4160</v>
+        <v>6240</v>
       </c>
       <c r="T15" s="3">
         <v>2080</v>
       </c>
       <c r="V15" s="3">
+        <v>2080</v>
+      </c>
+      <c r="AB15" s="3">
         <v>2080</v>
       </c>
     </row>
@@ -2180,7 +2201,7 @@
         <v>5200</v>
       </c>
     </row>
-    <row r="18" s="3" customFormat="1" spans="1:25">
+    <row r="18" s="3" customFormat="1" spans="1:28">
       <c r="A18" s="3">
         <v>16</v>
       </c>
@@ -2192,11 +2213,11 @@
       </c>
       <c r="E18" s="9">
         <f t="shared" si="2"/>
-        <v>3000</v>
+        <v>4000</v>
       </c>
       <c r="F18" s="9">
         <f t="shared" si="3"/>
-        <v>3120</v>
+        <v>4160</v>
       </c>
       <c r="R18" s="3">
         <v>1040</v>
@@ -2205,6 +2226,9 @@
         <v>1040</v>
       </c>
       <c r="Y18" s="3">
+        <v>1040</v>
+      </c>
+      <c r="AB18" s="3">
         <v>1040</v>
       </c>
     </row>
@@ -2273,7 +2297,7 @@
         <v>5200</v>
       </c>
     </row>
-    <row r="21" s="3" customFormat="1" spans="1:23">
+    <row r="21" s="3" customFormat="1" spans="1:28">
       <c r="A21" s="3">
         <v>19</v>
       </c>
@@ -2285,11 +2309,11 @@
       </c>
       <c r="E21" s="9">
         <f t="shared" si="2"/>
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="F21" s="9">
         <f t="shared" si="3"/>
-        <v>6240</v>
+        <v>7280</v>
       </c>
       <c r="J21" s="3">
         <v>2080</v>
@@ -2304,6 +2328,9 @@
         <v>1040</v>
       </c>
       <c r="W21" s="3">
+        <v>1040</v>
+      </c>
+      <c r="AB21" s="3">
         <v>1040</v>
       </c>
     </row>
@@ -2338,7 +2365,7 @@
         <v>3120</v>
       </c>
     </row>
-    <row r="23" s="3" customFormat="1" spans="1:23">
+    <row r="23" s="3" customFormat="1" spans="1:28">
       <c r="A23" s="3">
         <v>21</v>
       </c>
@@ -2350,11 +2377,11 @@
       </c>
       <c r="E23" s="9">
         <f t="shared" si="2"/>
-        <v>12000</v>
+        <v>17000</v>
       </c>
       <c r="F23" s="9">
         <f t="shared" si="3"/>
-        <v>12480</v>
+        <v>17680</v>
       </c>
       <c r="T23" s="12">
         <v>2080</v>
@@ -2365,8 +2392,11 @@
       <c r="W23" s="3">
         <v>5200</v>
       </c>
-    </row>
-    <row r="24" s="3" customFormat="1" spans="1:26">
+      <c r="AB23" s="3">
+        <v>5200</v>
+      </c>
+    </row>
+    <row r="24" s="3" customFormat="1" spans="1:29">
       <c r="A24" s="3">
         <v>22</v>
       </c>
@@ -2378,11 +2408,11 @@
       </c>
       <c r="E24" s="9">
         <f t="shared" si="2"/>
-        <v>18000</v>
+        <v>21000</v>
       </c>
       <c r="F24" s="9">
         <f t="shared" si="3"/>
-        <v>18720</v>
+        <v>21840</v>
       </c>
       <c r="H24" s="3">
         <v>3120</v>
@@ -2397,6 +2427,9 @@
         <v>3120</v>
       </c>
       <c r="Z24" s="3">
+        <v>3120</v>
+      </c>
+      <c r="AC24" s="3">
         <v>3120</v>
       </c>
     </row>
@@ -2440,7 +2473,7 @@
         <v>2080</v>
       </c>
     </row>
-    <row r="26" s="3" customFormat="1" spans="1:21">
+    <row r="26" s="3" customFormat="1" spans="1:28">
       <c r="A26" s="3">
         <v>24</v>
       </c>
@@ -2452,16 +2485,19 @@
       </c>
       <c r="E26" s="9">
         <f t="shared" si="2"/>
-        <v>3000</v>
+        <v>5000</v>
       </c>
       <c r="F26" s="9">
         <f t="shared" si="3"/>
-        <v>3120</v>
+        <v>5200</v>
       </c>
       <c r="L26" s="3">
         <v>1040</v>
       </c>
       <c r="U26" s="3">
+        <v>2080</v>
+      </c>
+      <c r="AB26" s="3">
         <v>2080</v>
       </c>
     </row>
@@ -2533,7 +2569,7 @@
         <v>5200</v>
       </c>
     </row>
-    <row r="29" s="3" customFormat="1" spans="1:26">
+    <row r="29" s="3" customFormat="1" spans="1:29">
       <c r="A29" s="3">
         <v>27</v>
       </c>
@@ -2545,11 +2581,11 @@
       </c>
       <c r="E29" s="9">
         <f t="shared" si="2"/>
-        <v>44000</v>
+        <v>49000</v>
       </c>
       <c r="F29" s="9">
         <f t="shared" si="3"/>
-        <v>45760</v>
+        <v>50960</v>
       </c>
       <c r="I29" s="3">
         <v>2080</v>
@@ -2579,6 +2615,9 @@
         <v>5200</v>
       </c>
       <c r="Z29" s="3">
+        <v>5200</v>
+      </c>
+      <c r="AC29" s="3">
         <v>5200</v>
       </c>
     </row>
@@ -3086,7 +3125,7 @@
         <v>3120</v>
       </c>
     </row>
-    <row r="45" s="3" customFormat="1" spans="1:25">
+    <row r="45" s="3" customFormat="1" spans="1:28">
       <c r="A45" s="3">
         <v>43</v>
       </c>
@@ -3098,11 +3137,11 @@
       </c>
       <c r="E45" s="9">
         <f t="shared" si="4"/>
-        <v>16000</v>
+        <v>19000</v>
       </c>
       <c r="F45" s="9">
         <f t="shared" si="5"/>
-        <v>16640</v>
+        <v>19760</v>
       </c>
       <c r="J45" s="3">
         <v>2080</v>
@@ -3120,6 +3159,9 @@
         <v>3120</v>
       </c>
       <c r="Y45" s="3">
+        <v>3120</v>
+      </c>
+      <c r="AB45" s="3">
         <v>3120</v>
       </c>
     </row>
@@ -3361,7 +3403,7 @@
         <v>2080</v>
       </c>
     </row>
-    <row r="53" s="3" customFormat="1" spans="1:26">
+    <row r="53" s="3" customFormat="1" spans="1:29">
       <c r="A53" s="3">
         <v>51</v>
       </c>
@@ -3373,11 +3415,11 @@
       </c>
       <c r="E53" s="9">
         <f t="shared" si="4"/>
-        <v>23000</v>
+        <v>28000</v>
       </c>
       <c r="F53" s="9">
         <f t="shared" si="5"/>
-        <v>23920</v>
+        <v>29120</v>
       </c>
       <c r="M53" s="3">
         <v>3120</v>
@@ -3392,6 +3434,9 @@
         <v>5200</v>
       </c>
       <c r="Z53" s="3">
+        <v>5200</v>
+      </c>
+      <c r="AC53" s="3">
         <v>5200</v>
       </c>
     </row>
@@ -3926,7 +3971,7 @@
         <v>4160</v>
       </c>
     </row>
-    <row r="70" s="3" customFormat="1" spans="1:17">
+    <row r="70" s="3" customFormat="1" spans="1:28">
       <c r="A70" s="3">
         <v>68</v>
       </c>
@@ -3937,13 +3982,16 @@
       </c>
       <c r="E70" s="9">
         <f t="shared" si="6"/>
-        <v>2000</v>
+        <v>4000</v>
       </c>
       <c r="F70" s="9">
         <f t="shared" si="7"/>
-        <v>2080</v>
+        <v>4160</v>
       </c>
       <c r="Q70" s="3">
+        <v>2080</v>
+      </c>
+      <c r="AB70" s="12">
         <v>2080</v>
       </c>
     </row>
@@ -4139,7 +4187,7 @@
       <c r="W79" s="13"/>
       <c r="X79" s="13"/>
     </row>
-    <row r="80" s="3" customFormat="1" spans="1:6">
+    <row r="80" s="3" customFormat="1" spans="1:29">
       <c r="A80" s="3">
         <v>78</v>
       </c>
@@ -4150,11 +4198,17 @@
       </c>
       <c r="E80" s="9">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="F80" s="9">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>5200</v>
+      </c>
+      <c r="AB80" s="12">
+        <v>2080</v>
+      </c>
+      <c r="AC80" s="3">
+        <v>3120</v>
       </c>
     </row>
     <row r="81" s="3" customFormat="1" spans="1:6">
@@ -4204,7 +4258,7 @@
       <c r="P82" s="13"/>
       <c r="Q82" s="13"/>
     </row>
-    <row r="83" s="3" customFormat="1" spans="1:25">
+    <row r="83" s="3" customFormat="1" spans="1:28">
       <c r="A83" s="3">
         <v>81</v>
       </c>
@@ -4215,11 +4269,11 @@
       </c>
       <c r="E83" s="9">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>2000</v>
       </c>
       <c r="F83" s="9">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>2080</v>
       </c>
       <c r="G83" s="13"/>
       <c r="H83" s="13"/>
@@ -4240,8 +4294,11 @@
       <c r="W83" s="13"/>
       <c r="X83" s="13"/>
       <c r="Y83" s="13"/>
-    </row>
-    <row r="84" s="3" customFormat="1" spans="1:6">
+      <c r="AB83" s="12">
+        <v>2080</v>
+      </c>
+    </row>
+    <row r="84" s="3" customFormat="1" spans="1:29">
       <c r="A84" s="3">
         <v>82</v>
       </c>
@@ -4252,11 +4309,14 @@
       </c>
       <c r="E84" s="9">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="F84" s="9">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>1040</v>
+      </c>
+      <c r="AC84" s="3">
+        <v>1040</v>
       </c>
     </row>
     <row r="85" s="3" customFormat="1" spans="1:22">
@@ -4405,6 +4465,22 @@
         <v>0</v>
       </c>
     </row>
+    <row r="93" spans="1:6">
+      <c r="A93" s="3">
+        <v>91</v>
+      </c>
+      <c r="D93" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="E93" s="9">
+        <f>F93/1.04</f>
+        <v>0</v>
+      </c>
+      <c r="F93" s="9">
+        <f>SUM(G93:AK93)</f>
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>

--- a/Daily Orders/December-2020-RetailerWiseOrder.xlsx
+++ b/Daily Orders/December-2020-RetailerWiseOrder.xlsx
@@ -16,8 +16,109 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>Vijay</author>
+  </authors>
+  <commentList>
+    <comment ref="AC7" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="Times New Roman"/>
+            <charset val="0"/>
+          </rPr>
+          <t>Vijay:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="Times New Roman"/>
+            <charset val="0"/>
+          </rPr>
+          <t xml:space="preserve">
+2080+2080</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AD18" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="Times New Roman"/>
+            <charset val="0"/>
+          </rPr>
+          <t>Vijay:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="Times New Roman"/>
+            <charset val="0"/>
+          </rPr>
+          <t xml:space="preserve">
+1040- Auto
+2080- Manual</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AC69" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="Times New Roman"/>
+            <charset val="0"/>
+          </rPr>
+          <t>Vijay:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="Times New Roman"/>
+            <charset val="0"/>
+          </rPr>
+          <t xml:space="preserve">
+3120- Manual
+1040-Auto</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AE69" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="Times New Roman"/>
+            <charset val="0"/>
+          </rPr>
+          <t>Vijay:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="Times New Roman"/>
+            <charset val="0"/>
+          </rPr>
+          <t xml:space="preserve">
+2080 - Manual
+1560 - Manual</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="111">
   <si>
     <t>S.No.</t>
   </si>
@@ -205,6 +306,9 @@
     <t>DIVYANKA MOBILE CENTER(660315660)</t>
   </si>
   <si>
+    <t>Neha Phonex(660614432)</t>
+  </si>
+  <si>
     <t>PARASI</t>
   </si>
   <si>
@@ -307,6 +411,9 @@
     <t>sugam phone bathe(661711006)</t>
   </si>
   <si>
+    <t>Arwal</t>
+  </si>
+  <si>
     <t>RAJ PHONE HIRDYACHAK(661712682)</t>
   </si>
   <si>
@@ -317,9 +424,6 @@
   </si>
   <si>
     <t>KRISHNA KIRANA STORE(661613674)</t>
-  </si>
-  <si>
-    <t>Neha Phonex(660614432)</t>
   </si>
   <si>
     <t>SURAJ KIRANA STORE(661735618)</t>
@@ -354,13 +458,13 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="178" formatCode="[$-409]d\-mmm;@"/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -377,6 +481,45 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
@@ -384,8 +527,24 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -406,58 +565,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="18"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -469,14 +581,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="Calibri"/>
@@ -484,16 +588,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -515,10 +619,21 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="Times New Roman"/>
+      <charset val="0"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <name val="Times New Roman"/>
+      <charset val="0"/>
     </font>
   </fonts>
   <fills count="38">
@@ -560,7 +675,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -572,7 +693,157 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -584,163 +855,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -754,17 +869,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -784,6 +893,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -799,35 +923,17 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
       </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
       </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
       </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -846,6 +952,15 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
       </bottom>
@@ -856,7 +971,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -874,130 +989,130 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1372,11 +1487,11 @@
   <dimension ref="A1:AK93"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="6" ySplit="2" topLeftCell="W76" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="6" ySplit="2" topLeftCell="AA37" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="X93" sqref="X93"/>
+      <selection pane="bottomRight" activeCell="A51" sqref="A51:A93"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15"/>
@@ -1509,11 +1624,11 @@
       </c>
       <c r="E2" s="7">
         <f>F2/1.04</f>
-        <v>908500</v>
+        <v>1041000</v>
       </c>
       <c r="F2" s="8">
         <f>SUM(G2:AK2)</f>
-        <v>944840</v>
+        <v>1082640</v>
       </c>
       <c r="G2" s="2">
         <f>SUM(G3:G92)</f>
@@ -1605,19 +1720,19 @@
       </c>
       <c r="AC2" s="2">
         <f t="shared" si="1"/>
-        <v>26000</v>
+        <v>73840</v>
       </c>
       <c r="AD2" s="2">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>36400</v>
       </c>
       <c r="AE2" s="2">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>43160</v>
       </c>
       <c r="AF2" s="2">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>10400</v>
       </c>
       <c r="AG2" s="2">
         <f t="shared" si="1"/>
@@ -1690,7 +1805,7 @@
         <v>2080</v>
       </c>
     </row>
-    <row r="5" s="3" customFormat="1" spans="1:29">
+    <row r="5" s="3" customFormat="1" spans="1:30">
       <c r="A5" s="3">
         <v>3</v>
       </c>
@@ -1702,11 +1817,11 @@
       </c>
       <c r="E5" s="9">
         <f t="shared" si="2"/>
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="F5" s="9">
         <f t="shared" si="3"/>
-        <v>11440</v>
+        <v>12480</v>
       </c>
       <c r="I5" s="3">
         <v>2080</v>
@@ -1730,6 +1845,9 @@
         <v>1040</v>
       </c>
       <c r="AC5" s="3">
+        <v>1040</v>
+      </c>
+      <c r="AD5" s="3">
         <v>1040</v>
       </c>
     </row>
@@ -1776,7 +1894,7 @@
         <v>5200</v>
       </c>
     </row>
-    <row r="7" s="3" customFormat="1" spans="1:29">
+    <row r="7" s="3" customFormat="1" spans="1:31">
       <c r="A7" s="3">
         <v>5</v>
       </c>
@@ -1788,11 +1906,11 @@
       </c>
       <c r="E7" s="9">
         <f t="shared" si="2"/>
-        <v>46000</v>
+        <v>52000</v>
       </c>
       <c r="F7" s="9">
         <f t="shared" si="3"/>
-        <v>47840</v>
+        <v>54080</v>
       </c>
       <c r="H7" s="3">
         <v>2080</v>
@@ -1834,6 +1952,12 @@
         <v>2080</v>
       </c>
       <c r="AC7" s="3">
+        <v>4160</v>
+      </c>
+      <c r="AD7" s="3">
+        <v>2080</v>
+      </c>
+      <c r="AE7" s="3">
         <v>2080</v>
       </c>
     </row>
@@ -1893,7 +2017,7 @@
         <v>2080</v>
       </c>
     </row>
-    <row r="10" s="3" customFormat="1" spans="1:26">
+    <row r="10" s="3" customFormat="1" spans="1:29">
       <c r="A10" s="3">
         <v>8</v>
       </c>
@@ -1905,11 +2029,11 @@
       </c>
       <c r="E10" s="9">
         <f t="shared" si="2"/>
-        <v>30000</v>
+        <v>35000</v>
       </c>
       <c r="F10" s="9">
         <f t="shared" si="3"/>
-        <v>31200</v>
+        <v>36400</v>
       </c>
       <c r="H10" s="3">
         <v>2080</v>
@@ -1936,6 +2060,9 @@
         <v>5200</v>
       </c>
       <c r="Z10" s="3">
+        <v>5200</v>
+      </c>
+      <c r="AC10" s="3">
         <v>5200</v>
       </c>
     </row>
@@ -1979,7 +2106,7 @@
         <v>2080</v>
       </c>
     </row>
-    <row r="12" s="3" customFormat="1" spans="1:23">
+    <row r="12" s="3" customFormat="1" spans="1:29">
       <c r="A12" s="3">
         <v>10</v>
       </c>
@@ -1991,11 +2118,11 @@
       </c>
       <c r="E12" s="9">
         <f t="shared" si="2"/>
-        <v>4000</v>
+        <v>5000</v>
       </c>
       <c r="F12" s="9">
         <f t="shared" si="3"/>
-        <v>4160</v>
+        <v>5200</v>
       </c>
       <c r="H12" s="3">
         <v>1040</v>
@@ -2009,8 +2136,11 @@
       <c r="W12" s="12">
         <v>1040</v>
       </c>
-    </row>
-    <row r="13" s="3" customFormat="1" spans="1:23">
+      <c r="AC12" s="12">
+        <v>1040</v>
+      </c>
+    </row>
+    <row r="13" s="3" customFormat="1" spans="1:30">
       <c r="A13" s="3">
         <v>11</v>
       </c>
@@ -2022,11 +2152,11 @@
       </c>
       <c r="E13" s="9">
         <f t="shared" si="2"/>
-        <v>23000</v>
+        <v>28000</v>
       </c>
       <c r="F13" s="9">
         <f t="shared" si="3"/>
-        <v>23920</v>
+        <v>29120</v>
       </c>
       <c r="H13" s="3">
         <v>2080</v>
@@ -2049,8 +2179,11 @@
       <c r="W13" s="3">
         <v>5200</v>
       </c>
-    </row>
-    <row r="14" s="3" customFormat="1" spans="1:27">
+      <c r="AD13" s="3">
+        <v>5200</v>
+      </c>
+    </row>
+    <row r="14" s="3" customFormat="1" spans="1:31">
       <c r="A14" s="3">
         <v>12</v>
       </c>
@@ -2062,11 +2195,11 @@
       </c>
       <c r="E14" s="9">
         <f t="shared" si="2"/>
-        <v>39000</v>
+        <v>44000</v>
       </c>
       <c r="F14" s="9">
         <f t="shared" si="3"/>
-        <v>40560</v>
+        <v>45760</v>
       </c>
       <c r="H14" s="3">
         <v>2080</v>
@@ -2096,6 +2229,9 @@
         <v>5200</v>
       </c>
       <c r="AA14" s="3">
+        <v>5200</v>
+      </c>
+      <c r="AE14" s="3">
         <v>5200</v>
       </c>
     </row>
@@ -2130,7 +2266,7 @@
         <v>2080</v>
       </c>
     </row>
-    <row r="16" s="3" customFormat="1" spans="1:24">
+    <row r="16" s="3" customFormat="1" spans="1:30">
       <c r="A16" s="3">
         <v>14</v>
       </c>
@@ -2142,11 +2278,11 @@
       </c>
       <c r="E16" s="9">
         <f t="shared" si="2"/>
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="F16" s="9">
         <f t="shared" si="3"/>
-        <v>12480</v>
+        <v>15600</v>
       </c>
       <c r="M16" s="3">
         <v>2080</v>
@@ -2161,6 +2297,9 @@
         <v>3120</v>
       </c>
       <c r="X16" s="3">
+        <v>3120</v>
+      </c>
+      <c r="AD16" s="3">
         <v>3120</v>
       </c>
     </row>
@@ -2201,7 +2340,7 @@
         <v>5200</v>
       </c>
     </row>
-    <row r="18" s="3" customFormat="1" spans="1:28">
+    <row r="18" s="3" customFormat="1" spans="1:30">
       <c r="A18" s="3">
         <v>16</v>
       </c>
@@ -2213,11 +2352,11 @@
       </c>
       <c r="E18" s="9">
         <f t="shared" si="2"/>
-        <v>4000</v>
+        <v>7000</v>
       </c>
       <c r="F18" s="9">
         <f t="shared" si="3"/>
-        <v>4160</v>
+        <v>7280</v>
       </c>
       <c r="R18" s="3">
         <v>1040</v>
@@ -2231,8 +2370,11 @@
       <c r="AB18" s="3">
         <v>1040</v>
       </c>
-    </row>
-    <row r="19" s="3" customFormat="1" spans="1:21">
+      <c r="AD18" s="12">
+        <v>3120</v>
+      </c>
+    </row>
+    <row r="19" s="3" customFormat="1" spans="1:30">
       <c r="A19" s="3">
         <v>17</v>
       </c>
@@ -2244,11 +2386,11 @@
       </c>
       <c r="E19" s="9">
         <f t="shared" si="2"/>
-        <v>9000</v>
+        <v>12000</v>
       </c>
       <c r="F19" s="9">
         <f t="shared" si="3"/>
-        <v>9360</v>
+        <v>12480</v>
       </c>
       <c r="J19" s="3">
         <v>1040</v>
@@ -2265,8 +2407,11 @@
       <c r="U19" s="3">
         <v>3120</v>
       </c>
-    </row>
-    <row r="20" s="3" customFormat="1" spans="1:23">
+      <c r="AD19" s="3">
+        <v>3120</v>
+      </c>
+    </row>
+    <row r="20" s="3" customFormat="1" spans="1:30">
       <c r="A20" s="3">
         <v>18</v>
       </c>
@@ -2278,11 +2423,11 @@
       </c>
       <c r="E20" s="9">
         <f t="shared" si="2"/>
-        <v>17000</v>
+        <v>22000</v>
       </c>
       <c r="F20" s="9">
         <f t="shared" si="3"/>
-        <v>17680</v>
+        <v>22880</v>
       </c>
       <c r="O20" s="3">
         <v>2080</v>
@@ -2294,6 +2439,9 @@
         <v>5200</v>
       </c>
       <c r="W20" s="3">
+        <v>5200</v>
+      </c>
+      <c r="AD20" s="3">
         <v>5200</v>
       </c>
     </row>
@@ -2334,7 +2482,7 @@
         <v>1040</v>
       </c>
     </row>
-    <row r="22" s="3" customFormat="1" spans="1:23">
+    <row r="22" s="3" customFormat="1" spans="1:31">
       <c r="A22" s="3">
         <v>20</v>
       </c>
@@ -2346,11 +2494,11 @@
       </c>
       <c r="E22" s="9">
         <f t="shared" si="2"/>
-        <v>12000</v>
+        <v>18000</v>
       </c>
       <c r="F22" s="9">
         <f t="shared" si="3"/>
-        <v>12480</v>
+        <v>18720</v>
       </c>
       <c r="I22" s="3">
         <v>3120</v>
@@ -2364,8 +2512,14 @@
       <c r="W22" s="3">
         <v>3120</v>
       </c>
-    </row>
-    <row r="23" s="3" customFormat="1" spans="1:28">
+      <c r="AC22" s="3">
+        <v>3120</v>
+      </c>
+      <c r="AE22" s="3">
+        <v>3120</v>
+      </c>
+    </row>
+    <row r="23" s="3" customFormat="1" spans="1:32">
       <c r="A23" s="3">
         <v>21</v>
       </c>
@@ -2377,11 +2531,11 @@
       </c>
       <c r="E23" s="9">
         <f t="shared" si="2"/>
-        <v>17000</v>
+        <v>22000</v>
       </c>
       <c r="F23" s="9">
         <f t="shared" si="3"/>
-        <v>17680</v>
+        <v>22880</v>
       </c>
       <c r="T23" s="12">
         <v>2080</v>
@@ -2393,6 +2547,9 @@
         <v>5200</v>
       </c>
       <c r="AB23" s="3">
+        <v>5200</v>
+      </c>
+      <c r="AF23" s="3">
         <v>5200</v>
       </c>
     </row>
@@ -2535,7 +2692,7 @@
         <v>2080</v>
       </c>
     </row>
-    <row r="28" s="3" customFormat="1" spans="1:22">
+    <row r="28" s="3" customFormat="1" spans="1:31">
       <c r="A28" s="3">
         <v>26</v>
       </c>
@@ -2547,11 +2704,11 @@
       </c>
       <c r="E28" s="9">
         <f t="shared" si="2"/>
-        <v>17000</v>
+        <v>22000</v>
       </c>
       <c r="F28" s="9">
         <f t="shared" si="3"/>
-        <v>17680</v>
+        <v>22880</v>
       </c>
       <c r="H28" s="3">
         <v>2080</v>
@@ -2566,6 +2723,9 @@
         <v>5200</v>
       </c>
       <c r="V28" s="3">
+        <v>5200</v>
+      </c>
+      <c r="AE28" s="3">
         <v>5200</v>
       </c>
     </row>
@@ -2621,7 +2781,7 @@
         <v>5200</v>
       </c>
     </row>
-    <row r="30" s="3" customFormat="1" spans="1:24">
+    <row r="30" s="3" customFormat="1" spans="1:29">
       <c r="A30" s="3">
         <v>28</v>
       </c>
@@ -2633,11 +2793,11 @@
       </c>
       <c r="E30" s="9">
         <f t="shared" si="2"/>
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="F30" s="9">
         <f t="shared" si="3"/>
-        <v>10400</v>
+        <v>12480</v>
       </c>
       <c r="H30" s="3">
         <v>1040</v>
@@ -2657,8 +2817,11 @@
       <c r="X30" s="3">
         <v>2080</v>
       </c>
-    </row>
-    <row r="31" s="3" customFormat="1" spans="1:24">
+      <c r="AC30" s="3">
+        <v>2080</v>
+      </c>
+    </row>
+    <row r="31" s="3" customFormat="1" spans="1:31">
       <c r="A31" s="3">
         <v>29</v>
       </c>
@@ -2670,11 +2833,11 @@
       </c>
       <c r="E31" s="9">
         <f t="shared" si="2"/>
-        <v>9000</v>
+        <v>12000</v>
       </c>
       <c r="F31" s="9">
         <f t="shared" si="3"/>
-        <v>9360</v>
+        <v>12480</v>
       </c>
       <c r="I31" s="3">
         <v>2080</v>
@@ -2688,8 +2851,11 @@
       <c r="X31" s="3">
         <v>3120</v>
       </c>
-    </row>
-    <row r="32" s="3" customFormat="1" spans="1:23">
+      <c r="AE31" s="3">
+        <v>3120</v>
+      </c>
+    </row>
+    <row r="32" s="3" customFormat="1" spans="1:31">
       <c r="A32" s="3">
         <v>30</v>
       </c>
@@ -2701,11 +2867,11 @@
       </c>
       <c r="E32" s="9">
         <f t="shared" si="2"/>
-        <v>5000</v>
+        <v>6000</v>
       </c>
       <c r="F32" s="9">
         <f t="shared" si="3"/>
-        <v>5200</v>
+        <v>6240</v>
       </c>
       <c r="I32" s="3">
         <v>1040</v>
@@ -2722,8 +2888,11 @@
       <c r="W32" s="3">
         <v>1040</v>
       </c>
-    </row>
-    <row r="33" s="3" customFormat="1" spans="1:12">
+      <c r="AE32" s="3">
+        <v>1040</v>
+      </c>
+    </row>
+    <row r="33" s="3" customFormat="1" spans="1:31">
       <c r="A33" s="3">
         <v>31</v>
       </c>
@@ -2735,11 +2904,11 @@
       </c>
       <c r="E33" s="9">
         <f t="shared" si="2"/>
-        <v>3000</v>
+        <v>5000</v>
       </c>
       <c r="F33" s="9">
         <f t="shared" si="3"/>
-        <v>3120</v>
+        <v>5200</v>
       </c>
       <c r="I33" s="3">
         <v>1040</v>
@@ -2747,8 +2916,11 @@
       <c r="L33" s="3">
         <v>2080</v>
       </c>
-    </row>
-    <row r="34" s="3" customFormat="1" spans="1:28">
+      <c r="AE33" s="3">
+        <v>2080</v>
+      </c>
+    </row>
+    <row r="34" s="3" customFormat="1" spans="1:31">
       <c r="A34" s="3">
         <v>32</v>
       </c>
@@ -2760,11 +2932,11 @@
       </c>
       <c r="E34" s="9">
         <f t="shared" si="2"/>
-        <v>21000</v>
+        <v>24000</v>
       </c>
       <c r="F34" s="9">
         <f t="shared" si="3"/>
-        <v>21840</v>
+        <v>24960</v>
       </c>
       <c r="I34" s="3">
         <v>2080</v>
@@ -2793,8 +2965,11 @@
       <c r="AB34" s="3">
         <v>3120</v>
       </c>
-    </row>
-    <row r="35" s="3" customFormat="1" spans="1:22">
+      <c r="AE34" s="3">
+        <v>3120</v>
+      </c>
+    </row>
+    <row r="35" s="3" customFormat="1" spans="1:29">
       <c r="A35" s="3">
         <v>33</v>
       </c>
@@ -2806,13 +2981,16 @@
       </c>
       <c r="E35" s="9">
         <f t="shared" ref="E35:E66" si="4">F35/1.04</f>
-        <v>2000</v>
+        <v>4000</v>
       </c>
       <c r="F35" s="9">
         <f t="shared" ref="F35:F66" si="5">SUM(G35:AK35)</f>
-        <v>2080</v>
+        <v>4160</v>
       </c>
       <c r="V35" s="12">
+        <v>2080</v>
+      </c>
+      <c r="AC35" s="12">
         <v>2080</v>
       </c>
     </row>
@@ -2884,7 +3062,7 @@
         <v>2080</v>
       </c>
     </row>
-    <row r="38" s="3" customFormat="1" spans="1:27">
+    <row r="38" s="3" customFormat="1" spans="1:32">
       <c r="A38" s="3">
         <v>36</v>
       </c>
@@ -2896,11 +3074,11 @@
       </c>
       <c r="E38" s="9">
         <f t="shared" si="4"/>
-        <v>10000</v>
+        <v>12000</v>
       </c>
       <c r="F38" s="9">
         <f t="shared" si="5"/>
-        <v>10400</v>
+        <v>12480</v>
       </c>
       <c r="M38" s="3">
         <v>2080</v>
@@ -2915,6 +3093,9 @@
         <v>2080</v>
       </c>
       <c r="AA38" s="3">
+        <v>2080</v>
+      </c>
+      <c r="AF38" s="3">
         <v>2080</v>
       </c>
     </row>
@@ -2952,7 +3133,7 @@
         <v>2080</v>
       </c>
     </row>
-    <row r="40" s="3" customFormat="1" spans="1:26">
+    <row r="40" s="3" customFormat="1" spans="1:31">
       <c r="A40" s="3">
         <v>38</v>
       </c>
@@ -2964,11 +3145,11 @@
       </c>
       <c r="E40" s="9">
         <f t="shared" si="4"/>
-        <v>27000</v>
+        <v>33000</v>
       </c>
       <c r="F40" s="9">
         <f t="shared" si="5"/>
-        <v>28080</v>
+        <v>34320</v>
       </c>
       <c r="I40" s="3">
         <v>2080</v>
@@ -3001,6 +3182,12 @@
         <v>3120</v>
       </c>
       <c r="Z40" s="3">
+        <v>3120</v>
+      </c>
+      <c r="AC40" s="3">
+        <v>3120</v>
+      </c>
+      <c r="AE40" s="3">
         <v>3120</v>
       </c>
     </row>
@@ -3051,7 +3238,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" s="3" customFormat="1" spans="1:24">
+    <row r="43" s="3" customFormat="1" spans="1:29">
       <c r="A43" s="3">
         <v>41</v>
       </c>
@@ -3063,11 +3250,11 @@
       </c>
       <c r="E43" s="9">
         <f t="shared" si="4"/>
-        <v>15000</v>
+        <v>18000</v>
       </c>
       <c r="F43" s="9">
         <f t="shared" si="5"/>
-        <v>15600</v>
+        <v>18720</v>
       </c>
       <c r="H43" s="3">
         <v>3120</v>
@@ -3087,8 +3274,11 @@
       <c r="X43" s="3">
         <v>3120</v>
       </c>
-    </row>
-    <row r="44" s="3" customFormat="1" spans="1:27">
+      <c r="AC43" s="3">
+        <v>3120</v>
+      </c>
+    </row>
+    <row r="44" s="3" customFormat="1" spans="1:29">
       <c r="A44" s="3">
         <v>42</v>
       </c>
@@ -3100,11 +3290,11 @@
       </c>
       <c r="E44" s="9">
         <f t="shared" si="4"/>
-        <v>17000</v>
+        <v>20000</v>
       </c>
       <c r="F44" s="9">
         <f t="shared" si="5"/>
-        <v>17680</v>
+        <v>20800</v>
       </c>
       <c r="H44" s="3">
         <v>2080</v>
@@ -3122,6 +3312,9 @@
         <v>3120</v>
       </c>
       <c r="AA44" s="3">
+        <v>3120</v>
+      </c>
+      <c r="AC44" s="3">
         <v>3120</v>
       </c>
     </row>
@@ -3227,7 +3420,7 @@
         <v>3120</v>
       </c>
     </row>
-    <row r="48" s="3" customFormat="1" spans="1:26">
+    <row r="48" s="3" customFormat="1" spans="1:29">
       <c r="A48" s="3">
         <v>46</v>
       </c>
@@ -3239,11 +3432,11 @@
       </c>
       <c r="E48" s="9">
         <f t="shared" si="4"/>
-        <v>18000</v>
+        <v>21000</v>
       </c>
       <c r="F48" s="9">
         <f t="shared" si="5"/>
-        <v>18720</v>
+        <v>21840</v>
       </c>
       <c r="J48" s="3">
         <v>2080</v>
@@ -3264,6 +3457,9 @@
         <v>3120</v>
       </c>
       <c r="Z48" s="3">
+        <v>3120</v>
+      </c>
+      <c r="AC48" s="3">
         <v>3120</v>
       </c>
     </row>
@@ -3332,7 +3528,7 @@
         <v>2080</v>
       </c>
     </row>
-    <row r="51" s="3" customFormat="1" spans="1:27">
+    <row r="51" s="3" customFormat="1" spans="1:31">
       <c r="A51" s="3">
         <v>49</v>
       </c>
@@ -3344,11 +3540,11 @@
       </c>
       <c r="E51" s="9">
         <f t="shared" si="4"/>
-        <v>19000</v>
+        <v>22000</v>
       </c>
       <c r="F51" s="9">
         <f t="shared" si="5"/>
-        <v>19760</v>
+        <v>22880</v>
       </c>
       <c r="H51" s="3">
         <v>2080</v>
@@ -3371,273 +3567,292 @@
       <c r="AA51" s="3">
         <v>3120</v>
       </c>
-    </row>
-    <row r="52" s="3" customFormat="1" spans="1:23">
+      <c r="AE51" s="3">
+        <v>3120</v>
+      </c>
+    </row>
+    <row r="52" s="3" customFormat="1" spans="1:32">
       <c r="A52" s="3">
         <v>50</v>
       </c>
-      <c r="C52" s="3" t="s">
+      <c r="B52" s="10"/>
+      <c r="C52" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="D52" s="11" t="s">
         <v>62</v>
       </c>
-      <c r="D52" s="4" t="s">
-        <v>63</v>
-      </c>
       <c r="E52" s="9">
-        <f t="shared" si="4"/>
-        <v>7000</v>
+        <f>F52/1.04</f>
+        <v>3000</v>
       </c>
       <c r="F52" s="9">
-        <f t="shared" si="5"/>
-        <v>7280</v>
-      </c>
-      <c r="P52" s="3">
-        <v>1040</v>
-      </c>
-      <c r="R52" s="3">
-        <v>2080</v>
-      </c>
-      <c r="U52" s="3">
-        <v>2080</v>
-      </c>
-      <c r="W52" s="3">
-        <v>2080</v>
-      </c>
-    </row>
-    <row r="53" s="3" customFormat="1" spans="1:29">
+        <f>SUM(G52:AK52)</f>
+        <v>3120</v>
+      </c>
+      <c r="AC52" s="3">
+        <v>1040</v>
+      </c>
+      <c r="AD52" s="3">
+        <v>1040</v>
+      </c>
+      <c r="AF52" s="3">
+        <v>1040</v>
+      </c>
+    </row>
+    <row r="53" s="3" customFormat="1" spans="1:30">
       <c r="A53" s="3">
         <v>51</v>
       </c>
       <c r="C53" s="3" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D53" s="4" t="s">
         <v>64</v>
       </c>
       <c r="E53" s="9">
-        <f t="shared" si="4"/>
-        <v>28000</v>
+        <f>F53/1.04</f>
+        <v>9000</v>
       </c>
       <c r="F53" s="9">
-        <f t="shared" si="5"/>
-        <v>29120</v>
-      </c>
-      <c r="M53" s="3">
-        <v>3120</v>
-      </c>
-      <c r="N53" s="3">
-        <v>5200</v>
-      </c>
-      <c r="Q53" s="3">
-        <v>5200</v>
+        <f>SUM(G53:AK53)</f>
+        <v>9360</v>
+      </c>
+      <c r="P53" s="3">
+        <v>1040</v>
+      </c>
+      <c r="R53" s="3">
+        <v>2080</v>
       </c>
       <c r="U53" s="3">
-        <v>5200</v>
-      </c>
-      <c r="Z53" s="3">
-        <v>5200</v>
-      </c>
-      <c r="AC53" s="3">
-        <v>5200</v>
-      </c>
-    </row>
-    <row r="54" s="3" customFormat="1" spans="1:26">
+        <v>2080</v>
+      </c>
+      <c r="W53" s="3">
+        <v>2080</v>
+      </c>
+      <c r="AD53" s="3">
+        <v>2080</v>
+      </c>
+    </row>
+    <row r="54" s="3" customFormat="1" spans="1:29">
       <c r="A54" s="3">
         <v>52</v>
       </c>
       <c r="C54" s="3" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D54" s="4" t="s">
         <v>65</v>
       </c>
       <c r="E54" s="9">
-        <f t="shared" si="4"/>
-        <v>5500</v>
+        <f>F54/1.04</f>
+        <v>28000</v>
       </c>
       <c r="F54" s="9">
-        <f t="shared" si="5"/>
-        <v>5720</v>
+        <f>SUM(G54:AK54)</f>
+        <v>29120</v>
       </c>
       <c r="M54" s="3">
-        <v>1560</v>
-      </c>
-      <c r="T54" s="3">
-        <v>2080</v>
+        <v>3120</v>
+      </c>
+      <c r="N54" s="3">
+        <v>5200</v>
+      </c>
+      <c r="Q54" s="3">
+        <v>5200</v>
+      </c>
+      <c r="U54" s="3">
+        <v>5200</v>
       </c>
       <c r="Z54" s="3">
-        <v>2080</v>
-      </c>
-    </row>
-    <row r="55" s="3" customFormat="1" spans="1:16">
+        <v>5200</v>
+      </c>
+      <c r="AC54" s="3">
+        <v>5200</v>
+      </c>
+    </row>
+    <row r="55" s="3" customFormat="1" spans="1:26">
       <c r="A55" s="3">
         <v>53</v>
       </c>
       <c r="C55" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="D55" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="D55" s="4" t="s">
-        <v>67</v>
-      </c>
       <c r="E55" s="9">
-        <f t="shared" si="4"/>
-        <v>4000</v>
+        <f>F55/1.04</f>
+        <v>5500</v>
       </c>
       <c r="F55" s="9">
-        <f t="shared" si="5"/>
-        <v>4160</v>
-      </c>
-      <c r="P55" s="3">
-        <v>4160</v>
-      </c>
-    </row>
-    <row r="56" s="3" customFormat="1" spans="1:26">
+        <f>SUM(G55:AK55)</f>
+        <v>5720</v>
+      </c>
+      <c r="M55" s="3">
+        <v>1560</v>
+      </c>
+      <c r="T55" s="3">
+        <v>2080</v>
+      </c>
+      <c r="Z55" s="3">
+        <v>2080</v>
+      </c>
+    </row>
+    <row r="56" s="3" customFormat="1" spans="1:29">
       <c r="A56" s="3">
         <v>54</v>
       </c>
-      <c r="B56" s="10"/>
       <c r="C56" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="D56" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="D56" s="11" t="s">
-        <v>69</v>
-      </c>
       <c r="E56" s="9">
-        <f t="shared" si="4"/>
+        <f>F56/1.04</f>
         <v>9000</v>
       </c>
       <c r="F56" s="9">
-        <f t="shared" si="5"/>
+        <f>SUM(G56:AK56)</f>
         <v>9360</v>
       </c>
-      <c r="J56" s="3">
-        <v>1040</v>
-      </c>
-      <c r="Q56" s="3">
-        <v>2080</v>
-      </c>
-      <c r="R56" s="3">
-        <v>2080</v>
-      </c>
-      <c r="V56" s="3">
-        <v>2080</v>
-      </c>
-      <c r="Z56" s="3">
-        <v>2080</v>
-      </c>
-    </row>
-    <row r="57" s="3" customFormat="1" spans="1:25">
+      <c r="P56" s="3">
+        <v>4160</v>
+      </c>
+      <c r="AC56" s="12">
+        <v>5200</v>
+      </c>
+    </row>
+    <row r="57" s="3" customFormat="1" spans="1:32">
       <c r="A57" s="3">
         <v>55</v>
       </c>
       <c r="B57" s="10"/>
       <c r="C57" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="D57" s="11" t="s">
         <v>70</v>
       </c>
-      <c r="D57" s="11" t="s">
-        <v>71</v>
-      </c>
       <c r="E57" s="9">
-        <f t="shared" si="4"/>
-        <v>4000</v>
+        <f>F57/1.04</f>
+        <v>13000</v>
       </c>
       <c r="F57" s="9">
-        <f t="shared" si="5"/>
-        <v>4160</v>
-      </c>
-      <c r="V57" s="12">
-        <v>2080</v>
-      </c>
-      <c r="Y57" s="3">
-        <v>2080</v>
-      </c>
-    </row>
-    <row r="58" s="3" customFormat="1" spans="1:28">
+        <f>SUM(G57:AK57)</f>
+        <v>13520</v>
+      </c>
+      <c r="J57" s="3">
+        <v>1040</v>
+      </c>
+      <c r="Q57" s="3">
+        <v>2080</v>
+      </c>
+      <c r="R57" s="3">
+        <v>2080</v>
+      </c>
+      <c r="V57" s="3">
+        <v>2080</v>
+      </c>
+      <c r="Z57" s="3">
+        <v>2080</v>
+      </c>
+      <c r="AC57" s="3">
+        <v>2080</v>
+      </c>
+      <c r="AF57" s="3">
+        <v>2080</v>
+      </c>
+    </row>
+    <row r="58" s="3" customFormat="1" spans="1:25">
       <c r="A58" s="3">
         <v>56</v>
       </c>
+      <c r="B58" s="10"/>
       <c r="C58" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="D58" s="11" t="s">
         <v>72</v>
       </c>
-      <c r="D58" s="4" t="s">
-        <v>73</v>
-      </c>
       <c r="E58" s="9">
-        <f t="shared" si="4"/>
-        <v>9000</v>
+        <f>F58/1.04</f>
+        <v>4000</v>
       </c>
       <c r="F58" s="9">
-        <f t="shared" si="5"/>
-        <v>9360</v>
-      </c>
-      <c r="O58" s="3">
-        <v>1040</v>
-      </c>
-      <c r="P58" s="3">
-        <v>2080</v>
-      </c>
-      <c r="R58" s="3">
-        <v>2080</v>
-      </c>
-      <c r="U58" s="3">
-        <v>2080</v>
-      </c>
-      <c r="AB58" s="3">
-        <v>2080</v>
-      </c>
-    </row>
-    <row r="59" s="3" customFormat="1" spans="1:23">
+        <f>SUM(G58:AK58)</f>
+        <v>4160</v>
+      </c>
+      <c r="V58" s="12">
+        <v>2080</v>
+      </c>
+      <c r="Y58" s="3">
+        <v>2080</v>
+      </c>
+    </row>
+    <row r="59" s="3" customFormat="1" spans="1:28">
       <c r="A59" s="3">
         <v>57</v>
       </c>
       <c r="C59" s="3" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D59" s="4" t="s">
         <v>74</v>
       </c>
       <c r="E59" s="9">
-        <f t="shared" si="4"/>
-        <v>7000</v>
+        <f>F59/1.04</f>
+        <v>9000</v>
       </c>
       <c r="F59" s="9">
-        <f t="shared" si="5"/>
-        <v>7280</v>
-      </c>
-      <c r="K59" s="3">
-        <v>3120</v>
-      </c>
-      <c r="T59" s="3">
-        <v>2080</v>
-      </c>
-      <c r="W59" s="3">
-        <v>2080</v>
-      </c>
-    </row>
-    <row r="60" s="3" customFormat="1" spans="1:25">
+        <f>SUM(G59:AK59)</f>
+        <v>9360</v>
+      </c>
+      <c r="O59" s="3">
+        <v>1040</v>
+      </c>
+      <c r="P59" s="3">
+        <v>2080</v>
+      </c>
+      <c r="R59" s="3">
+        <v>2080</v>
+      </c>
+      <c r="U59" s="3">
+        <v>2080</v>
+      </c>
+      <c r="AB59" s="3">
+        <v>2080</v>
+      </c>
+    </row>
+    <row r="60" s="3" customFormat="1" spans="1:30">
       <c r="A60" s="3">
         <v>58</v>
       </c>
       <c r="C60" s="3" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D60" s="4" t="s">
         <v>75</v>
       </c>
       <c r="E60" s="9">
-        <f t="shared" si="4"/>
-        <v>5000</v>
+        <f>F60/1.04</f>
+        <v>9000</v>
       </c>
       <c r="F60" s="9">
-        <f t="shared" si="5"/>
-        <v>5200</v>
+        <f>SUM(G60:AK60)</f>
+        <v>9360</v>
       </c>
       <c r="K60" s="3">
-        <v>1040</v>
-      </c>
-      <c r="Q60" s="3">
-        <v>2080</v>
-      </c>
-      <c r="Y60" s="3">
+        <v>3120</v>
+      </c>
+      <c r="T60" s="3">
+        <v>2080</v>
+      </c>
+      <c r="W60" s="3">
+        <v>2080</v>
+      </c>
+      <c r="AD60" s="3">
         <v>2080</v>
       </c>
     </row>
@@ -3646,170 +3861,170 @@
         <v>59</v>
       </c>
       <c r="C61" s="3" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D61" s="4" t="s">
         <v>76</v>
       </c>
       <c r="E61" s="9">
-        <f t="shared" si="4"/>
-        <v>3000</v>
+        <f>F61/1.04</f>
+        <v>5000</v>
       </c>
       <c r="F61" s="9">
-        <f t="shared" si="5"/>
-        <v>3120</v>
+        <f>SUM(G61:AK61)</f>
+        <v>5200</v>
       </c>
       <c r="K61" s="3">
+        <v>1040</v>
+      </c>
+      <c r="Q61" s="3">
         <v>2080</v>
       </c>
       <c r="Y61" s="3">
-        <v>1040</v>
-      </c>
-    </row>
-    <row r="62" s="3" customFormat="1" spans="1:27">
+        <v>2080</v>
+      </c>
+    </row>
+    <row r="62" s="3" customFormat="1" spans="1:30">
       <c r="A62" s="3">
         <v>60</v>
       </c>
       <c r="C62" s="3" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D62" s="4" t="s">
         <v>77</v>
       </c>
       <c r="E62" s="9">
-        <f t="shared" si="4"/>
-        <v>42000</v>
+        <f>F62/1.04</f>
+        <v>4000</v>
       </c>
       <c r="F62" s="9">
-        <f t="shared" si="5"/>
-        <v>43680</v>
+        <f>SUM(G62:AK62)</f>
+        <v>4160</v>
       </c>
       <c r="K62" s="3">
         <v>2080</v>
       </c>
-      <c r="L62" s="3">
-        <v>15600</v>
-      </c>
-      <c r="O62" s="3">
-        <v>5200</v>
-      </c>
-      <c r="R62" s="3">
-        <v>5200</v>
-      </c>
-      <c r="U62" s="3">
-        <v>5200</v>
-      </c>
       <c r="Y62" s="3">
-        <v>5200</v>
-      </c>
-      <c r="AA62" s="3">
-        <v>5200</v>
-      </c>
-    </row>
-    <row r="63" s="3" customFormat="1" spans="1:26">
+        <v>1040</v>
+      </c>
+      <c r="AD62" s="3">
+        <v>1040</v>
+      </c>
+    </row>
+    <row r="63" s="3" customFormat="1" spans="1:31">
       <c r="A63" s="3">
         <v>61</v>
       </c>
       <c r="C63" s="3" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D63" s="4" t="s">
         <v>78</v>
       </c>
       <c r="E63" s="9">
-        <f t="shared" si="4"/>
-        <v>18000</v>
+        <f>F63/1.04</f>
+        <v>47000</v>
       </c>
       <c r="F63" s="9">
-        <f t="shared" si="5"/>
-        <v>18720</v>
-      </c>
-      <c r="H63" s="3">
-        <v>2080</v>
-      </c>
-      <c r="J63" s="3">
-        <v>2080</v>
+        <f>SUM(G63:AK63)</f>
+        <v>48880</v>
       </c>
       <c r="K63" s="3">
-        <v>1040</v>
+        <v>2080</v>
       </c>
       <c r="L63" s="3">
-        <v>1040</v>
-      </c>
-      <c r="M63" s="3">
-        <v>3120</v>
-      </c>
-      <c r="Q63" s="3">
-        <v>3120</v>
-      </c>
-      <c r="V63" s="3">
-        <v>3120</v>
-      </c>
-      <c r="Z63" s="3">
-        <v>3120</v>
-      </c>
-    </row>
-    <row r="64" s="3" customFormat="1" spans="1:27">
+        <v>15600</v>
+      </c>
+      <c r="O63" s="3">
+        <v>5200</v>
+      </c>
+      <c r="R63" s="3">
+        <v>5200</v>
+      </c>
+      <c r="U63" s="3">
+        <v>5200</v>
+      </c>
+      <c r="Y63" s="3">
+        <v>5200</v>
+      </c>
+      <c r="AA63" s="3">
+        <v>5200</v>
+      </c>
+      <c r="AE63" s="3">
+        <v>5200</v>
+      </c>
+    </row>
+    <row r="64" s="3" customFormat="1" spans="1:29">
       <c r="A64" s="3">
         <v>62</v>
       </c>
-      <c r="B64" s="10"/>
-      <c r="C64" s="10" t="s">
-        <v>72</v>
-      </c>
-      <c r="D64" s="11" t="s">
+      <c r="C64" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="D64" s="4" t="s">
         <v>79</v>
       </c>
       <c r="E64" s="9">
-        <f t="shared" si="4"/>
-        <v>4000</v>
+        <f>F64/1.04</f>
+        <v>21000</v>
       </c>
       <c r="F64" s="9">
-        <f t="shared" si="5"/>
-        <v>4160</v>
-      </c>
-      <c r="X64" s="12">
-        <v>2080</v>
-      </c>
-      <c r="AA64" s="3">
-        <v>2080</v>
+        <f>SUM(G64:AK64)</f>
+        <v>21840</v>
+      </c>
+      <c r="H64" s="3">
+        <v>2080</v>
+      </c>
+      <c r="J64" s="3">
+        <v>2080</v>
+      </c>
+      <c r="K64" s="3">
+        <v>1040</v>
+      </c>
+      <c r="L64" s="3">
+        <v>1040</v>
+      </c>
+      <c r="M64" s="3">
+        <v>3120</v>
+      </c>
+      <c r="Q64" s="3">
+        <v>3120</v>
+      </c>
+      <c r="V64" s="3">
+        <v>3120</v>
+      </c>
+      <c r="Z64" s="3">
+        <v>3120</v>
+      </c>
+      <c r="AC64" s="3">
+        <v>3120</v>
       </c>
     </row>
     <row r="65" s="3" customFormat="1" spans="1:27">
       <c r="A65" s="3">
         <v>63</v>
       </c>
-      <c r="C65" s="3" t="s">
+      <c r="B65" s="10"/>
+      <c r="C65" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="D65" s="11" t="s">
         <v>80</v>
       </c>
-      <c r="D65" s="4" t="s">
-        <v>81</v>
-      </c>
       <c r="E65" s="9">
-        <f t="shared" si="4"/>
-        <v>15000</v>
+        <f>F65/1.04</f>
+        <v>4000</v>
       </c>
       <c r="F65" s="9">
-        <f t="shared" si="5"/>
-        <v>15600</v>
-      </c>
-      <c r="I65" s="3">
-        <v>1040</v>
-      </c>
-      <c r="L65" s="3">
-        <v>2080</v>
-      </c>
-      <c r="M65" s="3">
-        <v>3120</v>
-      </c>
-      <c r="T65" s="3">
-        <v>3120</v>
-      </c>
-      <c r="X65" s="3">
-        <v>3120</v>
+        <f>SUM(G65:AK65)</f>
+        <v>4160</v>
+      </c>
+      <c r="X65" s="12">
+        <v>2080</v>
       </c>
       <c r="AA65" s="3">
-        <v>3120</v>
+        <v>2080</v>
       </c>
     </row>
     <row r="66" s="3" customFormat="1" spans="1:27">
@@ -3817,140 +4032,131 @@
         <v>64</v>
       </c>
       <c r="C66" s="3" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D66" s="4" t="s">
         <v>82</v>
       </c>
       <c r="E66" s="9">
-        <f t="shared" si="4"/>
-        <v>21000</v>
+        <f>F66/1.04</f>
+        <v>15000</v>
       </c>
       <c r="F66" s="9">
-        <f t="shared" si="5"/>
-        <v>21840</v>
-      </c>
-      <c r="H66" s="3">
-        <v>3120</v>
-      </c>
-      <c r="K66" s="3">
+        <f>SUM(G66:AK66)</f>
+        <v>15600</v>
+      </c>
+      <c r="I66" s="3">
         <v>1040</v>
       </c>
       <c r="L66" s="3">
         <v>2080</v>
       </c>
-      <c r="O66" s="3">
-        <v>3120</v>
-      </c>
-      <c r="R66" s="3">
-        <v>3120</v>
-      </c>
-      <c r="U66" s="3">
-        <v>3120</v>
-      </c>
-      <c r="W66" s="3">
+      <c r="M66" s="3">
+        <v>3120</v>
+      </c>
+      <c r="T66" s="3">
+        <v>3120</v>
+      </c>
+      <c r="X66" s="3">
         <v>3120</v>
       </c>
       <c r="AA66" s="3">
         <v>3120</v>
       </c>
     </row>
-    <row r="67" s="3" customFormat="1" spans="1:28">
+    <row r="67" s="3" customFormat="1" spans="1:30">
       <c r="A67" s="3">
         <v>65</v>
       </c>
       <c r="C67" s="3" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D67" s="4" t="s">
         <v>83</v>
       </c>
       <c r="E67" s="9">
-        <f t="shared" ref="E67:E92" si="6">F67/1.04</f>
-        <v>17000</v>
+        <f>F67/1.04</f>
+        <v>24000</v>
       </c>
       <c r="F67" s="9">
-        <f t="shared" ref="F67:F92" si="7">SUM(G67:AK67)</f>
-        <v>17680</v>
-      </c>
-      <c r="J67" s="3">
-        <v>2080</v>
+        <f>SUM(G67:AK67)</f>
+        <v>24960</v>
+      </c>
+      <c r="H67" s="3">
+        <v>3120</v>
+      </c>
+      <c r="K67" s="3">
+        <v>1040</v>
       </c>
       <c r="L67" s="3">
-        <v>1040</v>
+        <v>2080</v>
       </c>
       <c r="O67" s="3">
-        <v>2080</v>
-      </c>
-      <c r="P67" s="3">
-        <v>2080</v>
-      </c>
-      <c r="S67" s="3">
-        <v>2080</v>
-      </c>
-      <c r="T67" s="3">
-        <v>2080</v>
+        <v>3120</v>
+      </c>
+      <c r="R67" s="3">
+        <v>3120</v>
+      </c>
+      <c r="U67" s="3">
+        <v>3120</v>
       </c>
       <c r="W67" s="3">
-        <v>2080</v>
-      </c>
-      <c r="Y67" s="3">
-        <v>2080</v>
-      </c>
-      <c r="AB67" s="3">
-        <v>2080</v>
+        <v>3120</v>
+      </c>
+      <c r="AA67" s="3">
+        <v>3120</v>
+      </c>
+      <c r="AD67" s="3">
+        <v>3120</v>
       </c>
     </row>
     <row r="68" s="3" customFormat="1" spans="1:28">
       <c r="A68" s="3">
         <v>66</v>
       </c>
-      <c r="B68" s="10"/>
-      <c r="C68" s="10"/>
-      <c r="D68" s="11" t="s">
+      <c r="C68" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="D68" s="4" t="s">
         <v>84</v>
       </c>
       <c r="E68" s="9">
-        <f t="shared" si="6"/>
-        <v>15500</v>
+        <f t="shared" ref="E68:E84" si="6">F68/1.04</f>
+        <v>17000</v>
       </c>
       <c r="F68" s="9">
-        <f t="shared" si="7"/>
-        <v>16120</v>
-      </c>
-      <c r="G68" s="10"/>
-      <c r="H68" s="10">
-        <v>520</v>
-      </c>
-      <c r="I68" s="10">
-        <v>2080</v>
-      </c>
-      <c r="J68" s="10">
-        <v>5200</v>
-      </c>
-      <c r="K68" s="10"/>
-      <c r="L68" s="10"/>
-      <c r="M68" s="10"/>
-      <c r="N68" s="10"/>
-      <c r="O68" s="10"/>
-      <c r="P68" s="10"/>
-      <c r="Q68" s="10"/>
-      <c r="R68" s="10">
-        <v>5200</v>
-      </c>
-      <c r="S68" s="13"/>
-      <c r="T68" s="13"/>
-      <c r="U68" s="13"/>
-      <c r="V68" s="13"/>
-      <c r="W68" s="13"/>
-      <c r="Z68" s="3">
-        <v>1040</v>
-      </c>
-      <c r="AB68" s="12">
-        <v>2080</v>
-      </c>
-    </row>
-    <row r="69" s="3" customFormat="1" spans="1:23">
+        <f t="shared" ref="F68:F84" si="7">SUM(G68:AK68)</f>
+        <v>17680</v>
+      </c>
+      <c r="J68" s="3">
+        <v>2080</v>
+      </c>
+      <c r="L68" s="3">
+        <v>1040</v>
+      </c>
+      <c r="O68" s="3">
+        <v>2080</v>
+      </c>
+      <c r="P68" s="3">
+        <v>2080</v>
+      </c>
+      <c r="S68" s="3">
+        <v>2080</v>
+      </c>
+      <c r="T68" s="3">
+        <v>2080</v>
+      </c>
+      <c r="W68" s="3">
+        <v>2080</v>
+      </c>
+      <c r="Y68" s="3">
+        <v>2080</v>
+      </c>
+      <c r="AB68" s="3">
+        <v>2080</v>
+      </c>
+    </row>
+    <row r="69" s="3" customFormat="1" spans="1:31">
       <c r="A69" s="3">
         <v>67</v>
       </c>
@@ -3961,17 +4167,54 @@
       </c>
       <c r="E69" s="9">
         <f t="shared" si="6"/>
-        <v>4000</v>
+        <v>24000</v>
       </c>
       <c r="F69" s="9">
         <f t="shared" si="7"/>
+        <v>24960</v>
+      </c>
+      <c r="G69" s="10"/>
+      <c r="H69" s="10">
+        <v>520</v>
+      </c>
+      <c r="I69" s="10">
+        <v>2080</v>
+      </c>
+      <c r="J69" s="10">
+        <v>5200</v>
+      </c>
+      <c r="K69" s="10"/>
+      <c r="L69" s="10"/>
+      <c r="M69" s="10"/>
+      <c r="N69" s="10"/>
+      <c r="O69" s="10"/>
+      <c r="P69" s="10"/>
+      <c r="Q69" s="10"/>
+      <c r="R69" s="10">
+        <v>5200</v>
+      </c>
+      <c r="S69" s="13"/>
+      <c r="T69" s="13"/>
+      <c r="U69" s="13"/>
+      <c r="V69" s="13"/>
+      <c r="W69" s="13"/>
+      <c r="Z69" s="3">
+        <v>1040</v>
+      </c>
+      <c r="AB69" s="12">
+        <v>2080</v>
+      </c>
+      <c r="AC69" s="12">
         <v>4160</v>
       </c>
-      <c r="W69" s="12">
-        <v>4160</v>
-      </c>
-    </row>
-    <row r="70" s="3" customFormat="1" spans="1:28">
+      <c r="AD69" s="12">
+        <v>1040</v>
+      </c>
+      <c r="AE69" s="12">
+        <v>3640</v>
+      </c>
+    </row>
+    <row r="70" s="3" customFormat="1" spans="1:23">
       <c r="A70" s="3">
         <v>68</v>
       </c>
@@ -3988,14 +4231,11 @@
         <f t="shared" si="7"/>
         <v>4160</v>
       </c>
-      <c r="Q70" s="3">
-        <v>2080</v>
-      </c>
-      <c r="AB70" s="12">
-        <v>2080</v>
-      </c>
-    </row>
-    <row r="71" s="3" customFormat="1" spans="1:6">
+      <c r="W70" s="12">
+        <v>4160</v>
+      </c>
+    </row>
+    <row r="71" s="3" customFormat="1" spans="1:28">
       <c r="A71" s="3">
         <v>69</v>
       </c>
@@ -4006,14 +4246,20 @@
       </c>
       <c r="E71" s="9">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>4000</v>
       </c>
       <c r="F71" s="9">
         <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="72" s="3" customFormat="1" spans="1:6">
+        <v>4160</v>
+      </c>
+      <c r="Q71" s="3">
+        <v>2080</v>
+      </c>
+      <c r="AB71" s="12">
+        <v>2080</v>
+      </c>
+    </row>
+    <row r="72" s="3" customFormat="1" spans="1:29">
       <c r="A72" s="3">
         <v>70</v>
       </c>
@@ -4024,11 +4270,14 @@
       </c>
       <c r="E72" s="9">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="F72" s="9">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>5200</v>
+      </c>
+      <c r="AC72" s="3">
+        <v>5200</v>
       </c>
     </row>
     <row r="73" s="3" customFormat="1" spans="1:6">
@@ -4049,7 +4298,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" s="3" customFormat="1" spans="1:18">
+    <row r="74" s="3" customFormat="1" spans="1:6">
       <c r="A74" s="3">
         <v>72</v>
       </c>
@@ -4066,20 +4315,8 @@
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="G74" s="13"/>
-      <c r="H74" s="13"/>
-      <c r="I74" s="13"/>
-      <c r="J74" s="13"/>
-      <c r="K74" s="13"/>
-      <c r="L74" s="13"/>
-      <c r="M74" s="13"/>
-      <c r="N74" s="13"/>
-      <c r="O74" s="13"/>
-      <c r="P74" s="13"/>
-      <c r="Q74" s="13"/>
-      <c r="R74" s="13"/>
-    </row>
-    <row r="75" s="3" customFormat="1" spans="1:6">
+    </row>
+    <row r="75" s="3" customFormat="1" spans="1:18">
       <c r="A75" s="3">
         <v>73</v>
       </c>
@@ -4096,8 +4333,20 @@
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="76" s="3" customFormat="1" spans="1:6">
+      <c r="G75" s="13"/>
+      <c r="H75" s="13"/>
+      <c r="I75" s="13"/>
+      <c r="J75" s="13"/>
+      <c r="K75" s="13"/>
+      <c r="L75" s="13"/>
+      <c r="M75" s="13"/>
+      <c r="N75" s="13"/>
+      <c r="O75" s="13"/>
+      <c r="P75" s="13"/>
+      <c r="Q75" s="13"/>
+      <c r="R75" s="13"/>
+    </row>
+    <row r="76" s="3" customFormat="1" spans="1:31">
       <c r="A76" s="3">
         <v>74</v>
       </c>
@@ -4108,11 +4357,14 @@
       </c>
       <c r="E76" s="9">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>3000</v>
       </c>
       <c r="F76" s="9">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>3120</v>
+      </c>
+      <c r="AE76" s="12">
+        <v>3120</v>
       </c>
     </row>
     <row r="77" s="3" customFormat="1" spans="1:6">
@@ -4151,7 +4403,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" s="3" customFormat="1" spans="1:24">
+    <row r="79" s="3" customFormat="1" spans="1:6">
       <c r="A79" s="3">
         <v>77</v>
       </c>
@@ -4168,26 +4420,8 @@
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="G79" s="13"/>
-      <c r="H79" s="13"/>
-      <c r="I79" s="13"/>
-      <c r="J79" s="13"/>
-      <c r="K79" s="13"/>
-      <c r="L79" s="13"/>
-      <c r="M79" s="13"/>
-      <c r="N79" s="13"/>
-      <c r="O79" s="13"/>
-      <c r="P79" s="13"/>
-      <c r="Q79" s="13"/>
-      <c r="R79" s="13"/>
-      <c r="S79" s="13"/>
-      <c r="T79" s="13"/>
-      <c r="U79" s="13"/>
-      <c r="V79" s="13"/>
-      <c r="W79" s="13"/>
-      <c r="X79" s="13"/>
-    </row>
-    <row r="80" s="3" customFormat="1" spans="1:29">
+    </row>
+    <row r="80" s="3" customFormat="1" spans="1:24">
       <c r="A80" s="3">
         <v>78</v>
       </c>
@@ -4198,45 +4432,68 @@
       </c>
       <c r="E80" s="9">
         <f t="shared" si="6"/>
-        <v>5000</v>
+        <v>0</v>
       </c>
       <c r="F80" s="9">
         <f t="shared" si="7"/>
-        <v>5200</v>
-      </c>
-      <c r="AB80" s="12">
-        <v>2080</v>
-      </c>
-      <c r="AC80" s="3">
-        <v>3120</v>
-      </c>
-    </row>
-    <row r="81" s="3" customFormat="1" spans="1:6">
+        <v>0</v>
+      </c>
+      <c r="G80" s="13"/>
+      <c r="H80" s="13"/>
+      <c r="I80" s="13"/>
+      <c r="J80" s="13"/>
+      <c r="K80" s="13"/>
+      <c r="L80" s="13"/>
+      <c r="M80" s="13"/>
+      <c r="N80" s="13"/>
+      <c r="O80" s="13"/>
+      <c r="P80" s="13"/>
+      <c r="Q80" s="13"/>
+      <c r="R80" s="13"/>
+      <c r="S80" s="13"/>
+      <c r="T80" s="13"/>
+      <c r="U80" s="13"/>
+      <c r="V80" s="13"/>
+      <c r="W80" s="13"/>
+      <c r="X80" s="13"/>
+    </row>
+    <row r="81" s="3" customFormat="1" spans="1:30">
       <c r="A81" s="3">
         <v>79</v>
       </c>
       <c r="B81" s="10"/>
-      <c r="C81" s="10"/>
+      <c r="C81" s="10" t="s">
+        <v>97</v>
+      </c>
       <c r="D81" s="11" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="E81" s="9">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>8000</v>
       </c>
       <c r="F81" s="9">
         <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="82" s="3" customFormat="1" spans="1:17">
+        <v>8320</v>
+      </c>
+      <c r="AB81" s="12">
+        <v>2080</v>
+      </c>
+      <c r="AC81" s="3">
+        <v>3120</v>
+      </c>
+      <c r="AD81" s="3">
+        <v>3120</v>
+      </c>
+    </row>
+    <row r="82" s="3" customFormat="1" spans="1:6">
       <c r="A82" s="3">
         <v>80</v>
       </c>
       <c r="B82" s="10"/>
       <c r="C82" s="10"/>
       <c r="D82" s="11" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="E82" s="9">
         <f t="shared" si="6"/>
@@ -4246,34 +4503,23 @@
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="G82" s="13"/>
-      <c r="H82" s="13"/>
-      <c r="I82" s="13"/>
-      <c r="J82" s="13"/>
-      <c r="K82" s="13"/>
-      <c r="L82" s="13"/>
-      <c r="M82" s="13"/>
-      <c r="N82" s="13"/>
-      <c r="O82" s="13"/>
-      <c r="P82" s="13"/>
-      <c r="Q82" s="13"/>
-    </row>
-    <row r="83" s="3" customFormat="1" spans="1:28">
+    </row>
+    <row r="83" s="3" customFormat="1" spans="1:17">
       <c r="A83" s="3">
         <v>81</v>
       </c>
       <c r="B83" s="10"/>
       <c r="C83" s="10"/>
       <c r="D83" s="11" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="E83" s="9">
         <f t="shared" si="6"/>
-        <v>2000</v>
+        <v>0</v>
       </c>
       <c r="F83" s="9">
         <f t="shared" si="7"/>
-        <v>2080</v>
+        <v>0</v>
       </c>
       <c r="G83" s="13"/>
       <c r="H83" s="13"/>
@@ -4286,37 +4532,45 @@
       <c r="O83" s="13"/>
       <c r="P83" s="13"/>
       <c r="Q83" s="13"/>
-      <c r="R83" s="13"/>
-      <c r="S83" s="13"/>
-      <c r="T83" s="13"/>
-      <c r="U83" s="13"/>
-      <c r="V83" s="13"/>
-      <c r="W83" s="13"/>
-      <c r="X83" s="13"/>
-      <c r="Y83" s="13"/>
-      <c r="AB83" s="12">
-        <v>2080</v>
-      </c>
-    </row>
-    <row r="84" s="3" customFormat="1" spans="1:29">
+    </row>
+    <row r="84" s="3" customFormat="1" spans="1:28">
       <c r="A84" s="3">
         <v>82</v>
       </c>
       <c r="B84" s="10"/>
       <c r="C84" s="10"/>
       <c r="D84" s="11" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E84" s="9">
         <f t="shared" si="6"/>
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="F84" s="9">
         <f t="shared" si="7"/>
-        <v>1040</v>
-      </c>
-      <c r="AC84" s="3">
-        <v>1040</v>
+        <v>2080</v>
+      </c>
+      <c r="G84" s="13"/>
+      <c r="H84" s="13"/>
+      <c r="I84" s="13"/>
+      <c r="J84" s="13"/>
+      <c r="K84" s="13"/>
+      <c r="L84" s="13"/>
+      <c r="M84" s="13"/>
+      <c r="N84" s="13"/>
+      <c r="O84" s="13"/>
+      <c r="P84" s="13"/>
+      <c r="Q84" s="13"/>
+      <c r="R84" s="13"/>
+      <c r="S84" s="13"/>
+      <c r="T84" s="13"/>
+      <c r="U84" s="13"/>
+      <c r="V84" s="13"/>
+      <c r="W84" s="13"/>
+      <c r="X84" s="13"/>
+      <c r="Y84" s="13"/>
+      <c r="AB84" s="12">
+        <v>2080</v>
       </c>
     </row>
     <row r="85" s="3" customFormat="1" spans="1:22">
@@ -4326,14 +4580,14 @@
       <c r="B85" s="10"/>
       <c r="C85" s="10"/>
       <c r="D85" s="11" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="E85" s="9">
-        <f t="shared" si="6"/>
+        <f>F85/1.04</f>
         <v>0</v>
       </c>
       <c r="F85" s="9">
-        <f t="shared" si="7"/>
+        <f>SUM(G85:AK85)</f>
         <v>0</v>
       </c>
       <c r="G85" s="13"/>
@@ -4358,14 +4612,14 @@
         <v>84</v>
       </c>
       <c r="D86" s="4" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="E86" s="9">
-        <f t="shared" si="6"/>
+        <f>F86/1.04</f>
         <v>0</v>
       </c>
       <c r="F86" s="9">
-        <f t="shared" si="7"/>
+        <f>SUM(G86:AK86)</f>
         <v>0</v>
       </c>
     </row>
@@ -4374,14 +4628,14 @@
         <v>85</v>
       </c>
       <c r="D87" s="4" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="E87" s="9">
-        <f t="shared" si="6"/>
+        <f>F87/1.04</f>
         <v>0</v>
       </c>
       <c r="F87" s="9">
-        <f t="shared" si="7"/>
+        <f>SUM(G87:AK87)</f>
         <v>0</v>
       </c>
     </row>
@@ -4390,14 +4644,14 @@
         <v>86</v>
       </c>
       <c r="D88" s="4" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="E88" s="9">
-        <f t="shared" si="6"/>
+        <f>F88/1.04</f>
         <v>0</v>
       </c>
       <c r="F88" s="9">
-        <f t="shared" si="7"/>
+        <f>SUM(G88:AK88)</f>
         <v>0</v>
       </c>
     </row>
@@ -4406,14 +4660,14 @@
         <v>87</v>
       </c>
       <c r="D89" s="4" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E89" s="9">
-        <f t="shared" si="6"/>
+        <f>F89/1.04</f>
         <v>0</v>
       </c>
       <c r="F89" s="9">
-        <f t="shared" si="7"/>
+        <f>SUM(G89:AK89)</f>
         <v>0</v>
       </c>
     </row>
@@ -4422,14 +4676,14 @@
         <v>88</v>
       </c>
       <c r="D90" s="4" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="E90" s="9">
-        <f t="shared" si="6"/>
+        <f>F90/1.04</f>
         <v>0</v>
       </c>
       <c r="F90" s="9">
-        <f t="shared" si="7"/>
+        <f>SUM(G90:AK90)</f>
         <v>0</v>
       </c>
     </row>
@@ -4438,14 +4692,14 @@
         <v>89</v>
       </c>
       <c r="D91" s="4" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="E91" s="9">
-        <f t="shared" si="6"/>
+        <f>F91/1.04</f>
         <v>0</v>
       </c>
       <c r="F91" s="9">
-        <f t="shared" si="7"/>
+        <f>SUM(G91:AK91)</f>
         <v>0</v>
       </c>
     </row>
@@ -4454,14 +4708,14 @@
         <v>90</v>
       </c>
       <c r="D92" s="4" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E92" s="9">
-        <f t="shared" si="6"/>
+        <f>F92/1.04</f>
         <v>0</v>
       </c>
       <c r="F92" s="9">
-        <f t="shared" si="7"/>
+        <f>SUM(G92:AK92)</f>
         <v>0</v>
       </c>
     </row>
@@ -4470,7 +4724,7 @@
         <v>91</v>
       </c>
       <c r="D93" s="3" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="E93" s="9">
         <f>F93/1.04</f>
@@ -4484,5 +4738,6 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/Daily Orders/December-2020-RetailerWiseOrder.xlsx
+++ b/Daily Orders/December-2020-RetailerWiseOrder.xlsx
@@ -10,7 +10,7 @@
     <sheet name="December 2020" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'December 2020'!$A$1:$AK$92</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'December 2020'!$A$1:$AK$93</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
@@ -44,7 +44,30 @@
         </r>
       </text>
     </comment>
-    <comment ref="AD18" authorId="0">
+    <comment ref="AH7" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="Times New Roman"/>
+            <charset val="0"/>
+          </rPr>
+          <t>Vijay:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="Times New Roman"/>
+            <charset val="0"/>
+          </rPr>
+          <t xml:space="preserve">
+2080-Auto
+2080-Auto</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AD19" authorId="0">
       <text>
         <r>
           <rPr>
@@ -67,7 +90,30 @@
         </r>
       </text>
     </comment>
-    <comment ref="AC69" authorId="0">
+    <comment ref="AH56" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="Times New Roman"/>
+            <charset val="0"/>
+          </rPr>
+          <t>Vijay:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="Times New Roman"/>
+            <charset val="0"/>
+          </rPr>
+          <t xml:space="preserve">
+2080-Manual
+2080-Auto</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AC72" authorId="0">
       <text>
         <r>
           <rPr>
@@ -90,7 +136,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AE69" authorId="0">
+    <comment ref="AE72" authorId="0">
       <text>
         <r>
           <rPr>
@@ -118,7 +164,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="114">
   <si>
     <t>S.No.</t>
   </si>
@@ -189,6 +235,9 @@
     <t>NAVEEN RECHARGE CENTRE(661474491)</t>
   </si>
   <si>
+    <t>Rohit Mobile Care-(662161247)</t>
+  </si>
+  <si>
     <t>Glaxy Mobile and Digital Studi(660587311)</t>
   </si>
   <si>
@@ -324,6 +373,9 @@
     <t>BADRABAD</t>
   </si>
   <si>
+    <t>ANJALI MOBILE RAMPURCHAE(661735620)</t>
+  </si>
+  <si>
     <t>MAA VINDHYAVASINI MOBILE CENTE(660064218)</t>
   </si>
   <si>
@@ -360,6 +412,9 @@
     <t>SANDEEP TELECOM(661066825)</t>
   </si>
   <si>
+    <t>SHRI SAI ELECTRONICS(661673670)</t>
+  </si>
+  <si>
     <t>RAJESH TELECOM &amp; KIRANA DUKAN(661063895)</t>
   </si>
   <si>
@@ -378,16 +433,16 @@
     <t>ROHIT SHOE STORE(661670729)</t>
   </si>
   <si>
-    <t>SHRI SAI ELECTRONICS(661673670)</t>
+    <t>Dhewai</t>
   </si>
   <si>
     <t>maa phone ghar(662077151)</t>
   </si>
   <si>
-    <t>ANJALI MOBILE RAMPURCHAE(661735620)</t>
-  </si>
-  <si>
     <t>Payal Communication(660614430)</t>
+  </si>
+  <si>
+    <t>KAMTA</t>
   </si>
   <si>
     <t>GRAMOTHAN SEVA KENDRA(661705272)</t>
@@ -458,9 +513,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
-    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="178" formatCode="[$-409]d\-mmm;@"/>
   </numFmts>
@@ -481,8 +536,23 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="15"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -497,18 +567,86 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -529,52 +667,6 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
@@ -582,44 +674,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -651,7 +706,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.4"/>
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -663,7 +718,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
+        <fgColor theme="9" tint="0.4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -675,7 +730,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -687,7 +754,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -705,19 +814,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -729,13 +874,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -747,115 +892,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -866,6 +921,32 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -893,17 +974,20 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -937,49 +1021,20 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
@@ -989,134 +1044,134 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="19" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="19" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1145,6 +1200,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1484,14 +1542,14 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:AK93"/>
+  <dimension ref="A1:AK94"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="6" ySplit="2" topLeftCell="AA37" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="6" ySplit="2" topLeftCell="AF80" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="A51" sqref="A51:A93"/>
+      <selection pane="bottomRight" activeCell="A3" sqref="A3:A94"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15"/>
@@ -1618,32 +1676,40 @@
         <v>44196</v>
       </c>
     </row>
-    <row r="2" s="2" customFormat="1" spans="4:37">
-      <c r="D2" s="6" t="s">
+    <row r="2" s="2" customFormat="1" spans="2:37">
+      <c r="B2" s="6">
+        <f>SUM(F3:F119)/1.04</f>
+        <v>1208000</v>
+      </c>
+      <c r="C2" s="7">
+        <f>SUM(F3:F119)</f>
+        <v>1256320</v>
+      </c>
+      <c r="D2" s="8" t="s">
         <v>6</v>
       </c>
       <c r="E2" s="7">
         <f>F2/1.04</f>
-        <v>1041000</v>
-      </c>
-      <c r="F2" s="8">
+        <v>1208000</v>
+      </c>
+      <c r="F2" s="6">
         <f>SUM(G2:AK2)</f>
-        <v>1082640</v>
+        <v>1256320</v>
       </c>
       <c r="G2" s="2">
-        <f>SUM(G3:G92)</f>
+        <f>SUM(G3:G120)</f>
         <v>0</v>
       </c>
       <c r="H2" s="2">
-        <f>SUM(H3:H92)</f>
+        <f>SUM(H3:H120)</f>
         <v>42640</v>
       </c>
       <c r="I2" s="2">
-        <f t="shared" ref="I2:O2" si="0">SUM(I3:I92)</f>
+        <f>SUM(I3:I120)</f>
         <v>29120</v>
       </c>
       <c r="J2" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="J2:AK2" si="0">SUM(J3:J120)</f>
         <v>56160</v>
       </c>
       <c r="K2" s="2">
@@ -1667,91 +1733,91 @@
         <v>38480</v>
       </c>
       <c r="P2" s="2">
-        <f t="shared" ref="P2:AK2" si="1">SUM(P3:P92)</f>
+        <f t="shared" si="0"/>
         <v>31200</v>
       </c>
       <c r="Q2" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>38480</v>
       </c>
       <c r="R2" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>56160</v>
       </c>
       <c r="S2" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>37440</v>
       </c>
       <c r="T2" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>36400</v>
       </c>
       <c r="U2" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>53040</v>
       </c>
       <c r="V2" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>54080</v>
       </c>
       <c r="W2" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>57200</v>
       </c>
       <c r="X2" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>33280</v>
       </c>
       <c r="Y2" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>30160</v>
       </c>
       <c r="Z2" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>39520</v>
       </c>
       <c r="AA2" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>36400</v>
       </c>
       <c r="AB2" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>39520</v>
       </c>
       <c r="AC2" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>73840</v>
       </c>
       <c r="AD2" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>36400</v>
       </c>
       <c r="AE2" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>43160</v>
       </c>
       <c r="AF2" s="2">
-        <f t="shared" si="1"/>
-        <v>10400</v>
+        <f t="shared" si="0"/>
+        <v>40560</v>
       </c>
       <c r="AG2" s="2">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>35360</v>
       </c>
       <c r="AH2" s="2">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>63440</v>
       </c>
       <c r="AI2" s="2">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>35360</v>
       </c>
       <c r="AJ2" s="2">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>9360</v>
       </c>
       <c r="AK2" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -1766,11 +1832,11 @@
         <v>8</v>
       </c>
       <c r="E3" s="9">
-        <f t="shared" ref="E3:E34" si="2">F3/1.04</f>
+        <f>F3/1.04</f>
         <v>6000</v>
       </c>
       <c r="F3" s="9">
-        <f t="shared" ref="F3:F34" si="3">SUM(G3:AK3)</f>
+        <f>SUM(G3:AK3)</f>
         <v>6240</v>
       </c>
       <c r="V3" s="3">
@@ -1780,7 +1846,7 @@
         <v>3120</v>
       </c>
     </row>
-    <row r="4" s="3" customFormat="1" spans="1:25">
+    <row r="4" s="3" customFormat="1" spans="1:32">
       <c r="A4" s="3">
         <v>2</v>
       </c>
@@ -1791,21 +1857,24 @@
         <v>9</v>
       </c>
       <c r="E4" s="9">
-        <f t="shared" si="2"/>
-        <v>4000</v>
+        <f>F4/1.04</f>
+        <v>6000</v>
       </c>
       <c r="F4" s="9">
-        <f t="shared" si="3"/>
-        <v>4160</v>
+        <f>SUM(G4:AK4)</f>
+        <v>6240</v>
       </c>
       <c r="L4" s="3">
         <v>2080</v>
       </c>
-      <c r="Y4" s="12">
-        <v>2080</v>
-      </c>
-    </row>
-    <row r="5" s="3" customFormat="1" spans="1:30">
+      <c r="Y4" s="13">
+        <v>2080</v>
+      </c>
+      <c r="AF4" s="13">
+        <v>2080</v>
+      </c>
+    </row>
+    <row r="5" s="3" customFormat="1" spans="1:35">
       <c r="A5" s="3">
         <v>3</v>
       </c>
@@ -1816,12 +1885,12 @@
         <v>10</v>
       </c>
       <c r="E5" s="9">
-        <f t="shared" si="2"/>
-        <v>12000</v>
+        <f>F5/1.04</f>
+        <v>14000</v>
       </c>
       <c r="F5" s="9">
-        <f t="shared" si="3"/>
-        <v>12480</v>
+        <f>SUM(G5:AK5)</f>
+        <v>14560</v>
       </c>
       <c r="I5" s="3">
         <v>2080</v>
@@ -1848,6 +1917,12 @@
         <v>1040</v>
       </c>
       <c r="AD5" s="3">
+        <v>1040</v>
+      </c>
+      <c r="AG5" s="3">
+        <v>1040</v>
+      </c>
+      <c r="AI5" s="3">
         <v>1040</v>
       </c>
     </row>
@@ -1862,11 +1937,11 @@
         <v>11</v>
       </c>
       <c r="E6" s="9">
-        <f t="shared" si="2"/>
+        <f>F6/1.04</f>
         <v>24500</v>
       </c>
       <c r="F6" s="9">
-        <f t="shared" si="3"/>
+        <f>SUM(G6:AK6)</f>
         <v>25480</v>
       </c>
       <c r="H6" s="3">
@@ -1894,7 +1969,7 @@
         <v>5200</v>
       </c>
     </row>
-    <row r="7" s="3" customFormat="1" spans="1:31">
+    <row r="7" s="3" customFormat="1" spans="1:36">
       <c r="A7" s="3">
         <v>5</v>
       </c>
@@ -1905,12 +1980,12 @@
         <v>12</v>
       </c>
       <c r="E7" s="9">
-        <f t="shared" si="2"/>
-        <v>52000</v>
+        <f>F7/1.04</f>
+        <v>64000</v>
       </c>
       <c r="F7" s="9">
-        <f t="shared" si="3"/>
-        <v>54080</v>
+        <f>SUM(G7:AK7)</f>
+        <v>66560</v>
       </c>
       <c r="H7" s="3">
         <v>2080</v>
@@ -1958,6 +2033,21 @@
         <v>2080</v>
       </c>
       <c r="AE7" s="3">
+        <v>2080</v>
+      </c>
+      <c r="AF7" s="3">
+        <v>2080</v>
+      </c>
+      <c r="AG7" s="3">
+        <v>2080</v>
+      </c>
+      <c r="AH7" s="3">
+        <v>4160</v>
+      </c>
+      <c r="AI7" s="3">
+        <v>2080</v>
+      </c>
+      <c r="AJ7" s="3">
         <v>2080</v>
       </c>
     </row>
@@ -1972,11 +2062,11 @@
         <v>13</v>
       </c>
       <c r="E8" s="9">
-        <f t="shared" si="2"/>
+        <f>F8/1.04</f>
         <v>5000</v>
       </c>
       <c r="F8" s="9">
-        <f t="shared" si="3"/>
+        <f>SUM(G8:AK8)</f>
         <v>5200</v>
       </c>
       <c r="L8" s="3">
@@ -1989,7 +2079,7 @@
         <v>2080</v>
       </c>
     </row>
-    <row r="9" s="3" customFormat="1" spans="1:21">
+    <row r="9" s="3" customFormat="1" spans="1:33">
       <c r="A9" s="3">
         <v>7</v>
       </c>
@@ -2000,12 +2090,12 @@
         <v>14</v>
       </c>
       <c r="E9" s="9">
-        <f t="shared" si="2"/>
-        <v>6000</v>
+        <f>F9/1.04</f>
+        <v>8000</v>
       </c>
       <c r="F9" s="9">
-        <f t="shared" si="3"/>
-        <v>6240</v>
+        <f>SUM(G9:AK9)</f>
+        <v>8320</v>
       </c>
       <c r="I9" s="3">
         <v>2080</v>
@@ -2016,8 +2106,11 @@
       <c r="U9" s="3">
         <v>2080</v>
       </c>
-    </row>
-    <row r="10" s="3" customFormat="1" spans="1:29">
+      <c r="AG9" s="3">
+        <v>2080</v>
+      </c>
+    </row>
+    <row r="10" s="3" customFormat="1" spans="1:33">
       <c r="A10" s="3">
         <v>8</v>
       </c>
@@ -2028,12 +2121,12 @@
         <v>15</v>
       </c>
       <c r="E10" s="9">
-        <f t="shared" si="2"/>
-        <v>35000</v>
+        <f>F10/1.04</f>
+        <v>40000</v>
       </c>
       <c r="F10" s="9">
-        <f t="shared" si="3"/>
-        <v>36400</v>
+        <f>SUM(G10:AK10)</f>
+        <v>41600</v>
       </c>
       <c r="H10" s="3">
         <v>2080</v>
@@ -2063,6 +2156,9 @@
         <v>5200</v>
       </c>
       <c r="AC10" s="3">
+        <v>5200</v>
+      </c>
+      <c r="AG10" s="3">
         <v>5200</v>
       </c>
     </row>
@@ -2077,11 +2173,11 @@
         <v>17</v>
       </c>
       <c r="E11" s="9">
-        <f t="shared" si="2"/>
+        <f>F11/1.04</f>
         <v>13000</v>
       </c>
       <c r="F11" s="9">
-        <f t="shared" si="3"/>
+        <f>SUM(G11:AK11)</f>
         <v>13520</v>
       </c>
       <c r="H11" s="3">
@@ -2106,7 +2202,7 @@
         <v>2080</v>
       </c>
     </row>
-    <row r="12" s="3" customFormat="1" spans="1:29">
+    <row r="12" s="3" customFormat="1" spans="1:35">
       <c r="A12" s="3">
         <v>10</v>
       </c>
@@ -2117,12 +2213,12 @@
         <v>18</v>
       </c>
       <c r="E12" s="9">
-        <f t="shared" si="2"/>
-        <v>5000</v>
+        <f>F12/1.04</f>
+        <v>7000</v>
       </c>
       <c r="F12" s="9">
-        <f t="shared" si="3"/>
-        <v>5200</v>
+        <f>SUM(G12:AK12)</f>
+        <v>7280</v>
       </c>
       <c r="H12" s="3">
         <v>1040</v>
@@ -2133,14 +2229,20 @@
       <c r="O12" s="3">
         <v>1040</v>
       </c>
-      <c r="W12" s="12">
-        <v>1040</v>
-      </c>
-      <c r="AC12" s="12">
-        <v>1040</v>
-      </c>
-    </row>
-    <row r="13" s="3" customFormat="1" spans="1:30">
+      <c r="W12" s="13">
+        <v>1040</v>
+      </c>
+      <c r="AC12" s="13">
+        <v>1040</v>
+      </c>
+      <c r="AF12" s="3">
+        <v>1040</v>
+      </c>
+      <c r="AI12" s="3">
+        <v>1040</v>
+      </c>
+    </row>
+    <row r="13" s="3" customFormat="1" spans="1:35">
       <c r="A13" s="3">
         <v>11</v>
       </c>
@@ -2151,12 +2253,12 @@
         <v>19</v>
       </c>
       <c r="E13" s="9">
-        <f t="shared" si="2"/>
-        <v>28000</v>
+        <f>F13/1.04</f>
+        <v>33000</v>
       </c>
       <c r="F13" s="9">
-        <f t="shared" si="3"/>
-        <v>29120</v>
+        <f>SUM(G13:AK13)</f>
+        <v>34320</v>
       </c>
       <c r="H13" s="3">
         <v>2080</v>
@@ -2182,8 +2284,11 @@
       <c r="AD13" s="3">
         <v>5200</v>
       </c>
-    </row>
-    <row r="14" s="3" customFormat="1" spans="1:31">
+      <c r="AI13" s="3">
+        <v>5200</v>
+      </c>
+    </row>
+    <row r="14" s="3" customFormat="1" spans="1:34">
       <c r="A14" s="3">
         <v>12</v>
       </c>
@@ -2194,12 +2299,12 @@
         <v>20</v>
       </c>
       <c r="E14" s="9">
-        <f t="shared" si="2"/>
-        <v>44000</v>
+        <f>F14/1.04</f>
+        <v>49000</v>
       </c>
       <c r="F14" s="9">
-        <f t="shared" si="3"/>
-        <v>45760</v>
+        <f>SUM(G14:AK14)</f>
+        <v>50960</v>
       </c>
       <c r="H14" s="3">
         <v>2080</v>
@@ -2234,8 +2339,11 @@
       <c r="AE14" s="3">
         <v>5200</v>
       </c>
-    </row>
-    <row r="15" s="3" customFormat="1" spans="1:28">
+      <c r="AH14" s="3">
+        <v>5200</v>
+      </c>
+    </row>
+    <row r="15" s="3" customFormat="1" spans="1:34">
       <c r="A15" s="3">
         <v>13</v>
       </c>
@@ -2249,12 +2357,12 @@
         <v>22</v>
       </c>
       <c r="E15" s="9">
-        <f t="shared" si="2"/>
-        <v>6000</v>
+        <f>F15/1.04</f>
+        <v>8000</v>
       </c>
       <c r="F15" s="9">
-        <f t="shared" si="3"/>
-        <v>6240</v>
+        <f>SUM(G15:AK15)</f>
+        <v>8320</v>
       </c>
       <c r="T15" s="3">
         <v>2080</v>
@@ -2265,150 +2373,147 @@
       <c r="AB15" s="3">
         <v>2080</v>
       </c>
-    </row>
-    <row r="16" s="3" customFormat="1" spans="1:30">
+      <c r="AH15" s="3">
+        <v>2080</v>
+      </c>
+    </row>
+    <row r="16" spans="1:33">
       <c r="A16" s="3">
         <v>14</v>
       </c>
-      <c r="C16" s="3" t="s">
+      <c r="C16" s="10" t="s">
         <v>16</v>
       </c>
       <c r="D16" s="4" t="s">
         <v>23</v>
       </c>
       <c r="E16" s="9">
-        <f t="shared" si="2"/>
-        <v>15000</v>
+        <f>F16/1.04</f>
+        <v>3000</v>
       </c>
       <c r="F16" s="9">
-        <f t="shared" si="3"/>
-        <v>15600</v>
-      </c>
-      <c r="M16" s="3">
-        <v>2080</v>
-      </c>
-      <c r="P16" s="3">
-        <v>1040</v>
-      </c>
-      <c r="Q16" s="3">
-        <v>3120</v>
-      </c>
-      <c r="T16" s="3">
-        <v>3120</v>
-      </c>
-      <c r="X16" s="3">
-        <v>3120</v>
-      </c>
-      <c r="AD16" s="3">
-        <v>3120</v>
-      </c>
-    </row>
-    <row r="17" s="3" customFormat="1" spans="1:25">
+        <f>SUM(G16:AK16)</f>
+        <v>3120</v>
+      </c>
+      <c r="AG16" s="13">
+        <v>3120</v>
+      </c>
+    </row>
+    <row r="17" s="3" customFormat="1" spans="1:34">
       <c r="A17" s="3">
         <v>15</v>
       </c>
       <c r="C17" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D17" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="D17" s="4" t="s">
-        <v>25</v>
-      </c>
       <c r="E17" s="9">
-        <f t="shared" si="2"/>
-        <v>24000</v>
+        <f t="shared" ref="E17:E35" si="1">F17/1.04</f>
+        <v>18000</v>
       </c>
       <c r="F17" s="9">
-        <f t="shared" si="3"/>
-        <v>24960</v>
-      </c>
-      <c r="H17" s="3">
-        <v>3120</v>
-      </c>
-      <c r="K17" s="3">
-        <v>3120</v>
-      </c>
-      <c r="L17" s="3">
-        <v>3120</v>
+        <f t="shared" ref="F17:F35" si="2">SUM(G17:AK17)</f>
+        <v>18720</v>
       </c>
       <c r="M17" s="3">
-        <v>5200</v>
-      </c>
-      <c r="R17" s="3">
-        <v>5200</v>
-      </c>
-      <c r="Y17" s="3">
-        <v>5200</v>
-      </c>
-    </row>
-    <row r="18" s="3" customFormat="1" spans="1:30">
+        <v>2080</v>
+      </c>
+      <c r="P17" s="3">
+        <v>1040</v>
+      </c>
+      <c r="Q17" s="3">
+        <v>3120</v>
+      </c>
+      <c r="T17" s="3">
+        <v>3120</v>
+      </c>
+      <c r="X17" s="3">
+        <v>3120</v>
+      </c>
+      <c r="AD17" s="3">
+        <v>3120</v>
+      </c>
+      <c r="AH17" s="3">
+        <v>3120</v>
+      </c>
+    </row>
+    <row r="18" s="3" customFormat="1" spans="1:34">
       <c r="A18" s="3">
         <v>16</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D18" s="4" t="s">
         <v>26</v>
       </c>
       <c r="E18" s="9">
+        <f t="shared" si="1"/>
+        <v>29000</v>
+      </c>
+      <c r="F18" s="9">
         <f t="shared" si="2"/>
-        <v>7000</v>
-      </c>
-      <c r="F18" s="9">
-        <f t="shared" si="3"/>
-        <v>7280</v>
+        <v>30160</v>
+      </c>
+      <c r="H18" s="3">
+        <v>3120</v>
+      </c>
+      <c r="K18" s="3">
+        <v>3120</v>
+      </c>
+      <c r="L18" s="3">
+        <v>3120</v>
+      </c>
+      <c r="M18" s="3">
+        <v>5200</v>
       </c>
       <c r="R18" s="3">
-        <v>1040</v>
-      </c>
-      <c r="W18" s="3">
-        <v>1040</v>
+        <v>5200</v>
       </c>
       <c r="Y18" s="3">
-        <v>1040</v>
-      </c>
-      <c r="AB18" s="3">
-        <v>1040</v>
-      </c>
-      <c r="AD18" s="12">
-        <v>3120</v>
-      </c>
-    </row>
-    <row r="19" s="3" customFormat="1" spans="1:30">
+        <v>5200</v>
+      </c>
+      <c r="AH18" s="3">
+        <v>5200</v>
+      </c>
+    </row>
+    <row r="19" s="3" customFormat="1" spans="1:34">
       <c r="A19" s="3">
         <v>17</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D19" s="4" t="s">
         <v>27</v>
       </c>
       <c r="E19" s="9">
+        <f t="shared" si="1"/>
+        <v>9000</v>
+      </c>
+      <c r="F19" s="9">
         <f t="shared" si="2"/>
-        <v>12000</v>
-      </c>
-      <c r="F19" s="9">
-        <f t="shared" si="3"/>
-        <v>12480</v>
-      </c>
-      <c r="J19" s="3">
-        <v>1040</v>
-      </c>
-      <c r="K19" s="3">
-        <v>1040</v>
-      </c>
-      <c r="L19" s="3">
-        <v>1040</v>
-      </c>
-      <c r="P19" s="3">
-        <v>3120</v>
-      </c>
-      <c r="U19" s="3">
-        <v>3120</v>
-      </c>
-      <c r="AD19" s="3">
-        <v>3120</v>
+        <v>9360</v>
+      </c>
+      <c r="R19" s="3">
+        <v>1040</v>
+      </c>
+      <c r="W19" s="3">
+        <v>1040</v>
+      </c>
+      <c r="Y19" s="3">
+        <v>1040</v>
+      </c>
+      <c r="AB19" s="3">
+        <v>1040</v>
+      </c>
+      <c r="AD19" s="13">
+        <v>3120</v>
+      </c>
+      <c r="AH19" s="3">
+        <v>2080</v>
       </c>
     </row>
     <row r="20" s="3" customFormat="1" spans="1:30">
@@ -2416,443 +2521,473 @@
         <v>18</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D20" s="4" t="s">
         <v>28</v>
       </c>
       <c r="E20" s="9">
+        <f t="shared" si="1"/>
+        <v>12000</v>
+      </c>
+      <c r="F20" s="9">
         <f t="shared" si="2"/>
-        <v>22000</v>
-      </c>
-      <c r="F20" s="9">
-        <f t="shared" si="3"/>
-        <v>22880</v>
-      </c>
-      <c r="O20" s="3">
-        <v>2080</v>
-      </c>
-      <c r="R20" s="3">
-        <v>5200</v>
-      </c>
-      <c r="S20" s="3">
-        <v>5200</v>
-      </c>
-      <c r="W20" s="3">
-        <v>5200</v>
+        <v>12480</v>
+      </c>
+      <c r="J20" s="3">
+        <v>1040</v>
+      </c>
+      <c r="K20" s="3">
+        <v>1040</v>
+      </c>
+      <c r="L20" s="3">
+        <v>1040</v>
+      </c>
+      <c r="P20" s="3">
+        <v>3120</v>
+      </c>
+      <c r="U20" s="3">
+        <v>3120</v>
       </c>
       <c r="AD20" s="3">
-        <v>5200</v>
-      </c>
-    </row>
-    <row r="21" s="3" customFormat="1" spans="1:28">
+        <v>3120</v>
+      </c>
+    </row>
+    <row r="21" s="3" customFormat="1" spans="1:30">
       <c r="A21" s="3">
         <v>19</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D21" s="4" t="s">
         <v>29</v>
       </c>
       <c r="E21" s="9">
+        <f t="shared" si="1"/>
+        <v>22000</v>
+      </c>
+      <c r="F21" s="9">
         <f t="shared" si="2"/>
-        <v>7000</v>
-      </c>
-      <c r="F21" s="9">
-        <f t="shared" si="3"/>
-        <v>7280</v>
-      </c>
-      <c r="J21" s="3">
-        <v>2080</v>
+        <v>22880</v>
       </c>
       <c r="O21" s="3">
-        <v>1040</v>
+        <v>2080</v>
       </c>
       <c r="R21" s="3">
-        <v>1040</v>
+        <v>5200</v>
       </c>
       <c r="S21" s="3">
-        <v>1040</v>
+        <v>5200</v>
       </c>
       <c r="W21" s="3">
-        <v>1040</v>
-      </c>
-      <c r="AB21" s="3">
-        <v>1040</v>
-      </c>
-    </row>
-    <row r="22" s="3" customFormat="1" spans="1:31">
+        <v>5200</v>
+      </c>
+      <c r="AD21" s="3">
+        <v>5200</v>
+      </c>
+    </row>
+    <row r="22" s="3" customFormat="1" spans="1:36">
       <c r="A22" s="3">
         <v>20</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D22" s="4" t="s">
         <v>30</v>
       </c>
       <c r="E22" s="9">
+        <f t="shared" si="1"/>
+        <v>9000</v>
+      </c>
+      <c r="F22" s="9">
         <f t="shared" si="2"/>
-        <v>18000</v>
-      </c>
-      <c r="F22" s="9">
-        <f t="shared" si="3"/>
-        <v>18720</v>
-      </c>
-      <c r="I22" s="3">
-        <v>3120</v>
+        <v>9360</v>
+      </c>
+      <c r="J22" s="3">
+        <v>2080</v>
       </c>
       <c r="O22" s="3">
-        <v>3120</v>
+        <v>1040</v>
+      </c>
+      <c r="R22" s="3">
+        <v>1040</v>
       </c>
       <c r="S22" s="3">
-        <v>3120</v>
+        <v>1040</v>
       </c>
       <c r="W22" s="3">
-        <v>3120</v>
-      </c>
-      <c r="AC22" s="3">
-        <v>3120</v>
-      </c>
-      <c r="AE22" s="3">
-        <v>3120</v>
-      </c>
-    </row>
-    <row r="23" s="3" customFormat="1" spans="1:32">
+        <v>1040</v>
+      </c>
+      <c r="AB22" s="3">
+        <v>1040</v>
+      </c>
+      <c r="AI22" s="3">
+        <v>1040</v>
+      </c>
+      <c r="AJ22" s="3">
+        <v>1040</v>
+      </c>
+    </row>
+    <row r="23" s="3" customFormat="1" spans="1:36">
       <c r="A23" s="3">
         <v>21</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D23" s="4" t="s">
         <v>31</v>
       </c>
       <c r="E23" s="9">
+        <f t="shared" si="1"/>
+        <v>21000</v>
+      </c>
+      <c r="F23" s="9">
         <f t="shared" si="2"/>
-        <v>22000</v>
-      </c>
-      <c r="F23" s="9">
-        <f t="shared" si="3"/>
-        <v>22880</v>
-      </c>
-      <c r="T23" s="12">
-        <v>2080</v>
-      </c>
-      <c r="U23" s="3">
-        <v>5200</v>
+        <v>21840</v>
+      </c>
+      <c r="I23" s="3">
+        <v>3120</v>
+      </c>
+      <c r="O23" s="3">
+        <v>3120</v>
+      </c>
+      <c r="S23" s="3">
+        <v>3120</v>
       </c>
       <c r="W23" s="3">
-        <v>5200</v>
-      </c>
-      <c r="AB23" s="3">
-        <v>5200</v>
-      </c>
-      <c r="AF23" s="3">
-        <v>5200</v>
-      </c>
-    </row>
-    <row r="24" s="3" customFormat="1" spans="1:29">
+        <v>3120</v>
+      </c>
+      <c r="AC23" s="3">
+        <v>3120</v>
+      </c>
+      <c r="AE23" s="3">
+        <v>3120</v>
+      </c>
+      <c r="AJ23" s="3">
+        <v>3120</v>
+      </c>
+    </row>
+    <row r="24" s="3" customFormat="1" spans="1:32">
       <c r="A24" s="3">
         <v>22</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D24" s="4" t="s">
         <v>32</v>
       </c>
       <c r="E24" s="9">
+        <f t="shared" si="1"/>
+        <v>22000</v>
+      </c>
+      <c r="F24" s="9">
         <f t="shared" si="2"/>
-        <v>21000</v>
-      </c>
-      <c r="F24" s="9">
-        <f t="shared" si="3"/>
-        <v>21840</v>
-      </c>
-      <c r="H24" s="3">
-        <v>3120</v>
-      </c>
-      <c r="M24" s="3">
-        <v>6240</v>
+        <v>22880</v>
+      </c>
+      <c r="T24" s="13">
+        <v>2080</v>
       </c>
       <c r="U24" s="3">
-        <v>3120</v>
-      </c>
-      <c r="V24" s="3">
-        <v>3120</v>
-      </c>
-      <c r="Z24" s="3">
-        <v>3120</v>
-      </c>
-      <c r="AC24" s="3">
-        <v>3120</v>
-      </c>
-    </row>
-    <row r="25" s="3" customFormat="1" spans="1:27">
+        <v>5200</v>
+      </c>
+      <c r="W24" s="3">
+        <v>5200</v>
+      </c>
+      <c r="AB24" s="3">
+        <v>5200</v>
+      </c>
+      <c r="AF24" s="3">
+        <v>5200</v>
+      </c>
+    </row>
+    <row r="25" s="3" customFormat="1" spans="1:34">
       <c r="A25" s="3">
         <v>23</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D25" s="4" t="s">
         <v>33</v>
       </c>
       <c r="E25" s="9">
+        <f t="shared" si="1"/>
+        <v>24000</v>
+      </c>
+      <c r="F25" s="9">
         <f t="shared" si="2"/>
-        <v>11000</v>
-      </c>
-      <c r="F25" s="9">
-        <f t="shared" si="3"/>
-        <v>11440</v>
+        <v>24960</v>
       </c>
       <c r="H25" s="3">
-        <v>1040</v>
-      </c>
-      <c r="I25" s="3">
-        <v>1040</v>
-      </c>
-      <c r="L25" s="3">
-        <v>2080</v>
-      </c>
-      <c r="S25" s="12">
-        <v>1040</v>
+        <v>3120</v>
+      </c>
+      <c r="M25" s="3">
+        <v>6240</v>
       </c>
       <c r="U25" s="3">
-        <v>2080</v>
+        <v>3120</v>
       </c>
       <c r="V25" s="3">
-        <v>2080</v>
-      </c>
-      <c r="AA25" s="3">
-        <v>2080</v>
-      </c>
-    </row>
-    <row r="26" s="3" customFormat="1" spans="1:28">
+        <v>3120</v>
+      </c>
+      <c r="Z25" s="3">
+        <v>3120</v>
+      </c>
+      <c r="AC25" s="3">
+        <v>3120</v>
+      </c>
+      <c r="AH25" s="3">
+        <v>3120</v>
+      </c>
+    </row>
+    <row r="26" s="3" customFormat="1" spans="1:35">
       <c r="A26" s="3">
         <v>24</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D26" s="4" t="s">
         <v>34</v>
       </c>
       <c r="E26" s="9">
+        <f t="shared" si="1"/>
+        <v>13000</v>
+      </c>
+      <c r="F26" s="9">
         <f t="shared" si="2"/>
-        <v>5000</v>
-      </c>
-      <c r="F26" s="9">
-        <f t="shared" si="3"/>
-        <v>5200</v>
+        <v>13520</v>
+      </c>
+      <c r="H26" s="3">
+        <v>1040</v>
+      </c>
+      <c r="I26" s="3">
+        <v>1040</v>
       </c>
       <c r="L26" s="3">
+        <v>2080</v>
+      </c>
+      <c r="S26" s="13">
         <v>1040</v>
       </c>
       <c r="U26" s="3">
         <v>2080</v>
       </c>
-      <c r="AB26" s="3">
-        <v>2080</v>
-      </c>
-    </row>
-    <row r="27" s="3" customFormat="1" spans="1:22">
+      <c r="V26" s="3">
+        <v>2080</v>
+      </c>
+      <c r="AA26" s="3">
+        <v>2080</v>
+      </c>
+      <c r="AI26" s="3">
+        <v>2080</v>
+      </c>
+    </row>
+    <row r="27" s="3" customFormat="1" spans="1:35">
       <c r="A27" s="3">
         <v>25</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D27" s="4" t="s">
         <v>35</v>
       </c>
       <c r="E27" s="9">
+        <f t="shared" si="1"/>
+        <v>7000</v>
+      </c>
+      <c r="F27" s="9">
         <f t="shared" si="2"/>
-        <v>8000</v>
-      </c>
-      <c r="F27" s="9">
-        <f t="shared" si="3"/>
-        <v>8320</v>
-      </c>
-      <c r="J27" s="3">
-        <v>1040</v>
-      </c>
-      <c r="M27" s="3">
-        <v>2080</v>
-      </c>
-      <c r="Q27" s="3">
-        <v>1040</v>
-      </c>
-      <c r="R27" s="3">
-        <v>2080</v>
-      </c>
-      <c r="V27" s="3">
-        <v>2080</v>
-      </c>
-    </row>
-    <row r="28" s="3" customFormat="1" spans="1:31">
+        <v>7280</v>
+      </c>
+      <c r="L27" s="3">
+        <v>1040</v>
+      </c>
+      <c r="U27" s="3">
+        <v>2080</v>
+      </c>
+      <c r="AB27" s="3">
+        <v>2080</v>
+      </c>
+      <c r="AI27" s="3">
+        <v>2080</v>
+      </c>
+    </row>
+    <row r="28" s="3" customFormat="1" spans="1:34">
       <c r="A28" s="3">
         <v>26</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D28" s="4" t="s">
         <v>36</v>
       </c>
       <c r="E28" s="9">
+        <f t="shared" si="1"/>
+        <v>10000</v>
+      </c>
+      <c r="F28" s="9">
         <f t="shared" si="2"/>
-        <v>22000</v>
-      </c>
-      <c r="F28" s="9">
-        <f t="shared" si="3"/>
-        <v>22880</v>
-      </c>
-      <c r="H28" s="3">
-        <v>2080</v>
+        <v>10400</v>
       </c>
       <c r="J28" s="3">
-        <v>2080</v>
-      </c>
-      <c r="L28" s="3">
-        <v>3120</v>
-      </c>
-      <c r="P28" s="3">
-        <v>5200</v>
+        <v>1040</v>
+      </c>
+      <c r="M28" s="3">
+        <v>2080</v>
+      </c>
+      <c r="Q28" s="3">
+        <v>1040</v>
+      </c>
+      <c r="R28" s="3">
+        <v>2080</v>
       </c>
       <c r="V28" s="3">
-        <v>5200</v>
-      </c>
-      <c r="AE28" s="3">
-        <v>5200</v>
-      </c>
-    </row>
-    <row r="29" s="3" customFormat="1" spans="1:29">
+        <v>2080</v>
+      </c>
+      <c r="AH28" s="3">
+        <v>2080</v>
+      </c>
+    </row>
+    <row r="29" s="3" customFormat="1" spans="1:31">
       <c r="A29" s="3">
         <v>27</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D29" s="4" t="s">
         <v>37</v>
       </c>
       <c r="E29" s="9">
+        <f t="shared" si="1"/>
+        <v>22000</v>
+      </c>
+      <c r="F29" s="9">
         <f t="shared" si="2"/>
-        <v>49000</v>
-      </c>
-      <c r="F29" s="9">
-        <f t="shared" si="3"/>
-        <v>50960</v>
-      </c>
-      <c r="I29" s="3">
+        <v>22880</v>
+      </c>
+      <c r="H29" s="3">
         <v>2080</v>
       </c>
       <c r="J29" s="3">
-        <v>5200</v>
-      </c>
-      <c r="K29" s="3">
         <v>2080</v>
       </c>
       <c r="L29" s="3">
-        <v>5200</v>
-      </c>
-      <c r="N29" s="3">
-        <v>5200</v>
+        <v>3120</v>
       </c>
       <c r="P29" s="3">
         <v>5200</v>
       </c>
-      <c r="R29" s="3">
-        <v>5200</v>
-      </c>
-      <c r="U29" s="3">
-        <v>5200</v>
-      </c>
-      <c r="W29" s="3">
-        <v>5200</v>
-      </c>
-      <c r="Z29" s="3">
-        <v>5200</v>
-      </c>
-      <c r="AC29" s="3">
-        <v>5200</v>
-      </c>
-    </row>
-    <row r="30" s="3" customFormat="1" spans="1:29">
+      <c r="V29" s="3">
+        <v>5200</v>
+      </c>
+      <c r="AE29" s="3">
+        <v>5200</v>
+      </c>
+    </row>
+    <row r="30" s="3" customFormat="1" spans="1:32">
       <c r="A30" s="3">
         <v>28</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D30" s="4" t="s">
         <v>38</v>
       </c>
       <c r="E30" s="9">
+        <f t="shared" si="1"/>
+        <v>54000</v>
+      </c>
+      <c r="F30" s="9">
         <f t="shared" si="2"/>
-        <v>12000</v>
-      </c>
-      <c r="F30" s="9">
-        <f t="shared" si="3"/>
-        <v>12480</v>
-      </c>
-      <c r="H30" s="3">
-        <v>1040</v>
+        <v>56160</v>
+      </c>
+      <c r="I30" s="3">
+        <v>2080</v>
+      </c>
+      <c r="J30" s="3">
+        <v>5200</v>
       </c>
       <c r="K30" s="3">
-        <v>1040</v>
-      </c>
-      <c r="M30" s="3">
-        <v>2080</v>
-      </c>
-      <c r="S30" s="3">
-        <v>2080</v>
+        <v>2080</v>
+      </c>
+      <c r="L30" s="3">
+        <v>5200</v>
+      </c>
+      <c r="N30" s="3">
+        <v>5200</v>
+      </c>
+      <c r="P30" s="3">
+        <v>5200</v>
+      </c>
+      <c r="R30" s="3">
+        <v>5200</v>
       </c>
       <c r="U30" s="3">
-        <v>2080</v>
-      </c>
-      <c r="X30" s="3">
-        <v>2080</v>
+        <v>5200</v>
+      </c>
+      <c r="W30" s="3">
+        <v>5200</v>
+      </c>
+      <c r="Z30" s="3">
+        <v>5200</v>
       </c>
       <c r="AC30" s="3">
-        <v>2080</v>
-      </c>
-    </row>
-    <row r="31" s="3" customFormat="1" spans="1:31">
+        <v>5200</v>
+      </c>
+      <c r="AF30" s="3">
+        <v>5200</v>
+      </c>
+    </row>
+    <row r="31" s="3" customFormat="1" spans="1:33">
       <c r="A31" s="3">
         <v>29</v>
       </c>
       <c r="C31" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D31" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="D31" s="4" t="s">
-        <v>40</v>
-      </c>
       <c r="E31" s="9">
+        <f t="shared" si="1"/>
+        <v>14000</v>
+      </c>
+      <c r="F31" s="9">
         <f t="shared" si="2"/>
-        <v>12000</v>
-      </c>
-      <c r="F31" s="9">
-        <f t="shared" si="3"/>
-        <v>12480</v>
-      </c>
-      <c r="I31" s="3">
-        <v>2080</v>
+        <v>14560</v>
+      </c>
+      <c r="H31" s="3">
+        <v>1040</v>
       </c>
       <c r="K31" s="3">
         <v>1040</v>
       </c>
-      <c r="N31" s="3">
-        <v>3120</v>
+      <c r="M31" s="3">
+        <v>2080</v>
+      </c>
+      <c r="S31" s="3">
+        <v>2080</v>
+      </c>
+      <c r="U31" s="3">
+        <v>2080</v>
       </c>
       <c r="X31" s="3">
-        <v>3120</v>
-      </c>
-      <c r="AE31" s="3">
-        <v>3120</v>
+        <v>2080</v>
+      </c>
+      <c r="AC31" s="3">
+        <v>2080</v>
+      </c>
+      <c r="AG31" s="3">
+        <v>2080</v>
       </c>
     </row>
     <row r="32" s="3" customFormat="1" spans="1:31">
@@ -2860,36 +2995,33 @@
         <v>30</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D32" s="4" t="s">
         <v>41</v>
       </c>
       <c r="E32" s="9">
+        <f t="shared" si="1"/>
+        <v>12000</v>
+      </c>
+      <c r="F32" s="9">
         <f t="shared" si="2"/>
-        <v>6000</v>
-      </c>
-      <c r="F32" s="9">
-        <f t="shared" si="3"/>
-        <v>6240</v>
+        <v>12480</v>
       </c>
       <c r="I32" s="3">
-        <v>1040</v>
-      </c>
-      <c r="M32" s="3">
-        <v>1040</v>
-      </c>
-      <c r="O32" s="3">
-        <v>1040</v>
-      </c>
-      <c r="U32" s="3">
-        <v>1040</v>
-      </c>
-      <c r="W32" s="3">
-        <v>1040</v>
+        <v>2080</v>
+      </c>
+      <c r="K32" s="3">
+        <v>1040</v>
+      </c>
+      <c r="N32" s="3">
+        <v>3120</v>
+      </c>
+      <c r="X32" s="3">
+        <v>3120</v>
       </c>
       <c r="AE32" s="3">
-        <v>1040</v>
+        <v>3120</v>
       </c>
     </row>
     <row r="33" s="3" customFormat="1" spans="1:31">
@@ -2897,27 +3029,36 @@
         <v>31</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D33" s="4" t="s">
         <v>42</v>
       </c>
       <c r="E33" s="9">
+        <f t="shared" si="1"/>
+        <v>6000</v>
+      </c>
+      <c r="F33" s="9">
         <f t="shared" si="2"/>
-        <v>5000</v>
-      </c>
-      <c r="F33" s="9">
-        <f t="shared" si="3"/>
-        <v>5200</v>
+        <v>6240</v>
       </c>
       <c r="I33" s="3">
         <v>1040</v>
       </c>
-      <c r="L33" s="3">
-        <v>2080</v>
+      <c r="M33" s="3">
+        <v>1040</v>
+      </c>
+      <c r="O33" s="3">
+        <v>1040</v>
+      </c>
+      <c r="U33" s="3">
+        <v>1040</v>
+      </c>
+      <c r="W33" s="3">
+        <v>1040</v>
       </c>
       <c r="AE33" s="3">
-        <v>2080</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="34" s="3" customFormat="1" spans="1:31">
@@ -2925,1481 +3066,1595 @@
         <v>32</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D34" s="4" t="s">
         <v>43</v>
       </c>
       <c r="E34" s="9">
+        <f t="shared" si="1"/>
+        <v>5000</v>
+      </c>
+      <c r="F34" s="9">
         <f t="shared" si="2"/>
-        <v>24000</v>
-      </c>
-      <c r="F34" s="9">
-        <f t="shared" si="3"/>
-        <v>24960</v>
+        <v>5200</v>
       </c>
       <c r="I34" s="3">
-        <v>2080</v>
-      </c>
-      <c r="J34" s="3">
-        <v>1040</v>
-      </c>
-      <c r="K34" s="3">
         <v>1040</v>
       </c>
       <c r="L34" s="3">
         <v>2080</v>
       </c>
-      <c r="N34" s="3">
-        <v>3120</v>
-      </c>
-      <c r="Q34" s="3">
-        <v>3120</v>
-      </c>
-      <c r="T34" s="3">
-        <v>3120</v>
-      </c>
-      <c r="W34" s="3">
-        <v>3120</v>
-      </c>
-      <c r="AB34" s="3">
-        <v>3120</v>
-      </c>
       <c r="AE34" s="3">
-        <v>3120</v>
-      </c>
-    </row>
-    <row r="35" s="3" customFormat="1" spans="1:29">
+        <v>2080</v>
+      </c>
+    </row>
+    <row r="35" s="3" customFormat="1" spans="1:35">
       <c r="A35" s="3">
         <v>33</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D35" s="4" t="s">
         <v>44</v>
       </c>
       <c r="E35" s="9">
-        <f t="shared" ref="E35:E66" si="4">F35/1.04</f>
-        <v>4000</v>
+        <f t="shared" si="1"/>
+        <v>30000</v>
       </c>
       <c r="F35" s="9">
-        <f t="shared" ref="F35:F66" si="5">SUM(G35:AK35)</f>
-        <v>4160</v>
-      </c>
-      <c r="V35" s="12">
-        <v>2080</v>
-      </c>
-      <c r="AC35" s="12">
-        <v>2080</v>
-      </c>
-    </row>
-    <row r="36" s="3" customFormat="1" spans="1:27">
+        <f t="shared" si="2"/>
+        <v>31200</v>
+      </c>
+      <c r="I35" s="3">
+        <v>2080</v>
+      </c>
+      <c r="J35" s="3">
+        <v>1040</v>
+      </c>
+      <c r="K35" s="3">
+        <v>1040</v>
+      </c>
+      <c r="L35" s="3">
+        <v>2080</v>
+      </c>
+      <c r="N35" s="3">
+        <v>3120</v>
+      </c>
+      <c r="Q35" s="3">
+        <v>3120</v>
+      </c>
+      <c r="T35" s="3">
+        <v>3120</v>
+      </c>
+      <c r="W35" s="3">
+        <v>3120</v>
+      </c>
+      <c r="AB35" s="3">
+        <v>3120</v>
+      </c>
+      <c r="AE35" s="3">
+        <v>3120</v>
+      </c>
+      <c r="AG35" s="3">
+        <v>3120</v>
+      </c>
+      <c r="AI35" s="3">
+        <v>3120</v>
+      </c>
+    </row>
+    <row r="36" s="3" customFormat="1" spans="1:29">
       <c r="A36" s="3">
         <v>34</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D36" s="4" t="s">
         <v>45</v>
       </c>
       <c r="E36" s="9">
-        <f t="shared" si="4"/>
-        <v>18000</v>
+        <f t="shared" ref="E36:E68" si="3">F36/1.04</f>
+        <v>4000</v>
       </c>
       <c r="F36" s="9">
-        <f t="shared" si="5"/>
-        <v>18720</v>
-      </c>
-      <c r="H36" s="3">
-        <v>3120</v>
-      </c>
-      <c r="J36" s="3">
-        <v>1040</v>
-      </c>
-      <c r="L36" s="3">
-        <v>2080</v>
-      </c>
-      <c r="O36" s="3">
-        <v>3120</v>
-      </c>
-      <c r="S36" s="3">
-        <v>3120</v>
-      </c>
-      <c r="W36" s="3">
-        <v>3120</v>
-      </c>
-      <c r="AA36" s="3">
-        <v>3120</v>
-      </c>
-    </row>
-    <row r="37" s="3" customFormat="1" spans="1:27">
+        <f t="shared" ref="F36:F68" si="4">SUM(G36:AK36)</f>
+        <v>4160</v>
+      </c>
+      <c r="V36" s="13">
+        <v>2080</v>
+      </c>
+      <c r="AC36" s="13">
+        <v>2080</v>
+      </c>
+    </row>
+    <row r="37" s="3" customFormat="1" spans="1:32">
       <c r="A37" s="3">
         <v>35</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D37" s="4" t="s">
         <v>46</v>
       </c>
       <c r="E37" s="9">
+        <f t="shared" si="3"/>
+        <v>21000</v>
+      </c>
+      <c r="F37" s="9">
         <f t="shared" si="4"/>
-        <v>6000</v>
-      </c>
-      <c r="F37" s="9">
-        <f t="shared" si="5"/>
-        <v>6240</v>
-      </c>
-      <c r="K37" s="3">
-        <v>2080</v>
-      </c>
-      <c r="U37" s="12">
-        <v>2080</v>
-      </c>
-      <c r="AA37" s="12">
-        <v>2080</v>
-      </c>
-    </row>
-    <row r="38" s="3" customFormat="1" spans="1:32">
+        <v>21840</v>
+      </c>
+      <c r="H37" s="3">
+        <v>3120</v>
+      </c>
+      <c r="J37" s="3">
+        <v>1040</v>
+      </c>
+      <c r="L37" s="3">
+        <v>2080</v>
+      </c>
+      <c r="O37" s="3">
+        <v>3120</v>
+      </c>
+      <c r="S37" s="3">
+        <v>3120</v>
+      </c>
+      <c r="W37" s="3">
+        <v>3120</v>
+      </c>
+      <c r="AA37" s="3">
+        <v>3120</v>
+      </c>
+      <c r="AF37" s="3">
+        <v>3120</v>
+      </c>
+    </row>
+    <row r="38" s="3" customFormat="1" spans="1:35">
       <c r="A38" s="3">
         <v>36</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D38" s="4" t="s">
         <v>47</v>
       </c>
       <c r="E38" s="9">
+        <f t="shared" si="3"/>
+        <v>9000</v>
+      </c>
+      <c r="F38" s="9">
         <f t="shared" si="4"/>
-        <v>12000</v>
-      </c>
-      <c r="F38" s="9">
-        <f t="shared" si="5"/>
-        <v>12480</v>
-      </c>
-      <c r="M38" s="3">
-        <v>2080</v>
-      </c>
-      <c r="N38" s="3">
-        <v>2080</v>
-      </c>
-      <c r="Q38" s="3">
-        <v>2080</v>
-      </c>
-      <c r="V38" s="3">
-        <v>2080</v>
-      </c>
-      <c r="AA38" s="3">
-        <v>2080</v>
-      </c>
-      <c r="AF38" s="3">
-        <v>2080</v>
-      </c>
-    </row>
-    <row r="39" s="3" customFormat="1" spans="1:26">
+        <v>9360</v>
+      </c>
+      <c r="K38" s="3">
+        <v>2080</v>
+      </c>
+      <c r="U38" s="13">
+        <v>2080</v>
+      </c>
+      <c r="AA38" s="13">
+        <v>2080</v>
+      </c>
+      <c r="AI38" s="13">
+        <v>3120</v>
+      </c>
+    </row>
+    <row r="39" s="3" customFormat="1" spans="1:32">
       <c r="A39" s="3">
         <v>37</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D39" s="4" t="s">
         <v>48</v>
       </c>
       <c r="E39" s="9">
+        <f t="shared" si="3"/>
+        <v>12000</v>
+      </c>
+      <c r="F39" s="9">
         <f t="shared" si="4"/>
-        <v>9000</v>
-      </c>
-      <c r="F39" s="9">
-        <f t="shared" si="5"/>
-        <v>9360</v>
-      </c>
-      <c r="H39" s="3">
-        <v>2080</v>
-      </c>
-      <c r="K39" s="3">
-        <v>1040</v>
+        <v>12480</v>
+      </c>
+      <c r="M39" s="3">
+        <v>2080</v>
       </c>
       <c r="N39" s="3">
         <v>2080</v>
       </c>
-      <c r="S39" s="3">
-        <v>2080</v>
-      </c>
-      <c r="Z39" s="3">
-        <v>2080</v>
-      </c>
-    </row>
-    <row r="40" s="3" customFormat="1" spans="1:31">
+      <c r="Q39" s="3">
+        <v>2080</v>
+      </c>
+      <c r="V39" s="3">
+        <v>2080</v>
+      </c>
+      <c r="AA39" s="3">
+        <v>2080</v>
+      </c>
+      <c r="AF39" s="3">
+        <v>2080</v>
+      </c>
+    </row>
+    <row r="40" s="3" customFormat="1" spans="1:34">
       <c r="A40" s="3">
         <v>38</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D40" s="4" t="s">
         <v>49</v>
       </c>
       <c r="E40" s="9">
+        <f t="shared" si="3"/>
+        <v>11000</v>
+      </c>
+      <c r="F40" s="9">
         <f t="shared" si="4"/>
-        <v>33000</v>
-      </c>
-      <c r="F40" s="9">
-        <f t="shared" si="5"/>
-        <v>34320</v>
-      </c>
-      <c r="I40" s="3">
-        <v>2080</v>
-      </c>
-      <c r="J40" s="3">
+        <v>11440</v>
+      </c>
+      <c r="H40" s="3">
         <v>2080</v>
       </c>
       <c r="K40" s="3">
         <v>1040</v>
       </c>
-      <c r="L40" s="3">
-        <v>1040</v>
-      </c>
-      <c r="M40" s="3">
-        <v>3120</v>
-      </c>
-      <c r="O40" s="3">
-        <v>3120</v>
-      </c>
-      <c r="Q40" s="3">
-        <v>3120</v>
-      </c>
-      <c r="T40" s="3">
-        <v>3120</v>
-      </c>
-      <c r="V40" s="3">
-        <v>3120</v>
-      </c>
-      <c r="X40" s="3">
-        <v>3120</v>
+      <c r="N40" s="3">
+        <v>2080</v>
+      </c>
+      <c r="S40" s="3">
+        <v>2080</v>
       </c>
       <c r="Z40" s="3">
-        <v>3120</v>
-      </c>
-      <c r="AC40" s="3">
-        <v>3120</v>
-      </c>
-      <c r="AE40" s="3">
-        <v>3120</v>
-      </c>
-    </row>
-    <row r="41" s="3" customFormat="1" spans="1:26">
+        <v>2080</v>
+      </c>
+      <c r="AH40" s="3">
+        <v>2080</v>
+      </c>
+    </row>
+    <row r="41" s="3" customFormat="1" spans="1:34">
       <c r="A41" s="3">
         <v>39</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D41" s="4" t="s">
         <v>50</v>
       </c>
       <c r="E41" s="9">
+        <f t="shared" si="3"/>
+        <v>36000</v>
+      </c>
+      <c r="F41" s="9">
         <f t="shared" si="4"/>
-        <v>5000</v>
-      </c>
-      <c r="F41" s="9">
-        <f t="shared" si="5"/>
-        <v>5200</v>
+        <v>37440</v>
+      </c>
+      <c r="I41" s="3">
+        <v>2080</v>
+      </c>
+      <c r="J41" s="3">
+        <v>2080</v>
+      </c>
+      <c r="K41" s="3">
+        <v>1040</v>
       </c>
       <c r="L41" s="3">
-        <v>2080</v>
+        <v>1040</v>
+      </c>
+      <c r="M41" s="3">
+        <v>3120</v>
+      </c>
+      <c r="O41" s="3">
+        <v>3120</v>
       </c>
       <c r="Q41" s="3">
-        <v>1040</v>
-      </c>
-      <c r="Z41" s="12">
-        <v>2080</v>
-      </c>
-    </row>
-    <row r="42" s="3" customFormat="1" spans="1:6">
+        <v>3120</v>
+      </c>
+      <c r="T41" s="3">
+        <v>3120</v>
+      </c>
+      <c r="V41" s="3">
+        <v>3120</v>
+      </c>
+      <c r="X41" s="3">
+        <v>3120</v>
+      </c>
+      <c r="Z41" s="3">
+        <v>3120</v>
+      </c>
+      <c r="AC41" s="3">
+        <v>3120</v>
+      </c>
+      <c r="AE41" s="3">
+        <v>3120</v>
+      </c>
+      <c r="AH41" s="3">
+        <v>3120</v>
+      </c>
+    </row>
+    <row r="42" s="3" customFormat="1" spans="1:26">
       <c r="A42" s="3">
         <v>40</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D42" s="4" t="s">
         <v>51</v>
       </c>
       <c r="E42" s="9">
+        <f t="shared" si="3"/>
+        <v>5000</v>
+      </c>
+      <c r="F42" s="9">
+        <f t="shared" si="4"/>
+        <v>5200</v>
+      </c>
+      <c r="L42" s="3">
+        <v>2080</v>
+      </c>
+      <c r="Q42" s="3">
+        <v>1040</v>
+      </c>
+      <c r="Z42" s="13">
+        <v>2080</v>
+      </c>
+    </row>
+    <row r="43" s="3" customFormat="1" spans="1:6">
+      <c r="A43" s="3">
+        <v>41</v>
+      </c>
+      <c r="C43" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="D43" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="E43" s="9">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="F43" s="9">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="F42" s="9">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" s="3" customFormat="1" spans="1:29">
-      <c r="A43" s="3">
-        <v>41</v>
-      </c>
-      <c r="C43" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="D43" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="E43" s="9">
-        <f t="shared" si="4"/>
-        <v>18000</v>
-      </c>
-      <c r="F43" s="9">
-        <f t="shared" si="5"/>
-        <v>18720</v>
-      </c>
-      <c r="H43" s="3">
-        <v>3120</v>
-      </c>
-      <c r="I43" s="3">
-        <v>2080</v>
-      </c>
-      <c r="L43" s="3">
-        <v>3120</v>
-      </c>
-      <c r="R43" s="3">
-        <v>1040</v>
-      </c>
-      <c r="U43" s="3">
-        <v>3120</v>
-      </c>
-      <c r="X43" s="3">
-        <v>3120</v>
-      </c>
-      <c r="AC43" s="3">
-        <v>3120</v>
-      </c>
-    </row>
-    <row r="44" s="3" customFormat="1" spans="1:29">
+    </row>
+    <row r="44" s="3" customFormat="1" spans="1:33">
       <c r="A44" s="3">
         <v>42</v>
       </c>
       <c r="C44" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="D44" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="D44" s="4" t="s">
-        <v>54</v>
-      </c>
       <c r="E44" s="9">
+        <f t="shared" si="3"/>
+        <v>21000</v>
+      </c>
+      <c r="F44" s="9">
         <f t="shared" si="4"/>
-        <v>20000</v>
-      </c>
-      <c r="F44" s="9">
-        <f t="shared" si="5"/>
-        <v>20800</v>
+        <v>21840</v>
       </c>
       <c r="H44" s="3">
-        <v>2080</v>
-      </c>
-      <c r="J44" s="3">
+        <v>3120</v>
+      </c>
+      <c r="I44" s="3">
+        <v>2080</v>
+      </c>
+      <c r="L44" s="3">
         <v>3120</v>
       </c>
       <c r="R44" s="3">
-        <v>3120</v>
-      </c>
-      <c r="T44" s="3">
-        <v>3120</v>
-      </c>
-      <c r="W44" s="3">
-        <v>3120</v>
-      </c>
-      <c r="AA44" s="3">
+        <v>1040</v>
+      </c>
+      <c r="U44" s="3">
+        <v>3120</v>
+      </c>
+      <c r="X44" s="3">
         <v>3120</v>
       </c>
       <c r="AC44" s="3">
         <v>3120</v>
       </c>
-    </row>
-    <row r="45" s="3" customFormat="1" spans="1:28">
+      <c r="AG44" s="3">
+        <v>3120</v>
+      </c>
+    </row>
+    <row r="45" s="3" customFormat="1" spans="1:32">
       <c r="A45" s="3">
         <v>43</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D45" s="4" t="s">
         <v>55</v>
       </c>
       <c r="E45" s="9">
+        <f t="shared" si="3"/>
+        <v>23000</v>
+      </c>
+      <c r="F45" s="9">
         <f t="shared" si="4"/>
-        <v>19000</v>
-      </c>
-      <c r="F45" s="9">
-        <f t="shared" si="5"/>
-        <v>19760</v>
+        <v>23920</v>
+      </c>
+      <c r="H45" s="3">
+        <v>2080</v>
       </c>
       <c r="J45" s="3">
-        <v>2080</v>
-      </c>
-      <c r="L45" s="3">
-        <v>2080</v>
-      </c>
-      <c r="N45" s="3">
-        <v>3120</v>
-      </c>
-      <c r="S45" s="3">
-        <v>3120</v>
-      </c>
-      <c r="V45" s="3">
-        <v>3120</v>
-      </c>
-      <c r="Y45" s="3">
-        <v>3120</v>
-      </c>
-      <c r="AB45" s="3">
-        <v>3120</v>
-      </c>
-    </row>
-    <row r="46" s="3" customFormat="1" spans="1:28">
+        <v>3120</v>
+      </c>
+      <c r="R45" s="3">
+        <v>3120</v>
+      </c>
+      <c r="T45" s="3">
+        <v>3120</v>
+      </c>
+      <c r="W45" s="3">
+        <v>3120</v>
+      </c>
+      <c r="AA45" s="3">
+        <v>3120</v>
+      </c>
+      <c r="AC45" s="3">
+        <v>3120</v>
+      </c>
+      <c r="AF45" s="3">
+        <v>3120</v>
+      </c>
+    </row>
+    <row r="46" s="3" customFormat="1" spans="1:34">
       <c r="A46" s="3">
         <v>44</v>
       </c>
       <c r="C46" s="3" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D46" s="4" t="s">
         <v>56</v>
       </c>
       <c r="E46" s="9">
+        <f t="shared" si="3"/>
+        <v>22000</v>
+      </c>
+      <c r="F46" s="9">
         <f t="shared" si="4"/>
-        <v>6000</v>
-      </c>
-      <c r="F46" s="9">
-        <f t="shared" si="5"/>
-        <v>6240</v>
+        <v>22880</v>
       </c>
       <c r="J46" s="3">
         <v>2080</v>
       </c>
-      <c r="T46" s="3">
-        <v>2080</v>
+      <c r="L46" s="3">
+        <v>2080</v>
+      </c>
+      <c r="N46" s="3">
+        <v>3120</v>
+      </c>
+      <c r="S46" s="3">
+        <v>3120</v>
+      </c>
+      <c r="V46" s="3">
+        <v>3120</v>
+      </c>
+      <c r="Y46" s="3">
+        <v>3120</v>
       </c>
       <c r="AB46" s="3">
-        <v>2080</v>
-      </c>
-    </row>
-    <row r="47" s="3" customFormat="1" spans="1:25">
+        <v>3120</v>
+      </c>
+      <c r="AH46" s="3">
+        <v>3120</v>
+      </c>
+    </row>
+    <row r="47" s="3" customFormat="1" spans="1:28">
       <c r="A47" s="3">
         <v>45</v>
       </c>
       <c r="C47" s="3" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D47" s="4" t="s">
         <v>57</v>
       </c>
       <c r="E47" s="9">
+        <f t="shared" si="3"/>
+        <v>6000</v>
+      </c>
+      <c r="F47" s="9">
         <f t="shared" si="4"/>
-        <v>14000</v>
-      </c>
-      <c r="F47" s="9">
-        <f t="shared" si="5"/>
-        <v>14560</v>
-      </c>
-      <c r="O47" s="3">
-        <v>2080</v>
-      </c>
-      <c r="P47" s="3">
-        <v>3120</v>
-      </c>
-      <c r="S47" s="3">
-        <v>3120</v>
-      </c>
-      <c r="U47" s="3">
-        <v>3120</v>
-      </c>
-      <c r="Y47" s="3">
-        <v>3120</v>
-      </c>
-    </row>
-    <row r="48" s="3" customFormat="1" spans="1:29">
+        <v>6240</v>
+      </c>
+      <c r="J47" s="3">
+        <v>2080</v>
+      </c>
+      <c r="T47" s="3">
+        <v>2080</v>
+      </c>
+      <c r="AB47" s="3">
+        <v>2080</v>
+      </c>
+    </row>
+    <row r="48" s="3" customFormat="1" spans="1:32">
       <c r="A48" s="3">
         <v>46</v>
       </c>
       <c r="C48" s="3" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D48" s="4" t="s">
         <v>58</v>
       </c>
       <c r="E48" s="9">
+        <f t="shared" si="3"/>
+        <v>17000</v>
+      </c>
+      <c r="F48" s="9">
         <f t="shared" si="4"/>
-        <v>21000</v>
-      </c>
-      <c r="F48" s="9">
-        <f t="shared" si="5"/>
-        <v>21840</v>
-      </c>
-      <c r="J48" s="3">
-        <v>2080</v>
-      </c>
-      <c r="K48" s="3">
-        <v>1040</v>
-      </c>
-      <c r="M48" s="3">
-        <v>3120</v>
+        <v>17680</v>
       </c>
       <c r="O48" s="3">
+        <v>2080</v>
+      </c>
+      <c r="P48" s="3">
         <v>3120</v>
       </c>
       <c r="S48" s="3">
         <v>3120</v>
       </c>
-      <c r="W48" s="3">
-        <v>3120</v>
-      </c>
-      <c r="Z48" s="3">
-        <v>3120</v>
-      </c>
-      <c r="AC48" s="3">
-        <v>3120</v>
-      </c>
-    </row>
-    <row r="49" s="3" customFormat="1" spans="1:27">
+      <c r="U48" s="3">
+        <v>3120</v>
+      </c>
+      <c r="Y48" s="3">
+        <v>3120</v>
+      </c>
+      <c r="AF48" s="3">
+        <v>3120</v>
+      </c>
+    </row>
+    <row r="49" s="3" customFormat="1" spans="1:34">
       <c r="A49" s="3">
         <v>47</v>
       </c>
       <c r="C49" s="3" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D49" s="4" t="s">
         <v>59</v>
       </c>
       <c r="E49" s="9">
+        <f t="shared" si="3"/>
+        <v>24000</v>
+      </c>
+      <c r="F49" s="9">
         <f t="shared" si="4"/>
-        <v>9000</v>
-      </c>
-      <c r="F49" s="9">
-        <f t="shared" si="5"/>
-        <v>9360</v>
+        <v>24960</v>
       </c>
       <c r="J49" s="3">
-        <v>1040</v>
-      </c>
-      <c r="P49" s="3">
-        <v>2080</v>
+        <v>2080</v>
+      </c>
+      <c r="K49" s="3">
+        <v>1040</v>
+      </c>
+      <c r="M49" s="3">
+        <v>3120</v>
+      </c>
+      <c r="O49" s="3">
+        <v>3120</v>
       </c>
       <c r="S49" s="3">
-        <v>2080</v>
-      </c>
-      <c r="X49" s="3">
-        <v>2080</v>
-      </c>
-      <c r="AA49" s="3">
-        <v>2080</v>
-      </c>
-    </row>
-    <row r="50" s="3" customFormat="1" spans="1:18">
+        <v>3120</v>
+      </c>
+      <c r="W49" s="3">
+        <v>3120</v>
+      </c>
+      <c r="Z49" s="3">
+        <v>3120</v>
+      </c>
+      <c r="AC49" s="3">
+        <v>3120</v>
+      </c>
+      <c r="AH49" s="3">
+        <v>3120</v>
+      </c>
+    </row>
+    <row r="50" s="3" customFormat="1" spans="1:27">
       <c r="A50" s="3">
         <v>48</v>
       </c>
       <c r="C50" s="3" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D50" s="4" t="s">
         <v>60</v>
       </c>
       <c r="E50" s="9">
+        <f t="shared" si="3"/>
+        <v>9000</v>
+      </c>
+      <c r="F50" s="9">
         <f t="shared" si="4"/>
-        <v>6000</v>
-      </c>
-      <c r="F50" s="9">
-        <f t="shared" si="5"/>
-        <v>6240</v>
-      </c>
-      <c r="H50" s="3">
-        <v>1040</v>
+        <v>9360</v>
       </c>
       <c r="J50" s="3">
         <v>1040</v>
       </c>
-      <c r="L50" s="3">
-        <v>2080</v>
-      </c>
-      <c r="R50" s="3">
-        <v>2080</v>
-      </c>
-    </row>
-    <row r="51" s="3" customFormat="1" spans="1:31">
+      <c r="P50" s="3">
+        <v>2080</v>
+      </c>
+      <c r="S50" s="3">
+        <v>2080</v>
+      </c>
+      <c r="X50" s="3">
+        <v>2080</v>
+      </c>
+      <c r="AA50" s="3">
+        <v>2080</v>
+      </c>
+    </row>
+    <row r="51" s="3" customFormat="1" spans="1:33">
       <c r="A51" s="3">
         <v>49</v>
       </c>
       <c r="C51" s="3" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D51" s="4" t="s">
         <v>61</v>
       </c>
       <c r="E51" s="9">
+        <f t="shared" si="3"/>
+        <v>8000</v>
+      </c>
+      <c r="F51" s="9">
         <f t="shared" si="4"/>
-        <v>22000</v>
-      </c>
-      <c r="F51" s="9">
-        <f t="shared" si="5"/>
-        <v>22880</v>
+        <v>8320</v>
       </c>
       <c r="H51" s="3">
-        <v>2080</v>
+        <v>1040</v>
       </c>
       <c r="J51" s="3">
-        <v>2080</v>
-      </c>
-      <c r="M51" s="3">
-        <v>3120</v>
-      </c>
-      <c r="N51" s="3">
-        <v>3120</v>
-      </c>
-      <c r="T51" s="3">
-        <v>3120</v>
-      </c>
-      <c r="W51" s="3">
-        <v>3120</v>
-      </c>
-      <c r="AA51" s="3">
-        <v>3120</v>
-      </c>
-      <c r="AE51" s="3">
-        <v>3120</v>
-      </c>
-    </row>
-    <row r="52" s="3" customFormat="1" spans="1:32">
+        <v>1040</v>
+      </c>
+      <c r="L51" s="3">
+        <v>2080</v>
+      </c>
+      <c r="R51" s="3">
+        <v>2080</v>
+      </c>
+      <c r="AG51" s="3">
+        <v>2080</v>
+      </c>
+    </row>
+    <row r="52" s="3" customFormat="1" spans="1:31">
       <c r="A52" s="3">
         <v>50</v>
       </c>
-      <c r="B52" s="10"/>
-      <c r="C52" s="10" t="s">
-        <v>53</v>
-      </c>
-      <c r="D52" s="11" t="s">
+      <c r="C52" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="D52" s="4" t="s">
         <v>62</v>
       </c>
       <c r="E52" s="9">
-        <f>F52/1.04</f>
-        <v>3000</v>
+        <f t="shared" si="3"/>
+        <v>22000</v>
       </c>
       <c r="F52" s="9">
-        <f>SUM(G52:AK52)</f>
-        <v>3120</v>
-      </c>
-      <c r="AC52" s="3">
-        <v>1040</v>
-      </c>
-      <c r="AD52" s="3">
-        <v>1040</v>
-      </c>
-      <c r="AF52" s="3">
-        <v>1040</v>
-      </c>
-    </row>
-    <row r="53" s="3" customFormat="1" spans="1:30">
+        <f t="shared" si="4"/>
+        <v>22880</v>
+      </c>
+      <c r="H52" s="3">
+        <v>2080</v>
+      </c>
+      <c r="J52" s="3">
+        <v>2080</v>
+      </c>
+      <c r="M52" s="3">
+        <v>3120</v>
+      </c>
+      <c r="N52" s="3">
+        <v>3120</v>
+      </c>
+      <c r="T52" s="3">
+        <v>3120</v>
+      </c>
+      <c r="W52" s="3">
+        <v>3120</v>
+      </c>
+      <c r="AA52" s="3">
+        <v>3120</v>
+      </c>
+      <c r="AE52" s="3">
+        <v>3120</v>
+      </c>
+    </row>
+    <row r="53" s="3" customFormat="1" spans="1:36">
       <c r="A53" s="3">
         <v>51</v>
       </c>
-      <c r="C53" s="3" t="s">
+      <c r="B53" s="11"/>
+      <c r="C53" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="D53" s="12" t="s">
         <v>63</v>
       </c>
-      <c r="D53" s="4" t="s">
-        <v>64</v>
-      </c>
       <c r="E53" s="9">
-        <f>F53/1.04</f>
-        <v>9000</v>
+        <f t="shared" si="3"/>
+        <v>5000</v>
       </c>
       <c r="F53" s="9">
-        <f>SUM(G53:AK53)</f>
-        <v>9360</v>
-      </c>
-      <c r="P53" s="3">
-        <v>1040</v>
-      </c>
-      <c r="R53" s="3">
-        <v>2080</v>
-      </c>
-      <c r="U53" s="3">
-        <v>2080</v>
-      </c>
-      <c r="W53" s="3">
-        <v>2080</v>
+        <f t="shared" si="4"/>
+        <v>5200</v>
+      </c>
+      <c r="AC53" s="3">
+        <v>1040</v>
       </c>
       <c r="AD53" s="3">
-        <v>2080</v>
-      </c>
-    </row>
-    <row r="54" s="3" customFormat="1" spans="1:29">
+        <v>1040</v>
+      </c>
+      <c r="AF53" s="3">
+        <v>1040</v>
+      </c>
+      <c r="AG53" s="13">
+        <v>1040</v>
+      </c>
+      <c r="AJ53" s="3">
+        <v>1040</v>
+      </c>
+    </row>
+    <row r="54" s="3" customFormat="1" spans="1:30">
       <c r="A54" s="3">
         <v>52</v>
       </c>
       <c r="C54" s="3" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D54" s="4" t="s">
         <v>65</v>
       </c>
       <c r="E54" s="9">
-        <f>F54/1.04</f>
-        <v>28000</v>
+        <f t="shared" si="3"/>
+        <v>9000</v>
       </c>
       <c r="F54" s="9">
-        <f>SUM(G54:AK54)</f>
-        <v>29120</v>
-      </c>
-      <c r="M54" s="3">
-        <v>3120</v>
-      </c>
-      <c r="N54" s="3">
-        <v>5200</v>
-      </c>
-      <c r="Q54" s="3">
-        <v>5200</v>
+        <f t="shared" si="4"/>
+        <v>9360</v>
+      </c>
+      <c r="P54" s="3">
+        <v>1040</v>
+      </c>
+      <c r="R54" s="3">
+        <v>2080</v>
       </c>
       <c r="U54" s="3">
-        <v>5200</v>
-      </c>
-      <c r="Z54" s="3">
-        <v>5200</v>
-      </c>
-      <c r="AC54" s="3">
-        <v>5200</v>
-      </c>
-    </row>
-    <row r="55" s="3" customFormat="1" spans="1:26">
+        <v>2080</v>
+      </c>
+      <c r="W54" s="3">
+        <v>2080</v>
+      </c>
+      <c r="AD54" s="3">
+        <v>2080</v>
+      </c>
+    </row>
+    <row r="55" s="3" customFormat="1" spans="1:35">
       <c r="A55" s="3">
         <v>53</v>
       </c>
       <c r="C55" s="3" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D55" s="4" t="s">
         <v>66</v>
       </c>
       <c r="E55" s="9">
-        <f>F55/1.04</f>
-        <v>5500</v>
+        <f t="shared" si="3"/>
+        <v>38000</v>
       </c>
       <c r="F55" s="9">
-        <f>SUM(G55:AK55)</f>
-        <v>5720</v>
+        <f t="shared" si="4"/>
+        <v>39520</v>
       </c>
       <c r="M55" s="3">
-        <v>1560</v>
-      </c>
-      <c r="T55" s="3">
-        <v>2080</v>
+        <v>3120</v>
+      </c>
+      <c r="N55" s="3">
+        <v>5200</v>
+      </c>
+      <c r="Q55" s="3">
+        <v>5200</v>
+      </c>
+      <c r="U55" s="3">
+        <v>5200</v>
       </c>
       <c r="Z55" s="3">
-        <v>2080</v>
-      </c>
-    </row>
-    <row r="56" s="3" customFormat="1" spans="1:29">
+        <v>5200</v>
+      </c>
+      <c r="AC55" s="3">
+        <v>5200</v>
+      </c>
+      <c r="AF55" s="3">
+        <v>5200</v>
+      </c>
+      <c r="AI55" s="3">
+        <v>5200</v>
+      </c>
+    </row>
+    <row r="56" s="3" customFormat="1" spans="1:34">
       <c r="A56" s="3">
         <v>54</v>
       </c>
       <c r="C56" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="D56" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="D56" s="4" t="s">
-        <v>68</v>
-      </c>
       <c r="E56" s="9">
-        <f>F56/1.04</f>
-        <v>9000</v>
+        <f t="shared" si="3"/>
+        <v>9500</v>
       </c>
       <c r="F56" s="9">
-        <f>SUM(G56:AK56)</f>
-        <v>9360</v>
-      </c>
-      <c r="P56" s="3">
+        <f t="shared" si="4"/>
+        <v>9880</v>
+      </c>
+      <c r="M56" s="3">
+        <v>1560</v>
+      </c>
+      <c r="T56" s="3">
+        <v>2080</v>
+      </c>
+      <c r="Z56" s="3">
+        <v>2080</v>
+      </c>
+      <c r="AH56" s="13">
         <v>4160</v>
       </c>
-      <c r="AC56" s="12">
-        <v>5200</v>
-      </c>
-    </row>
-    <row r="57" s="3" customFormat="1" spans="1:32">
+    </row>
+    <row r="57" s="3" customFormat="1" spans="1:34">
       <c r="A57" s="3">
         <v>55</v>
       </c>
-      <c r="B57" s="10"/>
-      <c r="C57" s="3" t="s">
+      <c r="B57" s="11"/>
+      <c r="C57" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="D57" s="12" t="s">
         <v>69</v>
-      </c>
-      <c r="D57" s="11" t="s">
-        <v>70</v>
       </c>
       <c r="E57" s="9">
         <f>F57/1.04</f>
-        <v>13000</v>
+        <v>10000</v>
       </c>
       <c r="F57" s="9">
         <f>SUM(G57:AK57)</f>
-        <v>13520</v>
-      </c>
-      <c r="J57" s="3">
-        <v>1040</v>
-      </c>
-      <c r="Q57" s="3">
-        <v>2080</v>
-      </c>
-      <c r="R57" s="3">
-        <v>2080</v>
-      </c>
-      <c r="V57" s="3">
-        <v>2080</v>
-      </c>
-      <c r="Z57" s="3">
-        <v>2080</v>
+        <v>10400</v>
       </c>
       <c r="AC57" s="3">
-        <v>2080</v>
-      </c>
-      <c r="AF57" s="3">
-        <v>2080</v>
-      </c>
-    </row>
-    <row r="58" s="3" customFormat="1" spans="1:25">
+        <v>5200</v>
+      </c>
+      <c r="AH57" s="3">
+        <v>5200</v>
+      </c>
+    </row>
+    <row r="58" s="3" customFormat="1" spans="1:29">
       <c r="A58" s="3">
         <v>56</v>
       </c>
-      <c r="B58" s="10"/>
       <c r="C58" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="D58" s="11" t="s">
-        <v>72</v>
+        <v>68</v>
+      </c>
+      <c r="D58" s="4" t="s">
+        <v>70</v>
       </c>
       <c r="E58" s="9">
         <f>F58/1.04</f>
-        <v>4000</v>
+        <v>9000</v>
       </c>
       <c r="F58" s="9">
         <f>SUM(G58:AK58)</f>
+        <v>9360</v>
+      </c>
+      <c r="P58" s="3">
         <v>4160</v>
       </c>
-      <c r="V58" s="12">
-        <v>2080</v>
-      </c>
-      <c r="Y58" s="3">
-        <v>2080</v>
-      </c>
-    </row>
-    <row r="59" s="3" customFormat="1" spans="1:28">
+      <c r="AC58" s="13">
+        <v>5200</v>
+      </c>
+    </row>
+    <row r="59" s="3" customFormat="1" spans="1:35">
       <c r="A59" s="3">
         <v>57</v>
       </c>
+      <c r="B59" s="11"/>
       <c r="C59" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="D59" s="4" t="s">
-        <v>74</v>
+        <v>71</v>
+      </c>
+      <c r="D59" s="12" t="s">
+        <v>72</v>
       </c>
       <c r="E59" s="9">
         <f>F59/1.04</f>
-        <v>9000</v>
+        <v>15000</v>
       </c>
       <c r="F59" s="9">
         <f>SUM(G59:AK59)</f>
-        <v>9360</v>
-      </c>
-      <c r="O59" s="3">
-        <v>1040</v>
-      </c>
-      <c r="P59" s="3">
+        <v>15600</v>
+      </c>
+      <c r="J59" s="3">
+        <v>1040</v>
+      </c>
+      <c r="Q59" s="3">
         <v>2080</v>
       </c>
       <c r="R59" s="3">
         <v>2080</v>
       </c>
-      <c r="U59" s="3">
-        <v>2080</v>
-      </c>
-      <c r="AB59" s="3">
-        <v>2080</v>
-      </c>
-    </row>
-    <row r="60" s="3" customFormat="1" spans="1:30">
+      <c r="V59" s="3">
+        <v>2080</v>
+      </c>
+      <c r="Z59" s="3">
+        <v>2080</v>
+      </c>
+      <c r="AC59" s="3">
+        <v>2080</v>
+      </c>
+      <c r="AF59" s="3">
+        <v>2080</v>
+      </c>
+      <c r="AI59" s="3">
+        <v>2080</v>
+      </c>
+    </row>
+    <row r="60" s="3" customFormat="1" spans="1:25">
       <c r="A60" s="3">
         <v>58</v>
       </c>
+      <c r="B60" s="11"/>
       <c r="C60" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="D60" s="4" t="s">
-        <v>75</v>
+      <c r="D60" s="12" t="s">
+        <v>74</v>
       </c>
       <c r="E60" s="9">
         <f>F60/1.04</f>
-        <v>9000</v>
+        <v>4000</v>
       </c>
       <c r="F60" s="9">
         <f>SUM(G60:AK60)</f>
-        <v>9360</v>
-      </c>
-      <c r="K60" s="3">
-        <v>3120</v>
-      </c>
-      <c r="T60" s="3">
-        <v>2080</v>
-      </c>
-      <c r="W60" s="3">
-        <v>2080</v>
-      </c>
-      <c r="AD60" s="3">
-        <v>2080</v>
-      </c>
-    </row>
-    <row r="61" s="3" customFormat="1" spans="1:25">
+        <v>4160</v>
+      </c>
+      <c r="V60" s="13">
+        <v>2080</v>
+      </c>
+      <c r="Y60" s="3">
+        <v>2080</v>
+      </c>
+    </row>
+    <row r="61" s="3" customFormat="1" spans="1:35">
       <c r="A61" s="3">
         <v>59</v>
       </c>
       <c r="C61" s="3" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="D61" s="4" t="s">
         <v>76</v>
       </c>
       <c r="E61" s="9">
         <f>F61/1.04</f>
-        <v>5000</v>
+        <v>13000</v>
       </c>
       <c r="F61" s="9">
         <f>SUM(G61:AK61)</f>
-        <v>5200</v>
-      </c>
-      <c r="K61" s="3">
-        <v>1040</v>
-      </c>
-      <c r="Q61" s="3">
-        <v>2080</v>
-      </c>
-      <c r="Y61" s="3">
-        <v>2080</v>
-      </c>
-    </row>
-    <row r="62" s="3" customFormat="1" spans="1:30">
+        <v>13520</v>
+      </c>
+      <c r="O61" s="3">
+        <v>1040</v>
+      </c>
+      <c r="P61" s="3">
+        <v>2080</v>
+      </c>
+      <c r="R61" s="3">
+        <v>2080</v>
+      </c>
+      <c r="U61" s="3">
+        <v>2080</v>
+      </c>
+      <c r="AB61" s="3">
+        <v>2080</v>
+      </c>
+      <c r="AG61" s="3">
+        <v>2080</v>
+      </c>
+      <c r="AI61" s="3">
+        <v>2080</v>
+      </c>
+    </row>
+    <row r="62" s="3" customFormat="1" spans="1:34">
       <c r="A62" s="3">
         <v>60</v>
       </c>
       <c r="C62" s="3" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="D62" s="4" t="s">
         <v>77</v>
       </c>
       <c r="E62" s="9">
         <f>F62/1.04</f>
-        <v>4000</v>
+        <v>11000</v>
       </c>
       <c r="F62" s="9">
         <f>SUM(G62:AK62)</f>
-        <v>4160</v>
+        <v>11440</v>
       </c>
       <c r="K62" s="3">
-        <v>2080</v>
-      </c>
-      <c r="Y62" s="3">
-        <v>1040</v>
+        <v>3120</v>
+      </c>
+      <c r="T62" s="3">
+        <v>2080</v>
+      </c>
+      <c r="W62" s="3">
+        <v>2080</v>
       </c>
       <c r="AD62" s="3">
-        <v>1040</v>
-      </c>
-    </row>
-    <row r="63" s="3" customFormat="1" spans="1:31">
+        <v>2080</v>
+      </c>
+      <c r="AH62" s="3">
+        <v>2080</v>
+      </c>
+    </row>
+    <row r="63" s="3" customFormat="1" spans="1:35">
       <c r="A63" s="3">
         <v>61</v>
       </c>
       <c r="C63" s="3" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="D63" s="4" t="s">
         <v>78</v>
       </c>
       <c r="E63" s="9">
         <f>F63/1.04</f>
-        <v>47000</v>
+        <v>7000</v>
       </c>
       <c r="F63" s="9">
         <f>SUM(G63:AK63)</f>
-        <v>48880</v>
+        <v>7280</v>
       </c>
       <c r="K63" s="3">
-        <v>2080</v>
-      </c>
-      <c r="L63" s="3">
-        <v>15600</v>
-      </c>
-      <c r="O63" s="3">
-        <v>5200</v>
-      </c>
-      <c r="R63" s="3">
-        <v>5200</v>
-      </c>
-      <c r="U63" s="3">
-        <v>5200</v>
+        <v>1040</v>
+      </c>
+      <c r="Q63" s="3">
+        <v>2080</v>
       </c>
       <c r="Y63" s="3">
-        <v>5200</v>
-      </c>
-      <c r="AA63" s="3">
-        <v>5200</v>
-      </c>
-      <c r="AE63" s="3">
-        <v>5200</v>
-      </c>
-    </row>
-    <row r="64" s="3" customFormat="1" spans="1:29">
+        <v>2080</v>
+      </c>
+      <c r="AI63" s="3">
+        <v>2080</v>
+      </c>
+    </row>
+    <row r="64" s="3" customFormat="1" spans="1:30">
       <c r="A64" s="3">
         <v>62</v>
       </c>
       <c r="C64" s="3" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="D64" s="4" t="s">
         <v>79</v>
       </c>
       <c r="E64" s="9">
         <f>F64/1.04</f>
-        <v>21000</v>
+        <v>4000</v>
       </c>
       <c r="F64" s="9">
         <f>SUM(G64:AK64)</f>
-        <v>21840</v>
-      </c>
-      <c r="H64" s="3">
-        <v>2080</v>
-      </c>
-      <c r="J64" s="3">
-        <v>2080</v>
+        <v>4160</v>
       </c>
       <c r="K64" s="3">
-        <v>1040</v>
-      </c>
-      <c r="L64" s="3">
-        <v>1040</v>
-      </c>
-      <c r="M64" s="3">
-        <v>3120</v>
-      </c>
-      <c r="Q64" s="3">
-        <v>3120</v>
-      </c>
-      <c r="V64" s="3">
-        <v>3120</v>
-      </c>
-      <c r="Z64" s="3">
-        <v>3120</v>
-      </c>
-      <c r="AC64" s="3">
-        <v>3120</v>
-      </c>
-    </row>
-    <row r="65" s="3" customFormat="1" spans="1:27">
+        <v>2080</v>
+      </c>
+      <c r="Y64" s="3">
+        <v>1040</v>
+      </c>
+      <c r="AD64" s="3">
+        <v>1040</v>
+      </c>
+    </row>
+    <row r="65" s="3" customFormat="1" spans="1:34">
       <c r="A65" s="3">
         <v>63</v>
       </c>
-      <c r="B65" s="10"/>
-      <c r="C65" s="10" t="s">
-        <v>73</v>
-      </c>
-      <c r="D65" s="11" t="s">
+      <c r="C65" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="D65" s="4" t="s">
         <v>80</v>
       </c>
       <c r="E65" s="9">
         <f>F65/1.04</f>
-        <v>4000</v>
+        <v>52000</v>
       </c>
       <c r="F65" s="9">
         <f>SUM(G65:AK65)</f>
-        <v>4160</v>
-      </c>
-      <c r="X65" s="12">
-        <v>2080</v>
+        <v>54080</v>
+      </c>
+      <c r="K65" s="3">
+        <v>2080</v>
+      </c>
+      <c r="L65" s="3">
+        <v>15600</v>
+      </c>
+      <c r="O65" s="3">
+        <v>5200</v>
+      </c>
+      <c r="R65" s="3">
+        <v>5200</v>
+      </c>
+      <c r="U65" s="3">
+        <v>5200</v>
+      </c>
+      <c r="Y65" s="3">
+        <v>5200</v>
       </c>
       <c r="AA65" s="3">
-        <v>2080</v>
-      </c>
-    </row>
-    <row r="66" s="3" customFormat="1" spans="1:27">
+        <v>5200</v>
+      </c>
+      <c r="AE65" s="3">
+        <v>5200</v>
+      </c>
+      <c r="AH65" s="3">
+        <v>5200</v>
+      </c>
+    </row>
+    <row r="66" s="3" customFormat="1" spans="1:34">
       <c r="A66" s="3">
         <v>64</v>
       </c>
       <c r="C66" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="D66" s="4" t="s">
         <v>81</v>
-      </c>
-      <c r="D66" s="4" t="s">
-        <v>82</v>
       </c>
       <c r="E66" s="9">
         <f>F66/1.04</f>
-        <v>15000</v>
+        <v>24000</v>
       </c>
       <c r="F66" s="9">
         <f>SUM(G66:AK66)</f>
-        <v>15600</v>
-      </c>
-      <c r="I66" s="3">
+        <v>24960</v>
+      </c>
+      <c r="H66" s="3">
+        <v>2080</v>
+      </c>
+      <c r="J66" s="3">
+        <v>2080</v>
+      </c>
+      <c r="K66" s="3">
         <v>1040</v>
       </c>
       <c r="L66" s="3">
-        <v>2080</v>
+        <v>1040</v>
       </c>
       <c r="M66" s="3">
         <v>3120</v>
       </c>
-      <c r="T66" s="3">
-        <v>3120</v>
-      </c>
-      <c r="X66" s="3">
-        <v>3120</v>
-      </c>
-      <c r="AA66" s="3">
-        <v>3120</v>
-      </c>
-    </row>
-    <row r="67" s="3" customFormat="1" spans="1:30">
+      <c r="Q66" s="3">
+        <v>3120</v>
+      </c>
+      <c r="V66" s="3">
+        <v>3120</v>
+      </c>
+      <c r="Z66" s="3">
+        <v>3120</v>
+      </c>
+      <c r="AC66" s="3">
+        <v>3120</v>
+      </c>
+      <c r="AH66" s="3">
+        <v>3120</v>
+      </c>
+    </row>
+    <row r="67" s="3" customFormat="1" spans="1:36">
       <c r="A67" s="3">
         <v>65</v>
       </c>
-      <c r="C67" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="D67" s="4" t="s">
-        <v>83</v>
+      <c r="B67" s="11"/>
+      <c r="C67" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="D67" s="12" t="s">
+        <v>82</v>
       </c>
       <c r="E67" s="9">
         <f>F67/1.04</f>
-        <v>24000</v>
+        <v>8000</v>
       </c>
       <c r="F67" s="9">
         <f>SUM(G67:AK67)</f>
-        <v>24960</v>
-      </c>
-      <c r="H67" s="3">
-        <v>3120</v>
-      </c>
-      <c r="K67" s="3">
-        <v>1040</v>
-      </c>
-      <c r="L67" s="3">
-        <v>2080</v>
-      </c>
-      <c r="O67" s="3">
-        <v>3120</v>
-      </c>
-      <c r="R67" s="3">
-        <v>3120</v>
-      </c>
-      <c r="U67" s="3">
-        <v>3120</v>
-      </c>
-      <c r="W67" s="3">
-        <v>3120</v>
-      </c>
-      <c r="AA67" s="3">
-        <v>3120</v>
-      </c>
-      <c r="AD67" s="3">
-        <v>3120</v>
-      </c>
-    </row>
-    <row r="68" s="3" customFormat="1" spans="1:28">
+        <v>8320</v>
+      </c>
+      <c r="W67" s="13">
+        <v>4160</v>
+      </c>
+      <c r="AF67" s="3">
+        <v>2080</v>
+      </c>
+      <c r="AJ67" s="3">
+        <v>2080</v>
+      </c>
+    </row>
+    <row r="68" s="3" customFormat="1" spans="1:27">
       <c r="A68" s="3">
         <v>66</v>
       </c>
-      <c r="C68" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="D68" s="4" t="s">
-        <v>84</v>
+      <c r="B68" s="11"/>
+      <c r="C68" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="D68" s="12" t="s">
+        <v>83</v>
       </c>
       <c r="E68" s="9">
-        <f t="shared" ref="E68:E84" si="6">F68/1.04</f>
-        <v>17000</v>
+        <f>F68/1.04</f>
+        <v>4000</v>
       </c>
       <c r="F68" s="9">
-        <f t="shared" ref="F68:F84" si="7">SUM(G68:AK68)</f>
-        <v>17680</v>
-      </c>
-      <c r="J68" s="3">
-        <v>2080</v>
-      </c>
-      <c r="L68" s="3">
-        <v>1040</v>
-      </c>
-      <c r="O68" s="3">
-        <v>2080</v>
-      </c>
-      <c r="P68" s="3">
-        <v>2080</v>
-      </c>
-      <c r="S68" s="3">
-        <v>2080</v>
-      </c>
-      <c r="T68" s="3">
-        <v>2080</v>
-      </c>
-      <c r="W68" s="3">
-        <v>2080</v>
-      </c>
-      <c r="Y68" s="3">
-        <v>2080</v>
-      </c>
-      <c r="AB68" s="3">
-        <v>2080</v>
-      </c>
-    </row>
-    <row r="69" s="3" customFormat="1" spans="1:31">
+        <f>SUM(G68:AK68)</f>
+        <v>4160</v>
+      </c>
+      <c r="X68" s="13">
+        <v>2080</v>
+      </c>
+      <c r="AA68" s="3">
+        <v>2080</v>
+      </c>
+    </row>
+    <row r="69" s="3" customFormat="1" spans="1:33">
       <c r="A69" s="3">
         <v>67</v>
       </c>
-      <c r="B69" s="10"/>
-      <c r="C69" s="10"/>
-      <c r="D69" s="11" t="s">
+      <c r="C69" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="D69" s="4" t="s">
         <v>85</v>
       </c>
       <c r="E69" s="9">
-        <f t="shared" si="6"/>
-        <v>24000</v>
+        <f>F69/1.04</f>
+        <v>18000</v>
       </c>
       <c r="F69" s="9">
-        <f t="shared" si="7"/>
-        <v>24960</v>
-      </c>
-      <c r="G69" s="10"/>
-      <c r="H69" s="10">
-        <v>520</v>
-      </c>
-      <c r="I69" s="10">
-        <v>2080</v>
-      </c>
-      <c r="J69" s="10">
-        <v>5200</v>
-      </c>
-      <c r="K69" s="10"/>
-      <c r="L69" s="10"/>
-      <c r="M69" s="10"/>
-      <c r="N69" s="10"/>
-      <c r="O69" s="10"/>
-      <c r="P69" s="10"/>
-      <c r="Q69" s="10"/>
-      <c r="R69" s="10">
-        <v>5200</v>
-      </c>
-      <c r="S69" s="13"/>
-      <c r="T69" s="13"/>
-      <c r="U69" s="13"/>
-      <c r="V69" s="13"/>
-      <c r="W69" s="13"/>
-      <c r="Z69" s="3">
-        <v>1040</v>
-      </c>
-      <c r="AB69" s="12">
-        <v>2080</v>
-      </c>
-      <c r="AC69" s="12">
-        <v>4160</v>
-      </c>
-      <c r="AD69" s="12">
-        <v>1040</v>
-      </c>
-      <c r="AE69" s="12">
-        <v>3640</v>
-      </c>
-    </row>
-    <row r="70" s="3" customFormat="1" spans="1:23">
+        <f>SUM(G69:AK69)</f>
+        <v>18720</v>
+      </c>
+      <c r="I69" s="3">
+        <v>1040</v>
+      </c>
+      <c r="L69" s="3">
+        <v>2080</v>
+      </c>
+      <c r="M69" s="3">
+        <v>3120</v>
+      </c>
+      <c r="T69" s="3">
+        <v>3120</v>
+      </c>
+      <c r="X69" s="3">
+        <v>3120</v>
+      </c>
+      <c r="AA69" s="3">
+        <v>3120</v>
+      </c>
+      <c r="AG69" s="3">
+        <v>3120</v>
+      </c>
+    </row>
+    <row r="70" s="3" customFormat="1" spans="1:35">
       <c r="A70" s="3">
         <v>68</v>
       </c>
-      <c r="B70" s="10"/>
-      <c r="C70" s="10"/>
-      <c r="D70" s="11" t="s">
+      <c r="C70" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="D70" s="4" t="s">
         <v>86</v>
       </c>
       <c r="E70" s="9">
-        <f t="shared" si="6"/>
-        <v>4000</v>
+        <f>F70/1.04</f>
+        <v>27000</v>
       </c>
       <c r="F70" s="9">
-        <f t="shared" si="7"/>
-        <v>4160</v>
-      </c>
-      <c r="W70" s="12">
-        <v>4160</v>
-      </c>
-    </row>
-    <row r="71" s="3" customFormat="1" spans="1:28">
+        <f>SUM(G70:AK70)</f>
+        <v>28080</v>
+      </c>
+      <c r="H70" s="3">
+        <v>3120</v>
+      </c>
+      <c r="K70" s="3">
+        <v>1040</v>
+      </c>
+      <c r="L70" s="3">
+        <v>2080</v>
+      </c>
+      <c r="O70" s="3">
+        <v>3120</v>
+      </c>
+      <c r="R70" s="3">
+        <v>3120</v>
+      </c>
+      <c r="U70" s="3">
+        <v>3120</v>
+      </c>
+      <c r="W70" s="3">
+        <v>3120</v>
+      </c>
+      <c r="AA70" s="3">
+        <v>3120</v>
+      </c>
+      <c r="AD70" s="3">
+        <v>3120</v>
+      </c>
+      <c r="AI70" s="3">
+        <v>3120</v>
+      </c>
+    </row>
+    <row r="71" s="3" customFormat="1" spans="1:34">
       <c r="A71" s="3">
         <v>69</v>
       </c>
-      <c r="B71" s="10"/>
-      <c r="C71" s="10"/>
-      <c r="D71" s="11" t="s">
+      <c r="C71" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="D71" s="4" t="s">
         <v>87</v>
       </c>
       <c r="E71" s="9">
-        <f t="shared" si="6"/>
-        <v>4000</v>
+        <f>F71/1.04</f>
+        <v>19000</v>
       </c>
       <c r="F71" s="9">
-        <f t="shared" si="7"/>
-        <v>4160</v>
-      </c>
-      <c r="Q71" s="3">
-        <v>2080</v>
-      </c>
-      <c r="AB71" s="12">
-        <v>2080</v>
-      </c>
-    </row>
-    <row r="72" s="3" customFormat="1" spans="1:29">
+        <f>SUM(G71:AK71)</f>
+        <v>19760</v>
+      </c>
+      <c r="J71" s="3">
+        <v>2080</v>
+      </c>
+      <c r="L71" s="3">
+        <v>1040</v>
+      </c>
+      <c r="O71" s="3">
+        <v>2080</v>
+      </c>
+      <c r="P71" s="3">
+        <v>2080</v>
+      </c>
+      <c r="S71" s="3">
+        <v>2080</v>
+      </c>
+      <c r="T71" s="3">
+        <v>2080</v>
+      </c>
+      <c r="W71" s="3">
+        <v>2080</v>
+      </c>
+      <c r="Y71" s="3">
+        <v>2080</v>
+      </c>
+      <c r="AB71" s="3">
+        <v>2080</v>
+      </c>
+      <c r="AH71" s="3">
+        <v>2080</v>
+      </c>
+    </row>
+    <row r="72" s="3" customFormat="1" spans="1:32">
       <c r="A72" s="3">
         <v>70</v>
       </c>
-      <c r="B72" s="10"/>
-      <c r="C72" s="10"/>
-      <c r="D72" s="11" t="s">
+      <c r="B72" s="11"/>
+      <c r="C72" s="11"/>
+      <c r="D72" s="12" t="s">
         <v>88</v>
       </c>
       <c r="E72" s="9">
-        <f t="shared" si="6"/>
-        <v>5000</v>
+        <f>F72/1.04</f>
+        <v>27000</v>
       </c>
       <c r="F72" s="9">
-        <f t="shared" si="7"/>
-        <v>5200</v>
-      </c>
-      <c r="AC72" s="3">
-        <v>5200</v>
-      </c>
-    </row>
-    <row r="73" s="3" customFormat="1" spans="1:6">
+        <f>SUM(G72:AK72)</f>
+        <v>28080</v>
+      </c>
+      <c r="G72" s="11"/>
+      <c r="H72" s="11">
+        <v>520</v>
+      </c>
+      <c r="I72" s="11">
+        <v>2080</v>
+      </c>
+      <c r="J72" s="11">
+        <v>5200</v>
+      </c>
+      <c r="K72" s="11"/>
+      <c r="L72" s="11"/>
+      <c r="M72" s="11"/>
+      <c r="N72" s="11"/>
+      <c r="O72" s="11"/>
+      <c r="P72" s="11"/>
+      <c r="Q72" s="11"/>
+      <c r="R72" s="11">
+        <v>5200</v>
+      </c>
+      <c r="S72" s="14"/>
+      <c r="T72" s="14"/>
+      <c r="U72" s="14"/>
+      <c r="V72" s="14"/>
+      <c r="W72" s="14"/>
+      <c r="Z72" s="3">
+        <v>1040</v>
+      </c>
+      <c r="AB72" s="13">
+        <v>2080</v>
+      </c>
+      <c r="AC72" s="13">
+        <v>4160</v>
+      </c>
+      <c r="AD72" s="13">
+        <v>1040</v>
+      </c>
+      <c r="AE72" s="13">
+        <v>3640</v>
+      </c>
+      <c r="AF72" s="13">
+        <v>3120</v>
+      </c>
+    </row>
+    <row r="73" s="3" customFormat="1" spans="1:28">
       <c r="A73" s="3">
         <v>71</v>
       </c>
-      <c r="B73" s="10"/>
-      <c r="C73" s="10"/>
-      <c r="D73" s="11" t="s">
+      <c r="B73" s="11"/>
+      <c r="C73" s="10" t="s">
         <v>89</v>
       </c>
+      <c r="D73" s="12" t="s">
+        <v>90</v>
+      </c>
       <c r="E73" s="9">
-        <f t="shared" si="6"/>
-        <v>0</v>
+        <f>F73/1.04</f>
+        <v>4000</v>
       </c>
       <c r="F73" s="9">
-        <f t="shared" si="7"/>
-        <v>0</v>
+        <f>SUM(G73:AK73)</f>
+        <v>4160</v>
+      </c>
+      <c r="Q73" s="3">
+        <v>2080</v>
+      </c>
+      <c r="AB73" s="13">
+        <v>2080</v>
       </c>
     </row>
     <row r="74" s="3" customFormat="1" spans="1:6">
       <c r="A74" s="3">
         <v>72</v>
       </c>
-      <c r="B74" s="10"/>
+      <c r="B74" s="11"/>
       <c r="C74" s="10"/>
-      <c r="D74" s="11" t="s">
-        <v>90</v>
+      <c r="D74" s="12" t="s">
+        <v>91</v>
       </c>
       <c r="E74" s="9">
+        <f t="shared" ref="E69:E94" si="5">F74/1.04</f>
+        <v>0</v>
+      </c>
+      <c r="F74" s="9">
+        <f t="shared" ref="F69:F94" si="6">SUM(G74:AK74)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" s="3" customFormat="1" spans="1:34">
+      <c r="A75" s="3">
+        <v>73</v>
+      </c>
+      <c r="B75" s="11"/>
+      <c r="C75" s="10" t="s">
+        <v>92</v>
+      </c>
+      <c r="D75" s="12" t="s">
+        <v>93</v>
+      </c>
+      <c r="E75" s="9">
+        <f t="shared" si="5"/>
+        <v>3000</v>
+      </c>
+      <c r="F75" s="9">
+        <f t="shared" si="6"/>
+        <v>3120</v>
+      </c>
+      <c r="AH75" s="13">
+        <v>3120</v>
+      </c>
+    </row>
+    <row r="76" s="3" customFormat="1" spans="1:18">
+      <c r="A76" s="3">
+        <v>74</v>
+      </c>
+      <c r="B76" s="11"/>
+      <c r="C76" s="10"/>
+      <c r="D76" s="12" t="s">
+        <v>94</v>
+      </c>
+      <c r="E76" s="9">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="F76" s="9">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="F74" s="9">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="75" s="3" customFormat="1" spans="1:18">
-      <c r="A75" s="3">
-        <v>73</v>
-      </c>
-      <c r="B75" s="10"/>
-      <c r="C75" s="10"/>
-      <c r="D75" s="11" t="s">
-        <v>91</v>
-      </c>
-      <c r="E75" s="9">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="F75" s="9">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="G75" s="13"/>
-      <c r="H75" s="13"/>
-      <c r="I75" s="13"/>
-      <c r="J75" s="13"/>
-      <c r="K75" s="13"/>
-      <c r="L75" s="13"/>
-      <c r="M75" s="13"/>
-      <c r="N75" s="13"/>
-      <c r="O75" s="13"/>
-      <c r="P75" s="13"/>
-      <c r="Q75" s="13"/>
-      <c r="R75" s="13"/>
-    </row>
-    <row r="76" s="3" customFormat="1" spans="1:31">
-      <c r="A76" s="3">
-        <v>74</v>
-      </c>
-      <c r="B76" s="10"/>
-      <c r="C76" s="10"/>
-      <c r="D76" s="11" t="s">
-        <v>92</v>
-      </c>
-      <c r="E76" s="9">
-        <f t="shared" si="6"/>
-        <v>3000</v>
-      </c>
-      <c r="F76" s="9">
-        <f t="shared" si="7"/>
-        <v>3120</v>
-      </c>
-      <c r="AE76" s="12">
-        <v>3120</v>
-      </c>
-    </row>
-    <row r="77" s="3" customFormat="1" spans="1:6">
+      <c r="G76" s="14"/>
+      <c r="H76" s="14"/>
+      <c r="I76" s="14"/>
+      <c r="J76" s="14"/>
+      <c r="K76" s="14"/>
+      <c r="L76" s="14"/>
+      <c r="M76" s="14"/>
+      <c r="N76" s="14"/>
+      <c r="O76" s="14"/>
+      <c r="P76" s="14"/>
+      <c r="Q76" s="14"/>
+      <c r="R76" s="14"/>
+    </row>
+    <row r="77" s="3" customFormat="1" spans="1:31">
       <c r="A77" s="3">
         <v>75</v>
       </c>
-      <c r="B77" s="10"/>
+      <c r="B77" s="11"/>
       <c r="C77" s="10"/>
-      <c r="D77" s="11" t="s">
-        <v>93</v>
+      <c r="D77" s="12" t="s">
+        <v>95</v>
       </c>
       <c r="E77" s="9">
+        <f t="shared" si="5"/>
+        <v>3000</v>
+      </c>
+      <c r="F77" s="9">
         <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="F77" s="9">
-        <f t="shared" si="7"/>
-        <v>0</v>
+        <v>3120</v>
+      </c>
+      <c r="AE77" s="13">
+        <v>3120</v>
       </c>
     </row>
     <row r="78" s="3" customFormat="1" spans="1:6">
       <c r="A78" s="3">
         <v>76</v>
       </c>
-      <c r="B78" s="10"/>
+      <c r="B78" s="11"/>
       <c r="C78" s="10"/>
-      <c r="D78" s="11" t="s">
-        <v>94</v>
+      <c r="D78" s="12" t="s">
+        <v>96</v>
       </c>
       <c r="E78" s="9">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="F78" s="9">
         <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="F78" s="9">
-        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -4407,235 +4662,243 @@
       <c r="A79" s="3">
         <v>77</v>
       </c>
-      <c r="B79" s="10"/>
+      <c r="B79" s="11"/>
       <c r="C79" s="10"/>
-      <c r="D79" s="11" t="s">
-        <v>95</v>
+      <c r="D79" s="12" t="s">
+        <v>97</v>
       </c>
       <c r="E79" s="9">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="F79" s="9">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="F79" s="9">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="80" s="3" customFormat="1" spans="1:24">
+    </row>
+    <row r="80" s="3" customFormat="1" spans="1:6">
       <c r="A80" s="3">
         <v>78</v>
       </c>
-      <c r="B80" s="10"/>
+      <c r="B80" s="11"/>
       <c r="C80" s="10"/>
-      <c r="D80" s="11" t="s">
-        <v>96</v>
+      <c r="D80" s="12" t="s">
+        <v>98</v>
       </c>
       <c r="E80" s="9">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="F80" s="9">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="F80" s="9">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="G80" s="13"/>
-      <c r="H80" s="13"/>
-      <c r="I80" s="13"/>
-      <c r="J80" s="13"/>
-      <c r="K80" s="13"/>
-      <c r="L80" s="13"/>
-      <c r="M80" s="13"/>
-      <c r="N80" s="13"/>
-      <c r="O80" s="13"/>
-      <c r="P80" s="13"/>
-      <c r="Q80" s="13"/>
-      <c r="R80" s="13"/>
-      <c r="S80" s="13"/>
-      <c r="T80" s="13"/>
-      <c r="U80" s="13"/>
-      <c r="V80" s="13"/>
-      <c r="W80" s="13"/>
-      <c r="X80" s="13"/>
-    </row>
-    <row r="81" s="3" customFormat="1" spans="1:30">
+    </row>
+    <row r="81" s="3" customFormat="1" spans="1:24">
       <c r="A81" s="3">
         <v>79</v>
       </c>
-      <c r="B81" s="10"/>
-      <c r="C81" s="10" t="s">
-        <v>97</v>
-      </c>
-      <c r="D81" s="11" t="s">
-        <v>98</v>
+      <c r="B81" s="11"/>
+      <c r="C81" s="10"/>
+      <c r="D81" s="12" t="s">
+        <v>99</v>
       </c>
       <c r="E81" s="9">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="F81" s="9">
         <f t="shared" si="6"/>
-        <v>8000</v>
-      </c>
-      <c r="F81" s="9">
-        <f t="shared" si="7"/>
-        <v>8320</v>
-      </c>
-      <c r="AB81" s="12">
-        <v>2080</v>
-      </c>
-      <c r="AC81" s="3">
-        <v>3120</v>
-      </c>
-      <c r="AD81" s="3">
-        <v>3120</v>
-      </c>
-    </row>
-    <row r="82" s="3" customFormat="1" spans="1:6">
+        <v>0</v>
+      </c>
+      <c r="G81" s="14"/>
+      <c r="H81" s="14"/>
+      <c r="I81" s="14"/>
+      <c r="J81" s="14"/>
+      <c r="K81" s="14"/>
+      <c r="L81" s="14"/>
+      <c r="M81" s="14"/>
+      <c r="N81" s="14"/>
+      <c r="O81" s="14"/>
+      <c r="P81" s="14"/>
+      <c r="Q81" s="14"/>
+      <c r="R81" s="14"/>
+      <c r="S81" s="14"/>
+      <c r="T81" s="14"/>
+      <c r="U81" s="14"/>
+      <c r="V81" s="14"/>
+      <c r="W81" s="14"/>
+      <c r="X81" s="14"/>
+    </row>
+    <row r="82" s="3" customFormat="1" spans="1:33">
       <c r="A82" s="3">
         <v>80</v>
       </c>
-      <c r="B82" s="10"/>
-      <c r="C82" s="10"/>
-      <c r="D82" s="11" t="s">
-        <v>99</v>
+      <c r="B82" s="11"/>
+      <c r="C82" s="10" t="s">
+        <v>100</v>
+      </c>
+      <c r="D82" s="12" t="s">
+        <v>101</v>
       </c>
       <c r="E82" s="9">
+        <f t="shared" si="5"/>
+        <v>13000</v>
+      </c>
+      <c r="F82" s="9">
+        <f t="shared" si="6"/>
+        <v>13520</v>
+      </c>
+      <c r="AB82" s="13">
+        <v>2080</v>
+      </c>
+      <c r="AC82" s="3">
+        <v>3120</v>
+      </c>
+      <c r="AD82" s="3">
+        <v>3120</v>
+      </c>
+      <c r="AG82" s="3">
+        <v>5200</v>
+      </c>
+    </row>
+    <row r="83" s="3" customFormat="1" spans="1:6">
+      <c r="A83" s="3">
+        <v>81</v>
+      </c>
+      <c r="B83" s="11"/>
+      <c r="C83" s="10"/>
+      <c r="D83" s="12" t="s">
+        <v>102</v>
+      </c>
+      <c r="E83" s="9">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="F83" s="9">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="F82" s="9">
-        <f t="shared" si="7"/>
+    </row>
+    <row r="84" s="3" customFormat="1" spans="1:17">
+      <c r="A84" s="3">
+        <v>82</v>
+      </c>
+      <c r="B84" s="11"/>
+      <c r="C84" s="10"/>
+      <c r="D84" s="12" t="s">
+        <v>103</v>
+      </c>
+      <c r="E84" s="9">
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="83" s="3" customFormat="1" spans="1:17">
-      <c r="A83" s="3">
-        <v>81</v>
-      </c>
-      <c r="B83" s="10"/>
-      <c r="C83" s="10"/>
-      <c r="D83" s="11" t="s">
-        <v>100</v>
-      </c>
-      <c r="E83" s="9">
+      <c r="F84" s="9">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="F83" s="9">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="G83" s="13"/>
-      <c r="H83" s="13"/>
-      <c r="I83" s="13"/>
-      <c r="J83" s="13"/>
-      <c r="K83" s="13"/>
-      <c r="L83" s="13"/>
-      <c r="M83" s="13"/>
-      <c r="N83" s="13"/>
-      <c r="O83" s="13"/>
-      <c r="P83" s="13"/>
-      <c r="Q83" s="13"/>
-    </row>
-    <row r="84" s="3" customFormat="1" spans="1:28">
-      <c r="A84" s="3">
-        <v>82</v>
-      </c>
-      <c r="B84" s="10"/>
-      <c r="C84" s="10"/>
-      <c r="D84" s="11" t="s">
-        <v>101</v>
-      </c>
-      <c r="E84" s="9">
-        <f t="shared" si="6"/>
-        <v>2000</v>
-      </c>
-      <c r="F84" s="9">
-        <f t="shared" si="7"/>
-        <v>2080</v>
-      </c>
-      <c r="G84" s="13"/>
-      <c r="H84" s="13"/>
-      <c r="I84" s="13"/>
-      <c r="J84" s="13"/>
-      <c r="K84" s="13"/>
-      <c r="L84" s="13"/>
-      <c r="M84" s="13"/>
-      <c r="N84" s="13"/>
-      <c r="O84" s="13"/>
-      <c r="P84" s="13"/>
-      <c r="Q84" s="13"/>
-      <c r="R84" s="13"/>
-      <c r="S84" s="13"/>
-      <c r="T84" s="13"/>
-      <c r="U84" s="13"/>
-      <c r="V84" s="13"/>
-      <c r="W84" s="13"/>
-      <c r="X84" s="13"/>
-      <c r="Y84" s="13"/>
-      <c r="AB84" s="12">
-        <v>2080</v>
-      </c>
-    </row>
-    <row r="85" s="3" customFormat="1" spans="1:22">
+      <c r="G84" s="14"/>
+      <c r="H84" s="14"/>
+      <c r="I84" s="14"/>
+      <c r="J84" s="14"/>
+      <c r="K84" s="14"/>
+      <c r="L84" s="14"/>
+      <c r="M84" s="14"/>
+      <c r="N84" s="14"/>
+      <c r="O84" s="14"/>
+      <c r="P84" s="14"/>
+      <c r="Q84" s="14"/>
+    </row>
+    <row r="85" s="3" customFormat="1" spans="1:28">
       <c r="A85" s="3">
         <v>83</v>
       </c>
-      <c r="B85" s="10"/>
-      <c r="C85" s="10"/>
-      <c r="D85" s="11" t="s">
-        <v>102</v>
+      <c r="B85" s="11"/>
+      <c r="C85" s="10" t="s">
+        <v>100</v>
+      </c>
+      <c r="D85" s="12" t="s">
+        <v>104</v>
       </c>
       <c r="E85" s="9">
-        <f>F85/1.04</f>
-        <v>0</v>
+        <f t="shared" si="5"/>
+        <v>2000</v>
       </c>
       <c r="F85" s="9">
-        <f>SUM(G85:AK85)</f>
-        <v>0</v>
-      </c>
-      <c r="G85" s="13"/>
-      <c r="H85" s="13"/>
-      <c r="I85" s="13"/>
-      <c r="J85" s="13"/>
-      <c r="K85" s="13"/>
-      <c r="L85" s="13"/>
-      <c r="M85" s="13"/>
-      <c r="N85" s="13"/>
-      <c r="O85" s="13"/>
-      <c r="P85" s="13"/>
-      <c r="Q85" s="13"/>
-      <c r="R85" s="13"/>
-      <c r="S85" s="13"/>
-      <c r="T85" s="13"/>
-      <c r="U85" s="13"/>
-      <c r="V85" s="13"/>
-    </row>
-    <row r="86" s="3" customFormat="1" spans="1:6">
+        <f t="shared" si="6"/>
+        <v>2080</v>
+      </c>
+      <c r="G85" s="14"/>
+      <c r="H85" s="14"/>
+      <c r="I85" s="14"/>
+      <c r="J85" s="14"/>
+      <c r="K85" s="14"/>
+      <c r="L85" s="14"/>
+      <c r="M85" s="14"/>
+      <c r="N85" s="14"/>
+      <c r="O85" s="14"/>
+      <c r="P85" s="14"/>
+      <c r="Q85" s="14"/>
+      <c r="R85" s="14"/>
+      <c r="S85" s="14"/>
+      <c r="T85" s="14"/>
+      <c r="U85" s="14"/>
+      <c r="V85" s="14"/>
+      <c r="W85" s="14"/>
+      <c r="X85" s="14"/>
+      <c r="Y85" s="14"/>
+      <c r="AB85" s="13">
+        <v>2080</v>
+      </c>
+    </row>
+    <row r="86" s="3" customFormat="1" spans="1:22">
       <c r="A86" s="3">
         <v>84</v>
       </c>
-      <c r="D86" s="4" t="s">
-        <v>103</v>
+      <c r="B86" s="11"/>
+      <c r="C86" s="10"/>
+      <c r="D86" s="12" t="s">
+        <v>105</v>
       </c>
       <c r="E86" s="9">
-        <f>F86/1.04</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="F86" s="9">
-        <f>SUM(G86:AK86)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
+      <c r="G86" s="14"/>
+      <c r="H86" s="14"/>
+      <c r="I86" s="14"/>
+      <c r="J86" s="14"/>
+      <c r="K86" s="14"/>
+      <c r="L86" s="14"/>
+      <c r="M86" s="14"/>
+      <c r="N86" s="14"/>
+      <c r="O86" s="14"/>
+      <c r="P86" s="14"/>
+      <c r="Q86" s="14"/>
+      <c r="R86" s="14"/>
+      <c r="S86" s="14"/>
+      <c r="T86" s="14"/>
+      <c r="U86" s="14"/>
+      <c r="V86" s="14"/>
     </row>
     <row r="87" s="3" customFormat="1" spans="1:6">
       <c r="A87" s="3">
         <v>85</v>
       </c>
+      <c r="C87" s="10"/>
       <c r="D87" s="4" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E87" s="9">
-        <f>F87/1.04</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="F87" s="9">
-        <f>SUM(G87:AK87)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -4643,15 +4906,16 @@
       <c r="A88" s="3">
         <v>86</v>
       </c>
+      <c r="C88" s="10"/>
       <c r="D88" s="4" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E88" s="9">
-        <f>F88/1.04</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="F88" s="9">
-        <f>SUM(G88:AK88)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -4659,15 +4923,16 @@
       <c r="A89" s="3">
         <v>87</v>
       </c>
+      <c r="C89" s="10"/>
       <c r="D89" s="4" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E89" s="9">
-        <f>F89/1.04</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="F89" s="9">
-        <f>SUM(G89:AK89)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -4675,15 +4940,16 @@
       <c r="A90" s="3">
         <v>88</v>
       </c>
+      <c r="C90" s="10"/>
       <c r="D90" s="4" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E90" s="9">
-        <f>F90/1.04</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="F90" s="9">
-        <f>SUM(G90:AK90)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -4691,15 +4957,16 @@
       <c r="A91" s="3">
         <v>89</v>
       </c>
+      <c r="C91" s="10"/>
       <c r="D91" s="4" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E91" s="9">
-        <f>F91/1.04</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="F91" s="9">
-        <f>SUM(G91:AK91)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -4707,31 +4974,50 @@
       <c r="A92" s="3">
         <v>90</v>
       </c>
+      <c r="C92" s="10"/>
       <c r="D92" s="4" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E92" s="9">
-        <f>F92/1.04</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="F92" s="9">
-        <f>SUM(G92:AK92)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:6">
+    <row r="93" s="3" customFormat="1" spans="1:6">
       <c r="A93" s="3">
         <v>91</v>
       </c>
-      <c r="D93" s="3" t="s">
-        <v>110</v>
+      <c r="C93" s="10"/>
+      <c r="D93" s="4" t="s">
+        <v>112</v>
       </c>
       <c r="E93" s="9">
-        <f>F93/1.04</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="F93" s="9">
-        <f>SUM(G93:AK93)</f>
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6">
+      <c r="A94" s="3">
+        <v>92</v>
+      </c>
+      <c r="C94" s="10"/>
+      <c r="D94" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="E94" s="9">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="F94" s="9">
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>

--- a/Daily Orders/December-2020-RetailerWiseOrder.xlsx
+++ b/Daily Orders/December-2020-RetailerWiseOrder.xlsx
@@ -513,11 +513,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="[$-409]d\-mmm;@"/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="178" formatCode="[$-409]d\-mmm;@"/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -537,49 +537,16 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -590,30 +557,17 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -628,10 +582,41 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -643,7 +628,15 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -652,7 +645,29 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -666,26 +681,11 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="9"/>
       <name val="Times New Roman"/>
       <charset val="0"/>
     </font>
     <font>
-      <b/>
       <sz val="9"/>
       <name val="Times New Roman"/>
       <charset val="0"/>
@@ -730,7 +730,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -742,7 +742,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -754,19 +778,103 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -778,37 +886,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -820,97 +904,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -921,6 +921,21 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -941,11 +956,18 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -974,39 +996,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -1021,15 +1010,26 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1044,134 +1044,134 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="19" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1187,7 +1187,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1200,9 +1200,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1545,11 +1542,11 @@
   <dimension ref="A1:AK94"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="6" ySplit="2" topLeftCell="AF80" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="6" ySplit="2" topLeftCell="AF46" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="A3" sqref="A3:A94"/>
+      <selection pane="bottomRight" activeCell="D66" sqref="D66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15"/>
@@ -1679,22 +1676,22 @@
     <row r="2" s="2" customFormat="1" spans="2:37">
       <c r="B2" s="6">
         <f>SUM(F3:F119)/1.04</f>
-        <v>1208000</v>
+        <v>1250000</v>
       </c>
       <c r="C2" s="7">
         <f>SUM(F3:F119)</f>
-        <v>1256320</v>
+        <v>1300000</v>
       </c>
       <c r="D2" s="8" t="s">
         <v>6</v>
       </c>
       <c r="E2" s="7">
-        <f>F2/1.04</f>
-        <v>1208000</v>
+        <f t="shared" ref="E2:E16" si="0">F2/1.04</f>
+        <v>1250000</v>
       </c>
       <c r="F2" s="6">
-        <f>SUM(G2:AK2)</f>
-        <v>1256320</v>
+        <f t="shared" ref="F2:F16" si="1">SUM(G2:AK2)</f>
+        <v>1300000</v>
       </c>
       <c r="G2" s="2">
         <f>SUM(G3:G120)</f>
@@ -1709,116 +1706,116 @@
         <v>29120</v>
       </c>
       <c r="J2" s="2">
-        <f t="shared" ref="J2:AK2" si="0">SUM(J3:J120)</f>
+        <f t="shared" ref="J2:AK2" si="2">SUM(J3:J120)</f>
         <v>56160</v>
       </c>
       <c r="K2" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>34320</v>
       </c>
       <c r="L2" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>74880</v>
       </c>
       <c r="M2" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>54600</v>
       </c>
       <c r="N2" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>45760</v>
       </c>
       <c r="O2" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>38480</v>
       </c>
       <c r="P2" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>31200</v>
       </c>
       <c r="Q2" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>38480</v>
       </c>
       <c r="R2" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>56160</v>
       </c>
       <c r="S2" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>37440</v>
       </c>
       <c r="T2" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>36400</v>
       </c>
       <c r="U2" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>53040</v>
       </c>
       <c r="V2" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>54080</v>
       </c>
       <c r="W2" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>57200</v>
       </c>
       <c r="X2" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>33280</v>
       </c>
       <c r="Y2" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>30160</v>
       </c>
       <c r="Z2" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>39520</v>
       </c>
       <c r="AA2" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>36400</v>
       </c>
       <c r="AB2" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>39520</v>
       </c>
       <c r="AC2" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>73840</v>
       </c>
       <c r="AD2" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>36400</v>
       </c>
       <c r="AE2" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>43160</v>
       </c>
       <c r="AF2" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>40560</v>
       </c>
       <c r="AG2" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>35360</v>
       </c>
       <c r="AH2" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>63440</v>
       </c>
       <c r="AI2" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>35360</v>
       </c>
       <c r="AJ2" s="2">
-        <f t="shared" si="0"/>
-        <v>9360</v>
+        <f t="shared" si="2"/>
+        <v>45760</v>
       </c>
       <c r="AK2" s="2">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>7280</v>
       </c>
     </row>
     <row r="3" s="3" customFormat="1" spans="1:28">
@@ -1832,11 +1829,11 @@
         <v>8</v>
       </c>
       <c r="E3" s="9">
-        <f>F3/1.04</f>
+        <f t="shared" si="0"/>
         <v>6000</v>
       </c>
       <c r="F3" s="9">
-        <f>SUM(G3:AK3)</f>
+        <f t="shared" si="1"/>
         <v>6240</v>
       </c>
       <c r="V3" s="3">
@@ -1857,24 +1854,24 @@
         <v>9</v>
       </c>
       <c r="E4" s="9">
-        <f>F4/1.04</f>
+        <f t="shared" si="0"/>
         <v>6000</v>
       </c>
       <c r="F4" s="9">
-        <f>SUM(G4:AK4)</f>
+        <f t="shared" si="1"/>
         <v>6240</v>
       </c>
       <c r="L4" s="3">
         <v>2080</v>
       </c>
-      <c r="Y4" s="13">
-        <v>2080</v>
-      </c>
-      <c r="AF4" s="13">
-        <v>2080</v>
-      </c>
-    </row>
-    <row r="5" s="3" customFormat="1" spans="1:35">
+      <c r="Y4" s="12">
+        <v>2080</v>
+      </c>
+      <c r="AF4" s="12">
+        <v>2080</v>
+      </c>
+    </row>
+    <row r="5" s="3" customFormat="1" spans="1:36">
       <c r="A5" s="3">
         <v>3</v>
       </c>
@@ -1885,12 +1882,12 @@
         <v>10</v>
       </c>
       <c r="E5" s="9">
-        <f>F5/1.04</f>
-        <v>14000</v>
+        <f t="shared" si="0"/>
+        <v>15000</v>
       </c>
       <c r="F5" s="9">
-        <f>SUM(G5:AK5)</f>
-        <v>14560</v>
+        <f t="shared" si="1"/>
+        <v>15600</v>
       </c>
       <c r="I5" s="3">
         <v>2080</v>
@@ -1925,8 +1922,11 @@
       <c r="AI5" s="3">
         <v>1040</v>
       </c>
-    </row>
-    <row r="6" s="3" customFormat="1" spans="1:29">
+      <c r="AJ5" s="3">
+        <v>1040</v>
+      </c>
+    </row>
+    <row r="6" s="3" customFormat="1" spans="1:37">
       <c r="A6" s="3">
         <v>4</v>
       </c>
@@ -1937,12 +1937,12 @@
         <v>11</v>
       </c>
       <c r="E6" s="9">
-        <f>F6/1.04</f>
-        <v>24500</v>
+        <f t="shared" si="0"/>
+        <v>29500</v>
       </c>
       <c r="F6" s="9">
-        <f>SUM(G6:AK6)</f>
-        <v>25480</v>
+        <f t="shared" si="1"/>
+        <v>30680</v>
       </c>
       <c r="H6" s="3">
         <v>1560</v>
@@ -1966,6 +1966,9 @@
         <v>5200</v>
       </c>
       <c r="AC6" s="3">
+        <v>5200</v>
+      </c>
+      <c r="AK6" s="3">
         <v>5200</v>
       </c>
     </row>
@@ -1980,11 +1983,11 @@
         <v>12</v>
       </c>
       <c r="E7" s="9">
-        <f>F7/1.04</f>
+        <f t="shared" si="0"/>
         <v>64000</v>
       </c>
       <c r="F7" s="9">
-        <f>SUM(G7:AK7)</f>
+        <f t="shared" si="1"/>
         <v>66560</v>
       </c>
       <c r="H7" s="3">
@@ -2051,7 +2054,7 @@
         <v>2080</v>
       </c>
     </row>
-    <row r="8" s="3" customFormat="1" spans="1:24">
+    <row r="8" s="3" customFormat="1" spans="1:36">
       <c r="A8" s="3">
         <v>6</v>
       </c>
@@ -2062,12 +2065,12 @@
         <v>13</v>
       </c>
       <c r="E8" s="9">
-        <f>F8/1.04</f>
-        <v>5000</v>
+        <f t="shared" si="0"/>
+        <v>7000</v>
       </c>
       <c r="F8" s="9">
-        <f>SUM(G8:AK8)</f>
-        <v>5200</v>
+        <f t="shared" si="1"/>
+        <v>7280</v>
       </c>
       <c r="L8" s="3">
         <v>1040</v>
@@ -2076,6 +2079,9 @@
         <v>2080</v>
       </c>
       <c r="X8" s="3">
+        <v>2080</v>
+      </c>
+      <c r="AJ8" s="3">
         <v>2080</v>
       </c>
     </row>
@@ -2090,11 +2096,11 @@
         <v>14</v>
       </c>
       <c r="E9" s="9">
-        <f>F9/1.04</f>
+        <f t="shared" si="0"/>
         <v>8000</v>
       </c>
       <c r="F9" s="9">
-        <f>SUM(G9:AK9)</f>
+        <f t="shared" si="1"/>
         <v>8320</v>
       </c>
       <c r="I9" s="3">
@@ -2110,7 +2116,7 @@
         <v>2080</v>
       </c>
     </row>
-    <row r="10" s="3" customFormat="1" spans="1:33">
+    <row r="10" s="3" customFormat="1" spans="1:36">
       <c r="A10" s="3">
         <v>8</v>
       </c>
@@ -2121,12 +2127,12 @@
         <v>15</v>
       </c>
       <c r="E10" s="9">
-        <f>F10/1.04</f>
-        <v>40000</v>
+        <f t="shared" si="0"/>
+        <v>45000</v>
       </c>
       <c r="F10" s="9">
-        <f>SUM(G10:AK10)</f>
-        <v>41600</v>
+        <f t="shared" si="1"/>
+        <v>46800</v>
       </c>
       <c r="H10" s="3">
         <v>2080</v>
@@ -2159,6 +2165,9 @@
         <v>5200</v>
       </c>
       <c r="AG10" s="3">
+        <v>5200</v>
+      </c>
+      <c r="AJ10" s="3">
         <v>5200</v>
       </c>
     </row>
@@ -2173,11 +2182,11 @@
         <v>17</v>
       </c>
       <c r="E11" s="9">
-        <f>F11/1.04</f>
+        <f t="shared" si="0"/>
         <v>13000</v>
       </c>
       <c r="F11" s="9">
-        <f>SUM(G11:AK11)</f>
+        <f t="shared" si="1"/>
         <v>13520</v>
       </c>
       <c r="H11" s="3">
@@ -2213,11 +2222,11 @@
         <v>18</v>
       </c>
       <c r="E12" s="9">
-        <f>F12/1.04</f>
+        <f t="shared" si="0"/>
         <v>7000</v>
       </c>
       <c r="F12" s="9">
-        <f>SUM(G12:AK12)</f>
+        <f t="shared" si="1"/>
         <v>7280</v>
       </c>
       <c r="H12" s="3">
@@ -2229,10 +2238,10 @@
       <c r="O12" s="3">
         <v>1040</v>
       </c>
-      <c r="W12" s="13">
-        <v>1040</v>
-      </c>
-      <c r="AC12" s="13">
+      <c r="W12" s="12">
+        <v>1040</v>
+      </c>
+      <c r="AC12" s="12">
         <v>1040</v>
       </c>
       <c r="AF12" s="3">
@@ -2253,11 +2262,11 @@
         <v>19</v>
       </c>
       <c r="E13" s="9">
-        <f>F13/1.04</f>
+        <f t="shared" si="0"/>
         <v>33000</v>
       </c>
       <c r="F13" s="9">
-        <f>SUM(G13:AK13)</f>
+        <f t="shared" si="1"/>
         <v>34320</v>
       </c>
       <c r="H13" s="3">
@@ -2299,11 +2308,11 @@
         <v>20</v>
       </c>
       <c r="E14" s="9">
-        <f>F14/1.04</f>
+        <f t="shared" si="0"/>
         <v>49000</v>
       </c>
       <c r="F14" s="9">
-        <f>SUM(G14:AK14)</f>
+        <f t="shared" si="1"/>
         <v>50960</v>
       </c>
       <c r="H14" s="3">
@@ -2343,7 +2352,7 @@
         <v>5200</v>
       </c>
     </row>
-    <row r="15" s="3" customFormat="1" spans="1:34">
+    <row r="15" s="3" customFormat="1" spans="1:36">
       <c r="A15" s="3">
         <v>13</v>
       </c>
@@ -2357,12 +2366,12 @@
         <v>22</v>
       </c>
       <c r="E15" s="9">
-        <f>F15/1.04</f>
-        <v>8000</v>
+        <f t="shared" si="0"/>
+        <v>10000</v>
       </c>
       <c r="F15" s="9">
-        <f>SUM(G15:AK15)</f>
-        <v>8320</v>
+        <f t="shared" si="1"/>
+        <v>10400</v>
       </c>
       <c r="T15" s="3">
         <v>2080</v>
@@ -2374,6 +2383,9 @@
         <v>2080</v>
       </c>
       <c r="AH15" s="3">
+        <v>2080</v>
+      </c>
+      <c r="AJ15" s="3">
         <v>2080</v>
       </c>
     </row>
@@ -2381,21 +2393,21 @@
       <c r="A16" s="3">
         <v>14</v>
       </c>
-      <c r="C16" s="10" t="s">
+      <c r="C16" s="4" t="s">
         <v>16</v>
       </c>
       <c r="D16" s="4" t="s">
         <v>23</v>
       </c>
       <c r="E16" s="9">
-        <f>F16/1.04</f>
+        <f t="shared" si="0"/>
         <v>3000</v>
       </c>
       <c r="F16" s="9">
-        <f>SUM(G16:AK16)</f>
-        <v>3120</v>
-      </c>
-      <c r="AG16" s="13">
+        <f t="shared" si="1"/>
+        <v>3120</v>
+      </c>
+      <c r="AG16" s="12">
         <v>3120</v>
       </c>
     </row>
@@ -2410,11 +2422,11 @@
         <v>24</v>
       </c>
       <c r="E17" s="9">
-        <f t="shared" ref="E17:E35" si="1">F17/1.04</f>
+        <f t="shared" ref="E17:E35" si="3">F17/1.04</f>
         <v>18000</v>
       </c>
       <c r="F17" s="9">
-        <f t="shared" ref="F17:F35" si="2">SUM(G17:AK17)</f>
+        <f t="shared" ref="F17:F35" si="4">SUM(G17:AK17)</f>
         <v>18720</v>
       </c>
       <c r="M17" s="3">
@@ -2450,11 +2462,11 @@
         <v>26</v>
       </c>
       <c r="E18" s="9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>29000</v>
       </c>
       <c r="F18" s="9">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>30160</v>
       </c>
       <c r="H18" s="3">
@@ -2490,11 +2502,11 @@
         <v>27</v>
       </c>
       <c r="E19" s="9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>9000</v>
       </c>
       <c r="F19" s="9">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>9360</v>
       </c>
       <c r="R19" s="3">
@@ -2509,7 +2521,7 @@
       <c r="AB19" s="3">
         <v>1040</v>
       </c>
-      <c r="AD19" s="13">
+      <c r="AD19" s="12">
         <v>3120</v>
       </c>
       <c r="AH19" s="3">
@@ -2527,11 +2539,11 @@
         <v>28</v>
       </c>
       <c r="E20" s="9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>12000</v>
       </c>
       <c r="F20" s="9">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>12480</v>
       </c>
       <c r="J20" s="3">
@@ -2553,7 +2565,7 @@
         <v>3120</v>
       </c>
     </row>
-    <row r="21" s="3" customFormat="1" spans="1:30">
+    <row r="21" s="3" customFormat="1" spans="1:36">
       <c r="A21" s="3">
         <v>19</v>
       </c>
@@ -2564,12 +2576,12 @@
         <v>29</v>
       </c>
       <c r="E21" s="9">
-        <f t="shared" si="1"/>
-        <v>22000</v>
+        <f t="shared" si="3"/>
+        <v>27000</v>
       </c>
       <c r="F21" s="9">
-        <f t="shared" si="2"/>
-        <v>22880</v>
+        <f t="shared" si="4"/>
+        <v>28080</v>
       </c>
       <c r="O21" s="3">
         <v>2080</v>
@@ -2584,6 +2596,9 @@
         <v>5200</v>
       </c>
       <c r="AD21" s="3">
+        <v>5200</v>
+      </c>
+      <c r="AJ21" s="3">
         <v>5200</v>
       </c>
     </row>
@@ -2598,11 +2613,11 @@
         <v>30</v>
       </c>
       <c r="E22" s="9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>9000</v>
       </c>
       <c r="F22" s="9">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>9360</v>
       </c>
       <c r="J22" s="3">
@@ -2641,11 +2656,11 @@
         <v>31</v>
       </c>
       <c r="E23" s="9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>21000</v>
       </c>
       <c r="F23" s="9">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>21840</v>
       </c>
       <c r="I23" s="3">
@@ -2681,14 +2696,14 @@
         <v>32</v>
       </c>
       <c r="E24" s="9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>22000</v>
       </c>
       <c r="F24" s="9">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>22880</v>
       </c>
-      <c r="T24" s="13">
+      <c r="T24" s="12">
         <v>2080</v>
       </c>
       <c r="U24" s="3">
@@ -2715,11 +2730,11 @@
         <v>33</v>
       </c>
       <c r="E25" s="9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>24000</v>
       </c>
       <c r="F25" s="9">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>24960</v>
       </c>
       <c r="H25" s="3">
@@ -2755,11 +2770,11 @@
         <v>34</v>
       </c>
       <c r="E26" s="9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>13000</v>
       </c>
       <c r="F26" s="9">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>13520</v>
       </c>
       <c r="H26" s="3">
@@ -2771,7 +2786,7 @@
       <c r="L26" s="3">
         <v>2080</v>
       </c>
-      <c r="S26" s="13">
+      <c r="S26" s="12">
         <v>1040</v>
       </c>
       <c r="U26" s="3">
@@ -2798,11 +2813,11 @@
         <v>35</v>
       </c>
       <c r="E27" s="9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>7000</v>
       </c>
       <c r="F27" s="9">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>7280</v>
       </c>
       <c r="L27" s="3">
@@ -2829,11 +2844,11 @@
         <v>36</v>
       </c>
       <c r="E28" s="9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>10000</v>
       </c>
       <c r="F28" s="9">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>10400</v>
       </c>
       <c r="J28" s="3">
@@ -2866,11 +2881,11 @@
         <v>37</v>
       </c>
       <c r="E29" s="9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>22000</v>
       </c>
       <c r="F29" s="9">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>22880</v>
       </c>
       <c r="H29" s="3">
@@ -2892,7 +2907,7 @@
         <v>5200</v>
       </c>
     </row>
-    <row r="30" s="3" customFormat="1" spans="1:32">
+    <row r="30" s="3" customFormat="1" spans="1:36">
       <c r="A30" s="3">
         <v>28</v>
       </c>
@@ -2903,12 +2918,12 @@
         <v>38</v>
       </c>
       <c r="E30" s="9">
-        <f t="shared" si="1"/>
-        <v>54000</v>
+        <f t="shared" si="3"/>
+        <v>59000</v>
       </c>
       <c r="F30" s="9">
-        <f t="shared" si="2"/>
-        <v>56160</v>
+        <f t="shared" si="4"/>
+        <v>61360</v>
       </c>
       <c r="I30" s="3">
         <v>2080</v>
@@ -2944,6 +2959,9 @@
         <v>5200</v>
       </c>
       <c r="AF30" s="3">
+        <v>5200</v>
+      </c>
+      <c r="AJ30" s="3">
         <v>5200</v>
       </c>
     </row>
@@ -2958,11 +2976,11 @@
         <v>39</v>
       </c>
       <c r="E31" s="9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>14000</v>
       </c>
       <c r="F31" s="9">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>14560</v>
       </c>
       <c r="H31" s="3">
@@ -3001,11 +3019,11 @@
         <v>41</v>
       </c>
       <c r="E32" s="9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>12000</v>
       </c>
       <c r="F32" s="9">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>12480</v>
       </c>
       <c r="I32" s="3">
@@ -3024,7 +3042,7 @@
         <v>3120</v>
       </c>
     </row>
-    <row r="33" s="3" customFormat="1" spans="1:31">
+    <row r="33" s="3" customFormat="1" spans="1:36">
       <c r="A33" s="3">
         <v>31</v>
       </c>
@@ -3035,12 +3053,12 @@
         <v>42</v>
       </c>
       <c r="E33" s="9">
-        <f t="shared" si="1"/>
-        <v>6000</v>
+        <f t="shared" si="3"/>
+        <v>7000</v>
       </c>
       <c r="F33" s="9">
-        <f t="shared" si="2"/>
-        <v>6240</v>
+        <f t="shared" si="4"/>
+        <v>7280</v>
       </c>
       <c r="I33" s="3">
         <v>1040</v>
@@ -3058,6 +3076,9 @@
         <v>1040</v>
       </c>
       <c r="AE33" s="3">
+        <v>1040</v>
+      </c>
+      <c r="AJ33" s="3">
         <v>1040</v>
       </c>
     </row>
@@ -3072,11 +3093,11 @@
         <v>43</v>
       </c>
       <c r="E34" s="9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>5000</v>
       </c>
       <c r="F34" s="9">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>5200</v>
       </c>
       <c r="I34" s="3">
@@ -3100,11 +3121,11 @@
         <v>44</v>
       </c>
       <c r="E35" s="9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>30000</v>
       </c>
       <c r="F35" s="9">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>31200</v>
       </c>
       <c r="I35" s="3">
@@ -3155,21 +3176,21 @@
         <v>45</v>
       </c>
       <c r="E36" s="9">
-        <f t="shared" ref="E36:E68" si="3">F36/1.04</f>
+        <f t="shared" ref="E36:E73" si="5">F36/1.04</f>
         <v>4000</v>
       </c>
       <c r="F36" s="9">
-        <f t="shared" ref="F36:F68" si="4">SUM(G36:AK36)</f>
+        <f t="shared" ref="F36:F73" si="6">SUM(G36:AK36)</f>
         <v>4160</v>
       </c>
-      <c r="V36" s="13">
-        <v>2080</v>
-      </c>
-      <c r="AC36" s="13">
-        <v>2080</v>
-      </c>
-    </row>
-    <row r="37" s="3" customFormat="1" spans="1:32">
+      <c r="V36" s="12">
+        <v>2080</v>
+      </c>
+      <c r="AC36" s="12">
+        <v>2080</v>
+      </c>
+    </row>
+    <row r="37" s="3" customFormat="1" spans="1:36">
       <c r="A37" s="3">
         <v>35</v>
       </c>
@@ -3180,12 +3201,12 @@
         <v>46</v>
       </c>
       <c r="E37" s="9">
-        <f t="shared" si="3"/>
-        <v>21000</v>
+        <f t="shared" si="5"/>
+        <v>24000</v>
       </c>
       <c r="F37" s="9">
-        <f t="shared" si="4"/>
-        <v>21840</v>
+        <f t="shared" si="6"/>
+        <v>24960</v>
       </c>
       <c r="H37" s="3">
         <v>3120</v>
@@ -3209,6 +3230,9 @@
         <v>3120</v>
       </c>
       <c r="AF37" s="3">
+        <v>3120</v>
+      </c>
+      <c r="AJ37" s="3">
         <v>3120</v>
       </c>
     </row>
@@ -3223,23 +3247,23 @@
         <v>47</v>
       </c>
       <c r="E38" s="9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>9000</v>
       </c>
       <c r="F38" s="9">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>9360</v>
       </c>
       <c r="K38" s="3">
         <v>2080</v>
       </c>
-      <c r="U38" s="13">
-        <v>2080</v>
-      </c>
-      <c r="AA38" s="13">
-        <v>2080</v>
-      </c>
-      <c r="AI38" s="13">
+      <c r="U38" s="12">
+        <v>2080</v>
+      </c>
+      <c r="AA38" s="12">
+        <v>2080</v>
+      </c>
+      <c r="AI38" s="12">
         <v>3120</v>
       </c>
     </row>
@@ -3254,11 +3278,11 @@
         <v>48</v>
       </c>
       <c r="E39" s="9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>12000</v>
       </c>
       <c r="F39" s="9">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>12480</v>
       </c>
       <c r="M39" s="3">
@@ -3291,11 +3315,11 @@
         <v>49</v>
       </c>
       <c r="E40" s="9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>11000</v>
       </c>
       <c r="F40" s="9">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>11440</v>
       </c>
       <c r="H40" s="3">
@@ -3317,7 +3341,7 @@
         <v>2080</v>
       </c>
     </row>
-    <row r="41" s="3" customFormat="1" spans="1:34">
+    <row r="41" s="3" customFormat="1" spans="1:36">
       <c r="A41" s="3">
         <v>39</v>
       </c>
@@ -3328,12 +3352,12 @@
         <v>50</v>
       </c>
       <c r="E41" s="9">
-        <f t="shared" si="3"/>
-        <v>36000</v>
+        <f t="shared" si="5"/>
+        <v>39000</v>
       </c>
       <c r="F41" s="9">
-        <f t="shared" si="4"/>
-        <v>37440</v>
+        <f t="shared" si="6"/>
+        <v>40560</v>
       </c>
       <c r="I41" s="3">
         <v>2080</v>
@@ -3375,6 +3399,9 @@
         <v>3120</v>
       </c>
       <c r="AH41" s="3">
+        <v>3120</v>
+      </c>
+      <c r="AJ41" s="3">
         <v>3120</v>
       </c>
     </row>
@@ -3389,11 +3416,11 @@
         <v>51</v>
       </c>
       <c r="E42" s="9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>5000</v>
       </c>
       <c r="F42" s="9">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>5200</v>
       </c>
       <c r="L42" s="3">
@@ -3402,7 +3429,7 @@
       <c r="Q42" s="3">
         <v>1040</v>
       </c>
-      <c r="Z42" s="13">
+      <c r="Z42" s="12">
         <v>2080</v>
       </c>
     </row>
@@ -3417,11 +3444,11 @@
         <v>52</v>
       </c>
       <c r="E43" s="9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="F43" s="9">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -3436,11 +3463,11 @@
         <v>53</v>
       </c>
       <c r="E44" s="9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>21000</v>
       </c>
       <c r="F44" s="9">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>21840</v>
       </c>
       <c r="H44" s="3">
@@ -3479,11 +3506,11 @@
         <v>55</v>
       </c>
       <c r="E45" s="9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>23000</v>
       </c>
       <c r="F45" s="9">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>23920</v>
       </c>
       <c r="H45" s="3">
@@ -3522,11 +3549,11 @@
         <v>56</v>
       </c>
       <c r="E46" s="9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>22000</v>
       </c>
       <c r="F46" s="9">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>22880</v>
       </c>
       <c r="J46" s="3">
@@ -3565,11 +3592,11 @@
         <v>57</v>
       </c>
       <c r="E47" s="9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>6000</v>
       </c>
       <c r="F47" s="9">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>6240</v>
       </c>
       <c r="J47" s="3">
@@ -3593,11 +3620,11 @@
         <v>58</v>
       </c>
       <c r="E48" s="9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>17000</v>
       </c>
       <c r="F48" s="9">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>17680</v>
       </c>
       <c r="O48" s="3">
@@ -3630,11 +3657,11 @@
         <v>59</v>
       </c>
       <c r="E49" s="9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>24000</v>
       </c>
       <c r="F49" s="9">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>24960</v>
       </c>
       <c r="J49" s="3">
@@ -3676,11 +3703,11 @@
         <v>60</v>
       </c>
       <c r="E50" s="9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>9000</v>
       </c>
       <c r="F50" s="9">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>9360</v>
       </c>
       <c r="J50" s="3">
@@ -3710,11 +3737,11 @@
         <v>61</v>
       </c>
       <c r="E51" s="9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>8000</v>
       </c>
       <c r="F51" s="9">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>8320</v>
       </c>
       <c r="H51" s="3">
@@ -3733,7 +3760,7 @@
         <v>2080</v>
       </c>
     </row>
-    <row r="52" s="3" customFormat="1" spans="1:31">
+    <row r="52" s="3" customFormat="1" spans="1:36">
       <c r="A52" s="3">
         <v>50</v>
       </c>
@@ -3744,12 +3771,12 @@
         <v>62</v>
       </c>
       <c r="E52" s="9">
-        <f t="shared" si="3"/>
-        <v>22000</v>
+        <f t="shared" si="5"/>
+        <v>25000</v>
       </c>
       <c r="F52" s="9">
-        <f t="shared" si="4"/>
-        <v>22880</v>
+        <f t="shared" si="6"/>
+        <v>26000</v>
       </c>
       <c r="H52" s="3">
         <v>2080</v>
@@ -3773,6 +3800,9 @@
         <v>3120</v>
       </c>
       <c r="AE52" s="3">
+        <v>3120</v>
+      </c>
+      <c r="AJ52" s="3">
         <v>3120</v>
       </c>
     </row>
@@ -3780,19 +3810,19 @@
       <c r="A53" s="3">
         <v>51</v>
       </c>
-      <c r="B53" s="11"/>
-      <c r="C53" s="11" t="s">
+      <c r="B53" s="10"/>
+      <c r="C53" s="10" t="s">
         <v>54</v>
       </c>
-      <c r="D53" s="12" t="s">
+      <c r="D53" s="11" t="s">
         <v>63</v>
       </c>
       <c r="E53" s="9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>5000</v>
       </c>
       <c r="F53" s="9">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>5200</v>
       </c>
       <c r="AC53" s="3">
@@ -3804,7 +3834,7 @@
       <c r="AF53" s="3">
         <v>1040</v>
       </c>
-      <c r="AG53" s="13">
+      <c r="AG53" s="12">
         <v>1040</v>
       </c>
       <c r="AJ53" s="3">
@@ -3822,11 +3852,11 @@
         <v>65</v>
       </c>
       <c r="E54" s="9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>9000</v>
       </c>
       <c r="F54" s="9">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>9360</v>
       </c>
       <c r="P54" s="3">
@@ -3856,11 +3886,11 @@
         <v>66</v>
       </c>
       <c r="E55" s="9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>38000</v>
       </c>
       <c r="F55" s="9">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>39520</v>
       </c>
       <c r="M55" s="3">
@@ -3899,11 +3929,11 @@
         <v>67</v>
       </c>
       <c r="E56" s="9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>9500</v>
       </c>
       <c r="F56" s="9">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>9880</v>
       </c>
       <c r="M56" s="3">
@@ -3915,7 +3945,7 @@
       <c r="Z56" s="3">
         <v>2080</v>
       </c>
-      <c r="AH56" s="13">
+      <c r="AH56" s="12">
         <v>4160</v>
       </c>
     </row>
@@ -3923,19 +3953,19 @@
       <c r="A57" s="3">
         <v>55</v>
       </c>
-      <c r="B57" s="11"/>
-      <c r="C57" s="10" t="s">
+      <c r="B57" s="10"/>
+      <c r="C57" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="D57" s="12" t="s">
+      <c r="D57" s="11" t="s">
         <v>69</v>
       </c>
       <c r="E57" s="9">
-        <f>F57/1.04</f>
+        <f t="shared" si="5"/>
         <v>10000</v>
       </c>
       <c r="F57" s="9">
-        <f>SUM(G57:AK57)</f>
+        <f t="shared" si="6"/>
         <v>10400</v>
       </c>
       <c r="AC57" s="3">
@@ -3956,17 +3986,17 @@
         <v>70</v>
       </c>
       <c r="E58" s="9">
-        <f>F58/1.04</f>
+        <f t="shared" si="5"/>
         <v>9000</v>
       </c>
       <c r="F58" s="9">
-        <f>SUM(G58:AK58)</f>
+        <f t="shared" si="6"/>
         <v>9360</v>
       </c>
       <c r="P58" s="3">
         <v>4160</v>
       </c>
-      <c r="AC58" s="13">
+      <c r="AC58" s="12">
         <v>5200</v>
       </c>
     </row>
@@ -3974,19 +4004,19 @@
       <c r="A59" s="3">
         <v>57</v>
       </c>
-      <c r="B59" s="11"/>
+      <c r="B59" s="10"/>
       <c r="C59" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="D59" s="12" t="s">
+      <c r="D59" s="11" t="s">
         <v>72</v>
       </c>
       <c r="E59" s="9">
-        <f>F59/1.04</f>
+        <f t="shared" si="5"/>
         <v>15000</v>
       </c>
       <c r="F59" s="9">
-        <f>SUM(G59:AK59)</f>
+        <f t="shared" si="6"/>
         <v>15600</v>
       </c>
       <c r="J59" s="3">
@@ -4014,29 +4044,32 @@
         <v>2080</v>
       </c>
     </row>
-    <row r="60" s="3" customFormat="1" spans="1:25">
+    <row r="60" s="3" customFormat="1" spans="1:37">
       <c r="A60" s="3">
         <v>58</v>
       </c>
-      <c r="B60" s="11"/>
+      <c r="B60" s="10"/>
       <c r="C60" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="D60" s="12" t="s">
+      <c r="D60" s="11" t="s">
         <v>74</v>
       </c>
       <c r="E60" s="9">
-        <f>F60/1.04</f>
-        <v>4000</v>
+        <f t="shared" si="5"/>
+        <v>6000</v>
       </c>
       <c r="F60" s="9">
-        <f>SUM(G60:AK60)</f>
-        <v>4160</v>
-      </c>
-      <c r="V60" s="13">
+        <f t="shared" si="6"/>
+        <v>6240</v>
+      </c>
+      <c r="V60" s="12">
         <v>2080</v>
       </c>
       <c r="Y60" s="3">
+        <v>2080</v>
+      </c>
+      <c r="AK60" s="3">
         <v>2080</v>
       </c>
     </row>
@@ -4051,11 +4084,11 @@
         <v>76</v>
       </c>
       <c r="E61" s="9">
-        <f>F61/1.04</f>
+        <f t="shared" si="5"/>
         <v>13000</v>
       </c>
       <c r="F61" s="9">
-        <f>SUM(G61:AK61)</f>
+        <f t="shared" si="6"/>
         <v>13520</v>
       </c>
       <c r="O61" s="3">
@@ -4091,11 +4124,11 @@
         <v>77</v>
       </c>
       <c r="E62" s="9">
-        <f>F62/1.04</f>
+        <f t="shared" si="5"/>
         <v>11000</v>
       </c>
       <c r="F62" s="9">
-        <f>SUM(G62:AK62)</f>
+        <f t="shared" si="6"/>
         <v>11440</v>
       </c>
       <c r="K62" s="3">
@@ -4125,11 +4158,11 @@
         <v>78</v>
       </c>
       <c r="E63" s="9">
-        <f>F63/1.04</f>
+        <f t="shared" si="5"/>
         <v>7000</v>
       </c>
       <c r="F63" s="9">
-        <f>SUM(G63:AK63)</f>
+        <f t="shared" si="6"/>
         <v>7280</v>
       </c>
       <c r="K63" s="3">
@@ -4156,11 +4189,11 @@
         <v>79</v>
       </c>
       <c r="E64" s="9">
-        <f>F64/1.04</f>
+        <f t="shared" si="5"/>
         <v>4000</v>
       </c>
       <c r="F64" s="9">
-        <f>SUM(G64:AK64)</f>
+        <f t="shared" si="6"/>
         <v>4160</v>
       </c>
       <c r="K64" s="3">
@@ -4184,11 +4217,11 @@
         <v>80</v>
       </c>
       <c r="E65" s="9">
-        <f>F65/1.04</f>
+        <f t="shared" si="5"/>
         <v>52000</v>
       </c>
       <c r="F65" s="9">
-        <f>SUM(G65:AK65)</f>
+        <f t="shared" si="6"/>
         <v>54080</v>
       </c>
       <c r="K65" s="3">
@@ -4219,7 +4252,7 @@
         <v>5200</v>
       </c>
     </row>
-    <row r="66" s="3" customFormat="1" spans="1:34">
+    <row r="66" s="3" customFormat="1" spans="1:36">
       <c r="A66" s="3">
         <v>64</v>
       </c>
@@ -4230,12 +4263,12 @@
         <v>81</v>
       </c>
       <c r="E66" s="9">
-        <f>F66/1.04</f>
-        <v>24000</v>
+        <f t="shared" si="5"/>
+        <v>27000</v>
       </c>
       <c r="F66" s="9">
-        <f>SUM(G66:AK66)</f>
-        <v>24960</v>
+        <f t="shared" si="6"/>
+        <v>28080</v>
       </c>
       <c r="H66" s="3">
         <v>2080</v>
@@ -4265,6 +4298,9 @@
         <v>3120</v>
       </c>
       <c r="AH66" s="3">
+        <v>3120</v>
+      </c>
+      <c r="AJ66" s="3">
         <v>3120</v>
       </c>
     </row>
@@ -4272,22 +4308,22 @@
       <c r="A67" s="3">
         <v>65</v>
       </c>
-      <c r="B67" s="11"/>
-      <c r="C67" s="10" t="s">
+      <c r="B67" s="10"/>
+      <c r="C67" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="D67" s="12" t="s">
+      <c r="D67" s="11" t="s">
         <v>82</v>
       </c>
       <c r="E67" s="9">
-        <f>F67/1.04</f>
+        <f t="shared" si="5"/>
         <v>8000</v>
       </c>
       <c r="F67" s="9">
-        <f>SUM(G67:AK67)</f>
+        <f t="shared" si="6"/>
         <v>8320</v>
       </c>
-      <c r="W67" s="13">
+      <c r="W67" s="12">
         <v>4160</v>
       </c>
       <c r="AF67" s="3">
@@ -4301,22 +4337,22 @@
       <c r="A68" s="3">
         <v>66</v>
       </c>
-      <c r="B68" s="11"/>
-      <c r="C68" s="11" t="s">
+      <c r="B68" s="10"/>
+      <c r="C68" s="10" t="s">
         <v>75</v>
       </c>
-      <c r="D68" s="12" t="s">
+      <c r="D68" s="11" t="s">
         <v>83</v>
       </c>
       <c r="E68" s="9">
-        <f>F68/1.04</f>
+        <f t="shared" si="5"/>
         <v>4000</v>
       </c>
       <c r="F68" s="9">
-        <f>SUM(G68:AK68)</f>
+        <f t="shared" si="6"/>
         <v>4160</v>
       </c>
-      <c r="X68" s="13">
+      <c r="X68" s="12">
         <v>2080</v>
       </c>
       <c r="AA68" s="3">
@@ -4334,11 +4370,11 @@
         <v>85</v>
       </c>
       <c r="E69" s="9">
-        <f>F69/1.04</f>
+        <f t="shared" si="5"/>
         <v>18000</v>
       </c>
       <c r="F69" s="9">
-        <f>SUM(G69:AK69)</f>
+        <f t="shared" si="6"/>
         <v>18720</v>
       </c>
       <c r="I69" s="3">
@@ -4374,11 +4410,11 @@
         <v>86</v>
       </c>
       <c r="E70" s="9">
-        <f>F70/1.04</f>
+        <f t="shared" si="5"/>
         <v>27000</v>
       </c>
       <c r="F70" s="9">
-        <f>SUM(G70:AK70)</f>
+        <f t="shared" si="6"/>
         <v>28080</v>
       </c>
       <c r="H70" s="3">
@@ -4412,7 +4448,7 @@
         <v>3120</v>
       </c>
     </row>
-    <row r="71" s="3" customFormat="1" spans="1:34">
+    <row r="71" s="3" customFormat="1" spans="1:36">
       <c r="A71" s="3">
         <v>69</v>
       </c>
@@ -4423,12 +4459,12 @@
         <v>87</v>
       </c>
       <c r="E71" s="9">
-        <f>F71/1.04</f>
-        <v>19000</v>
+        <f t="shared" si="5"/>
+        <v>21000</v>
       </c>
       <c r="F71" s="9">
-        <f>SUM(G71:AK71)</f>
-        <v>19760</v>
+        <f t="shared" si="6"/>
+        <v>21840</v>
       </c>
       <c r="J71" s="3">
         <v>2080</v>
@@ -4458,6 +4494,9 @@
         <v>2080</v>
       </c>
       <c r="AH71" s="3">
+        <v>2080</v>
+      </c>
+      <c r="AJ71" s="3">
         <v>2080</v>
       </c>
     </row>
@@ -4465,60 +4504,60 @@
       <c r="A72" s="3">
         <v>70</v>
       </c>
-      <c r="B72" s="11"/>
-      <c r="C72" s="11"/>
-      <c r="D72" s="12" t="s">
+      <c r="B72" s="10"/>
+      <c r="C72" s="10"/>
+      <c r="D72" s="11" t="s">
         <v>88</v>
       </c>
       <c r="E72" s="9">
-        <f>F72/1.04</f>
+        <f t="shared" si="5"/>
         <v>27000</v>
       </c>
       <c r="F72" s="9">
-        <f>SUM(G72:AK72)</f>
+        <f t="shared" si="6"/>
         <v>28080</v>
       </c>
-      <c r="G72" s="11"/>
-      <c r="H72" s="11">
+      <c r="G72" s="10"/>
+      <c r="H72" s="10">
         <v>520</v>
       </c>
-      <c r="I72" s="11">
-        <v>2080</v>
-      </c>
-      <c r="J72" s="11">
-        <v>5200</v>
-      </c>
-      <c r="K72" s="11"/>
-      <c r="L72" s="11"/>
-      <c r="M72" s="11"/>
-      <c r="N72" s="11"/>
-      <c r="O72" s="11"/>
-      <c r="P72" s="11"/>
-      <c r="Q72" s="11"/>
-      <c r="R72" s="11">
-        <v>5200</v>
-      </c>
-      <c r="S72" s="14"/>
-      <c r="T72" s="14"/>
-      <c r="U72" s="14"/>
-      <c r="V72" s="14"/>
-      <c r="W72" s="14"/>
+      <c r="I72" s="10">
+        <v>2080</v>
+      </c>
+      <c r="J72" s="10">
+        <v>5200</v>
+      </c>
+      <c r="K72" s="10"/>
+      <c r="L72" s="10"/>
+      <c r="M72" s="10"/>
+      <c r="N72" s="10"/>
+      <c r="O72" s="10"/>
+      <c r="P72" s="10"/>
+      <c r="Q72" s="10"/>
+      <c r="R72" s="10">
+        <v>5200</v>
+      </c>
+      <c r="S72" s="13"/>
+      <c r="T72" s="13"/>
+      <c r="U72" s="13"/>
+      <c r="V72" s="13"/>
+      <c r="W72" s="13"/>
       <c r="Z72" s="3">
         <v>1040</v>
       </c>
-      <c r="AB72" s="13">
-        <v>2080</v>
-      </c>
-      <c r="AC72" s="13">
+      <c r="AB72" s="12">
+        <v>2080</v>
+      </c>
+      <c r="AC72" s="12">
         <v>4160</v>
       </c>
-      <c r="AD72" s="13">
-        <v>1040</v>
-      </c>
-      <c r="AE72" s="13">
+      <c r="AD72" s="12">
+        <v>1040</v>
+      </c>
+      <c r="AE72" s="12">
         <v>3640</v>
       </c>
-      <c r="AF72" s="13">
+      <c r="AF72" s="12">
         <v>3120</v>
       </c>
     </row>
@@ -4526,25 +4565,25 @@
       <c r="A73" s="3">
         <v>71</v>
       </c>
-      <c r="B73" s="11"/>
-      <c r="C73" s="10" t="s">
+      <c r="B73" s="10"/>
+      <c r="C73" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="D73" s="12" t="s">
+      <c r="D73" s="11" t="s">
         <v>90</v>
       </c>
       <c r="E73" s="9">
-        <f>F73/1.04</f>
+        <f t="shared" si="5"/>
         <v>4000</v>
       </c>
       <c r="F73" s="9">
-        <f>SUM(G73:AK73)</f>
+        <f t="shared" si="6"/>
         <v>4160</v>
       </c>
       <c r="Q73" s="3">
         <v>2080</v>
       </c>
-      <c r="AB73" s="13">
+      <c r="AB73" s="12">
         <v>2080</v>
       </c>
     </row>
@@ -4552,17 +4591,17 @@
       <c r="A74" s="3">
         <v>72</v>
       </c>
-      <c r="B74" s="11"/>
-      <c r="C74" s="10"/>
-      <c r="D74" s="12" t="s">
+      <c r="B74" s="10"/>
+      <c r="C74" s="4"/>
+      <c r="D74" s="11" t="s">
         <v>91</v>
       </c>
       <c r="E74" s="9">
-        <f t="shared" ref="E69:E94" si="5">F74/1.04</f>
+        <f t="shared" ref="E69:E94" si="7">F74/1.04</f>
         <v>0</v>
       </c>
       <c r="F74" s="9">
-        <f t="shared" ref="F69:F94" si="6">SUM(G74:AK74)</f>
+        <f t="shared" ref="F69:F94" si="8">SUM(G74:AK74)</f>
         <v>0</v>
       </c>
     </row>
@@ -4570,22 +4609,22 @@
       <c r="A75" s="3">
         <v>73</v>
       </c>
-      <c r="B75" s="11"/>
-      <c r="C75" s="10" t="s">
+      <c r="B75" s="10"/>
+      <c r="C75" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="D75" s="12" t="s">
+      <c r="D75" s="11" t="s">
         <v>93</v>
       </c>
       <c r="E75" s="9">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>3000</v>
       </c>
       <c r="F75" s="9">
-        <f t="shared" si="6"/>
-        <v>3120</v>
-      </c>
-      <c r="AH75" s="13">
+        <f t="shared" si="8"/>
+        <v>3120</v>
+      </c>
+      <c r="AH75" s="12">
         <v>3120</v>
       </c>
     </row>
@@ -4593,50 +4632,50 @@
       <c r="A76" s="3">
         <v>74</v>
       </c>
-      <c r="B76" s="11"/>
-      <c r="C76" s="10"/>
-      <c r="D76" s="12" t="s">
+      <c r="B76" s="10"/>
+      <c r="C76" s="4"/>
+      <c r="D76" s="11" t="s">
         <v>94</v>
       </c>
       <c r="E76" s="9">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="F76" s="9">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="G76" s="14"/>
-      <c r="H76" s="14"/>
-      <c r="I76" s="14"/>
-      <c r="J76" s="14"/>
-      <c r="K76" s="14"/>
-      <c r="L76" s="14"/>
-      <c r="M76" s="14"/>
-      <c r="N76" s="14"/>
-      <c r="O76" s="14"/>
-      <c r="P76" s="14"/>
-      <c r="Q76" s="14"/>
-      <c r="R76" s="14"/>
+      <c r="G76" s="13"/>
+      <c r="H76" s="13"/>
+      <c r="I76" s="13"/>
+      <c r="J76" s="13"/>
+      <c r="K76" s="13"/>
+      <c r="L76" s="13"/>
+      <c r="M76" s="13"/>
+      <c r="N76" s="13"/>
+      <c r="O76" s="13"/>
+      <c r="P76" s="13"/>
+      <c r="Q76" s="13"/>
+      <c r="R76" s="13"/>
     </row>
     <row r="77" s="3" customFormat="1" spans="1:31">
       <c r="A77" s="3">
         <v>75</v>
       </c>
-      <c r="B77" s="11"/>
-      <c r="C77" s="10"/>
-      <c r="D77" s="12" t="s">
+      <c r="B77" s="10"/>
+      <c r="C77" s="4"/>
+      <c r="D77" s="11" t="s">
         <v>95</v>
       </c>
       <c r="E77" s="9">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>3000</v>
       </c>
       <c r="F77" s="9">
-        <f t="shared" si="6"/>
-        <v>3120</v>
-      </c>
-      <c r="AE77" s="13">
+        <f t="shared" si="8"/>
+        <v>3120</v>
+      </c>
+      <c r="AE77" s="12">
         <v>3120</v>
       </c>
     </row>
@@ -4644,17 +4683,17 @@
       <c r="A78" s="3">
         <v>76</v>
       </c>
-      <c r="B78" s="11"/>
-      <c r="C78" s="10"/>
-      <c r="D78" s="12" t="s">
+      <c r="B78" s="10"/>
+      <c r="C78" s="4"/>
+      <c r="D78" s="11" t="s">
         <v>96</v>
       </c>
       <c r="E78" s="9">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="F78" s="9">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -4662,17 +4701,17 @@
       <c r="A79" s="3">
         <v>77</v>
       </c>
-      <c r="B79" s="11"/>
-      <c r="C79" s="10"/>
-      <c r="D79" s="12" t="s">
+      <c r="B79" s="10"/>
+      <c r="C79" s="4"/>
+      <c r="D79" s="11" t="s">
         <v>97</v>
       </c>
       <c r="E79" s="9">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="F79" s="9">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -4680,17 +4719,17 @@
       <c r="A80" s="3">
         <v>78</v>
       </c>
-      <c r="B80" s="11"/>
-      <c r="C80" s="10"/>
-      <c r="D80" s="12" t="s">
+      <c r="B80" s="10"/>
+      <c r="C80" s="4"/>
+      <c r="D80" s="11" t="s">
         <v>98</v>
       </c>
       <c r="E80" s="9">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="F80" s="9">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -4698,58 +4737,58 @@
       <c r="A81" s="3">
         <v>79</v>
       </c>
-      <c r="B81" s="11"/>
-      <c r="C81" s="10"/>
-      <c r="D81" s="12" t="s">
+      <c r="B81" s="10"/>
+      <c r="C81" s="4"/>
+      <c r="D81" s="11" t="s">
         <v>99</v>
       </c>
       <c r="E81" s="9">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="F81" s="9">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="G81" s="14"/>
-      <c r="H81" s="14"/>
-      <c r="I81" s="14"/>
-      <c r="J81" s="14"/>
-      <c r="K81" s="14"/>
-      <c r="L81" s="14"/>
-      <c r="M81" s="14"/>
-      <c r="N81" s="14"/>
-      <c r="O81" s="14"/>
-      <c r="P81" s="14"/>
-      <c r="Q81" s="14"/>
-      <c r="R81" s="14"/>
-      <c r="S81" s="14"/>
-      <c r="T81" s="14"/>
-      <c r="U81" s="14"/>
-      <c r="V81" s="14"/>
-      <c r="W81" s="14"/>
-      <c r="X81" s="14"/>
+      <c r="G81" s="13"/>
+      <c r="H81" s="13"/>
+      <c r="I81" s="13"/>
+      <c r="J81" s="13"/>
+      <c r="K81" s="13"/>
+      <c r="L81" s="13"/>
+      <c r="M81" s="13"/>
+      <c r="N81" s="13"/>
+      <c r="O81" s="13"/>
+      <c r="P81" s="13"/>
+      <c r="Q81" s="13"/>
+      <c r="R81" s="13"/>
+      <c r="S81" s="13"/>
+      <c r="T81" s="13"/>
+      <c r="U81" s="13"/>
+      <c r="V81" s="13"/>
+      <c r="W81" s="13"/>
+      <c r="X81" s="13"/>
     </row>
     <row r="82" s="3" customFormat="1" spans="1:33">
       <c r="A82" s="3">
         <v>80</v>
       </c>
-      <c r="B82" s="11"/>
-      <c r="C82" s="10" t="s">
+      <c r="B82" s="10"/>
+      <c r="C82" s="4" t="s">
         <v>100</v>
       </c>
-      <c r="D82" s="12" t="s">
+      <c r="D82" s="11" t="s">
         <v>101</v>
       </c>
       <c r="E82" s="9">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>13000</v>
       </c>
       <c r="F82" s="9">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>13520</v>
       </c>
-      <c r="AB82" s="13">
+      <c r="AB82" s="12">
         <v>2080</v>
       </c>
       <c r="AC82" s="3">
@@ -4766,17 +4805,17 @@
       <c r="A83" s="3">
         <v>81</v>
       </c>
-      <c r="B83" s="11"/>
-      <c r="C83" s="10"/>
-      <c r="D83" s="12" t="s">
+      <c r="B83" s="10"/>
+      <c r="C83" s="4"/>
+      <c r="D83" s="11" t="s">
         <v>102</v>
       </c>
       <c r="E83" s="9">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="F83" s="9">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -4784,70 +4823,70 @@
       <c r="A84" s="3">
         <v>82</v>
       </c>
-      <c r="B84" s="11"/>
-      <c r="C84" s="10"/>
-      <c r="D84" s="12" t="s">
+      <c r="B84" s="10"/>
+      <c r="C84" s="4"/>
+      <c r="D84" s="11" t="s">
         <v>103</v>
       </c>
       <c r="E84" s="9">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="F84" s="9">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="G84" s="14"/>
-      <c r="H84" s="14"/>
-      <c r="I84" s="14"/>
-      <c r="J84" s="14"/>
-      <c r="K84" s="14"/>
-      <c r="L84" s="14"/>
-      <c r="M84" s="14"/>
-      <c r="N84" s="14"/>
-      <c r="O84" s="14"/>
-      <c r="P84" s="14"/>
-      <c r="Q84" s="14"/>
+      <c r="G84" s="13"/>
+      <c r="H84" s="13"/>
+      <c r="I84" s="13"/>
+      <c r="J84" s="13"/>
+      <c r="K84" s="13"/>
+      <c r="L84" s="13"/>
+      <c r="M84" s="13"/>
+      <c r="N84" s="13"/>
+      <c r="O84" s="13"/>
+      <c r="P84" s="13"/>
+      <c r="Q84" s="13"/>
     </row>
     <row r="85" s="3" customFormat="1" spans="1:28">
       <c r="A85" s="3">
         <v>83</v>
       </c>
-      <c r="B85" s="11"/>
-      <c r="C85" s="10" t="s">
+      <c r="B85" s="10"/>
+      <c r="C85" s="4" t="s">
         <v>100</v>
       </c>
-      <c r="D85" s="12" t="s">
+      <c r="D85" s="11" t="s">
         <v>104</v>
       </c>
       <c r="E85" s="9">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>2000</v>
       </c>
       <c r="F85" s="9">
-        <f t="shared" si="6"/>
-        <v>2080</v>
-      </c>
-      <c r="G85" s="14"/>
-      <c r="H85" s="14"/>
-      <c r="I85" s="14"/>
-      <c r="J85" s="14"/>
-      <c r="K85" s="14"/>
-      <c r="L85" s="14"/>
-      <c r="M85" s="14"/>
-      <c r="N85" s="14"/>
-      <c r="O85" s="14"/>
-      <c r="P85" s="14"/>
-      <c r="Q85" s="14"/>
-      <c r="R85" s="14"/>
-      <c r="S85" s="14"/>
-      <c r="T85" s="14"/>
-      <c r="U85" s="14"/>
-      <c r="V85" s="14"/>
-      <c r="W85" s="14"/>
-      <c r="X85" s="14"/>
-      <c r="Y85" s="14"/>
-      <c r="AB85" s="13">
+        <f t="shared" si="8"/>
+        <v>2080</v>
+      </c>
+      <c r="G85" s="13"/>
+      <c r="H85" s="13"/>
+      <c r="I85" s="13"/>
+      <c r="J85" s="13"/>
+      <c r="K85" s="13"/>
+      <c r="L85" s="13"/>
+      <c r="M85" s="13"/>
+      <c r="N85" s="13"/>
+      <c r="O85" s="13"/>
+      <c r="P85" s="13"/>
+      <c r="Q85" s="13"/>
+      <c r="R85" s="13"/>
+      <c r="S85" s="13"/>
+      <c r="T85" s="13"/>
+      <c r="U85" s="13"/>
+      <c r="V85" s="13"/>
+      <c r="W85" s="13"/>
+      <c r="X85" s="13"/>
+      <c r="Y85" s="13"/>
+      <c r="AB85" s="12">
         <v>2080</v>
       </c>
     </row>
@@ -4855,50 +4894,50 @@
       <c r="A86" s="3">
         <v>84</v>
       </c>
-      <c r="B86" s="11"/>
-      <c r="C86" s="10"/>
-      <c r="D86" s="12" t="s">
+      <c r="B86" s="10"/>
+      <c r="C86" s="4"/>
+      <c r="D86" s="11" t="s">
         <v>105</v>
       </c>
       <c r="E86" s="9">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="F86" s="9">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="G86" s="14"/>
-      <c r="H86" s="14"/>
-      <c r="I86" s="14"/>
-      <c r="J86" s="14"/>
-      <c r="K86" s="14"/>
-      <c r="L86" s="14"/>
-      <c r="M86" s="14"/>
-      <c r="N86" s="14"/>
-      <c r="O86" s="14"/>
-      <c r="P86" s="14"/>
-      <c r="Q86" s="14"/>
-      <c r="R86" s="14"/>
-      <c r="S86" s="14"/>
-      <c r="T86" s="14"/>
-      <c r="U86" s="14"/>
-      <c r="V86" s="14"/>
+      <c r="G86" s="13"/>
+      <c r="H86" s="13"/>
+      <c r="I86" s="13"/>
+      <c r="J86" s="13"/>
+      <c r="K86" s="13"/>
+      <c r="L86" s="13"/>
+      <c r="M86" s="13"/>
+      <c r="N86" s="13"/>
+      <c r="O86" s="13"/>
+      <c r="P86" s="13"/>
+      <c r="Q86" s="13"/>
+      <c r="R86" s="13"/>
+      <c r="S86" s="13"/>
+      <c r="T86" s="13"/>
+      <c r="U86" s="13"/>
+      <c r="V86" s="13"/>
     </row>
     <row r="87" s="3" customFormat="1" spans="1:6">
       <c r="A87" s="3">
         <v>85</v>
       </c>
-      <c r="C87" s="10"/>
+      <c r="C87" s="4"/>
       <c r="D87" s="4" t="s">
         <v>106</v>
       </c>
       <c r="E87" s="9">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="F87" s="9">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -4906,16 +4945,16 @@
       <c r="A88" s="3">
         <v>86</v>
       </c>
-      <c r="C88" s="10"/>
+      <c r="C88" s="4"/>
       <c r="D88" s="4" t="s">
         <v>107</v>
       </c>
       <c r="E88" s="9">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="F88" s="9">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -4923,16 +4962,16 @@
       <c r="A89" s="3">
         <v>87</v>
       </c>
-      <c r="C89" s="10"/>
+      <c r="C89" s="4"/>
       <c r="D89" s="4" t="s">
         <v>108</v>
       </c>
       <c r="E89" s="9">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="F89" s="9">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -4940,16 +4979,16 @@
       <c r="A90" s="3">
         <v>88</v>
       </c>
-      <c r="C90" s="10"/>
+      <c r="C90" s="4"/>
       <c r="D90" s="4" t="s">
         <v>109</v>
       </c>
       <c r="E90" s="9">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="F90" s="9">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -4957,16 +4996,16 @@
       <c r="A91" s="3">
         <v>89</v>
       </c>
-      <c r="C91" s="10"/>
+      <c r="C91" s="4"/>
       <c r="D91" s="4" t="s">
         <v>110</v>
       </c>
       <c r="E91" s="9">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="F91" s="9">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -4974,16 +5013,16 @@
       <c r="A92" s="3">
         <v>90</v>
       </c>
-      <c r="C92" s="10"/>
+      <c r="C92" s="4"/>
       <c r="D92" s="4" t="s">
         <v>111</v>
       </c>
       <c r="E92" s="9">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="F92" s="9">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -4991,16 +5030,16 @@
       <c r="A93" s="3">
         <v>91</v>
       </c>
-      <c r="C93" s="10"/>
+      <c r="C93" s="4"/>
       <c r="D93" s="4" t="s">
         <v>112</v>
       </c>
       <c r="E93" s="9">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="F93" s="9">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -5008,16 +5047,16 @@
       <c r="A94" s="3">
         <v>92</v>
       </c>
-      <c r="C94" s="10"/>
+      <c r="C94" s="4"/>
       <c r="D94" s="3" t="s">
         <v>113</v>
       </c>
       <c r="E94" s="9">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="F94" s="9">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>

--- a/Daily Orders/December-2020-RetailerWiseOrder.xlsx
+++ b/Daily Orders/December-2020-RetailerWiseOrder.xlsx
@@ -164,7 +164,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="119">
   <si>
     <t>S.No.</t>
   </si>
@@ -196,19 +196,34 @@
     <t>SAJNISH KIRANA(661644709)</t>
   </si>
   <si>
+    <t>Amit</t>
+  </si>
+  <si>
     <t>MAHI TELECOM ELECTRONICS(661644706)</t>
   </si>
   <si>
+    <t>Ganesh</t>
+  </si>
+  <si>
     <t>ARVIND AIRTEL EGRECHARGE CENTR(661591709)</t>
   </si>
   <si>
+    <t>shakti</t>
+  </si>
+  <si>
     <t>pawan and ravi telicom(660604868)</t>
   </si>
   <si>
+    <t>Satish</t>
+  </si>
+  <si>
     <t>PRABHAT TELECOM &amp; ELECTRIC(661066820)</t>
   </si>
   <si>
     <t>SINGH TELECOM(661066803)</t>
+  </si>
+  <si>
+    <t>Ankit</t>
   </si>
   <si>
     <t>ANKIT TELECOM(660324751)</t>
@@ -513,11 +528,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="[$-409]d\-mmm;@"/>
-    <numFmt numFmtId="178" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="[$-409]d\-mmm;@"/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -537,55 +552,9 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -598,17 +567,23 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -620,8 +595,17 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -643,6 +627,52 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
@@ -652,7 +682,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -660,21 +690,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -730,127 +745,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -868,7 +763,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -880,7 +835,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -892,19 +877,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -924,17 +939,22 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -950,24 +970,6 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -996,6 +998,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -1011,13 +1022,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1026,10 +1041,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1044,130 +1059,130 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="21" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="24" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="31" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1187,7 +1202,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1542,11 +1557,11 @@
   <dimension ref="A1:AK94"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="6" ySplit="2" topLeftCell="AF46" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="6" ySplit="2" topLeftCell="AF29" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="D66" sqref="D66"/>
+      <selection pane="bottomRight" activeCell="AK49" sqref="AK49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15"/>
@@ -1676,22 +1691,22 @@
     <row r="2" s="2" customFormat="1" spans="2:37">
       <c r="B2" s="6">
         <f>SUM(F3:F119)/1.04</f>
-        <v>1250000</v>
+        <v>1301000</v>
       </c>
       <c r="C2" s="7">
         <f>SUM(F3:F119)</f>
-        <v>1300000</v>
+        <v>1353040</v>
       </c>
       <c r="D2" s="8" t="s">
         <v>6</v>
       </c>
       <c r="E2" s="7">
         <f t="shared" ref="E2:E16" si="0">F2/1.04</f>
-        <v>1250000</v>
+        <v>1301000</v>
       </c>
       <c r="F2" s="6">
         <f t="shared" ref="F2:F16" si="1">SUM(G2:AK2)</f>
-        <v>1300000</v>
+        <v>1353040</v>
       </c>
       <c r="G2" s="2">
         <f>SUM(G3:G120)</f>
@@ -1815,10 +1830,10 @@
       </c>
       <c r="AK2" s="2">
         <f t="shared" si="2"/>
-        <v>7280</v>
-      </c>
-    </row>
-    <row r="3" s="3" customFormat="1" spans="1:28">
+        <v>60320</v>
+      </c>
+    </row>
+    <row r="3" s="3" customFormat="1" spans="1:37">
       <c r="A3" s="3">
         <v>1</v>
       </c>
@@ -1830,16 +1845,19 @@
       </c>
       <c r="E3" s="9">
         <f t="shared" si="0"/>
-        <v>6000</v>
+        <v>9000</v>
       </c>
       <c r="F3" s="9">
         <f t="shared" si="1"/>
-        <v>6240</v>
+        <v>9360</v>
       </c>
       <c r="V3" s="3">
         <v>3120</v>
       </c>
       <c r="AB3" s="3">
+        <v>3120</v>
+      </c>
+      <c r="AK3" s="3">
         <v>3120</v>
       </c>
     </row>
@@ -1875,11 +1893,14 @@
       <c r="A5" s="3">
         <v>3</v>
       </c>
+      <c r="B5" s="3" t="s">
+        <v>10</v>
+      </c>
       <c r="C5" s="3" t="s">
         <v>7</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E5" s="9">
         <f t="shared" si="0"/>
@@ -1930,11 +1951,14 @@
       <c r="A6" s="3">
         <v>4</v>
       </c>
+      <c r="B6" s="3" t="s">
+        <v>12</v>
+      </c>
       <c r="C6" s="3" t="s">
         <v>7</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E6" s="9">
         <f t="shared" si="0"/>
@@ -1972,23 +1996,26 @@
         <v>5200</v>
       </c>
     </row>
-    <row r="7" s="3" customFormat="1" spans="1:36">
+    <row r="7" s="3" customFormat="1" spans="1:37">
       <c r="A7" s="3">
         <v>5</v>
       </c>
+      <c r="B7" s="3" t="s">
+        <v>14</v>
+      </c>
       <c r="C7" s="3" t="s">
         <v>7</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="E7" s="9">
         <f t="shared" si="0"/>
-        <v>64000</v>
+        <v>66000</v>
       </c>
       <c r="F7" s="9">
         <f t="shared" si="1"/>
-        <v>66560</v>
+        <v>68640</v>
       </c>
       <c r="H7" s="3">
         <v>2080</v>
@@ -2051,6 +2078,9 @@
         <v>2080</v>
       </c>
       <c r="AJ7" s="3">
+        <v>2080</v>
+      </c>
+      <c r="AK7" s="3">
         <v>2080</v>
       </c>
     </row>
@@ -2058,11 +2088,14 @@
       <c r="A8" s="3">
         <v>6</v>
       </c>
+      <c r="B8" s="3" t="s">
+        <v>16</v>
+      </c>
       <c r="C8" s="3" t="s">
         <v>7</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="E8" s="9">
         <f t="shared" si="0"/>
@@ -2093,7 +2126,7 @@
         <v>7</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="E9" s="9">
         <f t="shared" si="0"/>
@@ -2120,11 +2153,14 @@
       <c r="A10" s="3">
         <v>8</v>
       </c>
+      <c r="B10" s="3" t="s">
+        <v>19</v>
+      </c>
       <c r="C10" s="3" t="s">
         <v>7</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="E10" s="9">
         <f t="shared" si="0"/>
@@ -2171,23 +2207,23 @@
         <v>5200</v>
       </c>
     </row>
-    <row r="11" s="3" customFormat="1" spans="1:28">
+    <row r="11" s="3" customFormat="1" spans="1:37">
       <c r="A11" s="3">
         <v>9</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="E11" s="9">
         <f t="shared" si="0"/>
-        <v>13000</v>
+        <v>15000</v>
       </c>
       <c r="F11" s="9">
         <f t="shared" si="1"/>
-        <v>13520</v>
+        <v>15600</v>
       </c>
       <c r="H11" s="3">
         <v>2080</v>
@@ -2208,6 +2244,9 @@
         <v>2080</v>
       </c>
       <c r="AB11" s="3">
+        <v>2080</v>
+      </c>
+      <c r="AK11" s="3">
         <v>2080</v>
       </c>
     </row>
@@ -2216,10 +2255,10 @@
         <v>10</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="E12" s="9">
         <f t="shared" si="0"/>
@@ -2256,10 +2295,10 @@
         <v>11</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="E13" s="9">
         <f t="shared" si="0"/>
@@ -2297,23 +2336,23 @@
         <v>5200</v>
       </c>
     </row>
-    <row r="14" s="3" customFormat="1" spans="1:34">
+    <row r="14" s="3" customFormat="1" spans="1:37">
       <c r="A14" s="3">
         <v>12</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="E14" s="9">
         <f t="shared" si="0"/>
-        <v>49000</v>
+        <v>54000</v>
       </c>
       <c r="F14" s="9">
         <f t="shared" si="1"/>
-        <v>50960</v>
+        <v>56160</v>
       </c>
       <c r="H14" s="3">
         <v>2080</v>
@@ -2349,6 +2388,9 @@
         <v>5200</v>
       </c>
       <c r="AH14" s="3">
+        <v>5200</v>
+      </c>
+      <c r="AK14" s="3">
         <v>5200</v>
       </c>
     </row>
@@ -2357,13 +2399,13 @@
         <v>13</v>
       </c>
       <c r="B15" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C15" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="C15" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="D15" s="4" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="E15" s="9">
         <f t="shared" si="0"/>
@@ -2394,10 +2436,10 @@
         <v>14</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="E16" s="9">
         <f t="shared" si="0"/>
@@ -2416,10 +2458,10 @@
         <v>15</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="E17" s="9">
         <f t="shared" ref="E17:E35" si="3">F17/1.04</f>
@@ -2451,23 +2493,23 @@
         <v>3120</v>
       </c>
     </row>
-    <row r="18" s="3" customFormat="1" spans="1:34">
+    <row r="18" s="3" customFormat="1" spans="1:37">
       <c r="A18" s="3">
         <v>16</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="E18" s="9">
         <f t="shared" si="3"/>
-        <v>29000</v>
+        <v>34000</v>
       </c>
       <c r="F18" s="9">
         <f t="shared" si="4"/>
-        <v>30160</v>
+        <v>35360</v>
       </c>
       <c r="H18" s="3">
         <v>3120</v>
@@ -2488,6 +2530,9 @@
         <v>5200</v>
       </c>
       <c r="AH18" s="3">
+        <v>5200</v>
+      </c>
+      <c r="AK18" s="3">
         <v>5200</v>
       </c>
     </row>
@@ -2496,10 +2541,10 @@
         <v>17</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="E19" s="9">
         <f t="shared" si="3"/>
@@ -2533,10 +2578,10 @@
         <v>18</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="E20" s="9">
         <f t="shared" si="3"/>
@@ -2570,10 +2615,10 @@
         <v>19</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="E21" s="9">
         <f t="shared" si="3"/>
@@ -2607,10 +2652,10 @@
         <v>20</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="E22" s="9">
         <f t="shared" si="3"/>
@@ -2650,10 +2695,10 @@
         <v>21</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="E23" s="9">
         <f t="shared" si="3"/>
@@ -2685,23 +2730,23 @@
         <v>3120</v>
       </c>
     </row>
-    <row r="24" s="3" customFormat="1" spans="1:32">
+    <row r="24" s="3" customFormat="1" spans="1:37">
       <c r="A24" s="3">
         <v>22</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="E24" s="9">
         <f t="shared" si="3"/>
-        <v>22000</v>
+        <v>27000</v>
       </c>
       <c r="F24" s="9">
         <f t="shared" si="4"/>
-        <v>22880</v>
+        <v>28080</v>
       </c>
       <c r="T24" s="12">
         <v>2080</v>
@@ -2718,24 +2763,27 @@
       <c r="AF24" s="3">
         <v>5200</v>
       </c>
-    </row>
-    <row r="25" s="3" customFormat="1" spans="1:34">
+      <c r="AK24" s="3">
+        <v>5200</v>
+      </c>
+    </row>
+    <row r="25" s="3" customFormat="1" spans="1:37">
       <c r="A25" s="3">
         <v>23</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="E25" s="9">
         <f t="shared" si="3"/>
-        <v>24000</v>
+        <v>27000</v>
       </c>
       <c r="F25" s="9">
         <f t="shared" si="4"/>
-        <v>24960</v>
+        <v>28080</v>
       </c>
       <c r="H25" s="3">
         <v>3120</v>
@@ -2756,6 +2804,9 @@
         <v>3120</v>
       </c>
       <c r="AH25" s="3">
+        <v>3120</v>
+      </c>
+      <c r="AK25" s="3">
         <v>3120</v>
       </c>
     </row>
@@ -2764,10 +2815,10 @@
         <v>24</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D26" s="4" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="E26" s="9">
         <f t="shared" si="3"/>
@@ -2807,10 +2858,10 @@
         <v>25</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D27" s="4" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="E27" s="9">
         <f t="shared" si="3"/>
@@ -2838,10 +2889,10 @@
         <v>26</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D28" s="4" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="E28" s="9">
         <f t="shared" si="3"/>
@@ -2870,23 +2921,23 @@
         <v>2080</v>
       </c>
     </row>
-    <row r="29" s="3" customFormat="1" spans="1:31">
+    <row r="29" s="3" customFormat="1" spans="1:37">
       <c r="A29" s="3">
         <v>27</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D29" s="4" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="E29" s="9">
         <f t="shared" si="3"/>
-        <v>22000</v>
+        <v>27000</v>
       </c>
       <c r="F29" s="9">
         <f t="shared" si="4"/>
-        <v>22880</v>
+        <v>28080</v>
       </c>
       <c r="H29" s="3">
         <v>2080</v>
@@ -2904,6 +2955,9 @@
         <v>5200</v>
       </c>
       <c r="AE29" s="3">
+        <v>5200</v>
+      </c>
+      <c r="AK29" s="3">
         <v>5200</v>
       </c>
     </row>
@@ -2912,10 +2966,10 @@
         <v>28</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D30" s="4" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="E30" s="9">
         <f t="shared" si="3"/>
@@ -2970,10 +3024,10 @@
         <v>29</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D31" s="4" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="E31" s="9">
         <f t="shared" si="3"/>
@@ -3013,10 +3067,10 @@
         <v>30</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="D32" s="4" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="E32" s="9">
         <f t="shared" si="3"/>
@@ -3047,10 +3101,10 @@
         <v>31</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="D33" s="4" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="E33" s="9">
         <f t="shared" si="3"/>
@@ -3087,10 +3141,10 @@
         <v>32</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="D34" s="4" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="E34" s="9">
         <f t="shared" si="3"/>
@@ -3110,23 +3164,23 @@
         <v>2080</v>
       </c>
     </row>
-    <row r="35" s="3" customFormat="1" spans="1:35">
+    <row r="35" s="3" customFormat="1" spans="1:37">
       <c r="A35" s="3">
         <v>33</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="D35" s="4" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="E35" s="9">
         <f t="shared" si="3"/>
-        <v>30000</v>
+        <v>33000</v>
       </c>
       <c r="F35" s="9">
         <f t="shared" si="4"/>
-        <v>31200</v>
+        <v>34320</v>
       </c>
       <c r="I35" s="3">
         <v>2080</v>
@@ -3162,6 +3216,9 @@
         <v>3120</v>
       </c>
       <c r="AI35" s="3">
+        <v>3120</v>
+      </c>
+      <c r="AK35" s="3">
         <v>3120</v>
       </c>
     </row>
@@ -3170,10 +3227,10 @@
         <v>34</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="D36" s="4" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="E36" s="9">
         <f t="shared" ref="E36:E73" si="5">F36/1.04</f>
@@ -3195,10 +3252,10 @@
         <v>35</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="D37" s="4" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="E37" s="9">
         <f t="shared" si="5"/>
@@ -3241,10 +3298,10 @@
         <v>36</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="D38" s="4" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="E38" s="9">
         <f t="shared" si="5"/>
@@ -3272,10 +3329,10 @@
         <v>37</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="D39" s="4" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="E39" s="9">
         <f t="shared" si="5"/>
@@ -3309,10 +3366,10 @@
         <v>38</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="D40" s="4" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="E40" s="9">
         <f t="shared" si="5"/>
@@ -3346,10 +3403,10 @@
         <v>39</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="D41" s="4" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="E41" s="9">
         <f t="shared" si="5"/>
@@ -3410,10 +3467,10 @@
         <v>40</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="D42" s="4" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="E42" s="9">
         <f t="shared" si="5"/>
@@ -3438,10 +3495,10 @@
         <v>41</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="D43" s="4" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="E43" s="9">
         <f t="shared" si="5"/>
@@ -3452,23 +3509,23 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" s="3" customFormat="1" spans="1:33">
+    <row r="44" s="3" customFormat="1" spans="1:37">
       <c r="A44" s="3">
         <v>42</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="D44" s="4" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="E44" s="9">
         <f t="shared" si="5"/>
-        <v>21000</v>
+        <v>24000</v>
       </c>
       <c r="F44" s="9">
         <f t="shared" si="6"/>
-        <v>21840</v>
+        <v>24960</v>
       </c>
       <c r="H44" s="3">
         <v>3120</v>
@@ -3494,24 +3551,27 @@
       <c r="AG44" s="3">
         <v>3120</v>
       </c>
-    </row>
-    <row r="45" s="3" customFormat="1" spans="1:32">
+      <c r="AK44" s="3">
+        <v>3120</v>
+      </c>
+    </row>
+    <row r="45" s="3" customFormat="1" spans="1:37">
       <c r="A45" s="3">
         <v>43</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="D45" s="4" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="E45" s="9">
         <f t="shared" si="5"/>
-        <v>23000</v>
+        <v>26000</v>
       </c>
       <c r="F45" s="9">
         <f t="shared" si="6"/>
-        <v>23920</v>
+        <v>27040</v>
       </c>
       <c r="H45" s="3">
         <v>2080</v>
@@ -3535,6 +3595,9 @@
         <v>3120</v>
       </c>
       <c r="AF45" s="3">
+        <v>3120</v>
+      </c>
+      <c r="AK45" s="3">
         <v>3120</v>
       </c>
     </row>
@@ -3543,10 +3606,10 @@
         <v>44</v>
       </c>
       <c r="C46" s="3" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="D46" s="4" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="E46" s="9">
         <f t="shared" si="5"/>
@@ -3586,10 +3649,10 @@
         <v>45</v>
       </c>
       <c r="C47" s="3" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="D47" s="4" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="E47" s="9">
         <f t="shared" si="5"/>
@@ -3609,23 +3672,23 @@
         <v>2080</v>
       </c>
     </row>
-    <row r="48" s="3" customFormat="1" spans="1:32">
+    <row r="48" s="3" customFormat="1" spans="1:37">
       <c r="A48" s="3">
         <v>46</v>
       </c>
       <c r="C48" s="3" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="D48" s="4" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="E48" s="9">
         <f t="shared" si="5"/>
-        <v>17000</v>
+        <v>20000</v>
       </c>
       <c r="F48" s="9">
         <f t="shared" si="6"/>
-        <v>17680</v>
+        <v>20800</v>
       </c>
       <c r="O48" s="3">
         <v>2080</v>
@@ -3645,24 +3708,27 @@
       <c r="AF48" s="3">
         <v>3120</v>
       </c>
-    </row>
-    <row r="49" s="3" customFormat="1" spans="1:34">
+      <c r="AK48" s="3">
+        <v>3120</v>
+      </c>
+    </row>
+    <row r="49" s="3" customFormat="1" spans="1:37">
       <c r="A49" s="3">
         <v>47</v>
       </c>
       <c r="C49" s="3" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="D49" s="4" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="E49" s="9">
         <f t="shared" si="5"/>
-        <v>24000</v>
+        <v>27000</v>
       </c>
       <c r="F49" s="9">
         <f t="shared" si="6"/>
-        <v>24960</v>
+        <v>28080</v>
       </c>
       <c r="J49" s="3">
         <v>2080</v>
@@ -3691,24 +3757,27 @@
       <c r="AH49" s="3">
         <v>3120</v>
       </c>
-    </row>
-    <row r="50" s="3" customFormat="1" spans="1:27">
+      <c r="AK49" s="3">
+        <v>3120</v>
+      </c>
+    </row>
+    <row r="50" s="3" customFormat="1" spans="1:37">
       <c r="A50" s="3">
         <v>48</v>
       </c>
       <c r="C50" s="3" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="D50" s="4" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="E50" s="9">
         <f t="shared" si="5"/>
-        <v>9000</v>
+        <v>11000</v>
       </c>
       <c r="F50" s="9">
         <f t="shared" si="6"/>
-        <v>9360</v>
+        <v>11440</v>
       </c>
       <c r="J50" s="3">
         <v>1040</v>
@@ -3723,6 +3792,9 @@
         <v>2080</v>
       </c>
       <c r="AA50" s="3">
+        <v>2080</v>
+      </c>
+      <c r="AK50" s="3">
         <v>2080</v>
       </c>
     </row>
@@ -3731,10 +3803,10 @@
         <v>49</v>
       </c>
       <c r="C51" s="3" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="D51" s="4" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="E51" s="9">
         <f t="shared" si="5"/>
@@ -3765,10 +3837,10 @@
         <v>50</v>
       </c>
       <c r="C52" s="3" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="D52" s="4" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="E52" s="9">
         <f t="shared" si="5"/>
@@ -3812,10 +3884,10 @@
       </c>
       <c r="B53" s="10"/>
       <c r="C53" s="10" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="D53" s="11" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="E53" s="9">
         <f t="shared" si="5"/>
@@ -3841,23 +3913,23 @@
         <v>1040</v>
       </c>
     </row>
-    <row r="54" s="3" customFormat="1" spans="1:30">
+    <row r="54" s="3" customFormat="1" spans="1:37">
       <c r="A54" s="3">
         <v>52</v>
       </c>
       <c r="C54" s="3" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="D54" s="4" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="E54" s="9">
         <f t="shared" si="5"/>
-        <v>9000</v>
+        <v>11000</v>
       </c>
       <c r="F54" s="9">
         <f t="shared" si="6"/>
-        <v>9360</v>
+        <v>11440</v>
       </c>
       <c r="P54" s="3">
         <v>1040</v>
@@ -3872,6 +3944,9 @@
         <v>2080</v>
       </c>
       <c r="AD54" s="3">
+        <v>2080</v>
+      </c>
+      <c r="AK54" s="3">
         <v>2080</v>
       </c>
     </row>
@@ -3880,10 +3955,10 @@
         <v>53</v>
       </c>
       <c r="C55" s="3" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="D55" s="4" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="E55" s="9">
         <f t="shared" si="5"/>
@@ -3923,10 +3998,10 @@
         <v>54</v>
       </c>
       <c r="C56" s="3" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="D56" s="4" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="E56" s="9">
         <f t="shared" si="5"/>
@@ -3955,10 +4030,10 @@
       </c>
       <c r="B57" s="10"/>
       <c r="C57" s="4" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="D57" s="11" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="E57" s="9">
         <f t="shared" si="5"/>
@@ -3980,10 +4055,10 @@
         <v>56</v>
       </c>
       <c r="C58" s="3" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="D58" s="4" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="E58" s="9">
         <f t="shared" si="5"/>
@@ -4006,10 +4081,10 @@
       </c>
       <c r="B59" s="10"/>
       <c r="C59" s="3" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="D59" s="11" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="E59" s="9">
         <f t="shared" si="5"/>
@@ -4050,10 +4125,10 @@
       </c>
       <c r="B60" s="10"/>
       <c r="C60" s="3" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="D60" s="11" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="E60" s="9">
         <f t="shared" si="5"/>
@@ -4078,10 +4153,10 @@
         <v>59</v>
       </c>
       <c r="C61" s="3" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="D61" s="4" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="E61" s="9">
         <f t="shared" si="5"/>
@@ -4118,10 +4193,10 @@
         <v>60</v>
       </c>
       <c r="C62" s="3" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="D62" s="4" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="E62" s="9">
         <f t="shared" si="5"/>
@@ -4152,10 +4227,10 @@
         <v>61</v>
       </c>
       <c r="C63" s="3" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="D63" s="4" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="E63" s="9">
         <f t="shared" si="5"/>
@@ -4183,10 +4258,10 @@
         <v>62</v>
       </c>
       <c r="C64" s="3" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="D64" s="4" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="E64" s="9">
         <f t="shared" si="5"/>
@@ -4211,10 +4286,10 @@
         <v>63</v>
       </c>
       <c r="C65" s="3" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="D65" s="4" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="E65" s="9">
         <f t="shared" si="5"/>
@@ -4257,10 +4332,10 @@
         <v>64</v>
       </c>
       <c r="C66" s="3" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="D66" s="4" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="E66" s="9">
         <f t="shared" si="5"/>
@@ -4310,10 +4385,10 @@
       </c>
       <c r="B67" s="10"/>
       <c r="C67" s="4" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="D67" s="11" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="E67" s="9">
         <f t="shared" si="5"/>
@@ -4339,10 +4414,10 @@
       </c>
       <c r="B68" s="10"/>
       <c r="C68" s="10" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="D68" s="11" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="E68" s="9">
         <f t="shared" si="5"/>
@@ -4364,10 +4439,10 @@
         <v>67</v>
       </c>
       <c r="C69" s="3" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="D69" s="4" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="E69" s="9">
         <f t="shared" si="5"/>
@@ -4404,10 +4479,10 @@
         <v>68</v>
       </c>
       <c r="C70" s="3" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="D70" s="4" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="E70" s="9">
         <f t="shared" si="5"/>
@@ -4453,10 +4528,10 @@
         <v>69</v>
       </c>
       <c r="C71" s="3" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="D71" s="4" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="E71" s="9">
         <f t="shared" si="5"/>
@@ -4507,7 +4582,7 @@
       <c r="B72" s="10"/>
       <c r="C72" s="10"/>
       <c r="D72" s="11" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="E72" s="9">
         <f t="shared" si="5"/>
@@ -4561,29 +4636,32 @@
         <v>3120</v>
       </c>
     </row>
-    <row r="73" s="3" customFormat="1" spans="1:28">
+    <row r="73" s="3" customFormat="1" spans="1:37">
       <c r="A73" s="3">
         <v>71</v>
       </c>
       <c r="B73" s="10"/>
       <c r="C73" s="4" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="D73" s="11" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="E73" s="9">
         <f t="shared" si="5"/>
-        <v>4000</v>
+        <v>6000</v>
       </c>
       <c r="F73" s="9">
         <f t="shared" si="6"/>
-        <v>4160</v>
+        <v>6240</v>
       </c>
       <c r="Q73" s="3">
         <v>2080</v>
       </c>
       <c r="AB73" s="12">
+        <v>2080</v>
+      </c>
+      <c r="AK73" s="12">
         <v>2080</v>
       </c>
     </row>
@@ -4594,7 +4672,7 @@
       <c r="B74" s="10"/>
       <c r="C74" s="4"/>
       <c r="D74" s="11" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="E74" s="9">
         <f t="shared" ref="E69:E94" si="7">F74/1.04</f>
@@ -4611,10 +4689,10 @@
       </c>
       <c r="B75" s="10"/>
       <c r="C75" s="4" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="D75" s="11" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="E75" s="9">
         <f t="shared" si="7"/>
@@ -4635,7 +4713,7 @@
       <c r="B76" s="10"/>
       <c r="C76" s="4"/>
       <c r="D76" s="11" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="E76" s="9">
         <f t="shared" si="7"/>
@@ -4665,7 +4743,7 @@
       <c r="B77" s="10"/>
       <c r="C77" s="4"/>
       <c r="D77" s="11" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="E77" s="9">
         <f t="shared" si="7"/>
@@ -4686,7 +4764,7 @@
       <c r="B78" s="10"/>
       <c r="C78" s="4"/>
       <c r="D78" s="11" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="E78" s="9">
         <f t="shared" si="7"/>
@@ -4704,7 +4782,7 @@
       <c r="B79" s="10"/>
       <c r="C79" s="4"/>
       <c r="D79" s="11" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="E79" s="9">
         <f t="shared" si="7"/>
@@ -4722,7 +4800,7 @@
       <c r="B80" s="10"/>
       <c r="C80" s="4"/>
       <c r="D80" s="11" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="E80" s="9">
         <f t="shared" si="7"/>
@@ -4740,7 +4818,7 @@
       <c r="B81" s="10"/>
       <c r="C81" s="4"/>
       <c r="D81" s="11" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="E81" s="9">
         <f t="shared" si="7"/>
@@ -4775,10 +4853,10 @@
       </c>
       <c r="B82" s="10"/>
       <c r="C82" s="4" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="D82" s="11" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="E82" s="9">
         <f t="shared" si="7"/>
@@ -4808,7 +4886,7 @@
       <c r="B83" s="10"/>
       <c r="C83" s="4"/>
       <c r="D83" s="11" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="E83" s="9">
         <f t="shared" si="7"/>
@@ -4826,7 +4904,7 @@
       <c r="B84" s="10"/>
       <c r="C84" s="4"/>
       <c r="D84" s="11" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="E84" s="9">
         <f t="shared" si="7"/>
@@ -4854,10 +4932,10 @@
       </c>
       <c r="B85" s="10"/>
       <c r="C85" s="4" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="D85" s="11" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="E85" s="9">
         <f t="shared" si="7"/>
@@ -4897,7 +4975,7 @@
       <c r="B86" s="10"/>
       <c r="C86" s="4"/>
       <c r="D86" s="11" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="E86" s="9">
         <f t="shared" si="7"/>
@@ -4930,7 +5008,7 @@
       </c>
       <c r="C87" s="4"/>
       <c r="D87" s="4" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="E87" s="9">
         <f t="shared" si="7"/>
@@ -4947,7 +5025,7 @@
       </c>
       <c r="C88" s="4"/>
       <c r="D88" s="4" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="E88" s="9">
         <f t="shared" si="7"/>
@@ -4964,7 +5042,7 @@
       </c>
       <c r="C89" s="4"/>
       <c r="D89" s="4" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="E89" s="9">
         <f t="shared" si="7"/>
@@ -4981,7 +5059,7 @@
       </c>
       <c r="C90" s="4"/>
       <c r="D90" s="4" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="E90" s="9">
         <f t="shared" si="7"/>
@@ -4998,7 +5076,7 @@
       </c>
       <c r="C91" s="4"/>
       <c r="D91" s="4" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="E91" s="9">
         <f t="shared" si="7"/>
@@ -5015,7 +5093,7 @@
       </c>
       <c r="C92" s="4"/>
       <c r="D92" s="4" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="E92" s="9">
         <f t="shared" si="7"/>
@@ -5032,7 +5110,7 @@
       </c>
       <c r="C93" s="4"/>
       <c r="D93" s="4" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="E93" s="9">
         <f t="shared" si="7"/>
@@ -5049,7 +5127,7 @@
       </c>
       <c r="C94" s="4"/>
       <c r="D94" s="3" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="E94" s="9">
         <f t="shared" si="7"/>

--- a/Daily Orders/December-2020-RetailerWiseOrder.xlsx
+++ b/Daily Orders/December-2020-RetailerWiseOrder.xlsx
@@ -528,11 +528,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="[$-409]d\-mmm;@"/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="[$-409]d\-mmm;@"/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -552,15 +552,22 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -574,14 +581,55 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -597,33 +645,16 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -636,9 +667,9 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -647,37 +678,6 @@
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -745,19 +745,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -769,13 +763,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -793,7 +841,79 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -805,127 +925,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -941,6 +941,17 @@
     <border>
       <left/>
       <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
@@ -948,13 +959,56 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -978,61 +1032,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1041,15 +1041,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
@@ -1059,130 +1059,130 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="21" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="24" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1202,7 +1202,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1557,11 +1557,11 @@
   <dimension ref="A1:AK94"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="6" ySplit="2" topLeftCell="AF29" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="6" ySplit="2" topLeftCell="AF38" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="AK49" sqref="AK49"/>
+      <selection pane="bottomRight" activeCell="AL58" sqref="AL58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15"/>
@@ -4068,7 +4068,7 @@
         <f t="shared" si="6"/>
         <v>9360</v>
       </c>
-      <c r="P58" s="3">
+      <c r="P58" s="12">
         <v>4160</v>
       </c>
       <c r="AC58" s="12">
